--- a/Участок ремонта форм/Формокомплекты/Карты замеров/Банка/Банка 0,45 л..xlsx
+++ b/Участок ремонта форм/Формокомплекты/Карты замеров/Банка/Банка 0,45 л..xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Гавриленко А.Д\Работа\Участок ремонта форм\Формокомплекты\Карты замеров\Банка\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7C3F4F84-7FBC-4843-B813-9437CF33CDEB}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B856D78F-E7F2-434A-8AD0-DD5FF4BD131A}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -53,7 +53,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="542" uniqueCount="150">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="544" uniqueCount="151">
   <si>
     <t>+ Tol.</t>
   </si>
@@ -481,30 +481,6 @@
     <t xml:space="preserve">Полная высота </t>
   </si>
   <si>
-    <r>
-      <t xml:space="preserve">Вес, гр. (ном. </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Arial Cyr"/>
-        <charset val="204"/>
-      </rPr>
-      <t>400</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <rFont val="Arial Cyr"/>
-        <charset val="204"/>
-      </rPr>
-      <t xml:space="preserve"> гр.)</t>
-    </r>
-  </si>
-  <si>
     <t xml:space="preserve"> (владелец ООО "ВЕДАТРАНЗИТ" Дог. аренды имущества №3 от 23.01.2019 г.)</t>
   </si>
   <si>
@@ -524,6 +500,12 @@
   </si>
   <si>
     <t>Сопряжение с финишным кольцом</t>
+  </si>
+  <si>
+    <t>стоит</t>
+  </si>
+  <si>
+    <t>Вес, гр. (ном. 250 гр.)</t>
   </si>
 </sst>
 </file>
@@ -2215,7 +2197,7 @@
     <xf numFmtId="164" fontId="41" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="41" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="655">
+  <cellXfs count="656">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="justify" shrinkToFit="1"/>
@@ -3463,9 +3445,6 @@
     <xf numFmtId="14" fontId="0" fillId="0" borderId="35" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="35" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="35" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="91" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -3627,22 +3606,19 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="78" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="61" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="65" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="65" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="32" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="65" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="97" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="98" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="46" fillId="11" borderId="62" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="46" fillId="12" borderId="62" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="17" fillId="0" borderId="35" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="17" fillId="0" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
@@ -4094,10 +4070,19 @@
     <xf numFmtId="0" fontId="9" fillId="7" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="3" fontId="46" fillId="11" borderId="62" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="46" fillId="12" borderId="62" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="61" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="65" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="65" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="32" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="65" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="97" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="98" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -6705,25 +6690,25 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="503" t="s">
+      <c r="A1" s="499" t="s">
         <v>81</v>
       </c>
-      <c r="B1" s="507"/>
-      <c r="C1" s="507"/>
-      <c r="D1" s="507"/>
-      <c r="E1" s="507"/>
+      <c r="B1" s="503"/>
+      <c r="C1" s="503"/>
+      <c r="D1" s="503"/>
+      <c r="E1" s="503"/>
       <c r="G1" s="363" t="s">
         <v>80</v>
       </c>
     </row>
     <row r="2" spans="1:11" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="504" t="s">
-        <v>146</v>
-      </c>
-      <c r="B2" s="505"/>
-      <c r="C2" s="505"/>
-      <c r="D2" s="505"/>
-      <c r="E2" s="506"/>
+      <c r="A2" s="500" t="s">
+        <v>145</v>
+      </c>
+      <c r="B2" s="501"/>
+      <c r="C2" s="501"/>
+      <c r="D2" s="501"/>
+      <c r="E2" s="502"/>
       <c r="G2" s="362" t="s">
         <v>78</v>
       </c>
@@ -6734,45 +6719,45 @@
       </c>
     </row>
     <row r="4" spans="1:11" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="508" t="s">
+      <c r="A4" s="504" t="s">
         <v>82</v>
       </c>
-      <c r="B4" s="509"/>
-      <c r="C4" s="509"/>
-      <c r="D4" s="509"/>
-      <c r="E4" s="509"/>
+      <c r="B4" s="505"/>
+      <c r="C4" s="505"/>
+      <c r="D4" s="505"/>
+      <c r="E4" s="505"/>
     </row>
     <row r="5" spans="1:11" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="510" t="s">
+      <c r="A5" s="506" t="s">
         <v>86</v>
       </c>
-      <c r="B5" s="511"/>
-      <c r="C5" s="511"/>
-      <c r="D5" s="511"/>
-      <c r="E5" s="512"/>
+      <c r="B5" s="507"/>
+      <c r="C5" s="507"/>
+      <c r="D5" s="507"/>
+      <c r="E5" s="508"/>
     </row>
     <row r="6" spans="1:11" ht="13.5" thickTop="1" x14ac:dyDescent="0.2"/>
     <row r="7" spans="1:11" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="503" t="s">
+      <c r="A7" s="499" t="s">
         <v>83</v>
       </c>
-      <c r="B7" s="507"/>
-      <c r="C7" s="507"/>
-      <c r="D7" s="507"/>
-      <c r="E7" s="507"/>
+      <c r="B7" s="503"/>
+      <c r="C7" s="503"/>
+      <c r="D7" s="503"/>
+      <c r="E7" s="503"/>
     </row>
     <row r="8" spans="1:11" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="513"/>
-      <c r="B8" s="514"/>
-      <c r="C8" s="514"/>
-      <c r="D8" s="514"/>
-      <c r="E8" s="515"/>
+      <c r="A8" s="509"/>
+      <c r="B8" s="510"/>
+      <c r="C8" s="510"/>
+      <c r="D8" s="510"/>
+      <c r="E8" s="511"/>
     </row>
     <row r="10" spans="1:11" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="503" t="s">
+      <c r="A10" s="499" t="s">
         <v>84</v>
       </c>
-      <c r="B10" s="503"/>
+      <c r="B10" s="499"/>
       <c r="C10" s="364"/>
       <c r="D10" s="370" t="s">
         <v>92</v>
@@ -6783,33 +6768,33 @@
       </c>
     </row>
     <row r="11" spans="1:11" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="501"/>
-      <c r="B11" s="502"/>
+      <c r="A11" s="497"/>
+      <c r="B11" s="498"/>
       <c r="D11" s="369">
         <v>43959</v>
       </c>
-      <c r="F11" s="498" t="s">
+      <c r="F11" s="494" t="s">
         <v>95</v>
       </c>
-      <c r="G11" s="498"/>
-      <c r="H11" s="498"/>
-      <c r="I11" s="498"/>
-      <c r="J11" s="499" t="s">
+      <c r="G11" s="494"/>
+      <c r="H11" s="494"/>
+      <c r="I11" s="494"/>
+      <c r="J11" s="495" t="s">
         <v>97</v>
       </c>
-      <c r="K11" s="499"/>
+      <c r="K11" s="495"/>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="F12" s="498" t="s">
+      <c r="F12" s="494" t="s">
         <v>85</v>
       </c>
-      <c r="G12" s="498"/>
-      <c r="H12" s="498"/>
-      <c r="I12" s="498"/>
-      <c r="J12" s="499" t="s">
+      <c r="G12" s="494"/>
+      <c r="H12" s="494"/>
+      <c r="I12" s="494"/>
+      <c r="J12" s="495" t="s">
         <v>98</v>
       </c>
-      <c r="K12" s="499"/>
+      <c r="K12" s="495"/>
     </row>
     <row r="13" spans="1:11" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A13" s="374" t="s">
@@ -6824,19 +6809,19 @@
       <c r="D13" s="374" t="s">
         <v>132</v>
       </c>
-      <c r="E13" s="472" t="s">
+      <c r="E13" s="471" t="s">
         <v>133</v>
       </c>
-      <c r="F13" s="498" t="s">
+      <c r="F13" s="494" t="s">
         <v>96</v>
       </c>
-      <c r="G13" s="498"/>
-      <c r="H13" s="498"/>
-      <c r="I13" s="498"/>
-      <c r="J13" s="499" t="s">
+      <c r="G13" s="494"/>
+      <c r="H13" s="494"/>
+      <c r="I13" s="494"/>
+      <c r="J13" s="495" t="s">
         <v>99</v>
       </c>
-      <c r="K13" s="499"/>
+      <c r="K13" s="495"/>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A14" s="365" t="s">
@@ -6846,7 +6831,7 @@
         <v>24</v>
       </c>
       <c r="C14" s="372" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="D14" s="366">
         <v>32.5</v>
@@ -6864,7 +6849,7 @@
         <v>24</v>
       </c>
       <c r="C15" s="372" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="D15" s="366">
         <v>3</v>
@@ -6882,7 +6867,7 @@
         <v>32</v>
       </c>
       <c r="C16" s="372" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="D16" s="366">
         <v>34.200000000000003</v>
@@ -6900,7 +6885,7 @@
         <v>32</v>
       </c>
       <c r="C17" s="372" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="D17" s="366">
         <v>1.3</v>
@@ -6918,7 +6903,7 @@
         <v>80</v>
       </c>
       <c r="C18" s="372" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="D18" s="366">
         <v>1.29</v>
@@ -6936,7 +6921,7 @@
         <v>150</v>
       </c>
       <c r="C19" s="372" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="D19" s="366">
         <v>0.3</v>
@@ -6954,7 +6939,7 @@
         <v>60</v>
       </c>
       <c r="C20" s="372" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="D20" s="366">
         <v>0.5</v>
@@ -6988,7 +6973,7 @@
         <v>18</v>
       </c>
       <c r="C22" s="372" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="D22" s="366"/>
       <c r="E22" s="366">
@@ -7020,7 +7005,7 @@
         <v>8</v>
       </c>
       <c r="C24" s="372" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="D24" s="366">
         <v>3</v>
@@ -7038,7 +7023,7 @@
         <v>30</v>
       </c>
       <c r="C25" s="372" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="D25" s="366"/>
       <c r="E25" s="366">
@@ -7054,7 +7039,7 @@
         <v>0</v>
       </c>
       <c r="C26" s="372" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="D26" s="366">
         <v>1.5</v>
@@ -7071,8 +7056,8 @@
       <c r="B27" s="373">
         <v>0</v>
       </c>
-      <c r="C27" s="497" t="s">
-        <v>147</v>
+      <c r="C27" s="489" t="s">
+        <v>146</v>
       </c>
       <c r="D27" s="366"/>
       <c r="E27" s="366"/>
@@ -7093,15 +7078,15 @@
       </c>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A29" s="500" t="s">
+      <c r="A29" s="496" t="s">
         <v>105</v>
       </c>
-      <c r="B29" s="500"/>
-      <c r="C29" s="500"/>
+      <c r="B29" s="496"/>
+      <c r="C29" s="496"/>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A30" s="363" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
     </row>
   </sheetData>
@@ -7174,47 +7159,47 @@
     </row>
     <row r="2" spans="1:19" ht="23.25" x14ac:dyDescent="0.2">
       <c r="A2" s="163"/>
-      <c r="B2" s="607"/>
-      <c r="C2" s="608"/>
-      <c r="D2" s="609"/>
-      <c r="E2" s="616" t="s">
+      <c r="B2" s="603"/>
+      <c r="C2" s="604"/>
+      <c r="D2" s="605"/>
+      <c r="E2" s="612" t="s">
         <v>10</v>
       </c>
-      <c r="F2" s="617"/>
-      <c r="G2" s="617"/>
-      <c r="H2" s="618"/>
-      <c r="I2" s="622" t="s">
+      <c r="F2" s="613"/>
+      <c r="G2" s="613"/>
+      <c r="H2" s="614"/>
+      <c r="I2" s="618" t="s">
         <v>11</v>
       </c>
-      <c r="J2" s="623"/>
-      <c r="K2" s="626">
+      <c r="J2" s="619"/>
+      <c r="K2" s="622">
         <f>Данные!B20</f>
         <v>60</v>
       </c>
-      <c r="L2" s="627"/>
+      <c r="L2" s="623"/>
       <c r="M2" s="164"/>
       <c r="N2" s="165"/>
       <c r="O2" s="166"/>
-      <c r="P2" s="642"/>
-      <c r="Q2" s="642"/>
+      <c r="P2" s="638"/>
+      <c r="Q2" s="638"/>
       <c r="R2" s="167"/>
       <c r="S2" s="168"/>
     </row>
     <row r="3" spans="1:19" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A3" s="163"/>
-      <c r="B3" s="610"/>
-      <c r="C3" s="611"/>
-      <c r="D3" s="612"/>
-      <c r="E3" s="619" t="s">
+      <c r="B3" s="606"/>
+      <c r="C3" s="607"/>
+      <c r="D3" s="608"/>
+      <c r="E3" s="615" t="s">
         <v>51</v>
       </c>
-      <c r="F3" s="620"/>
-      <c r="G3" s="620"/>
-      <c r="H3" s="621"/>
-      <c r="I3" s="624"/>
-      <c r="J3" s="625"/>
-      <c r="K3" s="628"/>
-      <c r="L3" s="629"/>
+      <c r="F3" s="616"/>
+      <c r="G3" s="616"/>
+      <c r="H3" s="617"/>
+      <c r="I3" s="620"/>
+      <c r="J3" s="621"/>
+      <c r="K3" s="624"/>
+      <c r="L3" s="625"/>
       <c r="M3" s="169"/>
       <c r="N3" s="170"/>
       <c r="O3" s="170"/>
@@ -7225,9 +7210,9 @@
     </row>
     <row r="4" spans="1:19" ht="17.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A4" s="163"/>
-      <c r="B4" s="613"/>
-      <c r="C4" s="614"/>
-      <c r="D4" s="615"/>
+      <c r="B4" s="609"/>
+      <c r="C4" s="610"/>
+      <c r="D4" s="611"/>
       <c r="E4" s="243"/>
       <c r="F4" s="243"/>
       <c r="G4" s="243"/>
@@ -7246,22 +7231,22 @@
     </row>
     <row r="5" spans="1:19" ht="24.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A5" s="163"/>
-      <c r="B5" s="586" t="s">
+      <c r="B5" s="582" t="s">
         <v>13</v>
       </c>
-      <c r="C5" s="601"/>
-      <c r="D5" s="510" t="str">
+      <c r="C5" s="597"/>
+      <c r="D5" s="506" t="str">
         <f>Данные!$A5</f>
         <v>PCI</v>
       </c>
-      <c r="E5" s="511"/>
-      <c r="F5" s="511"/>
-      <c r="G5" s="511"/>
-      <c r="H5" s="512"/>
-      <c r="I5" s="602"/>
-      <c r="J5" s="603"/>
-      <c r="K5" s="604"/>
-      <c r="L5" s="512"/>
+      <c r="E5" s="507"/>
+      <c r="F5" s="507"/>
+      <c r="G5" s="507"/>
+      <c r="H5" s="508"/>
+      <c r="I5" s="598"/>
+      <c r="J5" s="599"/>
+      <c r="K5" s="600"/>
+      <c r="L5" s="508"/>
       <c r="M5" s="172"/>
       <c r="N5" s="170"/>
       <c r="O5" s="170"/>
@@ -7272,22 +7257,22 @@
     </row>
     <row r="6" spans="1:19" ht="17.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A6" s="163"/>
-      <c r="B6" s="586" t="s">
+      <c r="B6" s="582" t="s">
         <v>12</v>
       </c>
-      <c r="C6" s="601"/>
-      <c r="D6" s="504" t="str">
+      <c r="C6" s="597"/>
+      <c r="D6" s="500" t="str">
         <f>Данные!$A2</f>
         <v>III-2-82-450-1 (Банка 0,45 л.)</v>
       </c>
-      <c r="E6" s="591"/>
-      <c r="F6" s="591"/>
-      <c r="G6" s="591"/>
-      <c r="H6" s="592"/>
-      <c r="I6" s="602"/>
-      <c r="J6" s="603"/>
-      <c r="K6" s="604"/>
-      <c r="L6" s="512"/>
+      <c r="E6" s="587"/>
+      <c r="F6" s="587"/>
+      <c r="G6" s="587"/>
+      <c r="H6" s="588"/>
+      <c r="I6" s="598"/>
+      <c r="J6" s="599"/>
+      <c r="K6" s="600"/>
+      <c r="L6" s="508"/>
       <c r="M6" s="169"/>
       <c r="N6" s="170"/>
       <c r="O6" s="170"/>
@@ -7298,27 +7283,27 @@
     </row>
     <row r="7" spans="1:19" ht="66" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A7" s="163"/>
-      <c r="B7" s="596" t="s">
+      <c r="B7" s="592" t="s">
         <v>14</v>
       </c>
-      <c r="C7" s="605"/>
-      <c r="D7" s="513">
+      <c r="C7" s="601"/>
+      <c r="D7" s="509">
         <f>Данные!$A8</f>
         <v>0</v>
       </c>
-      <c r="E7" s="598"/>
-      <c r="F7" s="598"/>
-      <c r="G7" s="598"/>
-      <c r="H7" s="599"/>
-      <c r="I7" s="606" t="s">
+      <c r="E7" s="594"/>
+      <c r="F7" s="594"/>
+      <c r="G7" s="594"/>
+      <c r="H7" s="595"/>
+      <c r="I7" s="602" t="s">
         <v>15</v>
       </c>
-      <c r="J7" s="605"/>
-      <c r="K7" s="501">
+      <c r="J7" s="601"/>
+      <c r="K7" s="497">
         <f>Данные!$A11</f>
         <v>0</v>
       </c>
-      <c r="L7" s="502"/>
+      <c r="L7" s="498"/>
       <c r="M7" s="172"/>
       <c r="N7" s="170"/>
       <c r="O7" s="170"/>
@@ -7616,7 +7601,7 @@
         <v>16</v>
       </c>
       <c r="G17" s="59" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="H17" s="185"/>
       <c r="I17" s="185"/>
@@ -7685,25 +7670,25 @@
     </row>
     <row r="20" spans="1:19" ht="13.5" thickTop="1" x14ac:dyDescent="0.2"/>
     <row r="21" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="L21" s="633" t="s">
+      <c r="L21" s="629" t="s">
         <v>135</v>
       </c>
-      <c r="M21" s="633"/>
-      <c r="N21" s="633"/>
-      <c r="O21" s="473"/>
-      <c r="P21" s="473"/>
-      <c r="Q21" s="489"/>
-      <c r="R21" s="489"/>
+      <c r="M21" s="629"/>
+      <c r="N21" s="629"/>
+      <c r="O21" s="472"/>
+      <c r="P21" s="472"/>
+      <c r="Q21" s="488"/>
+      <c r="R21" s="488"/>
     </row>
     <row r="22" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="O22" s="555" t="s">
+      <c r="O22" s="551" t="s">
         <v>139</v>
       </c>
-      <c r="P22" s="555"/>
-      <c r="Q22" s="556" t="s">
+      <c r="P22" s="551"/>
+      <c r="Q22" s="552" t="s">
         <v>140</v>
       </c>
-      <c r="R22" s="557"/>
+      <c r="R22" s="553"/>
     </row>
   </sheetData>
   <mergeCells count="21">
@@ -7793,47 +7778,47 @@
     </row>
     <row r="2" spans="1:19" ht="23.25" x14ac:dyDescent="0.2">
       <c r="A2" s="202"/>
-      <c r="B2" s="607"/>
-      <c r="C2" s="608"/>
-      <c r="D2" s="609"/>
-      <c r="E2" s="616" t="s">
+      <c r="B2" s="603"/>
+      <c r="C2" s="604"/>
+      <c r="D2" s="605"/>
+      <c r="E2" s="612" t="s">
         <v>10</v>
       </c>
-      <c r="F2" s="617"/>
-      <c r="G2" s="617"/>
-      <c r="H2" s="618"/>
-      <c r="I2" s="622" t="s">
+      <c r="F2" s="613"/>
+      <c r="G2" s="613"/>
+      <c r="H2" s="614"/>
+      <c r="I2" s="618" t="s">
         <v>11</v>
       </c>
-      <c r="J2" s="623"/>
-      <c r="K2" s="626">
+      <c r="J2" s="619"/>
+      <c r="K2" s="622">
         <f>Данные!B25</f>
         <v>30</v>
       </c>
-      <c r="L2" s="627"/>
+      <c r="L2" s="623"/>
       <c r="M2" s="203"/>
       <c r="N2" s="204"/>
       <c r="O2" s="205"/>
-      <c r="P2" s="643"/>
-      <c r="Q2" s="643"/>
+      <c r="P2" s="639"/>
+      <c r="Q2" s="639"/>
       <c r="R2" s="206"/>
       <c r="S2" s="207"/>
     </row>
     <row r="3" spans="1:19" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A3" s="202"/>
-      <c r="B3" s="610"/>
-      <c r="C3" s="611"/>
-      <c r="D3" s="612"/>
-      <c r="E3" s="619" t="s">
+      <c r="B3" s="606"/>
+      <c r="C3" s="607"/>
+      <c r="D3" s="608"/>
+      <c r="E3" s="615" t="s">
         <v>91</v>
       </c>
-      <c r="F3" s="620"/>
-      <c r="G3" s="620"/>
-      <c r="H3" s="621"/>
-      <c r="I3" s="624"/>
-      <c r="J3" s="625"/>
-      <c r="K3" s="628"/>
-      <c r="L3" s="629"/>
+      <c r="F3" s="616"/>
+      <c r="G3" s="616"/>
+      <c r="H3" s="617"/>
+      <c r="I3" s="620"/>
+      <c r="J3" s="621"/>
+      <c r="K3" s="624"/>
+      <c r="L3" s="625"/>
       <c r="M3" s="208"/>
       <c r="N3" s="209"/>
       <c r="O3" s="209"/>
@@ -7844,9 +7829,9 @@
     </row>
     <row r="4" spans="1:19" ht="17.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A4" s="202"/>
-      <c r="B4" s="613"/>
-      <c r="C4" s="614"/>
-      <c r="D4" s="615"/>
+      <c r="B4" s="609"/>
+      <c r="C4" s="610"/>
+      <c r="D4" s="611"/>
       <c r="E4" s="243"/>
       <c r="F4" s="243"/>
       <c r="G4" s="243"/>
@@ -7865,22 +7850,22 @@
     </row>
     <row r="5" spans="1:19" ht="24.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A5" s="202"/>
-      <c r="B5" s="586" t="s">
+      <c r="B5" s="582" t="s">
         <v>13</v>
       </c>
-      <c r="C5" s="601"/>
-      <c r="D5" s="510" t="str">
+      <c r="C5" s="597"/>
+      <c r="D5" s="506" t="str">
         <f>Данные!$A5</f>
         <v>PCI</v>
       </c>
-      <c r="E5" s="511"/>
-      <c r="F5" s="511"/>
-      <c r="G5" s="511"/>
-      <c r="H5" s="512"/>
-      <c r="I5" s="602"/>
-      <c r="J5" s="603"/>
-      <c r="K5" s="604"/>
-      <c r="L5" s="512"/>
+      <c r="E5" s="507"/>
+      <c r="F5" s="507"/>
+      <c r="G5" s="507"/>
+      <c r="H5" s="508"/>
+      <c r="I5" s="598"/>
+      <c r="J5" s="599"/>
+      <c r="K5" s="600"/>
+      <c r="L5" s="508"/>
       <c r="M5" s="211"/>
       <c r="N5" s="209"/>
       <c r="O5" s="209"/>
@@ -7891,22 +7876,22 @@
     </row>
     <row r="6" spans="1:19" ht="17.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A6" s="202"/>
-      <c r="B6" s="586" t="s">
+      <c r="B6" s="582" t="s">
         <v>12</v>
       </c>
-      <c r="C6" s="601"/>
-      <c r="D6" s="504" t="str">
+      <c r="C6" s="597"/>
+      <c r="D6" s="500" t="str">
         <f>Данные!$A2</f>
         <v>III-2-82-450-1 (Банка 0,45 л.)</v>
       </c>
-      <c r="E6" s="591"/>
-      <c r="F6" s="591"/>
-      <c r="G6" s="591"/>
-      <c r="H6" s="592"/>
-      <c r="I6" s="602"/>
-      <c r="J6" s="603"/>
-      <c r="K6" s="604"/>
-      <c r="L6" s="512"/>
+      <c r="E6" s="587"/>
+      <c r="F6" s="587"/>
+      <c r="G6" s="587"/>
+      <c r="H6" s="588"/>
+      <c r="I6" s="598"/>
+      <c r="J6" s="599"/>
+      <c r="K6" s="600"/>
+      <c r="L6" s="508"/>
       <c r="M6" s="208"/>
       <c r="N6" s="209"/>
       <c r="O6" s="209"/>
@@ -7917,27 +7902,27 @@
     </row>
     <row r="7" spans="1:19" ht="69.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A7" s="202"/>
-      <c r="B7" s="596" t="s">
+      <c r="B7" s="592" t="s">
         <v>14</v>
       </c>
-      <c r="C7" s="605"/>
-      <c r="D7" s="513">
+      <c r="C7" s="601"/>
+      <c r="D7" s="509">
         <f>Данные!$A8</f>
         <v>0</v>
       </c>
-      <c r="E7" s="598"/>
-      <c r="F7" s="598"/>
-      <c r="G7" s="598"/>
-      <c r="H7" s="599"/>
-      <c r="I7" s="606" t="s">
+      <c r="E7" s="594"/>
+      <c r="F7" s="594"/>
+      <c r="G7" s="594"/>
+      <c r="H7" s="595"/>
+      <c r="I7" s="602" t="s">
         <v>15</v>
       </c>
-      <c r="J7" s="605"/>
-      <c r="K7" s="501">
+      <c r="J7" s="601"/>
+      <c r="K7" s="497">
         <f>Данные!$A11</f>
         <v>0</v>
       </c>
-      <c r="L7" s="502"/>
+      <c r="L7" s="498"/>
       <c r="M7" s="211"/>
       <c r="N7" s="209"/>
       <c r="O7" s="209"/>
@@ -8250,12 +8235,12 @@
     </row>
     <row r="18" spans="1:19" ht="24.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A18" s="212"/>
-      <c r="B18" s="644" t="s">
+      <c r="B18" s="640" t="s">
         <v>53</v>
       </c>
-      <c r="C18" s="645"/>
-      <c r="D18" s="645"/>
-      <c r="E18" s="646"/>
+      <c r="C18" s="641"/>
+      <c r="D18" s="641"/>
+      <c r="E18" s="642"/>
       <c r="F18" s="114" t="s">
         <v>16</v>
       </c>
@@ -8298,25 +8283,25 @@
     </row>
     <row r="20" spans="1:19" ht="13.5" thickTop="1" x14ac:dyDescent="0.2"/>
     <row r="21" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="L21" s="633" t="s">
+      <c r="L21" s="629" t="s">
         <v>135</v>
       </c>
-      <c r="M21" s="633"/>
-      <c r="N21" s="633"/>
-      <c r="O21" s="473"/>
-      <c r="P21" s="473"/>
-      <c r="Q21" s="489"/>
-      <c r="R21" s="489"/>
+      <c r="M21" s="629"/>
+      <c r="N21" s="629"/>
+      <c r="O21" s="472"/>
+      <c r="P21" s="472"/>
+      <c r="Q21" s="488"/>
+      <c r="R21" s="488"/>
     </row>
     <row r="22" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="O22" s="555" t="s">
+      <c r="O22" s="551" t="s">
         <v>139</v>
       </c>
-      <c r="P22" s="555"/>
-      <c r="Q22" s="556" t="s">
+      <c r="P22" s="551"/>
+      <c r="Q22" s="552" t="s">
         <v>140</v>
       </c>
-      <c r="R22" s="557"/>
+      <c r="R22" s="553"/>
     </row>
   </sheetData>
   <mergeCells count="22">
@@ -8416,47 +8401,47 @@
     </row>
     <row r="2" spans="1:19" ht="23.25" x14ac:dyDescent="0.2">
       <c r="A2" s="130"/>
-      <c r="B2" s="607"/>
-      <c r="C2" s="608"/>
-      <c r="D2" s="609"/>
-      <c r="E2" s="616" t="s">
+      <c r="B2" s="603"/>
+      <c r="C2" s="604"/>
+      <c r="D2" s="605"/>
+      <c r="E2" s="612" t="s">
         <v>10</v>
       </c>
-      <c r="F2" s="617"/>
-      <c r="G2" s="617"/>
-      <c r="H2" s="618"/>
-      <c r="I2" s="622" t="s">
+      <c r="F2" s="613"/>
+      <c r="G2" s="613"/>
+      <c r="H2" s="614"/>
+      <c r="I2" s="618" t="s">
         <v>11</v>
       </c>
-      <c r="J2" s="623"/>
-      <c r="K2" s="626">
+      <c r="J2" s="619"/>
+      <c r="K2" s="622">
         <f>Данные!B26</f>
         <v>0</v>
       </c>
-      <c r="L2" s="627"/>
+      <c r="L2" s="623"/>
       <c r="M2" s="131"/>
       <c r="N2" s="132"/>
       <c r="O2" s="133"/>
-      <c r="P2" s="647"/>
-      <c r="Q2" s="647"/>
+      <c r="P2" s="643"/>
+      <c r="Q2" s="643"/>
       <c r="R2" s="134"/>
       <c r="S2" s="135"/>
     </row>
     <row r="3" spans="1:19" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A3" s="130"/>
-      <c r="B3" s="610"/>
-      <c r="C3" s="611"/>
-      <c r="D3" s="612"/>
-      <c r="E3" s="619" t="s">
+      <c r="B3" s="606"/>
+      <c r="C3" s="607"/>
+      <c r="D3" s="608"/>
+      <c r="E3" s="615" t="s">
         <v>54</v>
       </c>
-      <c r="F3" s="620"/>
-      <c r="G3" s="620"/>
-      <c r="H3" s="621"/>
-      <c r="I3" s="624"/>
-      <c r="J3" s="625"/>
-      <c r="K3" s="628"/>
-      <c r="L3" s="629"/>
+      <c r="F3" s="616"/>
+      <c r="G3" s="616"/>
+      <c r="H3" s="617"/>
+      <c r="I3" s="620"/>
+      <c r="J3" s="621"/>
+      <c r="K3" s="624"/>
+      <c r="L3" s="625"/>
       <c r="M3" s="136"/>
       <c r="N3" s="137"/>
       <c r="O3" s="137"/>
@@ -8467,9 +8452,9 @@
     </row>
     <row r="4" spans="1:19" ht="17.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A4" s="130"/>
-      <c r="B4" s="613"/>
-      <c r="C4" s="614"/>
-      <c r="D4" s="615"/>
+      <c r="B4" s="609"/>
+      <c r="C4" s="610"/>
+      <c r="D4" s="611"/>
       <c r="E4" s="243"/>
       <c r="F4" s="243"/>
       <c r="G4" s="243"/>
@@ -8488,22 +8473,22 @@
     </row>
     <row r="5" spans="1:19" ht="24.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A5" s="130"/>
-      <c r="B5" s="586" t="s">
+      <c r="B5" s="582" t="s">
         <v>13</v>
       </c>
-      <c r="C5" s="601"/>
-      <c r="D5" s="510" t="str">
+      <c r="C5" s="597"/>
+      <c r="D5" s="506" t="str">
         <f>Данные!$A5</f>
         <v>PCI</v>
       </c>
-      <c r="E5" s="511"/>
-      <c r="F5" s="511"/>
-      <c r="G5" s="511"/>
-      <c r="H5" s="512"/>
-      <c r="I5" s="602"/>
-      <c r="J5" s="603"/>
-      <c r="K5" s="604"/>
-      <c r="L5" s="512"/>
+      <c r="E5" s="507"/>
+      <c r="F5" s="507"/>
+      <c r="G5" s="507"/>
+      <c r="H5" s="508"/>
+      <c r="I5" s="598"/>
+      <c r="J5" s="599"/>
+      <c r="K5" s="600"/>
+      <c r="L5" s="508"/>
       <c r="M5" s="139"/>
       <c r="N5" s="137"/>
       <c r="O5" s="137"/>
@@ -8514,22 +8499,22 @@
     </row>
     <row r="6" spans="1:19" ht="17.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A6" s="130"/>
-      <c r="B6" s="586" t="s">
+      <c r="B6" s="582" t="s">
         <v>12</v>
       </c>
-      <c r="C6" s="601"/>
-      <c r="D6" s="504" t="str">
+      <c r="C6" s="597"/>
+      <c r="D6" s="500" t="str">
         <f>Данные!$A2</f>
         <v>III-2-82-450-1 (Банка 0,45 л.)</v>
       </c>
-      <c r="E6" s="591"/>
-      <c r="F6" s="591"/>
-      <c r="G6" s="591"/>
-      <c r="H6" s="592"/>
-      <c r="I6" s="602"/>
-      <c r="J6" s="603"/>
-      <c r="K6" s="604"/>
-      <c r="L6" s="512"/>
+      <c r="E6" s="587"/>
+      <c r="F6" s="587"/>
+      <c r="G6" s="587"/>
+      <c r="H6" s="588"/>
+      <c r="I6" s="598"/>
+      <c r="J6" s="599"/>
+      <c r="K6" s="600"/>
+      <c r="L6" s="508"/>
       <c r="M6" s="136"/>
       <c r="N6" s="137"/>
       <c r="O6" s="137"/>
@@ -8540,27 +8525,27 @@
     </row>
     <row r="7" spans="1:19" ht="65.25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A7" s="130"/>
-      <c r="B7" s="596" t="s">
+      <c r="B7" s="592" t="s">
         <v>14</v>
       </c>
-      <c r="C7" s="605"/>
-      <c r="D7" s="513">
+      <c r="C7" s="601"/>
+      <c r="D7" s="509">
         <f>Данные!$A8</f>
         <v>0</v>
       </c>
-      <c r="E7" s="598"/>
-      <c r="F7" s="598"/>
-      <c r="G7" s="598"/>
-      <c r="H7" s="599"/>
-      <c r="I7" s="606" t="s">
+      <c r="E7" s="594"/>
+      <c r="F7" s="594"/>
+      <c r="G7" s="594"/>
+      <c r="H7" s="595"/>
+      <c r="I7" s="602" t="s">
         <v>15</v>
       </c>
-      <c r="J7" s="605"/>
-      <c r="K7" s="501">
+      <c r="J7" s="601"/>
+      <c r="K7" s="497">
         <f>Данные!$A11</f>
         <v>0</v>
       </c>
-      <c r="L7" s="502"/>
+      <c r="L7" s="498"/>
       <c r="M7" s="139"/>
       <c r="N7" s="137"/>
       <c r="O7" s="137"/>
@@ -8863,25 +8848,25 @@
     </row>
     <row r="18" spans="1:19" ht="13.5" thickTop="1" x14ac:dyDescent="0.2"/>
     <row r="19" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="L19" s="633" t="s">
+      <c r="L19" s="629" t="s">
         <v>135</v>
       </c>
-      <c r="M19" s="633"/>
-      <c r="N19" s="633"/>
-      <c r="O19" s="473"/>
-      <c r="P19" s="473"/>
-      <c r="Q19" s="489"/>
-      <c r="R19" s="489"/>
+      <c r="M19" s="629"/>
+      <c r="N19" s="629"/>
+      <c r="O19" s="472"/>
+      <c r="P19" s="472"/>
+      <c r="Q19" s="488"/>
+      <c r="R19" s="488"/>
     </row>
     <row r="20" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="O20" s="555" t="s">
+      <c r="O20" s="551" t="s">
         <v>139</v>
       </c>
-      <c r="P20" s="555"/>
-      <c r="Q20" s="556" t="s">
+      <c r="P20" s="551"/>
+      <c r="Q20" s="552" t="s">
         <v>140</v>
       </c>
-      <c r="R20" s="557"/>
+      <c r="R20" s="553"/>
     </row>
   </sheetData>
   <mergeCells count="21">
@@ -8962,47 +8947,47 @@
     </row>
     <row r="2" spans="1:19" ht="23.25" x14ac:dyDescent="0.2">
       <c r="A2" s="259"/>
-      <c r="B2" s="607"/>
-      <c r="C2" s="608"/>
-      <c r="D2" s="609"/>
-      <c r="E2" s="616" t="s">
+      <c r="B2" s="603"/>
+      <c r="C2" s="604"/>
+      <c r="D2" s="605"/>
+      <c r="E2" s="612" t="s">
         <v>10</v>
       </c>
-      <c r="F2" s="617"/>
-      <c r="G2" s="617"/>
-      <c r="H2" s="618"/>
-      <c r="I2" s="622" t="s">
+      <c r="F2" s="613"/>
+      <c r="G2" s="613"/>
+      <c r="H2" s="614"/>
+      <c r="I2" s="618" t="s">
         <v>11</v>
       </c>
-      <c r="J2" s="623"/>
-      <c r="K2" s="649">
+      <c r="J2" s="619"/>
+      <c r="K2" s="645">
         <f>Данные!B23</f>
         <v>0</v>
       </c>
-      <c r="L2" s="650"/>
+      <c r="L2" s="646"/>
       <c r="M2" s="260"/>
       <c r="N2" s="261"/>
       <c r="O2" s="262"/>
-      <c r="P2" s="648"/>
-      <c r="Q2" s="648"/>
+      <c r="P2" s="644"/>
+      <c r="Q2" s="644"/>
       <c r="R2" s="263"/>
       <c r="S2" s="264"/>
     </row>
     <row r="3" spans="1:19" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A3" s="259"/>
-      <c r="B3" s="610"/>
-      <c r="C3" s="611"/>
-      <c r="D3" s="612"/>
-      <c r="E3" s="619" t="s">
+      <c r="B3" s="606"/>
+      <c r="C3" s="607"/>
+      <c r="D3" s="608"/>
+      <c r="E3" s="615" t="s">
         <v>55</v>
       </c>
-      <c r="F3" s="620"/>
-      <c r="G3" s="620"/>
-      <c r="H3" s="621"/>
-      <c r="I3" s="624"/>
-      <c r="J3" s="625"/>
-      <c r="K3" s="651"/>
-      <c r="L3" s="652"/>
+      <c r="F3" s="616"/>
+      <c r="G3" s="616"/>
+      <c r="H3" s="617"/>
+      <c r="I3" s="620"/>
+      <c r="J3" s="621"/>
+      <c r="K3" s="647"/>
+      <c r="L3" s="648"/>
       <c r="M3" s="265"/>
       <c r="N3" s="266"/>
       <c r="O3" s="266"/>
@@ -9013,9 +8998,9 @@
     </row>
     <row r="4" spans="1:19" ht="17.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A4" s="259"/>
-      <c r="B4" s="613"/>
-      <c r="C4" s="614"/>
-      <c r="D4" s="615"/>
+      <c r="B4" s="609"/>
+      <c r="C4" s="610"/>
+      <c r="D4" s="611"/>
       <c r="E4" s="243"/>
       <c r="F4" s="243"/>
       <c r="G4" s="243"/>
@@ -9034,22 +9019,22 @@
     </row>
     <row r="5" spans="1:19" ht="24.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A5" s="259"/>
-      <c r="B5" s="586" t="s">
+      <c r="B5" s="582" t="s">
         <v>13</v>
       </c>
-      <c r="C5" s="601"/>
-      <c r="D5" s="510" t="str">
+      <c r="C5" s="597"/>
+      <c r="D5" s="506" t="str">
         <f>Данные!$A5</f>
         <v>PCI</v>
       </c>
-      <c r="E5" s="511"/>
-      <c r="F5" s="511"/>
-      <c r="G5" s="511"/>
-      <c r="H5" s="512"/>
-      <c r="I5" s="602"/>
-      <c r="J5" s="603"/>
-      <c r="K5" s="604"/>
-      <c r="L5" s="512"/>
+      <c r="E5" s="507"/>
+      <c r="F5" s="507"/>
+      <c r="G5" s="507"/>
+      <c r="H5" s="508"/>
+      <c r="I5" s="598"/>
+      <c r="J5" s="599"/>
+      <c r="K5" s="600"/>
+      <c r="L5" s="508"/>
       <c r="M5" s="268"/>
       <c r="N5" s="266"/>
       <c r="O5" s="266"/>
@@ -9060,22 +9045,22 @@
     </row>
     <row r="6" spans="1:19" ht="17.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A6" s="259"/>
-      <c r="B6" s="586" t="s">
+      <c r="B6" s="582" t="s">
         <v>12</v>
       </c>
-      <c r="C6" s="601"/>
-      <c r="D6" s="504" t="str">
+      <c r="C6" s="597"/>
+      <c r="D6" s="500" t="str">
         <f>Данные!$A2</f>
         <v>III-2-82-450-1 (Банка 0,45 л.)</v>
       </c>
-      <c r="E6" s="591"/>
-      <c r="F6" s="591"/>
-      <c r="G6" s="591"/>
-      <c r="H6" s="592"/>
-      <c r="I6" s="602"/>
-      <c r="J6" s="603"/>
-      <c r="K6" s="604"/>
-      <c r="L6" s="512"/>
+      <c r="E6" s="587"/>
+      <c r="F6" s="587"/>
+      <c r="G6" s="587"/>
+      <c r="H6" s="588"/>
+      <c r="I6" s="598"/>
+      <c r="J6" s="599"/>
+      <c r="K6" s="600"/>
+      <c r="L6" s="508"/>
       <c r="M6" s="265"/>
       <c r="N6" s="266"/>
       <c r="O6" s="266"/>
@@ -9086,27 +9071,27 @@
     </row>
     <row r="7" spans="1:19" ht="78.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A7" s="259"/>
-      <c r="B7" s="596" t="s">
+      <c r="B7" s="592" t="s">
         <v>14</v>
       </c>
-      <c r="C7" s="605"/>
-      <c r="D7" s="513">
+      <c r="C7" s="601"/>
+      <c r="D7" s="509">
         <f>Данные!$A8</f>
         <v>0</v>
       </c>
-      <c r="E7" s="598"/>
-      <c r="F7" s="598"/>
-      <c r="G7" s="598"/>
-      <c r="H7" s="599"/>
-      <c r="I7" s="606" t="s">
+      <c r="E7" s="594"/>
+      <c r="F7" s="594"/>
+      <c r="G7" s="594"/>
+      <c r="H7" s="595"/>
+      <c r="I7" s="602" t="s">
         <v>15</v>
       </c>
-      <c r="J7" s="605"/>
-      <c r="K7" s="501">
+      <c r="J7" s="601"/>
+      <c r="K7" s="497">
         <f>Данные!$A11</f>
         <v>0</v>
       </c>
-      <c r="L7" s="502"/>
+      <c r="L7" s="498"/>
       <c r="M7" s="268"/>
       <c r="N7" s="266"/>
       <c r="O7" s="266"/>
@@ -9175,7 +9160,7 @@
         <v>25</v>
       </c>
       <c r="C10" s="378" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="D10" s="280">
         <v>0.1</v>
@@ -9376,25 +9361,25 @@
     </row>
     <row r="17" spans="12:18" ht="13.5" thickTop="1" x14ac:dyDescent="0.2"/>
     <row r="18" spans="12:18" x14ac:dyDescent="0.2">
-      <c r="L18" s="633" t="s">
+      <c r="L18" s="629" t="s">
         <v>135</v>
       </c>
-      <c r="M18" s="633"/>
-      <c r="N18" s="633"/>
-      <c r="O18" s="473"/>
-      <c r="P18" s="473"/>
-      <c r="Q18" s="489"/>
-      <c r="R18" s="489"/>
+      <c r="M18" s="629"/>
+      <c r="N18" s="629"/>
+      <c r="O18" s="472"/>
+      <c r="P18" s="472"/>
+      <c r="Q18" s="488"/>
+      <c r="R18" s="488"/>
     </row>
     <row r="19" spans="12:18" x14ac:dyDescent="0.2">
-      <c r="O19" s="555" t="s">
+      <c r="O19" s="551" t="s">
         <v>139</v>
       </c>
-      <c r="P19" s="555"/>
-      <c r="Q19" s="556" t="s">
+      <c r="P19" s="551"/>
+      <c r="Q19" s="552" t="s">
         <v>140</v>
       </c>
-      <c r="R19" s="557"/>
+      <c r="R19" s="553"/>
     </row>
   </sheetData>
   <mergeCells count="21">
@@ -9448,7 +9433,7 @@
   <dimension ref="A1:M68"/>
   <sheetViews>
     <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A8" zoomScale="120" zoomScaleNormal="100" zoomScaleSheetLayoutView="120" workbookViewId="0">
-      <selection activeCell="E32" sqref="E32:F32"/>
+      <selection activeCell="J21" sqref="J21:J32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -9469,11 +9454,11 @@
   <sheetData>
     <row r="1" spans="1:13" ht="18" x14ac:dyDescent="0.25">
       <c r="A1" s="380"/>
-      <c r="B1" s="471" t="s">
+      <c r="B1" s="470" t="s">
         <v>108</v>
       </c>
       <c r="C1" s="380"/>
-      <c r="D1" s="470" t="str">
+      <c r="D1" s="469" t="str">
         <f>Данные!A2</f>
         <v>III-2-82-450-1 (Банка 0,45 л.)</v>
       </c>
@@ -9489,7 +9474,7 @@
     <row r="2" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A2" s="380"/>
       <c r="B2" s="380" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="C2" s="380"/>
       <c r="D2" s="380"/>
@@ -9503,17 +9488,17 @@
       <c r="L2" s="381"/>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A3" s="521" t="s">
-        <v>144</v>
-      </c>
-      <c r="B3" s="521"/>
-      <c r="C3" s="521"/>
-      <c r="D3" s="521"/>
-      <c r="E3" s="521"/>
-      <c r="F3" s="521"/>
-      <c r="G3" s="521"/>
-      <c r="H3" s="521"/>
-      <c r="I3" s="521"/>
+      <c r="A3" s="517" t="s">
+        <v>143</v>
+      </c>
+      <c r="B3" s="517"/>
+      <c r="C3" s="517"/>
+      <c r="D3" s="517"/>
+      <c r="E3" s="517"/>
+      <c r="F3" s="517"/>
+      <c r="G3" s="517"/>
+      <c r="H3" s="517"/>
+      <c r="I3" s="517"/>
       <c r="K3" s="382"/>
       <c r="L3" s="382"/>
       <c r="M3" s="383"/>
@@ -9826,7 +9811,7 @@
         <f>Данные!$B22</f>
         <v>18</v>
       </c>
-      <c r="E14" s="469">
+      <c r="E14" s="468">
         <v>24</v>
       </c>
       <c r="F14" s="379"/>
@@ -9992,7 +9977,7 @@
         <v>125</v>
       </c>
       <c r="J20" s="421" t="s">
-        <v>142</v>
+        <v>150</v>
       </c>
       <c r="K20" s="391"/>
       <c r="L20" s="391"/>
@@ -10005,73 +9990,85 @@
       <c r="B21" s="423">
         <v>43978</v>
       </c>
-      <c r="C21" s="424">
-        <v>43982</v>
+      <c r="C21" s="492" t="s">
+        <v>149</v>
       </c>
       <c r="D21" s="423">
         <v>43983</v>
       </c>
-      <c r="E21" s="425">
+      <c r="E21" s="424">
         <v>1019392</v>
       </c>
-      <c r="F21" s="425">
+      <c r="F21" s="424">
         <v>1071619</v>
       </c>
-      <c r="G21" s="426">
+      <c r="G21" s="425">
         <f>F21/A$21</f>
         <v>6.3786845238095233E-2</v>
       </c>
-      <c r="H21" s="427">
+      <c r="H21" s="426">
         <f>A21-F21</f>
         <v>15728381</v>
       </c>
-      <c r="I21" s="428">
+      <c r="I21" s="427">
         <f>1-G21</f>
         <v>0.93621315476190481</v>
       </c>
-      <c r="J21" s="490"/>
+      <c r="J21" s="649"/>
       <c r="K21" s="403"/>
       <c r="L21" s="403"/>
     </row>
     <row r="22" spans="1:12" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="430"/>
-      <c r="B22" s="431"/>
-      <c r="C22" s="431"/>
-      <c r="D22" s="431"/>
-      <c r="E22" s="432"/>
-      <c r="F22" s="432"/>
-      <c r="G22" s="426">
+      <c r="A22" s="429"/>
+      <c r="B22" s="493" t="s">
+        <v>149</v>
+      </c>
+      <c r="C22" s="430">
+        <v>43990</v>
+      </c>
+      <c r="D22" s="430">
+        <v>43993</v>
+      </c>
+      <c r="E22" s="431">
+        <v>1706896</v>
+      </c>
+      <c r="F22" s="431">
+        <v>1772456</v>
+      </c>
+      <c r="G22" s="425">
         <f>F22/A$21</f>
-        <v>0</v>
-      </c>
-      <c r="H22" s="433">
+        <v>0.10550333333333334</v>
+      </c>
+      <c r="H22" s="432">
         <f>H21-F22</f>
-        <v>15728381</v>
-      </c>
-      <c r="I22" s="434">
+        <v>13955925</v>
+      </c>
+      <c r="I22" s="433">
         <f>I21-G22</f>
-        <v>0.93621315476190481</v>
-      </c>
-      <c r="J22" s="491"/>
+        <v>0.83070982142857153</v>
+      </c>
+      <c r="J22" s="650">
+        <v>253</v>
+      </c>
       <c r="K22" s="383"/>
       <c r="L22" s="383"/>
     </row>
     <row r="23" spans="1:12" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A23" s="435"/>
-      <c r="B23" s="436"/>
-      <c r="C23" s="436"/>
-      <c r="D23" s="436"/>
-      <c r="E23" s="437"/>
-      <c r="F23" s="437"/>
-      <c r="G23" s="438"/>
-      <c r="H23" s="439"/>
-      <c r="I23" s="440"/>
-      <c r="J23" s="492"/>
+      <c r="A23" s="434"/>
+      <c r="B23" s="435"/>
+      <c r="C23" s="435"/>
+      <c r="D23" s="435"/>
+      <c r="E23" s="436"/>
+      <c r="F23" s="436"/>
+      <c r="G23" s="437"/>
+      <c r="H23" s="438"/>
+      <c r="I23" s="439"/>
+      <c r="J23" s="651"/>
       <c r="K23" s="403"/>
       <c r="L23" s="403"/>
     </row>
     <row r="24" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A24" s="435"/>
+      <c r="A24" s="434"/>
       <c r="B24" s="375"/>
       <c r="C24" s="375"/>
       <c r="D24" s="375"/>
@@ -10079,139 +10076,139 @@
       <c r="F24" s="375"/>
       <c r="G24" s="375"/>
       <c r="H24" s="375"/>
-      <c r="I24" s="441"/>
-      <c r="J24" s="493"/>
-      <c r="K24" s="429"/>
+      <c r="I24" s="440"/>
+      <c r="J24" s="652"/>
+      <c r="K24" s="428"/>
       <c r="L24" s="383"/>
     </row>
     <row r="25" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A25" s="435"/>
-      <c r="B25" s="436"/>
-      <c r="C25" s="436"/>
-      <c r="D25" s="436"/>
-      <c r="E25" s="437"/>
-      <c r="F25" s="437"/>
-      <c r="G25" s="442"/>
-      <c r="H25" s="439"/>
-      <c r="I25" s="440"/>
-      <c r="J25" s="492"/>
-      <c r="K25" s="443"/>
+      <c r="A25" s="434"/>
+      <c r="B25" s="435"/>
+      <c r="C25" s="435"/>
+      <c r="D25" s="435"/>
+      <c r="E25" s="436"/>
+      <c r="F25" s="436"/>
+      <c r="G25" s="441"/>
+      <c r="H25" s="438"/>
+      <c r="I25" s="439"/>
+      <c r="J25" s="651"/>
+      <c r="K25" s="442"/>
       <c r="L25" s="383"/>
     </row>
     <row r="26" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A26" s="435"/>
-      <c r="B26" s="436"/>
-      <c r="C26" s="436"/>
-      <c r="D26" s="436"/>
-      <c r="E26" s="437"/>
-      <c r="F26" s="437"/>
-      <c r="G26" s="442"/>
-      <c r="H26" s="439"/>
-      <c r="I26" s="440"/>
-      <c r="J26" s="492"/>
-      <c r="K26" s="429"/>
+      <c r="A26" s="434"/>
+      <c r="B26" s="435"/>
+      <c r="C26" s="435"/>
+      <c r="D26" s="435"/>
+      <c r="E26" s="436"/>
+      <c r="F26" s="436"/>
+      <c r="G26" s="441"/>
+      <c r="H26" s="438"/>
+      <c r="I26" s="439"/>
+      <c r="J26" s="651"/>
+      <c r="K26" s="428"/>
       <c r="L26" s="383"/>
     </row>
     <row r="27" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A27" s="435"/>
-      <c r="B27" s="436"/>
-      <c r="C27" s="436"/>
-      <c r="D27" s="436"/>
-      <c r="E27" s="439"/>
-      <c r="F27" s="437"/>
-      <c r="G27" s="442"/>
-      <c r="H27" s="439"/>
-      <c r="I27" s="440"/>
-      <c r="J27" s="492"/>
-      <c r="K27" s="429"/>
+      <c r="A27" s="434"/>
+      <c r="B27" s="435"/>
+      <c r="C27" s="435"/>
+      <c r="D27" s="435"/>
+      <c r="E27" s="438"/>
+      <c r="F27" s="436"/>
+      <c r="G27" s="441"/>
+      <c r="H27" s="438"/>
+      <c r="I27" s="439"/>
+      <c r="J27" s="651"/>
+      <c r="K27" s="428"/>
       <c r="L27" s="383"/>
     </row>
     <row r="28" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A28" s="435"/>
-      <c r="B28" s="436"/>
-      <c r="C28" s="436"/>
-      <c r="D28" s="436"/>
-      <c r="E28" s="439"/>
-      <c r="F28" s="437"/>
-      <c r="G28" s="442"/>
-      <c r="H28" s="439"/>
-      <c r="I28" s="440"/>
-      <c r="J28" s="492"/>
-      <c r="K28" s="429"/>
+      <c r="A28" s="434"/>
+      <c r="B28" s="435"/>
+      <c r="C28" s="435"/>
+      <c r="D28" s="435"/>
+      <c r="E28" s="438"/>
+      <c r="F28" s="436"/>
+      <c r="G28" s="441"/>
+      <c r="H28" s="438"/>
+      <c r="I28" s="439"/>
+      <c r="J28" s="651"/>
+      <c r="K28" s="428"/>
       <c r="L28" s="383"/>
     </row>
     <row r="29" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A29" s="435"/>
-      <c r="B29" s="436"/>
-      <c r="C29" s="436"/>
+      <c r="A29" s="434"/>
+      <c r="B29" s="435"/>
+      <c r="C29" s="435"/>
       <c r="D29" s="375"/>
       <c r="E29" s="375"/>
-      <c r="F29" s="437"/>
-      <c r="G29" s="444"/>
-      <c r="H29" s="439"/>
-      <c r="I29" s="445"/>
-      <c r="J29" s="494"/>
-      <c r="K29" s="429"/>
+      <c r="F29" s="436"/>
+      <c r="G29" s="443"/>
+      <c r="H29" s="438"/>
+      <c r="I29" s="444"/>
+      <c r="J29" s="653"/>
+      <c r="K29" s="428"/>
       <c r="L29" s="383"/>
     </row>
     <row r="30" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A30" s="435"/>
-      <c r="B30" s="436"/>
-      <c r="C30" s="436"/>
+      <c r="A30" s="434"/>
+      <c r="B30" s="435"/>
+      <c r="C30" s="435"/>
       <c r="D30" s="375"/>
       <c r="E30" s="375"/>
-      <c r="F30" s="437"/>
-      <c r="G30" s="442"/>
-      <c r="H30" s="439"/>
-      <c r="I30" s="445"/>
-      <c r="J30" s="494"/>
-      <c r="K30" s="429"/>
+      <c r="F30" s="436"/>
+      <c r="G30" s="441"/>
+      <c r="H30" s="438"/>
+      <c r="I30" s="444"/>
+      <c r="J30" s="653"/>
+      <c r="K30" s="428"/>
       <c r="L30" s="383"/>
     </row>
     <row r="31" spans="1:12" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="446"/>
-      <c r="B31" s="447"/>
-      <c r="C31" s="447"/>
-      <c r="D31" s="448"/>
-      <c r="E31" s="448"/>
-      <c r="F31" s="449"/>
-      <c r="G31" s="450"/>
-      <c r="H31" s="451"/>
-      <c r="I31" s="452"/>
-      <c r="J31" s="495"/>
+      <c r="A31" s="445"/>
+      <c r="B31" s="446"/>
+      <c r="C31" s="446"/>
+      <c r="D31" s="447"/>
+      <c r="E31" s="447"/>
+      <c r="F31" s="448"/>
+      <c r="G31" s="449"/>
+      <c r="H31" s="450"/>
+      <c r="I31" s="451"/>
+      <c r="J31" s="654"/>
       <c r="K31" s="383"/>
       <c r="L31" s="383"/>
     </row>
     <row r="32" spans="1:12" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="453" t="s">
+      <c r="A32" s="452" t="s">
         <v>126</v>
       </c>
-      <c r="B32" s="454"/>
-      <c r="C32" s="454"/>
-      <c r="D32" s="455"/>
-      <c r="E32" s="653">
+      <c r="B32" s="453"/>
+      <c r="C32" s="453"/>
+      <c r="D32" s="454"/>
+      <c r="E32" s="490">
         <f>SUM(E21:E31)</f>
-        <v>1019392</v>
-      </c>
-      <c r="F32" s="654">
+        <v>2726288</v>
+      </c>
+      <c r="F32" s="491">
         <f>SUM(F21:F31)</f>
-        <v>1071619</v>
-      </c>
-      <c r="G32" s="456">
+        <v>2844075</v>
+      </c>
+      <c r="G32" s="455">
         <f>SUM(G21:G31)</f>
-        <v>6.3786845238095233E-2</v>
-      </c>
-      <c r="H32" s="457">
+        <v>0.16929017857142858</v>
+      </c>
+      <c r="H32" s="456">
         <f>A21-F32</f>
-        <v>15728381</v>
-      </c>
-      <c r="I32" s="458">
+        <v>13955925</v>
+      </c>
+      <c r="I32" s="457">
         <f>1-G32</f>
-        <v>0.93621315476190481</v>
-      </c>
-      <c r="J32" s="496"/>
-      <c r="K32" s="459"/>
-      <c r="L32" s="459"/>
+        <v>0.83070982142857142</v>
+      </c>
+      <c r="J32" s="655"/>
+      <c r="K32" s="458"/>
+      <c r="L32" s="458"/>
     </row>
     <row r="35" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A35" s="383"/>
@@ -10226,12 +10223,12 @@
       <c r="J35" s="383"/>
     </row>
     <row r="36" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="522" t="s">
+      <c r="A36" s="518" t="s">
         <v>127</v>
       </c>
-      <c r="B36" s="522"/>
-      <c r="C36" s="522"/>
-      <c r="D36" s="522"/>
+      <c r="B36" s="518"/>
+      <c r="C36" s="518"/>
+      <c r="D36" s="518"/>
       <c r="E36" s="383"/>
       <c r="F36" s="383"/>
       <c r="G36" s="383"/>
@@ -10240,14 +10237,14 @@
       <c r="J36" s="383"/>
     </row>
     <row r="37" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A37" s="523" t="s">
+      <c r="A37" s="519" t="s">
         <v>128</v>
       </c>
-      <c r="B37" s="523"/>
-      <c r="C37" s="460" t="s">
+      <c r="B37" s="519"/>
+      <c r="C37" s="459" t="s">
         <v>129</v>
       </c>
-      <c r="D37" s="460" t="s">
+      <c r="D37" s="459" t="s">
         <v>130</v>
       </c>
       <c r="E37" s="383"/>
@@ -10258,27 +10255,27 @@
       <c r="J37" s="383"/>
     </row>
     <row r="38" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A38" s="524">
+      <c r="A38" s="520">
         <f>A21-F32</f>
-        <v>15728381</v>
-      </c>
-      <c r="B38" s="525"/>
-      <c r="C38" s="461">
+        <v>13955925</v>
+      </c>
+      <c r="B38" s="521"/>
+      <c r="C38" s="460">
         <f>1-G32</f>
-        <v>0.93621315476190481</v>
-      </c>
-      <c r="D38" s="462">
+        <v>0.83070982142857142</v>
+      </c>
+      <c r="D38" s="461">
         <f>(C38/0.8)*100</f>
-        <v>117.02664434523808</v>
-      </c>
-      <c r="E38" s="463" t="s">
+        <v>103.83872767857143</v>
+      </c>
+      <c r="E38" s="462" t="s">
         <v>131</v>
       </c>
-      <c r="F38" s="463"/>
-      <c r="G38" s="463"/>
-      <c r="H38" s="463"/>
-      <c r="I38" s="463"/>
-      <c r="J38" s="463"/>
+      <c r="F38" s="462"/>
+      <c r="G38" s="462"/>
+      <c r="H38" s="462"/>
+      <c r="I38" s="462"/>
+      <c r="J38" s="462"/>
     </row>
     <row r="39" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A39" s="383"/>
@@ -10305,8 +10302,8 @@
     </row>
     <row r="41" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A41" s="383"/>
-      <c r="B41" s="464"/>
-      <c r="C41" s="464"/>
+      <c r="B41" s="463"/>
+      <c r="C41" s="463"/>
       <c r="D41" s="383"/>
       <c r="E41" s="383"/>
       <c r="F41" s="383"/>
@@ -10316,113 +10313,113 @@
       <c r="J41" s="383"/>
     </row>
     <row r="42" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A42" s="465"/>
-      <c r="B42" s="465"/>
-      <c r="C42" s="465"/>
-      <c r="D42" s="465"/>
-      <c r="E42" s="465"/>
-      <c r="F42" s="465"/>
-      <c r="G42" s="465"/>
-      <c r="H42" s="465"/>
-      <c r="I42" s="516"/>
-      <c r="J42" s="517"/>
+      <c r="A42" s="464"/>
+      <c r="B42" s="464"/>
+      <c r="C42" s="464"/>
+      <c r="D42" s="464"/>
+      <c r="E42" s="464"/>
+      <c r="F42" s="464"/>
+      <c r="G42" s="464"/>
+      <c r="H42" s="464"/>
+      <c r="I42" s="512"/>
+      <c r="J42" s="513"/>
     </row>
     <row r="43" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A43" s="466"/>
-      <c r="B43" s="467"/>
-      <c r="C43" s="467"/>
+      <c r="A43" s="465"/>
+      <c r="B43" s="466"/>
+      <c r="C43" s="466"/>
       <c r="D43" s="383"/>
       <c r="E43" s="383"/>
-      <c r="F43" s="467"/>
+      <c r="F43" s="466"/>
       <c r="G43" s="413"/>
-      <c r="H43" s="467"/>
+      <c r="H43" s="466"/>
     </row>
     <row r="44" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A44" s="466"/>
-      <c r="B44" s="467"/>
-      <c r="C44" s="467"/>
-      <c r="D44" s="467"/>
-      <c r="E44" s="467"/>
-      <c r="F44" s="467"/>
+      <c r="A44" s="465"/>
+      <c r="B44" s="466"/>
+      <c r="C44" s="466"/>
+      <c r="D44" s="466"/>
+      <c r="E44" s="466"/>
+      <c r="F44" s="466"/>
       <c r="G44" s="413"/>
-      <c r="H44" s="467"/>
+      <c r="H44" s="466"/>
     </row>
     <row r="45" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A45" s="466"/>
-      <c r="B45" s="467"/>
-      <c r="C45" s="467"/>
+      <c r="A45" s="465"/>
+      <c r="B45" s="466"/>
+      <c r="C45" s="466"/>
       <c r="D45" s="383"/>
       <c r="E45" s="383"/>
-      <c r="F45" s="467"/>
+      <c r="F45" s="466"/>
       <c r="G45" s="413"/>
-      <c r="H45" s="467"/>
+      <c r="H45" s="466"/>
     </row>
     <row r="46" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A46" s="466"/>
-      <c r="B46" s="467"/>
-      <c r="C46" s="467"/>
-      <c r="D46" s="467"/>
-      <c r="E46" s="467"/>
-      <c r="F46" s="467"/>
+      <c r="A46" s="465"/>
+      <c r="B46" s="466"/>
+      <c r="C46" s="466"/>
+      <c r="D46" s="466"/>
+      <c r="E46" s="466"/>
+      <c r="F46" s="466"/>
       <c r="G46" s="413"/>
-      <c r="H46" s="467"/>
+      <c r="H46" s="466"/>
     </row>
     <row r="47" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A47" s="466"/>
-      <c r="B47" s="467"/>
-      <c r="C47" s="467"/>
+      <c r="A47" s="465"/>
+      <c r="B47" s="466"/>
+      <c r="C47" s="466"/>
       <c r="D47" s="383"/>
       <c r="E47" s="383"/>
-      <c r="F47" s="467"/>
+      <c r="F47" s="466"/>
       <c r="G47" s="413"/>
-      <c r="H47" s="467"/>
+      <c r="H47" s="466"/>
     </row>
     <row r="48" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A48" s="466"/>
-      <c r="B48" s="467"/>
+      <c r="A48" s="465"/>
+      <c r="B48" s="466"/>
       <c r="C48" s="403"/>
-      <c r="D48" s="468"/>
-      <c r="E48" s="468"/>
+      <c r="D48" s="467"/>
+      <c r="E48" s="467"/>
       <c r="F48" s="403"/>
       <c r="G48" s="403"/>
       <c r="H48" s="403"/>
     </row>
     <row r="49" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A49" s="466"/>
-      <c r="B49" s="467"/>
-      <c r="C49" s="467"/>
-      <c r="D49" s="467"/>
-      <c r="E49" s="467"/>
-      <c r="F49" s="467"/>
+      <c r="A49" s="465"/>
+      <c r="B49" s="466"/>
+      <c r="C49" s="466"/>
+      <c r="D49" s="466"/>
+      <c r="E49" s="466"/>
+      <c r="F49" s="466"/>
       <c r="G49" s="413"/>
-      <c r="H49" s="467"/>
+      <c r="H49" s="466"/>
     </row>
     <row r="50" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A50" s="466"/>
-      <c r="B50" s="467"/>
-      <c r="C50" s="467"/>
-      <c r="D50" s="467"/>
-      <c r="E50" s="467"/>
-      <c r="F50" s="467"/>
+      <c r="A50" s="465"/>
+      <c r="B50" s="466"/>
+      <c r="C50" s="466"/>
+      <c r="D50" s="466"/>
+      <c r="E50" s="466"/>
+      <c r="F50" s="466"/>
       <c r="G50" s="413"/>
-      <c r="H50" s="467"/>
+      <c r="H50" s="466"/>
     </row>
     <row r="51" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A51" s="466"/>
-      <c r="B51" s="467"/>
-      <c r="C51" s="467"/>
+      <c r="A51" s="465"/>
+      <c r="B51" s="466"/>
+      <c r="C51" s="466"/>
       <c r="D51" s="383"/>
       <c r="E51" s="383"/>
-      <c r="F51" s="467"/>
+      <c r="F51" s="466"/>
       <c r="G51" s="413"/>
-      <c r="H51" s="467"/>
+      <c r="H51" s="466"/>
     </row>
     <row r="52" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A52" s="383"/>
-      <c r="B52" s="519"/>
-      <c r="C52" s="519"/>
-      <c r="D52" s="520"/>
-      <c r="E52" s="463"/>
+      <c r="B52" s="515"/>
+      <c r="C52" s="515"/>
+      <c r="D52" s="516"/>
+      <c r="E52" s="462"/>
       <c r="F52" s="383"/>
       <c r="G52" s="383"/>
       <c r="H52" s="383"/>
@@ -10430,31 +10427,31 @@
       <c r="J52" s="383"/>
     </row>
     <row r="53" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A53" s="465"/>
-      <c r="B53" s="465"/>
-      <c r="C53" s="465"/>
-      <c r="D53" s="465"/>
-      <c r="E53" s="465"/>
-      <c r="F53" s="465"/>
-      <c r="G53" s="465"/>
-      <c r="H53" s="465"/>
-      <c r="I53" s="516"/>
-      <c r="J53" s="517"/>
+      <c r="A53" s="464"/>
+      <c r="B53" s="464"/>
+      <c r="C53" s="464"/>
+      <c r="D53" s="464"/>
+      <c r="E53" s="464"/>
+      <c r="F53" s="464"/>
+      <c r="G53" s="464"/>
+      <c r="H53" s="464"/>
+      <c r="I53" s="512"/>
+      <c r="J53" s="513"/>
     </row>
     <row r="54" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A54" s="466"/>
+      <c r="A54" s="465"/>
       <c r="B54" s="383"/>
       <c r="C54" s="383"/>
       <c r="D54" s="383"/>
       <c r="E54" s="383"/>
       <c r="F54" s="413"/>
       <c r="G54" s="413"/>
-      <c r="H54" s="467"/>
-      <c r="I54" s="518"/>
-      <c r="J54" s="518"/>
+      <c r="H54" s="466"/>
+      <c r="I54" s="514"/>
+      <c r="J54" s="514"/>
     </row>
     <row r="55" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A55" s="466"/>
+      <c r="A55" s="465"/>
       <c r="B55" s="383"/>
       <c r="C55" s="383"/>
       <c r="D55" s="403"/>
@@ -10462,8 +10459,8 @@
       <c r="F55" s="403"/>
       <c r="G55" s="403"/>
       <c r="H55" s="403"/>
-      <c r="I55" s="518"/>
-      <c r="J55" s="518"/>
+      <c r="I55" s="514"/>
+      <c r="J55" s="514"/>
     </row>
     <row r="56" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A56" s="383"/>
@@ -10476,12 +10473,12 @@
       <c r="H56" s="383"/>
     </row>
     <row r="61" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="B61" s="516"/>
-      <c r="C61" s="517"/>
+      <c r="B61" s="512"/>
+      <c r="C61" s="513"/>
     </row>
     <row r="68" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B68" s="516"/>
-      <c r="C68" s="517"/>
+      <c r="B68" s="512"/>
+      <c r="C68" s="513"/>
     </row>
   </sheetData>
   <mergeCells count="11">
@@ -10578,47 +10575,47 @@
       <c r="J8" s="310"/>
     </row>
     <row r="11" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="550" t="s">
+      <c r="A11" s="546" t="s">
         <v>63</v>
       </c>
-      <c r="B11" s="550"/>
-      <c r="C11" s="550"/>
-      <c r="D11" s="550"/>
-      <c r="E11" s="550"/>
-      <c r="F11" s="550"/>
-      <c r="G11" s="550"/>
-      <c r="H11" s="550"/>
-      <c r="I11" s="550"/>
-      <c r="J11" s="550"/>
+      <c r="B11" s="546"/>
+      <c r="C11" s="546"/>
+      <c r="D11" s="546"/>
+      <c r="E11" s="546"/>
+      <c r="F11" s="546"/>
+      <c r="G11" s="546"/>
+      <c r="H11" s="546"/>
+      <c r="I11" s="546"/>
+      <c r="J11" s="546"/>
     </row>
     <row r="12" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="549" t="s">
+      <c r="A12" s="545" t="s">
         <v>73</v>
       </c>
-      <c r="B12" s="549"/>
-      <c r="C12" s="549"/>
-      <c r="D12" s="549"/>
-      <c r="E12" s="549"/>
-      <c r="F12" s="549"/>
-      <c r="G12" s="549"/>
-      <c r="H12" s="549"/>
-      <c r="I12" s="549"/>
-      <c r="J12" s="549"/>
+      <c r="B12" s="545"/>
+      <c r="C12" s="545"/>
+      <c r="D12" s="545"/>
+      <c r="E12" s="545"/>
+      <c r="F12" s="545"/>
+      <c r="G12" s="545"/>
+      <c r="H12" s="545"/>
+      <c r="I12" s="545"/>
+      <c r="J12" s="545"/>
     </row>
     <row r="13" spans="1:11" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="551" t="str">
+      <c r="A13" s="547" t="str">
         <f>Данные!A2</f>
         <v>III-2-82-450-1 (Банка 0,45 л.)</v>
       </c>
-      <c r="B13" s="550"/>
-      <c r="C13" s="550"/>
-      <c r="D13" s="550"/>
-      <c r="E13" s="550"/>
-      <c r="F13" s="550"/>
-      <c r="G13" s="550"/>
-      <c r="H13" s="550"/>
-      <c r="I13" s="550"/>
-      <c r="J13" s="550"/>
+      <c r="B13" s="546"/>
+      <c r="C13" s="546"/>
+      <c r="D13" s="546"/>
+      <c r="E13" s="546"/>
+      <c r="F13" s="546"/>
+      <c r="G13" s="546"/>
+      <c r="H13" s="546"/>
+      <c r="I13" s="546"/>
+      <c r="J13" s="546"/>
     </row>
     <row r="15" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A15" s="304" t="s">
@@ -10743,493 +10740,493 @@
       <c r="J21" s="305"/>
     </row>
     <row r="22" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="547" t="s">
+      <c r="A22" s="543" t="s">
         <v>64</v>
       </c>
-      <c r="B22" s="547" t="s">
+      <c r="B22" s="543" t="s">
         <v>65</v>
       </c>
-      <c r="C22" s="547"/>
-      <c r="D22" s="547"/>
-      <c r="E22" s="547" t="s">
+      <c r="C22" s="543"/>
+      <c r="D22" s="543"/>
+      <c r="E22" s="543" t="s">
         <v>66</v>
       </c>
-      <c r="F22" s="547"/>
-      <c r="G22" s="548" t="s">
+      <c r="F22" s="543"/>
+      <c r="G22" s="544" t="s">
         <v>67</v>
       </c>
-      <c r="H22" s="547" t="s">
+      <c r="H22" s="543" t="s">
         <v>68</v>
       </c>
-      <c r="I22" s="547"/>
-      <c r="J22" s="547"/>
+      <c r="I22" s="543"/>
+      <c r="J22" s="543"/>
     </row>
     <row r="23" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A23" s="547"/>
-      <c r="B23" s="547"/>
-      <c r="C23" s="547"/>
-      <c r="D23" s="547"/>
-      <c r="E23" s="547"/>
-      <c r="F23" s="547"/>
-      <c r="G23" s="548"/>
-      <c r="H23" s="547"/>
-      <c r="I23" s="547"/>
-      <c r="J23" s="547"/>
+      <c r="A23" s="543"/>
+      <c r="B23" s="543"/>
+      <c r="C23" s="543"/>
+      <c r="D23" s="543"/>
+      <c r="E23" s="543"/>
+      <c r="F23" s="543"/>
+      <c r="G23" s="544"/>
+      <c r="H23" s="543"/>
+      <c r="I23" s="543"/>
+      <c r="J23" s="543"/>
     </row>
     <row r="24" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A24" s="526">
+      <c r="A24" s="522">
         <v>1</v>
       </c>
-      <c r="B24" s="552" t="s">
+      <c r="B24" s="548" t="s">
         <v>43</v>
       </c>
-      <c r="C24" s="553"/>
-      <c r="D24" s="554"/>
-      <c r="E24" s="531" t="str">
+      <c r="C24" s="549"/>
+      <c r="D24" s="550"/>
+      <c r="E24" s="527" t="str">
         <f>Данные!C14</f>
         <v>III-2-82-450-1</v>
       </c>
-      <c r="F24" s="532"/>
-      <c r="G24" s="535">
+      <c r="F24" s="528"/>
+      <c r="G24" s="531">
         <f>Данные!B14</f>
         <v>24</v>
       </c>
-      <c r="H24" s="537"/>
-      <c r="I24" s="538"/>
-      <c r="J24" s="539"/>
+      <c r="H24" s="533"/>
+      <c r="I24" s="534"/>
+      <c r="J24" s="535"/>
     </row>
     <row r="25" spans="1:10" ht="40.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="527"/>
-      <c r="B25" s="543" t="str">
+      <c r="A25" s="523"/>
+      <c r="B25" s="539" t="str">
         <f>Данные!$A$30</f>
         <v>(к серийному формокомплекту Банка III-2-82-45-1)</v>
       </c>
-      <c r="C25" s="544"/>
-      <c r="D25" s="545"/>
-      <c r="E25" s="546"/>
-      <c r="F25" s="534"/>
-      <c r="G25" s="536"/>
-      <c r="H25" s="540"/>
-      <c r="I25" s="541"/>
-      <c r="J25" s="542"/>
+      <c r="C25" s="540"/>
+      <c r="D25" s="541"/>
+      <c r="E25" s="542"/>
+      <c r="F25" s="530"/>
+      <c r="G25" s="532"/>
+      <c r="H25" s="536"/>
+      <c r="I25" s="537"/>
+      <c r="J25" s="538"/>
     </row>
     <row r="26" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A26" s="526">
+      <c r="A26" s="522">
         <f>A24+1</f>
         <v>2</v>
       </c>
-      <c r="B26" s="528" t="s">
+      <c r="B26" s="524" t="s">
         <v>106</v>
       </c>
-      <c r="C26" s="529"/>
-      <c r="D26" s="530"/>
-      <c r="E26" s="531" t="str">
+      <c r="C26" s="525"/>
+      <c r="D26" s="526"/>
+      <c r="E26" s="527" t="str">
         <f>Данные!C15</f>
         <v>III-2-82-450-1</v>
       </c>
-      <c r="F26" s="532"/>
-      <c r="G26" s="535">
+      <c r="F26" s="528"/>
+      <c r="G26" s="531">
         <f>Данные!B15</f>
         <v>24</v>
       </c>
-      <c r="H26" s="537"/>
-      <c r="I26" s="538"/>
-      <c r="J26" s="539"/>
+      <c r="H26" s="533"/>
+      <c r="I26" s="534"/>
+      <c r="J26" s="535"/>
     </row>
     <row r="27" spans="1:10" ht="40.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="527"/>
-      <c r="B27" s="543" t="str">
+      <c r="A27" s="523"/>
+      <c r="B27" s="539" t="str">
         <f>Данные!$A$30</f>
         <v>(к серийному формокомплекту Банка III-2-82-45-1)</v>
       </c>
-      <c r="C27" s="544"/>
-      <c r="D27" s="545"/>
-      <c r="E27" s="546"/>
-      <c r="F27" s="534"/>
-      <c r="G27" s="536"/>
-      <c r="H27" s="540"/>
-      <c r="I27" s="541"/>
-      <c r="J27" s="542"/>
+      <c r="C27" s="540"/>
+      <c r="D27" s="541"/>
+      <c r="E27" s="542"/>
+      <c r="F27" s="530"/>
+      <c r="G27" s="532"/>
+      <c r="H27" s="536"/>
+      <c r="I27" s="537"/>
+      <c r="J27" s="538"/>
     </row>
     <row r="28" spans="1:10" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="526">
+      <c r="A28" s="522">
         <f t="shared" ref="A28" si="0">A26+1</f>
         <v>3</v>
       </c>
-      <c r="B28" s="528" t="s">
+      <c r="B28" s="524" t="s">
         <v>38</v>
       </c>
-      <c r="C28" s="529"/>
-      <c r="D28" s="530"/>
-      <c r="E28" s="531" t="str">
+      <c r="C28" s="525"/>
+      <c r="D28" s="526"/>
+      <c r="E28" s="527" t="str">
         <f>Данные!C16</f>
         <v>III-2-82-450-1</v>
       </c>
-      <c r="F28" s="532"/>
-      <c r="G28" s="535">
+      <c r="F28" s="528"/>
+      <c r="G28" s="531">
         <f>Данные!B16</f>
         <v>32</v>
       </c>
-      <c r="H28" s="537"/>
-      <c r="I28" s="538"/>
-      <c r="J28" s="539"/>
+      <c r="H28" s="533"/>
+      <c r="I28" s="534"/>
+      <c r="J28" s="535"/>
     </row>
     <row r="29" spans="1:10" ht="40.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="527"/>
-      <c r="B29" s="543" t="str">
+      <c r="A29" s="523"/>
+      <c r="B29" s="539" t="str">
         <f>Данные!$A$30</f>
         <v>(к серийному формокомплекту Банка III-2-82-45-1)</v>
       </c>
-      <c r="C29" s="544"/>
-      <c r="D29" s="545"/>
-      <c r="E29" s="546"/>
-      <c r="F29" s="534"/>
-      <c r="G29" s="536"/>
-      <c r="H29" s="540"/>
-      <c r="I29" s="541"/>
-      <c r="J29" s="542"/>
+      <c r="C29" s="540"/>
+      <c r="D29" s="541"/>
+      <c r="E29" s="542"/>
+      <c r="F29" s="530"/>
+      <c r="G29" s="532"/>
+      <c r="H29" s="536"/>
+      <c r="I29" s="537"/>
+      <c r="J29" s="538"/>
     </row>
     <row r="30" spans="1:10" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="526">
+      <c r="A30" s="522">
         <f t="shared" ref="A30" si="1">A28+1</f>
         <v>4</v>
       </c>
-      <c r="B30" s="528" t="s">
+      <c r="B30" s="524" t="s">
         <v>107</v>
       </c>
-      <c r="C30" s="529"/>
-      <c r="D30" s="530"/>
-      <c r="E30" s="531" t="str">
+      <c r="C30" s="525"/>
+      <c r="D30" s="526"/>
+      <c r="E30" s="527" t="str">
         <f>Данные!C17</f>
         <v>III-2-82-450-1</v>
       </c>
-      <c r="F30" s="532"/>
-      <c r="G30" s="535">
+      <c r="F30" s="528"/>
+      <c r="G30" s="531">
         <f>Данные!B17</f>
         <v>32</v>
       </c>
-      <c r="H30" s="537"/>
-      <c r="I30" s="538"/>
-      <c r="J30" s="539"/>
+      <c r="H30" s="533"/>
+      <c r="I30" s="534"/>
+      <c r="J30" s="535"/>
     </row>
     <row r="31" spans="1:10" ht="40.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="527"/>
-      <c r="B31" s="543" t="str">
+      <c r="A31" s="523"/>
+      <c r="B31" s="539" t="str">
         <f>Данные!$A$30</f>
         <v>(к серийному формокомплекту Банка III-2-82-45-1)</v>
       </c>
-      <c r="C31" s="544"/>
-      <c r="D31" s="545"/>
-      <c r="E31" s="533"/>
-      <c r="F31" s="534"/>
-      <c r="G31" s="536"/>
-      <c r="H31" s="540"/>
-      <c r="I31" s="541"/>
-      <c r="J31" s="542"/>
+      <c r="C31" s="540"/>
+      <c r="D31" s="541"/>
+      <c r="E31" s="529"/>
+      <c r="F31" s="530"/>
+      <c r="G31" s="532"/>
+      <c r="H31" s="536"/>
+      <c r="I31" s="537"/>
+      <c r="J31" s="538"/>
     </row>
     <row r="32" spans="1:10" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="526">
+      <c r="A32" s="522">
         <f t="shared" ref="A32" si="2">A30+1</f>
         <v>5</v>
       </c>
-      <c r="B32" s="528" t="s">
+      <c r="B32" s="524" t="s">
         <v>47</v>
       </c>
-      <c r="C32" s="529"/>
-      <c r="D32" s="530"/>
-      <c r="E32" s="531" t="str">
+      <c r="C32" s="525"/>
+      <c r="D32" s="526"/>
+      <c r="E32" s="527" t="str">
         <f>Данные!C18</f>
         <v>III-2-82-450-1</v>
       </c>
-      <c r="F32" s="532"/>
-      <c r="G32" s="535">
+      <c r="F32" s="528"/>
+      <c r="G32" s="531">
         <f>Данные!B18</f>
         <v>80</v>
       </c>
-      <c r="H32" s="537"/>
-      <c r="I32" s="538"/>
-      <c r="J32" s="539"/>
+      <c r="H32" s="533"/>
+      <c r="I32" s="534"/>
+      <c r="J32" s="535"/>
     </row>
     <row r="33" spans="1:10" ht="40.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="527"/>
-      <c r="B33" s="543" t="str">
+      <c r="A33" s="523"/>
+      <c r="B33" s="539" t="str">
         <f>Данные!$A$30</f>
         <v>(к серийному формокомплекту Банка III-2-82-45-1)</v>
       </c>
-      <c r="C33" s="544"/>
-      <c r="D33" s="545"/>
-      <c r="E33" s="533"/>
-      <c r="F33" s="534"/>
-      <c r="G33" s="536"/>
-      <c r="H33" s="540"/>
-      <c r="I33" s="541"/>
-      <c r="J33" s="542"/>
+      <c r="C33" s="540"/>
+      <c r="D33" s="541"/>
+      <c r="E33" s="529"/>
+      <c r="F33" s="530"/>
+      <c r="G33" s="532"/>
+      <c r="H33" s="536"/>
+      <c r="I33" s="537"/>
+      <c r="J33" s="538"/>
     </row>
     <row r="34" spans="1:10" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="526">
+      <c r="A34" s="522">
         <f t="shared" ref="A34" si="3">A32+1</f>
         <v>6</v>
       </c>
-      <c r="B34" s="528" t="s">
+      <c r="B34" s="524" t="s">
         <v>89</v>
       </c>
-      <c r="C34" s="529"/>
-      <c r="D34" s="530"/>
-      <c r="E34" s="531" t="str">
+      <c r="C34" s="525"/>
+      <c r="D34" s="526"/>
+      <c r="E34" s="527" t="str">
         <f>Данные!C19</f>
         <v>III-2-82-450-1</v>
       </c>
-      <c r="F34" s="532"/>
-      <c r="G34" s="535">
+      <c r="F34" s="528"/>
+      <c r="G34" s="531">
         <f>Данные!B19</f>
         <v>150</v>
       </c>
-      <c r="H34" s="537"/>
-      <c r="I34" s="538"/>
-      <c r="J34" s="539"/>
+      <c r="H34" s="533"/>
+      <c r="I34" s="534"/>
+      <c r="J34" s="535"/>
     </row>
     <row r="35" spans="1:10" ht="40.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="527"/>
-      <c r="B35" s="543" t="str">
+      <c r="A35" s="523"/>
+      <c r="B35" s="539" t="str">
         <f>Данные!$A$30</f>
         <v>(к серийному формокомплекту Банка III-2-82-45-1)</v>
       </c>
-      <c r="C35" s="544"/>
-      <c r="D35" s="545"/>
-      <c r="E35" s="533"/>
-      <c r="F35" s="534"/>
-      <c r="G35" s="536"/>
-      <c r="H35" s="540"/>
-      <c r="I35" s="541"/>
-      <c r="J35" s="542"/>
+      <c r="C35" s="540"/>
+      <c r="D35" s="541"/>
+      <c r="E35" s="529"/>
+      <c r="F35" s="530"/>
+      <c r="G35" s="532"/>
+      <c r="H35" s="536"/>
+      <c r="I35" s="537"/>
+      <c r="J35" s="538"/>
     </row>
     <row r="36" spans="1:10" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="526">
+      <c r="A36" s="522">
         <f t="shared" ref="A36" si="4">A34+1</f>
         <v>7</v>
       </c>
-      <c r="B36" s="528" t="s">
+      <c r="B36" s="524" t="s">
         <v>51</v>
       </c>
-      <c r="C36" s="529"/>
-      <c r="D36" s="530"/>
-      <c r="E36" s="531" t="str">
+      <c r="C36" s="525"/>
+      <c r="D36" s="526"/>
+      <c r="E36" s="527" t="str">
         <f>Данные!C20</f>
         <v>III-2-82-450-1</v>
       </c>
-      <c r="F36" s="532"/>
-      <c r="G36" s="535">
+      <c r="F36" s="528"/>
+      <c r="G36" s="531">
         <f>Данные!B20</f>
         <v>60</v>
       </c>
-      <c r="H36" s="537"/>
-      <c r="I36" s="538"/>
-      <c r="J36" s="539"/>
+      <c r="H36" s="533"/>
+      <c r="I36" s="534"/>
+      <c r="J36" s="535"/>
     </row>
     <row r="37" spans="1:10" ht="40.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="527"/>
-      <c r="B37" s="543" t="str">
+      <c r="A37" s="523"/>
+      <c r="B37" s="539" t="str">
         <f>Данные!$A$30</f>
         <v>(к серийному формокомплекту Банка III-2-82-45-1)</v>
       </c>
-      <c r="C37" s="544"/>
-      <c r="D37" s="545"/>
-      <c r="E37" s="533"/>
-      <c r="F37" s="534"/>
-      <c r="G37" s="536"/>
-      <c r="H37" s="540"/>
-      <c r="I37" s="541"/>
-      <c r="J37" s="542"/>
+      <c r="C37" s="540"/>
+      <c r="D37" s="541"/>
+      <c r="E37" s="529"/>
+      <c r="F37" s="530"/>
+      <c r="G37" s="532"/>
+      <c r="H37" s="536"/>
+      <c r="I37" s="537"/>
+      <c r="J37" s="538"/>
     </row>
     <row r="38" spans="1:10" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="526">
+      <c r="A38" s="522">
         <f t="shared" ref="A38" si="5">A36+1</f>
         <v>8</v>
       </c>
-      <c r="B38" s="528" t="s">
+      <c r="B38" s="524" t="s">
         <v>52</v>
       </c>
-      <c r="C38" s="529"/>
-      <c r="D38" s="530"/>
-      <c r="E38" s="531">
+      <c r="C38" s="525"/>
+      <c r="D38" s="526"/>
+      <c r="E38" s="527">
         <f>Данные!C21</f>
         <v>0</v>
       </c>
-      <c r="F38" s="532"/>
-      <c r="G38" s="535">
+      <c r="F38" s="528"/>
+      <c r="G38" s="531">
         <f>Данные!B21</f>
         <v>0</v>
       </c>
-      <c r="H38" s="537"/>
-      <c r="I38" s="538"/>
-      <c r="J38" s="539"/>
+      <c r="H38" s="533"/>
+      <c r="I38" s="534"/>
+      <c r="J38" s="535"/>
     </row>
     <row r="39" spans="1:10" ht="40.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="527"/>
-      <c r="B39" s="543" t="str">
+      <c r="A39" s="523"/>
+      <c r="B39" s="539" t="str">
         <f>Данные!$A$30</f>
         <v>(к серийному формокомплекту Банка III-2-82-45-1)</v>
       </c>
-      <c r="C39" s="544"/>
-      <c r="D39" s="545"/>
-      <c r="E39" s="533"/>
-      <c r="F39" s="534"/>
-      <c r="G39" s="536"/>
-      <c r="H39" s="540"/>
-      <c r="I39" s="541"/>
-      <c r="J39" s="542"/>
+      <c r="C39" s="540"/>
+      <c r="D39" s="541"/>
+      <c r="E39" s="529"/>
+      <c r="F39" s="530"/>
+      <c r="G39" s="532"/>
+      <c r="H39" s="536"/>
+      <c r="I39" s="537"/>
+      <c r="J39" s="538"/>
     </row>
     <row r="40" spans="1:10" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A40" s="526">
+      <c r="A40" s="522">
         <f t="shared" ref="A40" si="6">A38+1</f>
         <v>9</v>
       </c>
-      <c r="B40" s="528" t="s">
+      <c r="B40" s="524" t="s">
         <v>55</v>
       </c>
-      <c r="C40" s="529"/>
-      <c r="D40" s="530"/>
-      <c r="E40" s="531">
+      <c r="C40" s="525"/>
+      <c r="D40" s="526"/>
+      <c r="E40" s="527">
         <f>Данные!C23</f>
         <v>0</v>
       </c>
-      <c r="F40" s="532"/>
-      <c r="G40" s="535">
+      <c r="F40" s="528"/>
+      <c r="G40" s="531">
         <f>Данные!B23</f>
         <v>0</v>
       </c>
-      <c r="H40" s="537"/>
-      <c r="I40" s="538"/>
-      <c r="J40" s="539"/>
+      <c r="H40" s="533"/>
+      <c r="I40" s="534"/>
+      <c r="J40" s="535"/>
     </row>
     <row r="41" spans="1:10" ht="40.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A41" s="527"/>
-      <c r="B41" s="543" t="str">
+      <c r="A41" s="523"/>
+      <c r="B41" s="539" t="str">
         <f>Данные!$A$30</f>
         <v>(к серийному формокомплекту Банка III-2-82-45-1)</v>
       </c>
-      <c r="C41" s="544"/>
-      <c r="D41" s="545"/>
-      <c r="E41" s="533"/>
-      <c r="F41" s="534"/>
-      <c r="G41" s="536"/>
-      <c r="H41" s="540"/>
-      <c r="I41" s="541"/>
-      <c r="J41" s="542"/>
+      <c r="C41" s="540"/>
+      <c r="D41" s="541"/>
+      <c r="E41" s="529"/>
+      <c r="F41" s="530"/>
+      <c r="G41" s="532"/>
+      <c r="H41" s="536"/>
+      <c r="I41" s="537"/>
+      <c r="J41" s="538"/>
     </row>
     <row r="42" spans="1:10" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A42" s="526">
+      <c r="A42" s="522">
         <f t="shared" ref="A42" si="7">A40+1</f>
         <v>10</v>
       </c>
-      <c r="B42" s="528" t="s">
+      <c r="B42" s="524" t="s">
         <v>54</v>
       </c>
-      <c r="C42" s="529"/>
-      <c r="D42" s="530"/>
-      <c r="E42" s="531" t="str">
+      <c r="C42" s="525"/>
+      <c r="D42" s="526"/>
+      <c r="E42" s="527" t="str">
         <f>Данные!C26</f>
         <v>III-2-82-450-1</v>
       </c>
-      <c r="F42" s="532"/>
-      <c r="G42" s="535">
+      <c r="F42" s="528"/>
+      <c r="G42" s="531">
         <f>Данные!B26</f>
         <v>0</v>
       </c>
-      <c r="H42" s="537"/>
-      <c r="I42" s="538"/>
-      <c r="J42" s="539"/>
+      <c r="H42" s="533"/>
+      <c r="I42" s="534"/>
+      <c r="J42" s="535"/>
     </row>
     <row r="43" spans="1:10" ht="40.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A43" s="527"/>
-      <c r="B43" s="543" t="str">
+      <c r="A43" s="523"/>
+      <c r="B43" s="539" t="str">
         <f>Данные!$A$30</f>
         <v>(к серийному формокомплекту Банка III-2-82-45-1)</v>
       </c>
-      <c r="C43" s="544"/>
-      <c r="D43" s="545"/>
-      <c r="E43" s="533"/>
-      <c r="F43" s="534"/>
-      <c r="G43" s="536"/>
-      <c r="H43" s="540"/>
-      <c r="I43" s="541"/>
-      <c r="J43" s="542"/>
+      <c r="C43" s="540"/>
+      <c r="D43" s="541"/>
+      <c r="E43" s="529"/>
+      <c r="F43" s="530"/>
+      <c r="G43" s="532"/>
+      <c r="H43" s="536"/>
+      <c r="I43" s="537"/>
+      <c r="J43" s="538"/>
     </row>
     <row r="44" spans="1:10" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A44" s="526">
+      <c r="A44" s="522">
         <f t="shared" ref="A44" si="8">A42+1</f>
         <v>11</v>
       </c>
-      <c r="B44" s="528" t="s">
+      <c r="B44" s="524" t="s">
         <v>104</v>
       </c>
-      <c r="C44" s="529"/>
-      <c r="D44" s="530"/>
-      <c r="E44" s="531" t="str">
+      <c r="C44" s="525"/>
+      <c r="D44" s="526"/>
+      <c r="E44" s="527" t="str">
         <f>Данные!C27</f>
         <v>III-2-82-450-1</v>
       </c>
-      <c r="F44" s="532"/>
-      <c r="G44" s="535">
+      <c r="F44" s="528"/>
+      <c r="G44" s="531">
         <f>Данные!B27</f>
         <v>0</v>
       </c>
-      <c r="H44" s="537"/>
-      <c r="I44" s="538"/>
-      <c r="J44" s="539"/>
+      <c r="H44" s="533"/>
+      <c r="I44" s="534"/>
+      <c r="J44" s="535"/>
     </row>
     <row r="45" spans="1:10" ht="40.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A45" s="527"/>
-      <c r="B45" s="543" t="str">
+      <c r="A45" s="523"/>
+      <c r="B45" s="539" t="str">
         <f>Данные!$A$30</f>
         <v>(к серийному формокомплекту Банка III-2-82-45-1)</v>
       </c>
-      <c r="C45" s="544"/>
-      <c r="D45" s="545"/>
-      <c r="E45" s="533"/>
-      <c r="F45" s="534"/>
-      <c r="G45" s="536"/>
-      <c r="H45" s="540"/>
-      <c r="I45" s="541"/>
-      <c r="J45" s="542"/>
+      <c r="C45" s="540"/>
+      <c r="D45" s="541"/>
+      <c r="E45" s="529"/>
+      <c r="F45" s="530"/>
+      <c r="G45" s="532"/>
+      <c r="H45" s="536"/>
+      <c r="I45" s="537"/>
+      <c r="J45" s="538"/>
     </row>
     <row r="46" spans="1:10" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A46" s="526">
+      <c r="A46" s="522">
         <f t="shared" ref="A46" si="9">A44+1</f>
         <v>12</v>
       </c>
-      <c r="B46" s="528" t="s">
+      <c r="B46" s="524" t="s">
         <v>69</v>
       </c>
-      <c r="C46" s="529"/>
-      <c r="D46" s="530"/>
-      <c r="E46" s="531" t="str">
+      <c r="C46" s="525"/>
+      <c r="D46" s="526"/>
+      <c r="E46" s="527" t="str">
         <f>Данные!C24</f>
         <v>III-2-82-450-1</v>
       </c>
-      <c r="F46" s="532"/>
-      <c r="G46" s="535">
+      <c r="F46" s="528"/>
+      <c r="G46" s="531">
         <f>Данные!B24</f>
         <v>8</v>
       </c>
-      <c r="H46" s="537"/>
-      <c r="I46" s="538"/>
-      <c r="J46" s="539"/>
+      <c r="H46" s="533"/>
+      <c r="I46" s="534"/>
+      <c r="J46" s="535"/>
     </row>
     <row r="47" spans="1:10" ht="40.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A47" s="527"/>
-      <c r="B47" s="543" t="str">
+      <c r="A47" s="523"/>
+      <c r="B47" s="539" t="str">
         <f>Данные!$A$30</f>
         <v>(к серийному формокомплекту Банка III-2-82-45-1)</v>
       </c>
-      <c r="C47" s="544"/>
-      <c r="D47" s="545"/>
-      <c r="E47" s="533"/>
-      <c r="F47" s="534"/>
-      <c r="G47" s="536"/>
-      <c r="H47" s="540"/>
-      <c r="I47" s="541"/>
-      <c r="J47" s="542"/>
+      <c r="C47" s="540"/>
+      <c r="D47" s="541"/>
+      <c r="E47" s="529"/>
+      <c r="F47" s="530"/>
+      <c r="G47" s="532"/>
+      <c r="H47" s="536"/>
+      <c r="I47" s="537"/>
+      <c r="J47" s="538"/>
     </row>
     <row r="48" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A48" s="304"/>
@@ -11492,47 +11489,47 @@
     </row>
     <row r="2" spans="1:19" ht="23.25" x14ac:dyDescent="0.2">
       <c r="A2" s="65"/>
-      <c r="B2" s="559"/>
-      <c r="C2" s="560"/>
-      <c r="D2" s="561"/>
-      <c r="E2" s="568" t="s">
+      <c r="B2" s="555"/>
+      <c r="C2" s="556"/>
+      <c r="D2" s="557"/>
+      <c r="E2" s="564" t="s">
         <v>10</v>
       </c>
-      <c r="F2" s="569"/>
-      <c r="G2" s="569"/>
-      <c r="H2" s="570"/>
-      <c r="I2" s="575" t="s">
+      <c r="F2" s="565"/>
+      <c r="G2" s="565"/>
+      <c r="H2" s="566"/>
+      <c r="I2" s="571" t="s">
         <v>11</v>
       </c>
-      <c r="J2" s="576"/>
-      <c r="K2" s="579">
+      <c r="J2" s="572"/>
+      <c r="K2" s="575">
         <f>Данные!B14</f>
         <v>24</v>
       </c>
-      <c r="L2" s="580"/>
+      <c r="L2" s="576"/>
       <c r="M2" s="66"/>
       <c r="N2" s="67"/>
       <c r="O2" s="68"/>
-      <c r="P2" s="571"/>
-      <c r="Q2" s="571"/>
+      <c r="P2" s="567"/>
+      <c r="Q2" s="567"/>
       <c r="R2" s="69"/>
       <c r="S2" s="70"/>
     </row>
     <row r="3" spans="1:19" ht="24" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A3" s="65"/>
-      <c r="B3" s="562"/>
-      <c r="C3" s="563"/>
-      <c r="D3" s="564"/>
-      <c r="E3" s="572" t="s">
+      <c r="B3" s="558"/>
+      <c r="C3" s="559"/>
+      <c r="D3" s="560"/>
+      <c r="E3" s="568" t="s">
         <v>43</v>
       </c>
-      <c r="F3" s="573"/>
-      <c r="G3" s="573"/>
-      <c r="H3" s="574"/>
-      <c r="I3" s="577"/>
-      <c r="J3" s="578"/>
-      <c r="K3" s="581"/>
-      <c r="L3" s="582"/>
+      <c r="F3" s="569"/>
+      <c r="G3" s="569"/>
+      <c r="H3" s="570"/>
+      <c r="I3" s="573"/>
+      <c r="J3" s="574"/>
+      <c r="K3" s="577"/>
+      <c r="L3" s="578"/>
       <c r="M3" s="72"/>
       <c r="N3" s="71"/>
       <c r="O3" s="71"/>
@@ -11543,9 +11540,9 @@
     </row>
     <row r="4" spans="1:19" ht="24" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A4" s="65"/>
-      <c r="B4" s="565"/>
-      <c r="C4" s="566"/>
-      <c r="D4" s="567"/>
+      <c r="B4" s="561"/>
+      <c r="C4" s="562"/>
+      <c r="D4" s="563"/>
       <c r="E4" s="16"/>
       <c r="F4" s="16"/>
       <c r="G4" s="16"/>
@@ -11564,22 +11561,22 @@
     </row>
     <row r="5" spans="1:19" ht="24.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A5" s="65"/>
-      <c r="B5" s="586" t="s">
+      <c r="B5" s="582" t="s">
         <v>13</v>
       </c>
-      <c r="C5" s="587"/>
-      <c r="D5" s="510" t="str">
+      <c r="C5" s="583"/>
+      <c r="D5" s="506" t="str">
         <f>Данные!$A5</f>
         <v>PCI</v>
       </c>
-      <c r="E5" s="511"/>
-      <c r="F5" s="511"/>
-      <c r="G5" s="511"/>
-      <c r="H5" s="512"/>
-      <c r="I5" s="588"/>
-      <c r="J5" s="589"/>
-      <c r="K5" s="511"/>
-      <c r="L5" s="512"/>
+      <c r="E5" s="507"/>
+      <c r="F5" s="507"/>
+      <c r="G5" s="507"/>
+      <c r="H5" s="508"/>
+      <c r="I5" s="584"/>
+      <c r="J5" s="585"/>
+      <c r="K5" s="507"/>
+      <c r="L5" s="508"/>
       <c r="M5" s="74"/>
       <c r="N5" s="71"/>
       <c r="O5" s="71"/>
@@ -11590,22 +11587,22 @@
     </row>
     <row r="6" spans="1:19" ht="24.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A6" s="65"/>
-      <c r="B6" s="586" t="s">
+      <c r="B6" s="582" t="s">
         <v>12</v>
       </c>
-      <c r="C6" s="590"/>
-      <c r="D6" s="504" t="str">
+      <c r="C6" s="586"/>
+      <c r="D6" s="500" t="str">
         <f>Данные!$A2</f>
         <v>III-2-82-450-1 (Банка 0,45 л.)</v>
       </c>
-      <c r="E6" s="591"/>
-      <c r="F6" s="591"/>
-      <c r="G6" s="591"/>
-      <c r="H6" s="592"/>
-      <c r="I6" s="588"/>
-      <c r="J6" s="589"/>
-      <c r="K6" s="511"/>
-      <c r="L6" s="512"/>
+      <c r="E6" s="587"/>
+      <c r="F6" s="587"/>
+      <c r="G6" s="587"/>
+      <c r="H6" s="588"/>
+      <c r="I6" s="584"/>
+      <c r="J6" s="585"/>
+      <c r="K6" s="507"/>
+      <c r="L6" s="508"/>
       <c r="M6" s="74"/>
       <c r="N6" s="71"/>
       <c r="O6" s="71"/>
@@ -11616,27 +11613,27 @@
     </row>
     <row r="7" spans="1:19" ht="78.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A7" s="65"/>
-      <c r="B7" s="596" t="s">
+      <c r="B7" s="592" t="s">
         <v>14</v>
       </c>
-      <c r="C7" s="597"/>
-      <c r="D7" s="513">
+      <c r="C7" s="593"/>
+      <c r="D7" s="509">
         <f>Данные!$A8</f>
         <v>0</v>
       </c>
-      <c r="E7" s="598"/>
-      <c r="F7" s="598"/>
-      <c r="G7" s="598"/>
-      <c r="H7" s="599"/>
-      <c r="I7" s="596" t="s">
+      <c r="E7" s="594"/>
+      <c r="F7" s="594"/>
+      <c r="G7" s="594"/>
+      <c r="H7" s="595"/>
+      <c r="I7" s="592" t="s">
         <v>15</v>
       </c>
-      <c r="J7" s="600"/>
-      <c r="K7" s="501">
+      <c r="J7" s="596"/>
+      <c r="K7" s="497">
         <f>Данные!$A11</f>
         <v>0</v>
       </c>
-      <c r="L7" s="502"/>
+      <c r="L7" s="498"/>
       <c r="M7" s="75"/>
       <c r="N7" s="76"/>
       <c r="O7" s="76"/>
@@ -12104,12 +12101,12 @@
     </row>
     <row r="23" spans="1:19" ht="15" x14ac:dyDescent="0.2">
       <c r="A23" s="78"/>
-      <c r="B23" s="593" t="s">
+      <c r="B23" s="589" t="s">
         <v>56</v>
       </c>
-      <c r="C23" s="594"/>
-      <c r="D23" s="594"/>
-      <c r="E23" s="595"/>
+      <c r="C23" s="590"/>
+      <c r="D23" s="590"/>
+      <c r="E23" s="591"/>
       <c r="F23" s="114" t="s">
         <v>16</v>
       </c>
@@ -12131,12 +12128,12 @@
     </row>
     <row r="24" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A24" s="78"/>
-      <c r="B24" s="583" t="s">
+      <c r="B24" s="579" t="s">
         <v>45</v>
       </c>
-      <c r="C24" s="584"/>
-      <c r="D24" s="584"/>
-      <c r="E24" s="585"/>
+      <c r="C24" s="580"/>
+      <c r="D24" s="580"/>
+      <c r="E24" s="581"/>
       <c r="F24" s="114" t="s">
         <v>16</v>
       </c>
@@ -12179,25 +12176,25 @@
     </row>
     <row r="26" spans="1:19" ht="13.5" customHeight="1" thickTop="1" x14ac:dyDescent="0.2"/>
     <row r="27" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="K27" s="558" t="s">
+      <c r="K27" s="554" t="s">
         <v>135</v>
       </c>
-      <c r="L27" s="558"/>
-      <c r="M27" s="558"/>
-      <c r="N27" s="473"/>
-      <c r="O27" s="473"/>
-      <c r="P27" s="489"/>
-      <c r="Q27" s="489"/>
+      <c r="L27" s="554"/>
+      <c r="M27" s="554"/>
+      <c r="N27" s="472"/>
+      <c r="O27" s="472"/>
+      <c r="P27" s="488"/>
+      <c r="Q27" s="488"/>
     </row>
     <row r="28" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="N28" s="555" t="s">
+      <c r="N28" s="551" t="s">
         <v>139</v>
       </c>
-      <c r="O28" s="555"/>
-      <c r="P28" s="556" t="s">
+      <c r="O28" s="551"/>
+      <c r="P28" s="552" t="s">
         <v>140</v>
       </c>
-      <c r="Q28" s="557"/>
+      <c r="Q28" s="553"/>
     </row>
   </sheetData>
   <mergeCells count="23">
@@ -12289,50 +12286,50 @@
     </row>
     <row r="2" spans="1:19" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="65"/>
-      <c r="B2" s="607">
+      <c r="B2" s="603">
         <f>'Чист. форма'!B2:D4</f>
         <v>0</v>
       </c>
-      <c r="C2" s="608"/>
-      <c r="D2" s="609"/>
-      <c r="E2" s="616" t="s">
+      <c r="C2" s="604"/>
+      <c r="D2" s="605"/>
+      <c r="E2" s="612" t="s">
         <v>10</v>
       </c>
-      <c r="F2" s="617"/>
-      <c r="G2" s="617"/>
-      <c r="H2" s="618"/>
-      <c r="I2" s="622" t="s">
+      <c r="F2" s="613"/>
+      <c r="G2" s="613"/>
+      <c r="H2" s="614"/>
+      <c r="I2" s="618" t="s">
         <v>11</v>
       </c>
-      <c r="J2" s="623"/>
-      <c r="K2" s="626">
+      <c r="J2" s="619"/>
+      <c r="K2" s="622">
         <f>Данные!B15</f>
         <v>24</v>
       </c>
-      <c r="L2" s="627"/>
+      <c r="L2" s="623"/>
       <c r="M2" s="66"/>
       <c r="N2" s="67"/>
       <c r="O2" s="68"/>
-      <c r="P2" s="571"/>
-      <c r="Q2" s="571"/>
+      <c r="P2" s="567"/>
+      <c r="Q2" s="567"/>
       <c r="R2" s="69"/>
       <c r="S2" s="70"/>
     </row>
     <row r="3" spans="1:19" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A3" s="65"/>
-      <c r="B3" s="610"/>
-      <c r="C3" s="611"/>
-      <c r="D3" s="612"/>
-      <c r="E3" s="619" t="s">
+      <c r="B3" s="606"/>
+      <c r="C3" s="607"/>
+      <c r="D3" s="608"/>
+      <c r="E3" s="615" t="s">
         <v>44</v>
       </c>
-      <c r="F3" s="620"/>
-      <c r="G3" s="620"/>
-      <c r="H3" s="621"/>
-      <c r="I3" s="624"/>
-      <c r="J3" s="625"/>
-      <c r="K3" s="628"/>
-      <c r="L3" s="629"/>
+      <c r="F3" s="616"/>
+      <c r="G3" s="616"/>
+      <c r="H3" s="617"/>
+      <c r="I3" s="620"/>
+      <c r="J3" s="621"/>
+      <c r="K3" s="624"/>
+      <c r="L3" s="625"/>
       <c r="M3" s="72"/>
       <c r="N3" s="71"/>
       <c r="O3" s="71"/>
@@ -12343,9 +12340,9 @@
     </row>
     <row r="4" spans="1:19" ht="17.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A4" s="65"/>
-      <c r="B4" s="613"/>
-      <c r="C4" s="614"/>
-      <c r="D4" s="615"/>
+      <c r="B4" s="609"/>
+      <c r="C4" s="610"/>
+      <c r="D4" s="611"/>
       <c r="E4" s="243"/>
       <c r="F4" s="243"/>
       <c r="G4" s="243"/>
@@ -12364,22 +12361,22 @@
     </row>
     <row r="5" spans="1:19" ht="24.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A5" s="65"/>
-      <c r="B5" s="586" t="s">
+      <c r="B5" s="582" t="s">
         <v>13</v>
       </c>
-      <c r="C5" s="601"/>
-      <c r="D5" s="510" t="str">
+      <c r="C5" s="597"/>
+      <c r="D5" s="506" t="str">
         <f>Данные!$A5</f>
         <v>PCI</v>
       </c>
-      <c r="E5" s="511"/>
-      <c r="F5" s="511"/>
-      <c r="G5" s="511"/>
-      <c r="H5" s="512"/>
-      <c r="I5" s="602"/>
-      <c r="J5" s="603"/>
-      <c r="K5" s="604"/>
-      <c r="L5" s="512"/>
+      <c r="E5" s="507"/>
+      <c r="F5" s="507"/>
+      <c r="G5" s="507"/>
+      <c r="H5" s="508"/>
+      <c r="I5" s="598"/>
+      <c r="J5" s="599"/>
+      <c r="K5" s="600"/>
+      <c r="L5" s="508"/>
       <c r="M5" s="74"/>
       <c r="N5" s="71"/>
       <c r="O5" s="71"/>
@@ -12390,22 +12387,22 @@
     </row>
     <row r="6" spans="1:19" ht="17.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A6" s="65"/>
-      <c r="B6" s="586" t="s">
+      <c r="B6" s="582" t="s">
         <v>12</v>
       </c>
-      <c r="C6" s="601"/>
-      <c r="D6" s="504" t="str">
+      <c r="C6" s="597"/>
+      <c r="D6" s="500" t="str">
         <f>Данные!$A2</f>
         <v>III-2-82-450-1 (Банка 0,45 л.)</v>
       </c>
-      <c r="E6" s="591"/>
-      <c r="F6" s="591"/>
-      <c r="G6" s="591"/>
-      <c r="H6" s="592"/>
-      <c r="I6" s="602"/>
-      <c r="J6" s="603"/>
-      <c r="K6" s="604"/>
-      <c r="L6" s="512"/>
+      <c r="E6" s="587"/>
+      <c r="F6" s="587"/>
+      <c r="G6" s="587"/>
+      <c r="H6" s="588"/>
+      <c r="I6" s="598"/>
+      <c r="J6" s="599"/>
+      <c r="K6" s="600"/>
+      <c r="L6" s="508"/>
       <c r="M6" s="72"/>
       <c r="N6" s="71"/>
       <c r="O6" s="71"/>
@@ -12416,27 +12413,27 @@
     </row>
     <row r="7" spans="1:19" ht="69" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A7" s="65"/>
-      <c r="B7" s="596" t="s">
+      <c r="B7" s="592" t="s">
         <v>14</v>
       </c>
-      <c r="C7" s="605"/>
-      <c r="D7" s="513">
+      <c r="C7" s="601"/>
+      <c r="D7" s="509">
         <f>Данные!$A8</f>
         <v>0</v>
       </c>
-      <c r="E7" s="598"/>
-      <c r="F7" s="598"/>
-      <c r="G7" s="598"/>
-      <c r="H7" s="599"/>
-      <c r="I7" s="606" t="s">
+      <c r="E7" s="594"/>
+      <c r="F7" s="594"/>
+      <c r="G7" s="594"/>
+      <c r="H7" s="595"/>
+      <c r="I7" s="602" t="s">
         <v>15</v>
       </c>
-      <c r="J7" s="605"/>
-      <c r="K7" s="501">
+      <c r="J7" s="601"/>
+      <c r="K7" s="497">
         <f>Данные!$A11</f>
         <v>0</v>
       </c>
-      <c r="L7" s="502"/>
+      <c r="L7" s="498"/>
       <c r="M7" s="74"/>
       <c r="N7" s="71"/>
       <c r="O7" s="71"/>
@@ -12627,12 +12624,12 @@
     </row>
     <row r="14" spans="1:19" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="78"/>
-      <c r="B14" s="631" t="s">
+      <c r="B14" s="627" t="s">
         <v>134</v>
       </c>
-      <c r="C14" s="632"/>
-      <c r="D14" s="632"/>
-      <c r="E14" s="632"/>
+      <c r="C14" s="628"/>
+      <c r="D14" s="628"/>
+      <c r="E14" s="628"/>
       <c r="F14" s="114" t="s">
         <v>16</v>
       </c>
@@ -12654,13 +12651,13 @@
     </row>
     <row r="15" spans="1:19" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="78"/>
-      <c r="B15" s="593" t="s">
+      <c r="B15" s="589" t="s">
         <v>141</v>
       </c>
-      <c r="C15" s="594"/>
-      <c r="D15" s="594"/>
-      <c r="E15" s="594"/>
-      <c r="F15" s="630"/>
+      <c r="C15" s="590"/>
+      <c r="D15" s="590"/>
+      <c r="E15" s="590"/>
+      <c r="F15" s="626"/>
       <c r="G15" s="56" t="s">
         <v>76</v>
       </c>
@@ -12679,12 +12676,12 @@
     </row>
     <row r="16" spans="1:19" ht="24.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A16" s="78"/>
-      <c r="B16" s="583" t="s">
+      <c r="B16" s="579" t="s">
         <v>45</v>
       </c>
-      <c r="C16" s="584"/>
-      <c r="D16" s="584"/>
-      <c r="E16" s="585"/>
+      <c r="C16" s="580"/>
+      <c r="D16" s="580"/>
+      <c r="E16" s="581"/>
       <c r="F16" s="114" t="s">
         <v>16</v>
       </c>
@@ -12731,25 +12728,25 @@
     </row>
     <row r="19" spans="1:19" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B19" s="121"/>
-      <c r="L19" s="558" t="s">
+      <c r="L19" s="554" t="s">
         <v>135</v>
       </c>
-      <c r="M19" s="558"/>
-      <c r="N19" s="558"/>
-      <c r="O19" s="473"/>
-      <c r="P19" s="473"/>
-      <c r="Q19" s="489"/>
-      <c r="R19" s="489"/>
+      <c r="M19" s="554"/>
+      <c r="N19" s="554"/>
+      <c r="O19" s="472"/>
+      <c r="P19" s="472"/>
+      <c r="Q19" s="488"/>
+      <c r="R19" s="488"/>
     </row>
     <row r="20" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="O20" s="555" t="s">
+      <c r="O20" s="551" t="s">
         <v>139</v>
       </c>
-      <c r="P20" s="555"/>
-      <c r="Q20" s="556" t="s">
+      <c r="P20" s="551"/>
+      <c r="Q20" s="552" t="s">
         <v>140</v>
       </c>
-      <c r="R20" s="557"/>
+      <c r="R20" s="553"/>
     </row>
   </sheetData>
   <mergeCells count="24">
@@ -12850,47 +12847,47 @@
     </row>
     <row r="2" spans="1:24" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="65"/>
-      <c r="B2" s="559"/>
-      <c r="C2" s="560"/>
-      <c r="D2" s="561"/>
-      <c r="E2" s="568" t="s">
+      <c r="B2" s="555"/>
+      <c r="C2" s="556"/>
+      <c r="D2" s="557"/>
+      <c r="E2" s="564" t="s">
         <v>10</v>
       </c>
-      <c r="F2" s="569"/>
-      <c r="G2" s="569"/>
-      <c r="H2" s="570"/>
-      <c r="I2" s="575" t="s">
+      <c r="F2" s="565"/>
+      <c r="G2" s="565"/>
+      <c r="H2" s="566"/>
+      <c r="I2" s="571" t="s">
         <v>11</v>
       </c>
-      <c r="J2" s="576"/>
-      <c r="K2" s="579">
+      <c r="J2" s="572"/>
+      <c r="K2" s="575">
         <f>Данные!B16</f>
         <v>32</v>
       </c>
-      <c r="L2" s="580"/>
+      <c r="L2" s="576"/>
       <c r="M2" s="66"/>
       <c r="N2" s="67"/>
       <c r="O2" s="68"/>
-      <c r="P2" s="571"/>
-      <c r="Q2" s="571"/>
+      <c r="P2" s="567"/>
+      <c r="Q2" s="567"/>
       <c r="R2" s="69"/>
       <c r="S2" s="70"/>
     </row>
     <row r="3" spans="1:24" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A3" s="65"/>
-      <c r="B3" s="562"/>
-      <c r="C3" s="563"/>
-      <c r="D3" s="564"/>
-      <c r="E3" s="572" t="s">
+      <c r="B3" s="558"/>
+      <c r="C3" s="559"/>
+      <c r="D3" s="560"/>
+      <c r="E3" s="568" t="s">
         <v>38</v>
       </c>
-      <c r="F3" s="573"/>
-      <c r="G3" s="573"/>
-      <c r="H3" s="574"/>
-      <c r="I3" s="577"/>
-      <c r="J3" s="578"/>
-      <c r="K3" s="581"/>
-      <c r="L3" s="582"/>
+      <c r="F3" s="569"/>
+      <c r="G3" s="569"/>
+      <c r="H3" s="570"/>
+      <c r="I3" s="573"/>
+      <c r="J3" s="574"/>
+      <c r="K3" s="577"/>
+      <c r="L3" s="578"/>
       <c r="M3" s="72"/>
       <c r="N3" s="71"/>
       <c r="O3" s="71"/>
@@ -12901,9 +12898,9 @@
     </row>
     <row r="4" spans="1:24" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A4" s="65"/>
-      <c r="B4" s="565"/>
-      <c r="C4" s="566"/>
-      <c r="D4" s="567"/>
+      <c r="B4" s="561"/>
+      <c r="C4" s="562"/>
+      <c r="D4" s="563"/>
       <c r="E4" s="16"/>
       <c r="F4" s="16"/>
       <c r="G4" s="16"/>
@@ -12922,22 +12919,22 @@
     </row>
     <row r="5" spans="1:24" ht="26.25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A5" s="65"/>
-      <c r="B5" s="586" t="s">
+      <c r="B5" s="582" t="s">
         <v>13</v>
       </c>
-      <c r="C5" s="587"/>
-      <c r="D5" s="510" t="str">
+      <c r="C5" s="583"/>
+      <c r="D5" s="506" t="str">
         <f>Данные!$A5</f>
         <v>PCI</v>
       </c>
-      <c r="E5" s="511"/>
-      <c r="F5" s="511"/>
-      <c r="G5" s="511"/>
-      <c r="H5" s="512"/>
-      <c r="I5" s="588"/>
-      <c r="J5" s="589"/>
-      <c r="K5" s="511"/>
-      <c r="L5" s="512"/>
+      <c r="E5" s="507"/>
+      <c r="F5" s="507"/>
+      <c r="G5" s="507"/>
+      <c r="H5" s="508"/>
+      <c r="I5" s="584"/>
+      <c r="J5" s="585"/>
+      <c r="K5" s="507"/>
+      <c r="L5" s="508"/>
       <c r="M5" s="74"/>
       <c r="N5" s="71"/>
       <c r="O5" s="71"/>
@@ -12948,22 +12945,22 @@
     </row>
     <row r="6" spans="1:24" ht="26.25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A6" s="65"/>
-      <c r="B6" s="586" t="s">
+      <c r="B6" s="582" t="s">
         <v>12</v>
       </c>
-      <c r="C6" s="590"/>
-      <c r="D6" s="504" t="str">
+      <c r="C6" s="586"/>
+      <c r="D6" s="500" t="str">
         <f>Данные!$A2</f>
         <v>III-2-82-450-1 (Банка 0,45 л.)</v>
       </c>
-      <c r="E6" s="591"/>
-      <c r="F6" s="591"/>
-      <c r="G6" s="591"/>
-      <c r="H6" s="592"/>
-      <c r="I6" s="588"/>
-      <c r="J6" s="589"/>
-      <c r="K6" s="511"/>
-      <c r="L6" s="512"/>
+      <c r="E6" s="587"/>
+      <c r="F6" s="587"/>
+      <c r="G6" s="587"/>
+      <c r="H6" s="588"/>
+      <c r="I6" s="584"/>
+      <c r="J6" s="585"/>
+      <c r="K6" s="507"/>
+      <c r="L6" s="508"/>
       <c r="M6" s="74"/>
       <c r="N6" s="71"/>
       <c r="O6" s="71"/>
@@ -12974,27 +12971,27 @@
     </row>
     <row r="7" spans="1:24" ht="130.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A7" s="65"/>
-      <c r="B7" s="596" t="s">
+      <c r="B7" s="592" t="s">
         <v>14</v>
       </c>
-      <c r="C7" s="597"/>
-      <c r="D7" s="513">
+      <c r="C7" s="593"/>
+      <c r="D7" s="509">
         <f>Данные!$A8</f>
         <v>0</v>
       </c>
-      <c r="E7" s="598"/>
-      <c r="F7" s="598"/>
-      <c r="G7" s="598"/>
-      <c r="H7" s="599"/>
-      <c r="I7" s="596" t="s">
+      <c r="E7" s="594"/>
+      <c r="F7" s="594"/>
+      <c r="G7" s="594"/>
+      <c r="H7" s="595"/>
+      <c r="I7" s="592" t="s">
         <v>15</v>
       </c>
-      <c r="J7" s="600"/>
-      <c r="K7" s="501">
+      <c r="J7" s="596"/>
+      <c r="K7" s="497">
         <f>Данные!$A11</f>
         <v>0</v>
       </c>
-      <c r="L7" s="502"/>
+      <c r="L7" s="498"/>
       <c r="M7" s="75"/>
       <c r="N7" s="76"/>
       <c r="O7" s="76"/>
@@ -13454,25 +13451,25 @@
     </row>
     <row r="22" spans="1:24" ht="13.5" customHeight="1" thickTop="1" x14ac:dyDescent="0.2"/>
     <row r="23" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="L23" s="633" t="s">
+      <c r="L23" s="629" t="s">
         <v>135</v>
       </c>
-      <c r="M23" s="633"/>
-      <c r="N23" s="633"/>
-      <c r="O23" s="473"/>
-      <c r="P23" s="473"/>
-      <c r="Q23" s="489"/>
-      <c r="R23" s="489"/>
+      <c r="M23" s="629"/>
+      <c r="N23" s="629"/>
+      <c r="O23" s="472"/>
+      <c r="P23" s="472"/>
+      <c r="Q23" s="488"/>
+      <c r="R23" s="488"/>
     </row>
     <row r="24" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="O24" s="555" t="s">
+      <c r="O24" s="551" t="s">
         <v>139</v>
       </c>
-      <c r="P24" s="555"/>
-      <c r="Q24" s="556" t="s">
+      <c r="P24" s="551"/>
+      <c r="Q24" s="552" t="s">
         <v>140</v>
       </c>
-      <c r="R24" s="557"/>
+      <c r="R24" s="553"/>
     </row>
   </sheetData>
   <mergeCells count="21">
@@ -13564,47 +13561,47 @@
     </row>
     <row r="2" spans="1:19" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="6"/>
-      <c r="B2" s="559"/>
-      <c r="C2" s="560"/>
-      <c r="D2" s="561"/>
-      <c r="E2" s="568" t="s">
+      <c r="B2" s="555"/>
+      <c r="C2" s="556"/>
+      <c r="D2" s="557"/>
+      <c r="E2" s="564" t="s">
         <v>10</v>
       </c>
-      <c r="F2" s="569"/>
-      <c r="G2" s="569"/>
-      <c r="H2" s="570"/>
-      <c r="I2" s="575" t="s">
+      <c r="F2" s="565"/>
+      <c r="G2" s="565"/>
+      <c r="H2" s="566"/>
+      <c r="I2" s="571" t="s">
         <v>11</v>
       </c>
-      <c r="J2" s="576"/>
-      <c r="K2" s="579">
+      <c r="J2" s="572"/>
+      <c r="K2" s="575">
         <f>Данные!B17</f>
         <v>32</v>
       </c>
-      <c r="L2" s="580"/>
+      <c r="L2" s="576"/>
       <c r="M2" s="7"/>
       <c r="N2" s="8"/>
       <c r="O2" s="9"/>
-      <c r="P2" s="634"/>
-      <c r="Q2" s="634"/>
+      <c r="P2" s="630"/>
+      <c r="Q2" s="630"/>
       <c r="R2" s="10"/>
       <c r="S2" s="11"/>
     </row>
     <row r="3" spans="1:19" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A3" s="6"/>
-      <c r="B3" s="562"/>
-      <c r="C3" s="563"/>
-      <c r="D3" s="564"/>
-      <c r="E3" s="572" t="s">
+      <c r="B3" s="558"/>
+      <c r="C3" s="559"/>
+      <c r="D3" s="560"/>
+      <c r="E3" s="568" t="s">
         <v>23</v>
       </c>
-      <c r="F3" s="573"/>
-      <c r="G3" s="573"/>
-      <c r="H3" s="574"/>
-      <c r="I3" s="577"/>
-      <c r="J3" s="578"/>
-      <c r="K3" s="581"/>
-      <c r="L3" s="582"/>
+      <c r="F3" s="569"/>
+      <c r="G3" s="569"/>
+      <c r="H3" s="570"/>
+      <c r="I3" s="573"/>
+      <c r="J3" s="574"/>
+      <c r="K3" s="577"/>
+      <c r="L3" s="578"/>
       <c r="M3" s="13"/>
       <c r="N3" s="14"/>
       <c r="O3" s="14"/>
@@ -13615,9 +13612,9 @@
     </row>
     <row r="4" spans="1:19" ht="17.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A4" s="6"/>
-      <c r="B4" s="565"/>
-      <c r="C4" s="566"/>
-      <c r="D4" s="567"/>
+      <c r="B4" s="561"/>
+      <c r="C4" s="562"/>
+      <c r="D4" s="563"/>
       <c r="E4" s="16"/>
       <c r="F4" s="16"/>
       <c r="G4" s="16"/>
@@ -13636,22 +13633,22 @@
     </row>
     <row r="5" spans="1:19" ht="24.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A5" s="6"/>
-      <c r="B5" s="586" t="s">
+      <c r="B5" s="582" t="s">
         <v>13</v>
       </c>
-      <c r="C5" s="587"/>
-      <c r="D5" s="510" t="str">
+      <c r="C5" s="583"/>
+      <c r="D5" s="506" t="str">
         <f>Данные!$A5</f>
         <v>PCI</v>
       </c>
-      <c r="E5" s="511"/>
-      <c r="F5" s="511"/>
-      <c r="G5" s="511"/>
-      <c r="H5" s="512"/>
-      <c r="I5" s="588"/>
-      <c r="J5" s="589"/>
-      <c r="K5" s="511"/>
-      <c r="L5" s="512"/>
+      <c r="E5" s="507"/>
+      <c r="F5" s="507"/>
+      <c r="G5" s="507"/>
+      <c r="H5" s="508"/>
+      <c r="I5" s="584"/>
+      <c r="J5" s="585"/>
+      <c r="K5" s="507"/>
+      <c r="L5" s="508"/>
       <c r="M5" s="21"/>
       <c r="N5" s="14"/>
       <c r="O5" s="14"/>
@@ -13662,22 +13659,22 @@
     </row>
     <row r="6" spans="1:19" ht="24.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A6" s="6"/>
-      <c r="B6" s="586" t="s">
+      <c r="B6" s="582" t="s">
         <v>12</v>
       </c>
-      <c r="C6" s="590"/>
-      <c r="D6" s="504" t="str">
+      <c r="C6" s="586"/>
+      <c r="D6" s="500" t="str">
         <f>Данные!$A2</f>
         <v>III-2-82-450-1 (Банка 0,45 л.)</v>
       </c>
-      <c r="E6" s="591"/>
-      <c r="F6" s="591"/>
-      <c r="G6" s="591"/>
-      <c r="H6" s="592"/>
-      <c r="I6" s="588"/>
-      <c r="J6" s="589"/>
-      <c r="K6" s="511"/>
-      <c r="L6" s="512"/>
+      <c r="E6" s="587"/>
+      <c r="F6" s="587"/>
+      <c r="G6" s="587"/>
+      <c r="H6" s="588"/>
+      <c r="I6" s="584"/>
+      <c r="J6" s="585"/>
+      <c r="K6" s="507"/>
+      <c r="L6" s="508"/>
       <c r="M6" s="21"/>
       <c r="N6" s="14"/>
       <c r="O6" s="14"/>
@@ -13688,27 +13685,27 @@
     </row>
     <row r="7" spans="1:19" ht="57" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A7" s="6"/>
-      <c r="B7" s="596" t="s">
+      <c r="B7" s="592" t="s">
         <v>14</v>
       </c>
-      <c r="C7" s="597"/>
-      <c r="D7" s="513">
+      <c r="C7" s="593"/>
+      <c r="D7" s="509">
         <f>Данные!$A8</f>
         <v>0</v>
       </c>
-      <c r="E7" s="598"/>
-      <c r="F7" s="598"/>
-      <c r="G7" s="598"/>
-      <c r="H7" s="599"/>
-      <c r="I7" s="596" t="s">
+      <c r="E7" s="594"/>
+      <c r="F7" s="594"/>
+      <c r="G7" s="594"/>
+      <c r="H7" s="595"/>
+      <c r="I7" s="592" t="s">
         <v>15</v>
       </c>
-      <c r="J7" s="600"/>
-      <c r="K7" s="501">
+      <c r="J7" s="596"/>
+      <c r="K7" s="497">
         <f>Данные!$A11</f>
         <v>0</v>
       </c>
-      <c r="L7" s="502"/>
+      <c r="L7" s="498"/>
       <c r="M7" s="22"/>
       <c r="N7" s="12"/>
       <c r="O7" s="12"/>
@@ -13988,25 +13985,25 @@
     </row>
     <row r="17" spans="12:18" ht="13.5" customHeight="1" thickTop="1" x14ac:dyDescent="0.2"/>
     <row r="18" spans="12:18" x14ac:dyDescent="0.2">
-      <c r="L18" s="633" t="s">
+      <c r="L18" s="629" t="s">
         <v>135</v>
       </c>
-      <c r="M18" s="633"/>
-      <c r="N18" s="633"/>
-      <c r="O18" s="473"/>
-      <c r="P18" s="473"/>
-      <c r="Q18" s="489"/>
-      <c r="R18" s="489"/>
+      <c r="M18" s="629"/>
+      <c r="N18" s="629"/>
+      <c r="O18" s="472"/>
+      <c r="P18" s="472"/>
+      <c r="Q18" s="488"/>
+      <c r="R18" s="488"/>
     </row>
     <row r="19" spans="12:18" x14ac:dyDescent="0.2">
-      <c r="O19" s="555" t="s">
+      <c r="O19" s="551" t="s">
         <v>139</v>
       </c>
-      <c r="P19" s="555"/>
-      <c r="Q19" s="556" t="s">
+      <c r="P19" s="551"/>
+      <c r="Q19" s="552" t="s">
         <v>140</v>
       </c>
-      <c r="R19" s="557"/>
+      <c r="R19" s="553"/>
     </row>
   </sheetData>
   <mergeCells count="21">
@@ -14102,60 +14099,60 @@
     </row>
     <row r="2" spans="1:19" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="65"/>
-      <c r="B2" s="607"/>
-      <c r="C2" s="608"/>
-      <c r="D2" s="609"/>
-      <c r="E2" s="616" t="s">
+      <c r="B2" s="603"/>
+      <c r="C2" s="604"/>
+      <c r="D2" s="605"/>
+      <c r="E2" s="612" t="s">
         <v>10</v>
       </c>
-      <c r="F2" s="617"/>
-      <c r="G2" s="617"/>
-      <c r="H2" s="618"/>
-      <c r="I2" s="622" t="s">
+      <c r="F2" s="613"/>
+      <c r="G2" s="613"/>
+      <c r="H2" s="614"/>
+      <c r="I2" s="618" t="s">
         <v>11</v>
       </c>
-      <c r="J2" s="623"/>
-      <c r="K2" s="626">
+      <c r="J2" s="619"/>
+      <c r="K2" s="622">
         <f>Данные!B18</f>
         <v>80</v>
       </c>
-      <c r="L2" s="627"/>
-      <c r="M2" s="635"/>
-      <c r="N2" s="636"/>
-      <c r="O2" s="636"/>
-      <c r="P2" s="636"/>
-      <c r="Q2" s="636"/>
-      <c r="R2" s="637"/>
+      <c r="L2" s="623"/>
+      <c r="M2" s="631"/>
+      <c r="N2" s="632"/>
+      <c r="O2" s="632"/>
+      <c r="P2" s="632"/>
+      <c r="Q2" s="632"/>
+      <c r="R2" s="633"/>
       <c r="S2" s="70"/>
     </row>
     <row r="3" spans="1:19" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A3" s="65"/>
-      <c r="B3" s="610"/>
-      <c r="C3" s="611"/>
-      <c r="D3" s="612"/>
-      <c r="E3" s="619" t="s">
+      <c r="B3" s="606"/>
+      <c r="C3" s="607"/>
+      <c r="D3" s="608"/>
+      <c r="E3" s="615" t="s">
         <v>47</v>
       </c>
-      <c r="F3" s="620"/>
-      <c r="G3" s="620"/>
-      <c r="H3" s="621"/>
-      <c r="I3" s="624"/>
-      <c r="J3" s="625"/>
-      <c r="K3" s="628"/>
-      <c r="L3" s="629"/>
-      <c r="M3" s="638"/>
-      <c r="N3" s="639"/>
-      <c r="O3" s="639"/>
-      <c r="P3" s="639"/>
-      <c r="Q3" s="639"/>
-      <c r="R3" s="640"/>
+      <c r="F3" s="616"/>
+      <c r="G3" s="616"/>
+      <c r="H3" s="617"/>
+      <c r="I3" s="620"/>
+      <c r="J3" s="621"/>
+      <c r="K3" s="624"/>
+      <c r="L3" s="625"/>
+      <c r="M3" s="634"/>
+      <c r="N3" s="635"/>
+      <c r="O3" s="635"/>
+      <c r="P3" s="635"/>
+      <c r="Q3" s="635"/>
+      <c r="R3" s="636"/>
       <c r="S3" s="70"/>
     </row>
     <row r="4" spans="1:19" ht="17.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A4" s="65"/>
-      <c r="B4" s="613"/>
-      <c r="C4" s="614"/>
-      <c r="D4" s="615"/>
+      <c r="B4" s="609"/>
+      <c r="C4" s="610"/>
+      <c r="D4" s="611"/>
       <c r="E4" s="243"/>
       <c r="F4" s="243"/>
       <c r="G4" s="243"/>
@@ -14164,95 +14161,95 @@
       <c r="J4" s="242"/>
       <c r="K4" s="245"/>
       <c r="L4" s="246"/>
-      <c r="M4" s="638"/>
-      <c r="N4" s="639"/>
-      <c r="O4" s="639"/>
-      <c r="P4" s="639"/>
-      <c r="Q4" s="639"/>
-      <c r="R4" s="640"/>
+      <c r="M4" s="634"/>
+      <c r="N4" s="635"/>
+      <c r="O4" s="635"/>
+      <c r="P4" s="635"/>
+      <c r="Q4" s="635"/>
+      <c r="R4" s="636"/>
       <c r="S4" s="70"/>
     </row>
     <row r="5" spans="1:19" ht="24.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A5" s="65"/>
-      <c r="B5" s="586" t="s">
+      <c r="B5" s="582" t="s">
         <v>13</v>
       </c>
-      <c r="C5" s="601"/>
-      <c r="D5" s="510" t="str">
+      <c r="C5" s="597"/>
+      <c r="D5" s="506" t="str">
         <f>Данные!$A5</f>
         <v>PCI</v>
       </c>
-      <c r="E5" s="511"/>
-      <c r="F5" s="511"/>
-      <c r="G5" s="511"/>
-      <c r="H5" s="512"/>
-      <c r="I5" s="602"/>
-      <c r="J5" s="603"/>
-      <c r="K5" s="604"/>
-      <c r="L5" s="512"/>
-      <c r="M5" s="638"/>
-      <c r="N5" s="639"/>
-      <c r="O5" s="639"/>
-      <c r="P5" s="639"/>
-      <c r="Q5" s="639"/>
-      <c r="R5" s="640"/>
+      <c r="E5" s="507"/>
+      <c r="F5" s="507"/>
+      <c r="G5" s="507"/>
+      <c r="H5" s="508"/>
+      <c r="I5" s="598"/>
+      <c r="J5" s="599"/>
+      <c r="K5" s="600"/>
+      <c r="L5" s="508"/>
+      <c r="M5" s="634"/>
+      <c r="N5" s="635"/>
+      <c r="O5" s="635"/>
+      <c r="P5" s="635"/>
+      <c r="Q5" s="635"/>
+      <c r="R5" s="636"/>
       <c r="S5" s="70"/>
     </row>
     <row r="6" spans="1:19" ht="17.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A6" s="65"/>
-      <c r="B6" s="586" t="s">
+      <c r="B6" s="582" t="s">
         <v>12</v>
       </c>
-      <c r="C6" s="601"/>
-      <c r="D6" s="504" t="str">
+      <c r="C6" s="597"/>
+      <c r="D6" s="500" t="str">
         <f>Данные!$A2</f>
         <v>III-2-82-450-1 (Банка 0,45 л.)</v>
       </c>
-      <c r="E6" s="591"/>
-      <c r="F6" s="591"/>
-      <c r="G6" s="591"/>
-      <c r="H6" s="592"/>
-      <c r="I6" s="602"/>
-      <c r="J6" s="603"/>
-      <c r="K6" s="604"/>
-      <c r="L6" s="512"/>
-      <c r="M6" s="638"/>
-      <c r="N6" s="639"/>
-      <c r="O6" s="639"/>
-      <c r="P6" s="639"/>
-      <c r="Q6" s="639"/>
-      <c r="R6" s="640"/>
+      <c r="E6" s="587"/>
+      <c r="F6" s="587"/>
+      <c r="G6" s="587"/>
+      <c r="H6" s="588"/>
+      <c r="I6" s="598"/>
+      <c r="J6" s="599"/>
+      <c r="K6" s="600"/>
+      <c r="L6" s="508"/>
+      <c r="M6" s="634"/>
+      <c r="N6" s="635"/>
+      <c r="O6" s="635"/>
+      <c r="P6" s="635"/>
+      <c r="Q6" s="635"/>
+      <c r="R6" s="636"/>
       <c r="S6" s="70"/>
     </row>
     <row r="7" spans="1:19" ht="90.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A7" s="65"/>
-      <c r="B7" s="596" t="s">
+      <c r="B7" s="592" t="s">
         <v>14</v>
       </c>
-      <c r="C7" s="605"/>
-      <c r="D7" s="513">
+      <c r="C7" s="601"/>
+      <c r="D7" s="509">
         <f>Данные!$A8</f>
         <v>0</v>
       </c>
-      <c r="E7" s="598"/>
-      <c r="F7" s="598"/>
-      <c r="G7" s="598"/>
-      <c r="H7" s="599"/>
-      <c r="I7" s="606" t="s">
+      <c r="E7" s="594"/>
+      <c r="F7" s="594"/>
+      <c r="G7" s="594"/>
+      <c r="H7" s="595"/>
+      <c r="I7" s="602" t="s">
         <v>15</v>
       </c>
-      <c r="J7" s="605"/>
-      <c r="K7" s="501">
+      <c r="J7" s="601"/>
+      <c r="K7" s="497">
         <f>Данные!$A11</f>
         <v>0</v>
       </c>
-      <c r="L7" s="502"/>
-      <c r="M7" s="638"/>
-      <c r="N7" s="639"/>
-      <c r="O7" s="639"/>
-      <c r="P7" s="639"/>
-      <c r="Q7" s="639"/>
-      <c r="R7" s="640"/>
+      <c r="L7" s="498"/>
+      <c r="M7" s="634"/>
+      <c r="N7" s="635"/>
+      <c r="O7" s="635"/>
+      <c r="P7" s="635"/>
+      <c r="Q7" s="635"/>
+      <c r="R7" s="636"/>
       <c r="S7" s="70"/>
     </row>
     <row r="8" spans="1:19" ht="3.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
@@ -14402,36 +14399,36 @@
       <c r="R12" s="322"/>
       <c r="S12" s="86"/>
     </row>
-    <row r="13" spans="1:19" s="484" customFormat="1" ht="33.75" x14ac:dyDescent="0.2">
-      <c r="A13" s="474"/>
-      <c r="B13" s="475" t="s">
+    <row r="13" spans="1:19" s="483" customFormat="1" ht="33.75" x14ac:dyDescent="0.2">
+      <c r="A13" s="473"/>
+      <c r="B13" s="474" t="s">
         <v>3</v>
       </c>
-      <c r="C13" s="476"/>
-      <c r="D13" s="477">
+      <c r="C13" s="475"/>
+      <c r="D13" s="476">
         <v>0.03</v>
       </c>
-      <c r="E13" s="477">
+      <c r="E13" s="476">
         <v>0</v>
       </c>
-      <c r="F13" s="478" t="s">
+      <c r="F13" s="477" t="s">
         <v>16</v>
       </c>
       <c r="G13" s="296" t="s">
         <v>136</v>
       </c>
-      <c r="H13" s="479"/>
-      <c r="I13" s="480"/>
-      <c r="J13" s="480"/>
-      <c r="K13" s="480"/>
-      <c r="L13" s="480"/>
-      <c r="M13" s="481"/>
-      <c r="N13" s="481"/>
-      <c r="O13" s="481"/>
-      <c r="P13" s="481"/>
-      <c r="Q13" s="481"/>
-      <c r="R13" s="482"/>
-      <c r="S13" s="483"/>
+      <c r="H13" s="478"/>
+      <c r="I13" s="479"/>
+      <c r="J13" s="479"/>
+      <c r="K13" s="479"/>
+      <c r="L13" s="479"/>
+      <c r="M13" s="480"/>
+      <c r="N13" s="480"/>
+      <c r="O13" s="480"/>
+      <c r="P13" s="480"/>
+      <c r="Q13" s="480"/>
+      <c r="R13" s="481"/>
+      <c r="S13" s="482"/>
     </row>
     <row r="14" spans="1:19" ht="33.75" x14ac:dyDescent="0.2">
       <c r="A14" s="78"/>
@@ -14644,12 +14641,12 @@
     </row>
     <row r="21" spans="1:19" ht="34.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A21" s="78"/>
-      <c r="B21" s="583" t="s">
+      <c r="B21" s="579" t="s">
         <v>48</v>
       </c>
-      <c r="C21" s="584"/>
-      <c r="D21" s="584"/>
-      <c r="E21" s="585"/>
+      <c r="C21" s="580"/>
+      <c r="D21" s="580"/>
+      <c r="E21" s="581"/>
       <c r="F21" s="114" t="s">
         <v>16</v>
       </c>
@@ -14694,25 +14691,25 @@
       <c r="B23" s="121"/>
     </row>
     <row r="24" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="L24" s="633" t="s">
+      <c r="L24" s="629" t="s">
         <v>135</v>
       </c>
-      <c r="M24" s="633"/>
-      <c r="N24" s="633"/>
-      <c r="O24" s="473"/>
-      <c r="P24" s="473"/>
-      <c r="Q24" s="489"/>
-      <c r="R24" s="489"/>
+      <c r="M24" s="629"/>
+      <c r="N24" s="629"/>
+      <c r="O24" s="472"/>
+      <c r="P24" s="472"/>
+      <c r="Q24" s="488"/>
+      <c r="R24" s="488"/>
     </row>
     <row r="25" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="O25" s="555" t="s">
+      <c r="O25" s="551" t="s">
         <v>139</v>
       </c>
-      <c r="P25" s="555"/>
-      <c r="Q25" s="556" t="s">
+      <c r="P25" s="551"/>
+      <c r="Q25" s="552" t="s">
         <v>140</v>
       </c>
-      <c r="R25" s="557"/>
+      <c r="R25" s="553"/>
     </row>
   </sheetData>
   <mergeCells count="22">
@@ -14802,47 +14799,47 @@
     </row>
     <row r="2" spans="1:19" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="65"/>
-      <c r="B2" s="607"/>
-      <c r="C2" s="608"/>
-      <c r="D2" s="609"/>
-      <c r="E2" s="616" t="s">
+      <c r="B2" s="603"/>
+      <c r="C2" s="604"/>
+      <c r="D2" s="605"/>
+      <c r="E2" s="612" t="s">
         <v>10</v>
       </c>
-      <c r="F2" s="617"/>
-      <c r="G2" s="617"/>
-      <c r="H2" s="618"/>
-      <c r="I2" s="622" t="s">
+      <c r="F2" s="613"/>
+      <c r="G2" s="613"/>
+      <c r="H2" s="614"/>
+      <c r="I2" s="618" t="s">
         <v>11</v>
       </c>
-      <c r="J2" s="623"/>
-      <c r="K2" s="626">
+      <c r="J2" s="619"/>
+      <c r="K2" s="622">
         <f>Данные!B19</f>
         <v>150</v>
       </c>
-      <c r="L2" s="627"/>
+      <c r="L2" s="623"/>
       <c r="M2" s="66"/>
       <c r="N2" s="67"/>
       <c r="O2" s="68"/>
-      <c r="P2" s="641"/>
-      <c r="Q2" s="641"/>
+      <c r="P2" s="637"/>
+      <c r="Q2" s="637"/>
       <c r="R2" s="69"/>
       <c r="S2" s="70"/>
     </row>
     <row r="3" spans="1:19" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A3" s="65"/>
-      <c r="B3" s="610"/>
-      <c r="C3" s="611"/>
-      <c r="D3" s="612"/>
-      <c r="E3" s="619" t="s">
+      <c r="B3" s="606"/>
+      <c r="C3" s="607"/>
+      <c r="D3" s="608"/>
+      <c r="E3" s="615" t="s">
         <v>89</v>
       </c>
-      <c r="F3" s="620"/>
-      <c r="G3" s="620"/>
-      <c r="H3" s="621"/>
-      <c r="I3" s="624"/>
-      <c r="J3" s="625"/>
-      <c r="K3" s="628"/>
-      <c r="L3" s="629"/>
+      <c r="F3" s="616"/>
+      <c r="G3" s="616"/>
+      <c r="H3" s="617"/>
+      <c r="I3" s="620"/>
+      <c r="J3" s="621"/>
+      <c r="K3" s="624"/>
+      <c r="L3" s="625"/>
       <c r="M3" s="72"/>
       <c r="N3" s="71"/>
       <c r="O3" s="71"/>
@@ -14853,9 +14850,9 @@
     </row>
     <row r="4" spans="1:19" ht="17.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A4" s="65"/>
-      <c r="B4" s="613"/>
-      <c r="C4" s="614"/>
-      <c r="D4" s="615"/>
+      <c r="B4" s="609"/>
+      <c r="C4" s="610"/>
+      <c r="D4" s="611"/>
       <c r="E4" s="243"/>
       <c r="F4" s="243"/>
       <c r="G4" s="243"/>
@@ -14874,22 +14871,22 @@
     </row>
     <row r="5" spans="1:19" ht="24.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A5" s="65"/>
-      <c r="B5" s="586" t="s">
+      <c r="B5" s="582" t="s">
         <v>13</v>
       </c>
-      <c r="C5" s="601"/>
-      <c r="D5" s="510" t="str">
+      <c r="C5" s="597"/>
+      <c r="D5" s="506" t="str">
         <f>Данные!$A5</f>
         <v>PCI</v>
       </c>
-      <c r="E5" s="511"/>
-      <c r="F5" s="511"/>
-      <c r="G5" s="511"/>
-      <c r="H5" s="512"/>
-      <c r="I5" s="602"/>
-      <c r="J5" s="603"/>
-      <c r="K5" s="604"/>
-      <c r="L5" s="512"/>
+      <c r="E5" s="507"/>
+      <c r="F5" s="507"/>
+      <c r="G5" s="507"/>
+      <c r="H5" s="508"/>
+      <c r="I5" s="598"/>
+      <c r="J5" s="599"/>
+      <c r="K5" s="600"/>
+      <c r="L5" s="508"/>
       <c r="M5" s="74"/>
       <c r="N5" s="71"/>
       <c r="O5" s="71"/>
@@ -14900,22 +14897,22 @@
     </row>
     <row r="6" spans="1:19" ht="17.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A6" s="65"/>
-      <c r="B6" s="586" t="s">
+      <c r="B6" s="582" t="s">
         <v>12</v>
       </c>
-      <c r="C6" s="601"/>
-      <c r="D6" s="504" t="str">
+      <c r="C6" s="597"/>
+      <c r="D6" s="500" t="str">
         <f>Данные!$A2</f>
         <v>III-2-82-450-1 (Банка 0,45 л.)</v>
       </c>
-      <c r="E6" s="591"/>
-      <c r="F6" s="591"/>
-      <c r="G6" s="591"/>
-      <c r="H6" s="592"/>
-      <c r="I6" s="602"/>
-      <c r="J6" s="603"/>
-      <c r="K6" s="604"/>
-      <c r="L6" s="512"/>
+      <c r="E6" s="587"/>
+      <c r="F6" s="587"/>
+      <c r="G6" s="587"/>
+      <c r="H6" s="588"/>
+      <c r="I6" s="598"/>
+      <c r="J6" s="599"/>
+      <c r="K6" s="600"/>
+      <c r="L6" s="508"/>
       <c r="M6" s="72"/>
       <c r="N6" s="71"/>
       <c r="O6" s="71"/>
@@ -14926,27 +14923,27 @@
     </row>
     <row r="7" spans="1:19" ht="71.25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A7" s="65"/>
-      <c r="B7" s="596" t="s">
+      <c r="B7" s="592" t="s">
         <v>14</v>
       </c>
-      <c r="C7" s="605"/>
-      <c r="D7" s="513">
+      <c r="C7" s="601"/>
+      <c r="D7" s="509">
         <f>Данные!$A8</f>
         <v>0</v>
       </c>
-      <c r="E7" s="598"/>
-      <c r="F7" s="598"/>
-      <c r="G7" s="598"/>
-      <c r="H7" s="599"/>
-      <c r="I7" s="606" t="s">
+      <c r="E7" s="594"/>
+      <c r="F7" s="594"/>
+      <c r="G7" s="594"/>
+      <c r="H7" s="595"/>
+      <c r="I7" s="602" t="s">
         <v>15</v>
       </c>
-      <c r="J7" s="605"/>
-      <c r="K7" s="501">
+      <c r="J7" s="601"/>
+      <c r="K7" s="497">
         <f>Данные!$A11</f>
         <v>0</v>
       </c>
-      <c r="L7" s="502"/>
+      <c r="L7" s="498"/>
       <c r="M7" s="74"/>
       <c r="N7" s="71"/>
       <c r="O7" s="71"/>
@@ -15071,36 +15068,36 @@
       <c r="R11" s="99"/>
       <c r="S11" s="86"/>
     </row>
-    <row r="12" spans="1:19" s="484" customFormat="1" ht="25.15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="474"/>
-      <c r="B12" s="485" t="s">
+    <row r="12" spans="1:19" s="483" customFormat="1" ht="25.15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A12" s="473"/>
+      <c r="B12" s="484" t="s">
         <v>3</v>
       </c>
-      <c r="C12" s="486"/>
-      <c r="D12" s="480">
+      <c r="C12" s="485"/>
+      <c r="D12" s="479">
         <v>0</v>
       </c>
-      <c r="E12" s="480">
+      <c r="E12" s="479">
         <v>-0.03</v>
       </c>
-      <c r="F12" s="478" t="s">
+      <c r="F12" s="477" t="s">
         <v>16</v>
       </c>
       <c r="G12" s="296" t="s">
         <v>138</v>
       </c>
-      <c r="H12" s="487"/>
-      <c r="I12" s="480"/>
-      <c r="J12" s="480"/>
-      <c r="K12" s="480"/>
-      <c r="L12" s="480"/>
-      <c r="M12" s="480"/>
-      <c r="N12" s="480"/>
-      <c r="O12" s="480"/>
-      <c r="P12" s="480"/>
-      <c r="Q12" s="480"/>
-      <c r="R12" s="488"/>
-      <c r="S12" s="483"/>
+      <c r="H12" s="486"/>
+      <c r="I12" s="479"/>
+      <c r="J12" s="479"/>
+      <c r="K12" s="479"/>
+      <c r="L12" s="479"/>
+      <c r="M12" s="479"/>
+      <c r="N12" s="479"/>
+      <c r="O12" s="479"/>
+      <c r="P12" s="479"/>
+      <c r="Q12" s="479"/>
+      <c r="R12" s="487"/>
+      <c r="S12" s="482"/>
     </row>
     <row r="13" spans="1:19" ht="23.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="78"/>
@@ -15197,12 +15194,12 @@
     </row>
     <row r="16" spans="1:19" ht="23.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A16" s="78"/>
-      <c r="B16" s="583" t="s">
+      <c r="B16" s="579" t="s">
         <v>50</v>
       </c>
-      <c r="C16" s="584"/>
-      <c r="D16" s="584"/>
-      <c r="E16" s="585"/>
+      <c r="C16" s="580"/>
+      <c r="D16" s="580"/>
+      <c r="E16" s="581"/>
       <c r="F16" s="252" t="s">
         <v>16</v>
       </c>
@@ -15247,25 +15244,25 @@
       <c r="B18" s="121"/>
     </row>
     <row r="19" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="L19" s="633" t="s">
+      <c r="L19" s="629" t="s">
         <v>135</v>
       </c>
-      <c r="M19" s="633"/>
-      <c r="N19" s="633"/>
-      <c r="O19" s="473"/>
-      <c r="P19" s="473"/>
-      <c r="Q19" s="489"/>
-      <c r="R19" s="489"/>
+      <c r="M19" s="629"/>
+      <c r="N19" s="629"/>
+      <c r="O19" s="472"/>
+      <c r="P19" s="472"/>
+      <c r="Q19" s="488"/>
+      <c r="R19" s="488"/>
     </row>
     <row r="20" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="O20" s="555" t="s">
+      <c r="O20" s="551" t="s">
         <v>139</v>
       </c>
-      <c r="P20" s="555"/>
-      <c r="Q20" s="556" t="s">
+      <c r="P20" s="551"/>
+      <c r="Q20" s="552" t="s">
         <v>140</v>
       </c>
-      <c r="R20" s="557"/>
+      <c r="R20" s="553"/>
     </row>
   </sheetData>
   <mergeCells count="22">

--- a/Участок ремонта форм/Формокомплекты/Карты замеров/Банка/Банка 0,45 л..xlsx
+++ b/Участок ремонта форм/Формокомплекты/Карты замеров/Банка/Банка 0,45 л..xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Гавриленко А.Д\Работа\Участок ремонта форм\Формокомплекты\Карты замеров\Банка\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B856D78F-E7F2-434A-8AD0-DD5FF4BD131A}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A3D0ACC6-E534-4A94-8107-7F583A59F58C}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -3621,455 +3621,6 @@
     <xf numFmtId="14" fontId="17" fillId="0" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="39" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="9" fillId="0" borderId="42" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="43" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="38" fillId="0" borderId="46" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="39" fillId="0" borderId="47" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="39" fillId="0" borderId="48" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="46" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="47" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="48" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="9" fillId="0" borderId="41" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="9" fillId="0" borderId="42" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="9" fillId="0" borderId="43" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="56" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="57" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="53" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="43" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="55" fillId="13" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="47" fillId="13" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="167" fontId="47" fillId="12" borderId="96" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="167" fontId="0" fillId="12" borderId="54" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="36" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="91" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="34" fillId="0" borderId="89" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="34" fillId="0" borderId="92" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="34" fillId="0" borderId="90" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="89" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="90" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="91" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="60" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="36" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="35" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="89" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="92" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="90" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="91" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="78" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="60" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="91" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="78" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="60" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="78" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="26" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="26" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="37" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="37" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="89" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="92" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="90" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="4" borderId="92" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="4" borderId="92" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="92" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="1" applyAlignment="1">
-      <alignment horizontal="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="88" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="2" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="79" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="58" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="80" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="81" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="27" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="75" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="66" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="44" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="45" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="44" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="45" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="45" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="39" fillId="0" borderId="47" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="39" fillId="0" borderId="48" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="76" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="77" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="54" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="42" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="43" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="40" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="70" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="73" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="70" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="72" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="71" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="74" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="88" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="68" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="69" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="82" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="83" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="84" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="85" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="86" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="87" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="65" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="76" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="77" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="11" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="4" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="4" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="4" borderId="27" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="4" borderId="75" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="4" borderId="66" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="2" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="86" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="87" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="61" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -4084,6 +3635,455 @@
     <xf numFmtId="1" fontId="0" fillId="0" borderId="97" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="98" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="39" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="9" fillId="0" borderId="42" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="43" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="38" fillId="0" borderId="46" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="39" fillId="0" borderId="47" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="39" fillId="0" borderId="48" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="46" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="47" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="48" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="9" fillId="0" borderId="41" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="9" fillId="0" borderId="42" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="9" fillId="0" borderId="43" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="53" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="43" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="55" fillId="13" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="47" fillId="13" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="47" fillId="12" borderId="96" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="0" fillId="12" borderId="54" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="56" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="57" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="37" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="91" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="78" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="60" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="26" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="36" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="91" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="89" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="90" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="78" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="60" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="36" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="35" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="89" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="92" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="90" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="91" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="78" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="60" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="89" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="92" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="90" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="26" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="34" fillId="0" borderId="89" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="34" fillId="0" borderId="92" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="34" fillId="0" borderId="90" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="91" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="76" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="77" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="54" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="44" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="45" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="42" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="43" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="40" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="4" borderId="92" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="4" borderId="92" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="92" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+      <alignment horizontal="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="88" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="2" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="79" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="58" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="80" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="81" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="27" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="75" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="66" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="44" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="45" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="45" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="39" fillId="0" borderId="47" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="39" fillId="0" borderId="48" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="65" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="76" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="77" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="88" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="68" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="69" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="82" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="83" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="84" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="85" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="86" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="87" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="70" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="73" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="70" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="72" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="71" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="74" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="11" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="4" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="4" borderId="27" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="4" borderId="75" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="4" borderId="66" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="4" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="2" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="86" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="87" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="5">
@@ -6690,25 +6690,25 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="499" t="s">
+      <c r="A1" s="504" t="s">
         <v>81</v>
       </c>
-      <c r="B1" s="503"/>
-      <c r="C1" s="503"/>
-      <c r="D1" s="503"/>
-      <c r="E1" s="503"/>
+      <c r="B1" s="508"/>
+      <c r="C1" s="508"/>
+      <c r="D1" s="508"/>
+      <c r="E1" s="508"/>
       <c r="G1" s="363" t="s">
         <v>80</v>
       </c>
     </row>
     <row r="2" spans="1:11" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="500" t="s">
+      <c r="A2" s="505" t="s">
         <v>145</v>
       </c>
-      <c r="B2" s="501"/>
-      <c r="C2" s="501"/>
-      <c r="D2" s="501"/>
-      <c r="E2" s="502"/>
+      <c r="B2" s="506"/>
+      <c r="C2" s="506"/>
+      <c r="D2" s="506"/>
+      <c r="E2" s="507"/>
       <c r="G2" s="362" t="s">
         <v>78</v>
       </c>
@@ -6719,45 +6719,45 @@
       </c>
     </row>
     <row r="4" spans="1:11" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="504" t="s">
+      <c r="A4" s="509" t="s">
         <v>82</v>
       </c>
-      <c r="B4" s="505"/>
-      <c r="C4" s="505"/>
-      <c r="D4" s="505"/>
-      <c r="E4" s="505"/>
+      <c r="B4" s="510"/>
+      <c r="C4" s="510"/>
+      <c r="D4" s="510"/>
+      <c r="E4" s="510"/>
     </row>
     <row r="5" spans="1:11" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="506" t="s">
+      <c r="A5" s="511" t="s">
         <v>86</v>
       </c>
-      <c r="B5" s="507"/>
-      <c r="C5" s="507"/>
-      <c r="D5" s="507"/>
-      <c r="E5" s="508"/>
+      <c r="B5" s="512"/>
+      <c r="C5" s="512"/>
+      <c r="D5" s="512"/>
+      <c r="E5" s="513"/>
     </row>
     <row r="6" spans="1:11" ht="13.5" thickTop="1" x14ac:dyDescent="0.2"/>
     <row r="7" spans="1:11" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="499" t="s">
+      <c r="A7" s="504" t="s">
         <v>83</v>
       </c>
-      <c r="B7" s="503"/>
-      <c r="C7" s="503"/>
-      <c r="D7" s="503"/>
-      <c r="E7" s="503"/>
+      <c r="B7" s="508"/>
+      <c r="C7" s="508"/>
+      <c r="D7" s="508"/>
+      <c r="E7" s="508"/>
     </row>
     <row r="8" spans="1:11" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="509"/>
-      <c r="B8" s="510"/>
-      <c r="C8" s="510"/>
-      <c r="D8" s="510"/>
-      <c r="E8" s="511"/>
+      <c r="A8" s="514"/>
+      <c r="B8" s="515"/>
+      <c r="C8" s="515"/>
+      <c r="D8" s="515"/>
+      <c r="E8" s="516"/>
     </row>
     <row r="10" spans="1:11" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="499" t="s">
+      <c r="A10" s="504" t="s">
         <v>84</v>
       </c>
-      <c r="B10" s="499"/>
+      <c r="B10" s="504"/>
       <c r="C10" s="364"/>
       <c r="D10" s="370" t="s">
         <v>92</v>
@@ -6768,33 +6768,33 @@
       </c>
     </row>
     <row r="11" spans="1:11" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="497"/>
-      <c r="B11" s="498"/>
+      <c r="A11" s="502"/>
+      <c r="B11" s="503"/>
       <c r="D11" s="369">
         <v>43959</v>
       </c>
-      <c r="F11" s="494" t="s">
+      <c r="F11" s="517" t="s">
         <v>95</v>
       </c>
-      <c r="G11" s="494"/>
-      <c r="H11" s="494"/>
-      <c r="I11" s="494"/>
-      <c r="J11" s="495" t="s">
+      <c r="G11" s="517"/>
+      <c r="H11" s="517"/>
+      <c r="I11" s="517"/>
+      <c r="J11" s="518" t="s">
         <v>97</v>
       </c>
-      <c r="K11" s="495"/>
+      <c r="K11" s="518"/>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="F12" s="494" t="s">
+      <c r="F12" s="517" t="s">
         <v>85</v>
       </c>
-      <c r="G12" s="494"/>
-      <c r="H12" s="494"/>
-      <c r="I12" s="494"/>
-      <c r="J12" s="495" t="s">
+      <c r="G12" s="517"/>
+      <c r="H12" s="517"/>
+      <c r="I12" s="517"/>
+      <c r="J12" s="518" t="s">
         <v>98</v>
       </c>
-      <c r="K12" s="495"/>
+      <c r="K12" s="518"/>
     </row>
     <row r="13" spans="1:11" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A13" s="374" t="s">
@@ -6812,16 +6812,16 @@
       <c r="E13" s="471" t="s">
         <v>133</v>
       </c>
-      <c r="F13" s="494" t="s">
+      <c r="F13" s="517" t="s">
         <v>96</v>
       </c>
-      <c r="G13" s="494"/>
-      <c r="H13" s="494"/>
-      <c r="I13" s="494"/>
-      <c r="J13" s="495" t="s">
+      <c r="G13" s="517"/>
+      <c r="H13" s="517"/>
+      <c r="I13" s="517"/>
+      <c r="J13" s="518" t="s">
         <v>99</v>
       </c>
-      <c r="K13" s="495"/>
+      <c r="K13" s="518"/>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A14" s="365" t="s">
@@ -7078,11 +7078,11 @@
       </c>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A29" s="496" t="s">
+      <c r="A29" s="501" t="s">
         <v>105</v>
       </c>
-      <c r="B29" s="496"/>
-      <c r="C29" s="496"/>
+      <c r="B29" s="501"/>
+      <c r="C29" s="501"/>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A30" s="363" t="s">
@@ -7091,6 +7091,12 @@
     </row>
   </sheetData>
   <mergeCells count="15">
+    <mergeCell ref="F11:I11"/>
+    <mergeCell ref="F12:I12"/>
+    <mergeCell ref="F13:I13"/>
+    <mergeCell ref="J11:K11"/>
+    <mergeCell ref="J12:K12"/>
+    <mergeCell ref="J13:K13"/>
     <mergeCell ref="A29:C29"/>
     <mergeCell ref="A11:B11"/>
     <mergeCell ref="A10:B10"/>
@@ -7100,12 +7106,6 @@
     <mergeCell ref="A5:E5"/>
     <mergeCell ref="A8:E8"/>
     <mergeCell ref="A7:E7"/>
-    <mergeCell ref="F11:I11"/>
-    <mergeCell ref="F12:I12"/>
-    <mergeCell ref="F13:I13"/>
-    <mergeCell ref="J11:K11"/>
-    <mergeCell ref="J12:K12"/>
-    <mergeCell ref="J13:K13"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="4294967293" r:id="rId1"/>
@@ -7159,47 +7159,47 @@
     </row>
     <row r="2" spans="1:19" ht="23.25" x14ac:dyDescent="0.2">
       <c r="A2" s="163"/>
-      <c r="B2" s="603"/>
-      <c r="C2" s="604"/>
-      <c r="D2" s="605"/>
-      <c r="E2" s="612" t="s">
+      <c r="B2" s="607"/>
+      <c r="C2" s="608"/>
+      <c r="D2" s="609"/>
+      <c r="E2" s="616" t="s">
         <v>10</v>
       </c>
-      <c r="F2" s="613"/>
-      <c r="G2" s="613"/>
-      <c r="H2" s="614"/>
-      <c r="I2" s="618" t="s">
+      <c r="F2" s="617"/>
+      <c r="G2" s="617"/>
+      <c r="H2" s="618"/>
+      <c r="I2" s="622" t="s">
         <v>11</v>
       </c>
-      <c r="J2" s="619"/>
-      <c r="K2" s="622">
+      <c r="J2" s="623"/>
+      <c r="K2" s="626">
         <f>Данные!B20</f>
         <v>60</v>
       </c>
-      <c r="L2" s="623"/>
+      <c r="L2" s="627"/>
       <c r="M2" s="164"/>
       <c r="N2" s="165"/>
       <c r="O2" s="166"/>
-      <c r="P2" s="638"/>
-      <c r="Q2" s="638"/>
+      <c r="P2" s="645"/>
+      <c r="Q2" s="645"/>
       <c r="R2" s="167"/>
       <c r="S2" s="168"/>
     </row>
     <row r="3" spans="1:19" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A3" s="163"/>
-      <c r="B3" s="606"/>
-      <c r="C3" s="607"/>
-      <c r="D3" s="608"/>
-      <c r="E3" s="615" t="s">
+      <c r="B3" s="610"/>
+      <c r="C3" s="611"/>
+      <c r="D3" s="612"/>
+      <c r="E3" s="619" t="s">
         <v>51</v>
       </c>
-      <c r="F3" s="616"/>
-      <c r="G3" s="616"/>
-      <c r="H3" s="617"/>
-      <c r="I3" s="620"/>
-      <c r="J3" s="621"/>
-      <c r="K3" s="624"/>
-      <c r="L3" s="625"/>
+      <c r="F3" s="620"/>
+      <c r="G3" s="620"/>
+      <c r="H3" s="621"/>
+      <c r="I3" s="624"/>
+      <c r="J3" s="625"/>
+      <c r="K3" s="628"/>
+      <c r="L3" s="629"/>
       <c r="M3" s="169"/>
       <c r="N3" s="170"/>
       <c r="O3" s="170"/>
@@ -7210,9 +7210,9 @@
     </row>
     <row r="4" spans="1:19" ht="17.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A4" s="163"/>
-      <c r="B4" s="609"/>
-      <c r="C4" s="610"/>
-      <c r="D4" s="611"/>
+      <c r="B4" s="613"/>
+      <c r="C4" s="614"/>
+      <c r="D4" s="615"/>
       <c r="E4" s="243"/>
       <c r="F4" s="243"/>
       <c r="G4" s="243"/>
@@ -7231,22 +7231,22 @@
     </row>
     <row r="5" spans="1:19" ht="24.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A5" s="163"/>
-      <c r="B5" s="582" t="s">
+      <c r="B5" s="599" t="s">
         <v>13</v>
       </c>
-      <c r="C5" s="597"/>
-      <c r="D5" s="506" t="str">
+      <c r="C5" s="630"/>
+      <c r="D5" s="511" t="str">
         <f>Данные!$A5</f>
         <v>PCI</v>
       </c>
-      <c r="E5" s="507"/>
-      <c r="F5" s="507"/>
-      <c r="G5" s="507"/>
-      <c r="H5" s="508"/>
-      <c r="I5" s="598"/>
-      <c r="J5" s="599"/>
-      <c r="K5" s="600"/>
-      <c r="L5" s="508"/>
+      <c r="E5" s="512"/>
+      <c r="F5" s="512"/>
+      <c r="G5" s="512"/>
+      <c r="H5" s="513"/>
+      <c r="I5" s="631"/>
+      <c r="J5" s="632"/>
+      <c r="K5" s="633"/>
+      <c r="L5" s="513"/>
       <c r="M5" s="172"/>
       <c r="N5" s="170"/>
       <c r="O5" s="170"/>
@@ -7257,22 +7257,22 @@
     </row>
     <row r="6" spans="1:19" ht="17.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A6" s="163"/>
-      <c r="B6" s="582" t="s">
+      <c r="B6" s="599" t="s">
         <v>12</v>
       </c>
-      <c r="C6" s="597"/>
-      <c r="D6" s="500" t="str">
+      <c r="C6" s="630"/>
+      <c r="D6" s="505" t="str">
         <f>Данные!$A2</f>
         <v>III-2-82-450-1 (Банка 0,45 л.)</v>
       </c>
-      <c r="E6" s="587"/>
-      <c r="F6" s="587"/>
-      <c r="G6" s="587"/>
-      <c r="H6" s="588"/>
-      <c r="I6" s="598"/>
-      <c r="J6" s="599"/>
-      <c r="K6" s="600"/>
-      <c r="L6" s="508"/>
+      <c r="E6" s="602"/>
+      <c r="F6" s="602"/>
+      <c r="G6" s="602"/>
+      <c r="H6" s="603"/>
+      <c r="I6" s="631"/>
+      <c r="J6" s="632"/>
+      <c r="K6" s="633"/>
+      <c r="L6" s="513"/>
       <c r="M6" s="169"/>
       <c r="N6" s="170"/>
       <c r="O6" s="170"/>
@@ -7283,27 +7283,27 @@
     </row>
     <row r="7" spans="1:19" ht="66" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A7" s="163"/>
-      <c r="B7" s="592" t="s">
+      <c r="B7" s="563" t="s">
         <v>14</v>
       </c>
-      <c r="C7" s="601"/>
-      <c r="D7" s="509">
+      <c r="C7" s="634"/>
+      <c r="D7" s="514">
         <f>Данные!$A8</f>
         <v>0</v>
       </c>
-      <c r="E7" s="594"/>
-      <c r="F7" s="594"/>
-      <c r="G7" s="594"/>
-      <c r="H7" s="595"/>
-      <c r="I7" s="602" t="s">
+      <c r="E7" s="565"/>
+      <c r="F7" s="565"/>
+      <c r="G7" s="565"/>
+      <c r="H7" s="566"/>
+      <c r="I7" s="635" t="s">
         <v>15</v>
       </c>
-      <c r="J7" s="601"/>
-      <c r="K7" s="497">
+      <c r="J7" s="634"/>
+      <c r="K7" s="502">
         <f>Данные!$A11</f>
         <v>0</v>
       </c>
-      <c r="L7" s="498"/>
+      <c r="L7" s="503"/>
       <c r="M7" s="172"/>
       <c r="N7" s="170"/>
       <c r="O7" s="170"/>
@@ -7670,33 +7670,28 @@
     </row>
     <row r="20" spans="1:19" ht="13.5" thickTop="1" x14ac:dyDescent="0.2"/>
     <row r="21" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="L21" s="629" t="s">
+      <c r="L21" s="636" t="s">
         <v>135</v>
       </c>
-      <c r="M21" s="629"/>
-      <c r="N21" s="629"/>
+      <c r="M21" s="636"/>
+      <c r="N21" s="636"/>
       <c r="O21" s="472"/>
       <c r="P21" s="472"/>
       <c r="Q21" s="488"/>
       <c r="R21" s="488"/>
     </row>
     <row r="22" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="O22" s="551" t="s">
+      <c r="O22" s="568" t="s">
         <v>139</v>
       </c>
-      <c r="P22" s="551"/>
-      <c r="Q22" s="552" t="s">
+      <c r="P22" s="568"/>
+      <c r="Q22" s="569" t="s">
         <v>140</v>
       </c>
-      <c r="R22" s="553"/>
+      <c r="R22" s="570"/>
     </row>
   </sheetData>
   <mergeCells count="21">
-    <mergeCell ref="K2:L3"/>
-    <mergeCell ref="L21:N21"/>
-    <mergeCell ref="K7:L7"/>
-    <mergeCell ref="K6:L6"/>
-    <mergeCell ref="K5:L5"/>
     <mergeCell ref="O22:P22"/>
     <mergeCell ref="Q22:R22"/>
     <mergeCell ref="B2:D4"/>
@@ -7713,6 +7708,11 @@
     <mergeCell ref="P2:Q2"/>
     <mergeCell ref="E3:H3"/>
     <mergeCell ref="I2:J3"/>
+    <mergeCell ref="K2:L3"/>
+    <mergeCell ref="L21:N21"/>
+    <mergeCell ref="K7:L7"/>
+    <mergeCell ref="K6:L6"/>
+    <mergeCell ref="K5:L5"/>
   </mergeCells>
   <conditionalFormatting sqref="R14:R15">
     <cfRule type="cellIs" dxfId="4" priority="1" stopIfTrue="1" operator="equal">
@@ -7778,47 +7778,47 @@
     </row>
     <row r="2" spans="1:19" ht="23.25" x14ac:dyDescent="0.2">
       <c r="A2" s="202"/>
-      <c r="B2" s="603"/>
-      <c r="C2" s="604"/>
-      <c r="D2" s="605"/>
-      <c r="E2" s="612" t="s">
+      <c r="B2" s="607"/>
+      <c r="C2" s="608"/>
+      <c r="D2" s="609"/>
+      <c r="E2" s="616" t="s">
         <v>10</v>
       </c>
-      <c r="F2" s="613"/>
-      <c r="G2" s="613"/>
-      <c r="H2" s="614"/>
-      <c r="I2" s="618" t="s">
+      <c r="F2" s="617"/>
+      <c r="G2" s="617"/>
+      <c r="H2" s="618"/>
+      <c r="I2" s="622" t="s">
         <v>11</v>
       </c>
-      <c r="J2" s="619"/>
-      <c r="K2" s="622">
+      <c r="J2" s="623"/>
+      <c r="K2" s="626">
         <f>Данные!B25</f>
         <v>30</v>
       </c>
-      <c r="L2" s="623"/>
+      <c r="L2" s="627"/>
       <c r="M2" s="203"/>
       <c r="N2" s="204"/>
       <c r="O2" s="205"/>
-      <c r="P2" s="639"/>
-      <c r="Q2" s="639"/>
+      <c r="P2" s="649"/>
+      <c r="Q2" s="649"/>
       <c r="R2" s="206"/>
       <c r="S2" s="207"/>
     </row>
     <row r="3" spans="1:19" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A3" s="202"/>
-      <c r="B3" s="606"/>
-      <c r="C3" s="607"/>
-      <c r="D3" s="608"/>
-      <c r="E3" s="615" t="s">
+      <c r="B3" s="610"/>
+      <c r="C3" s="611"/>
+      <c r="D3" s="612"/>
+      <c r="E3" s="619" t="s">
         <v>91</v>
       </c>
-      <c r="F3" s="616"/>
-      <c r="G3" s="616"/>
-      <c r="H3" s="617"/>
-      <c r="I3" s="620"/>
-      <c r="J3" s="621"/>
-      <c r="K3" s="624"/>
-      <c r="L3" s="625"/>
+      <c r="F3" s="620"/>
+      <c r="G3" s="620"/>
+      <c r="H3" s="621"/>
+      <c r="I3" s="624"/>
+      <c r="J3" s="625"/>
+      <c r="K3" s="628"/>
+      <c r="L3" s="629"/>
       <c r="M3" s="208"/>
       <c r="N3" s="209"/>
       <c r="O3" s="209"/>
@@ -7829,9 +7829,9 @@
     </row>
     <row r="4" spans="1:19" ht="17.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A4" s="202"/>
-      <c r="B4" s="609"/>
-      <c r="C4" s="610"/>
-      <c r="D4" s="611"/>
+      <c r="B4" s="613"/>
+      <c r="C4" s="614"/>
+      <c r="D4" s="615"/>
       <c r="E4" s="243"/>
       <c r="F4" s="243"/>
       <c r="G4" s="243"/>
@@ -7850,22 +7850,22 @@
     </row>
     <row r="5" spans="1:19" ht="24.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A5" s="202"/>
-      <c r="B5" s="582" t="s">
+      <c r="B5" s="599" t="s">
         <v>13</v>
       </c>
-      <c r="C5" s="597"/>
-      <c r="D5" s="506" t="str">
+      <c r="C5" s="630"/>
+      <c r="D5" s="511" t="str">
         <f>Данные!$A5</f>
         <v>PCI</v>
       </c>
-      <c r="E5" s="507"/>
-      <c r="F5" s="507"/>
-      <c r="G5" s="507"/>
-      <c r="H5" s="508"/>
-      <c r="I5" s="598"/>
-      <c r="J5" s="599"/>
-      <c r="K5" s="600"/>
-      <c r="L5" s="508"/>
+      <c r="E5" s="512"/>
+      <c r="F5" s="512"/>
+      <c r="G5" s="512"/>
+      <c r="H5" s="513"/>
+      <c r="I5" s="631"/>
+      <c r="J5" s="632"/>
+      <c r="K5" s="633"/>
+      <c r="L5" s="513"/>
       <c r="M5" s="211"/>
       <c r="N5" s="209"/>
       <c r="O5" s="209"/>
@@ -7876,22 +7876,22 @@
     </row>
     <row r="6" spans="1:19" ht="17.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A6" s="202"/>
-      <c r="B6" s="582" t="s">
+      <c r="B6" s="599" t="s">
         <v>12</v>
       </c>
-      <c r="C6" s="597"/>
-      <c r="D6" s="500" t="str">
+      <c r="C6" s="630"/>
+      <c r="D6" s="505" t="str">
         <f>Данные!$A2</f>
         <v>III-2-82-450-1 (Банка 0,45 л.)</v>
       </c>
-      <c r="E6" s="587"/>
-      <c r="F6" s="587"/>
-      <c r="G6" s="587"/>
-      <c r="H6" s="588"/>
-      <c r="I6" s="598"/>
-      <c r="J6" s="599"/>
-      <c r="K6" s="600"/>
-      <c r="L6" s="508"/>
+      <c r="E6" s="602"/>
+      <c r="F6" s="602"/>
+      <c r="G6" s="602"/>
+      <c r="H6" s="603"/>
+      <c r="I6" s="631"/>
+      <c r="J6" s="632"/>
+      <c r="K6" s="633"/>
+      <c r="L6" s="513"/>
       <c r="M6" s="208"/>
       <c r="N6" s="209"/>
       <c r="O6" s="209"/>
@@ -7902,27 +7902,27 @@
     </row>
     <row r="7" spans="1:19" ht="69.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A7" s="202"/>
-      <c r="B7" s="592" t="s">
+      <c r="B7" s="563" t="s">
         <v>14</v>
       </c>
-      <c r="C7" s="601"/>
-      <c r="D7" s="509">
+      <c r="C7" s="634"/>
+      <c r="D7" s="514">
         <f>Данные!$A8</f>
         <v>0</v>
       </c>
-      <c r="E7" s="594"/>
-      <c r="F7" s="594"/>
-      <c r="G7" s="594"/>
-      <c r="H7" s="595"/>
-      <c r="I7" s="602" t="s">
+      <c r="E7" s="565"/>
+      <c r="F7" s="565"/>
+      <c r="G7" s="565"/>
+      <c r="H7" s="566"/>
+      <c r="I7" s="635" t="s">
         <v>15</v>
       </c>
-      <c r="J7" s="601"/>
-      <c r="K7" s="497">
+      <c r="J7" s="634"/>
+      <c r="K7" s="502">
         <f>Данные!$A11</f>
         <v>0</v>
       </c>
-      <c r="L7" s="498"/>
+      <c r="L7" s="503"/>
       <c r="M7" s="211"/>
       <c r="N7" s="209"/>
       <c r="O7" s="209"/>
@@ -8235,12 +8235,12 @@
     </row>
     <row r="18" spans="1:19" ht="24.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A18" s="212"/>
-      <c r="B18" s="640" t="s">
+      <c r="B18" s="646" t="s">
         <v>53</v>
       </c>
-      <c r="C18" s="641"/>
-      <c r="D18" s="641"/>
-      <c r="E18" s="642"/>
+      <c r="C18" s="647"/>
+      <c r="D18" s="647"/>
+      <c r="E18" s="648"/>
       <c r="F18" s="114" t="s">
         <v>16</v>
       </c>
@@ -8283,37 +8283,28 @@
     </row>
     <row r="20" spans="1:19" ht="13.5" thickTop="1" x14ac:dyDescent="0.2"/>
     <row r="21" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="L21" s="629" t="s">
+      <c r="L21" s="636" t="s">
         <v>135</v>
       </c>
-      <c r="M21" s="629"/>
-      <c r="N21" s="629"/>
+      <c r="M21" s="636"/>
+      <c r="N21" s="636"/>
       <c r="O21" s="472"/>
       <c r="P21" s="472"/>
       <c r="Q21" s="488"/>
       <c r="R21" s="488"/>
     </row>
     <row r="22" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="O22" s="551" t="s">
+      <c r="O22" s="568" t="s">
         <v>139</v>
       </c>
-      <c r="P22" s="551"/>
-      <c r="Q22" s="552" t="s">
+      <c r="P22" s="568"/>
+      <c r="Q22" s="569" t="s">
         <v>140</v>
       </c>
-      <c r="R22" s="553"/>
+      <c r="R22" s="570"/>
     </row>
   </sheetData>
   <mergeCells count="22">
-    <mergeCell ref="B2:D4"/>
-    <mergeCell ref="B18:E18"/>
-    <mergeCell ref="E2:H2"/>
-    <mergeCell ref="B7:C7"/>
-    <mergeCell ref="D7:H7"/>
-    <mergeCell ref="B6:C6"/>
-    <mergeCell ref="D6:H6"/>
-    <mergeCell ref="B5:C5"/>
-    <mergeCell ref="D5:H5"/>
     <mergeCell ref="O22:P22"/>
     <mergeCell ref="Q22:R22"/>
     <mergeCell ref="P2:Q2"/>
@@ -8327,6 +8318,15 @@
     <mergeCell ref="I6:J6"/>
     <mergeCell ref="K6:L6"/>
     <mergeCell ref="L21:N21"/>
+    <mergeCell ref="B2:D4"/>
+    <mergeCell ref="B18:E18"/>
+    <mergeCell ref="E2:H2"/>
+    <mergeCell ref="B7:C7"/>
+    <mergeCell ref="D7:H7"/>
+    <mergeCell ref="B6:C6"/>
+    <mergeCell ref="D6:H6"/>
+    <mergeCell ref="B5:C5"/>
+    <mergeCell ref="D5:H5"/>
   </mergeCells>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0" right="0" top="0" bottom="0" header="0" footer="0"/>
@@ -8401,47 +8401,47 @@
     </row>
     <row r="2" spans="1:19" ht="23.25" x14ac:dyDescent="0.2">
       <c r="A2" s="130"/>
-      <c r="B2" s="603"/>
-      <c r="C2" s="604"/>
-      <c r="D2" s="605"/>
-      <c r="E2" s="612" t="s">
+      <c r="B2" s="607"/>
+      <c r="C2" s="608"/>
+      <c r="D2" s="609"/>
+      <c r="E2" s="616" t="s">
         <v>10</v>
       </c>
-      <c r="F2" s="613"/>
-      <c r="G2" s="613"/>
-      <c r="H2" s="614"/>
-      <c r="I2" s="618" t="s">
+      <c r="F2" s="617"/>
+      <c r="G2" s="617"/>
+      <c r="H2" s="618"/>
+      <c r="I2" s="622" t="s">
         <v>11</v>
       </c>
-      <c r="J2" s="619"/>
-      <c r="K2" s="622">
+      <c r="J2" s="623"/>
+      <c r="K2" s="626">
         <f>Данные!B26</f>
         <v>0</v>
       </c>
-      <c r="L2" s="623"/>
+      <c r="L2" s="627"/>
       <c r="M2" s="131"/>
       <c r="N2" s="132"/>
       <c r="O2" s="133"/>
-      <c r="P2" s="643"/>
-      <c r="Q2" s="643"/>
+      <c r="P2" s="650"/>
+      <c r="Q2" s="650"/>
       <c r="R2" s="134"/>
       <c r="S2" s="135"/>
     </row>
     <row r="3" spans="1:19" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A3" s="130"/>
-      <c r="B3" s="606"/>
-      <c r="C3" s="607"/>
-      <c r="D3" s="608"/>
-      <c r="E3" s="615" t="s">
+      <c r="B3" s="610"/>
+      <c r="C3" s="611"/>
+      <c r="D3" s="612"/>
+      <c r="E3" s="619" t="s">
         <v>54</v>
       </c>
-      <c r="F3" s="616"/>
-      <c r="G3" s="616"/>
-      <c r="H3" s="617"/>
-      <c r="I3" s="620"/>
-      <c r="J3" s="621"/>
-      <c r="K3" s="624"/>
-      <c r="L3" s="625"/>
+      <c r="F3" s="620"/>
+      <c r="G3" s="620"/>
+      <c r="H3" s="621"/>
+      <c r="I3" s="624"/>
+      <c r="J3" s="625"/>
+      <c r="K3" s="628"/>
+      <c r="L3" s="629"/>
       <c r="M3" s="136"/>
       <c r="N3" s="137"/>
       <c r="O3" s="137"/>
@@ -8452,9 +8452,9 @@
     </row>
     <row r="4" spans="1:19" ht="17.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A4" s="130"/>
-      <c r="B4" s="609"/>
-      <c r="C4" s="610"/>
-      <c r="D4" s="611"/>
+      <c r="B4" s="613"/>
+      <c r="C4" s="614"/>
+      <c r="D4" s="615"/>
       <c r="E4" s="243"/>
       <c r="F4" s="243"/>
       <c r="G4" s="243"/>
@@ -8473,22 +8473,22 @@
     </row>
     <row r="5" spans="1:19" ht="24.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A5" s="130"/>
-      <c r="B5" s="582" t="s">
+      <c r="B5" s="599" t="s">
         <v>13</v>
       </c>
-      <c r="C5" s="597"/>
-      <c r="D5" s="506" t="str">
+      <c r="C5" s="630"/>
+      <c r="D5" s="511" t="str">
         <f>Данные!$A5</f>
         <v>PCI</v>
       </c>
-      <c r="E5" s="507"/>
-      <c r="F5" s="507"/>
-      <c r="G5" s="507"/>
-      <c r="H5" s="508"/>
-      <c r="I5" s="598"/>
-      <c r="J5" s="599"/>
-      <c r="K5" s="600"/>
-      <c r="L5" s="508"/>
+      <c r="E5" s="512"/>
+      <c r="F5" s="512"/>
+      <c r="G5" s="512"/>
+      <c r="H5" s="513"/>
+      <c r="I5" s="631"/>
+      <c r="J5" s="632"/>
+      <c r="K5" s="633"/>
+      <c r="L5" s="513"/>
       <c r="M5" s="139"/>
       <c r="N5" s="137"/>
       <c r="O5" s="137"/>
@@ -8499,22 +8499,22 @@
     </row>
     <row r="6" spans="1:19" ht="17.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A6" s="130"/>
-      <c r="B6" s="582" t="s">
+      <c r="B6" s="599" t="s">
         <v>12</v>
       </c>
-      <c r="C6" s="597"/>
-      <c r="D6" s="500" t="str">
+      <c r="C6" s="630"/>
+      <c r="D6" s="505" t="str">
         <f>Данные!$A2</f>
         <v>III-2-82-450-1 (Банка 0,45 л.)</v>
       </c>
-      <c r="E6" s="587"/>
-      <c r="F6" s="587"/>
-      <c r="G6" s="587"/>
-      <c r="H6" s="588"/>
-      <c r="I6" s="598"/>
-      <c r="J6" s="599"/>
-      <c r="K6" s="600"/>
-      <c r="L6" s="508"/>
+      <c r="E6" s="602"/>
+      <c r="F6" s="602"/>
+      <c r="G6" s="602"/>
+      <c r="H6" s="603"/>
+      <c r="I6" s="631"/>
+      <c r="J6" s="632"/>
+      <c r="K6" s="633"/>
+      <c r="L6" s="513"/>
       <c r="M6" s="136"/>
       <c r="N6" s="137"/>
       <c r="O6" s="137"/>
@@ -8525,27 +8525,27 @@
     </row>
     <row r="7" spans="1:19" ht="65.25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A7" s="130"/>
-      <c r="B7" s="592" t="s">
+      <c r="B7" s="563" t="s">
         <v>14</v>
       </c>
-      <c r="C7" s="601"/>
-      <c r="D7" s="509">
+      <c r="C7" s="634"/>
+      <c r="D7" s="514">
         <f>Данные!$A8</f>
         <v>0</v>
       </c>
-      <c r="E7" s="594"/>
-      <c r="F7" s="594"/>
-      <c r="G7" s="594"/>
-      <c r="H7" s="595"/>
-      <c r="I7" s="602" t="s">
+      <c r="E7" s="565"/>
+      <c r="F7" s="565"/>
+      <c r="G7" s="565"/>
+      <c r="H7" s="566"/>
+      <c r="I7" s="635" t="s">
         <v>15</v>
       </c>
-      <c r="J7" s="601"/>
-      <c r="K7" s="497">
+      <c r="J7" s="634"/>
+      <c r="K7" s="502">
         <f>Данные!$A11</f>
         <v>0</v>
       </c>
-      <c r="L7" s="498"/>
+      <c r="L7" s="503"/>
       <c r="M7" s="139"/>
       <c r="N7" s="137"/>
       <c r="O7" s="137"/>
@@ -8848,33 +8848,28 @@
     </row>
     <row r="18" spans="1:19" ht="13.5" thickTop="1" x14ac:dyDescent="0.2"/>
     <row r="19" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="L19" s="629" t="s">
+      <c r="L19" s="636" t="s">
         <v>135</v>
       </c>
-      <c r="M19" s="629"/>
-      <c r="N19" s="629"/>
+      <c r="M19" s="636"/>
+      <c r="N19" s="636"/>
       <c r="O19" s="472"/>
       <c r="P19" s="472"/>
       <c r="Q19" s="488"/>
       <c r="R19" s="488"/>
     </row>
     <row r="20" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="O20" s="551" t="s">
+      <c r="O20" s="568" t="s">
         <v>139</v>
       </c>
-      <c r="P20" s="551"/>
-      <c r="Q20" s="552" t="s">
+      <c r="P20" s="568"/>
+      <c r="Q20" s="569" t="s">
         <v>140</v>
       </c>
-      <c r="R20" s="553"/>
+      <c r="R20" s="570"/>
     </row>
   </sheetData>
   <mergeCells count="21">
-    <mergeCell ref="K2:L3"/>
-    <mergeCell ref="L19:N19"/>
-    <mergeCell ref="K7:L7"/>
-    <mergeCell ref="K6:L6"/>
-    <mergeCell ref="K5:L5"/>
     <mergeCell ref="O20:P20"/>
     <mergeCell ref="Q20:R20"/>
     <mergeCell ref="B2:D4"/>
@@ -8891,6 +8886,11 @@
     <mergeCell ref="P2:Q2"/>
     <mergeCell ref="E3:H3"/>
     <mergeCell ref="I2:J3"/>
+    <mergeCell ref="K2:L3"/>
+    <mergeCell ref="L19:N19"/>
+    <mergeCell ref="K7:L7"/>
+    <mergeCell ref="K6:L6"/>
+    <mergeCell ref="K5:L5"/>
   </mergeCells>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.2" right="0.2" top="0.17" bottom="0" header="0" footer="0"/>
@@ -8947,47 +8947,47 @@
     </row>
     <row r="2" spans="1:19" ht="23.25" x14ac:dyDescent="0.2">
       <c r="A2" s="259"/>
-      <c r="B2" s="603"/>
-      <c r="C2" s="604"/>
-      <c r="D2" s="605"/>
-      <c r="E2" s="612" t="s">
+      <c r="B2" s="607"/>
+      <c r="C2" s="608"/>
+      <c r="D2" s="609"/>
+      <c r="E2" s="616" t="s">
         <v>10</v>
       </c>
-      <c r="F2" s="613"/>
-      <c r="G2" s="613"/>
-      <c r="H2" s="614"/>
-      <c r="I2" s="618" t="s">
+      <c r="F2" s="617"/>
+      <c r="G2" s="617"/>
+      <c r="H2" s="618"/>
+      <c r="I2" s="622" t="s">
         <v>11</v>
       </c>
-      <c r="J2" s="619"/>
-      <c r="K2" s="645">
+      <c r="J2" s="623"/>
+      <c r="K2" s="651">
         <f>Данные!B23</f>
         <v>0</v>
       </c>
-      <c r="L2" s="646"/>
+      <c r="L2" s="652"/>
       <c r="M2" s="260"/>
       <c r="N2" s="261"/>
       <c r="O2" s="262"/>
-      <c r="P2" s="644"/>
-      <c r="Q2" s="644"/>
+      <c r="P2" s="655"/>
+      <c r="Q2" s="655"/>
       <c r="R2" s="263"/>
       <c r="S2" s="264"/>
     </row>
     <row r="3" spans="1:19" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A3" s="259"/>
-      <c r="B3" s="606"/>
-      <c r="C3" s="607"/>
-      <c r="D3" s="608"/>
-      <c r="E3" s="615" t="s">
+      <c r="B3" s="610"/>
+      <c r="C3" s="611"/>
+      <c r="D3" s="612"/>
+      <c r="E3" s="619" t="s">
         <v>55</v>
       </c>
-      <c r="F3" s="616"/>
-      <c r="G3" s="616"/>
-      <c r="H3" s="617"/>
-      <c r="I3" s="620"/>
-      <c r="J3" s="621"/>
-      <c r="K3" s="647"/>
-      <c r="L3" s="648"/>
+      <c r="F3" s="620"/>
+      <c r="G3" s="620"/>
+      <c r="H3" s="621"/>
+      <c r="I3" s="624"/>
+      <c r="J3" s="625"/>
+      <c r="K3" s="653"/>
+      <c r="L3" s="654"/>
       <c r="M3" s="265"/>
       <c r="N3" s="266"/>
       <c r="O3" s="266"/>
@@ -8998,9 +8998,9 @@
     </row>
     <row r="4" spans="1:19" ht="17.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A4" s="259"/>
-      <c r="B4" s="609"/>
-      <c r="C4" s="610"/>
-      <c r="D4" s="611"/>
+      <c r="B4" s="613"/>
+      <c r="C4" s="614"/>
+      <c r="D4" s="615"/>
       <c r="E4" s="243"/>
       <c r="F4" s="243"/>
       <c r="G4" s="243"/>
@@ -9019,22 +9019,22 @@
     </row>
     <row r="5" spans="1:19" ht="24.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A5" s="259"/>
-      <c r="B5" s="582" t="s">
+      <c r="B5" s="599" t="s">
         <v>13</v>
       </c>
-      <c r="C5" s="597"/>
-      <c r="D5" s="506" t="str">
+      <c r="C5" s="630"/>
+      <c r="D5" s="511" t="str">
         <f>Данные!$A5</f>
         <v>PCI</v>
       </c>
-      <c r="E5" s="507"/>
-      <c r="F5" s="507"/>
-      <c r="G5" s="507"/>
-      <c r="H5" s="508"/>
-      <c r="I5" s="598"/>
-      <c r="J5" s="599"/>
-      <c r="K5" s="600"/>
-      <c r="L5" s="508"/>
+      <c r="E5" s="512"/>
+      <c r="F5" s="512"/>
+      <c r="G5" s="512"/>
+      <c r="H5" s="513"/>
+      <c r="I5" s="631"/>
+      <c r="J5" s="632"/>
+      <c r="K5" s="633"/>
+      <c r="L5" s="513"/>
       <c r="M5" s="268"/>
       <c r="N5" s="266"/>
       <c r="O5" s="266"/>
@@ -9045,22 +9045,22 @@
     </row>
     <row r="6" spans="1:19" ht="17.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A6" s="259"/>
-      <c r="B6" s="582" t="s">
+      <c r="B6" s="599" t="s">
         <v>12</v>
       </c>
-      <c r="C6" s="597"/>
-      <c r="D6" s="500" t="str">
+      <c r="C6" s="630"/>
+      <c r="D6" s="505" t="str">
         <f>Данные!$A2</f>
         <v>III-2-82-450-1 (Банка 0,45 л.)</v>
       </c>
-      <c r="E6" s="587"/>
-      <c r="F6" s="587"/>
-      <c r="G6" s="587"/>
-      <c r="H6" s="588"/>
-      <c r="I6" s="598"/>
-      <c r="J6" s="599"/>
-      <c r="K6" s="600"/>
-      <c r="L6" s="508"/>
+      <c r="E6" s="602"/>
+      <c r="F6" s="602"/>
+      <c r="G6" s="602"/>
+      <c r="H6" s="603"/>
+      <c r="I6" s="631"/>
+      <c r="J6" s="632"/>
+      <c r="K6" s="633"/>
+      <c r="L6" s="513"/>
       <c r="M6" s="265"/>
       <c r="N6" s="266"/>
       <c r="O6" s="266"/>
@@ -9071,27 +9071,27 @@
     </row>
     <row r="7" spans="1:19" ht="78.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A7" s="259"/>
-      <c r="B7" s="592" t="s">
+      <c r="B7" s="563" t="s">
         <v>14</v>
       </c>
-      <c r="C7" s="601"/>
-      <c r="D7" s="509">
+      <c r="C7" s="634"/>
+      <c r="D7" s="514">
         <f>Данные!$A8</f>
         <v>0</v>
       </c>
-      <c r="E7" s="594"/>
-      <c r="F7" s="594"/>
-      <c r="G7" s="594"/>
-      <c r="H7" s="595"/>
-      <c r="I7" s="602" t="s">
+      <c r="E7" s="565"/>
+      <c r="F7" s="565"/>
+      <c r="G7" s="565"/>
+      <c r="H7" s="566"/>
+      <c r="I7" s="635" t="s">
         <v>15</v>
       </c>
-      <c r="J7" s="601"/>
-      <c r="K7" s="497">
+      <c r="J7" s="634"/>
+      <c r="K7" s="502">
         <f>Данные!$A11</f>
         <v>0</v>
       </c>
-      <c r="L7" s="498"/>
+      <c r="L7" s="503"/>
       <c r="M7" s="268"/>
       <c r="N7" s="266"/>
       <c r="O7" s="266"/>
@@ -9361,33 +9361,28 @@
     </row>
     <row r="17" spans="12:18" ht="13.5" thickTop="1" x14ac:dyDescent="0.2"/>
     <row r="18" spans="12:18" x14ac:dyDescent="0.2">
-      <c r="L18" s="629" t="s">
+      <c r="L18" s="636" t="s">
         <v>135</v>
       </c>
-      <c r="M18" s="629"/>
-      <c r="N18" s="629"/>
+      <c r="M18" s="636"/>
+      <c r="N18" s="636"/>
       <c r="O18" s="472"/>
       <c r="P18" s="472"/>
       <c r="Q18" s="488"/>
       <c r="R18" s="488"/>
     </row>
     <row r="19" spans="12:18" x14ac:dyDescent="0.2">
-      <c r="O19" s="551" t="s">
+      <c r="O19" s="568" t="s">
         <v>139</v>
       </c>
-      <c r="P19" s="551"/>
-      <c r="Q19" s="552" t="s">
+      <c r="P19" s="568"/>
+      <c r="Q19" s="569" t="s">
         <v>140</v>
       </c>
-      <c r="R19" s="553"/>
+      <c r="R19" s="570"/>
     </row>
   </sheetData>
   <mergeCells count="21">
-    <mergeCell ref="K6:L6"/>
-    <mergeCell ref="B5:C5"/>
-    <mergeCell ref="I2:J3"/>
-    <mergeCell ref="K2:L3"/>
-    <mergeCell ref="D5:H5"/>
     <mergeCell ref="Q19:R19"/>
     <mergeCell ref="L18:N18"/>
     <mergeCell ref="I5:J5"/>
@@ -9404,6 +9399,11 @@
     <mergeCell ref="B6:C6"/>
     <mergeCell ref="D6:H6"/>
     <mergeCell ref="I6:J6"/>
+    <mergeCell ref="K6:L6"/>
+    <mergeCell ref="B5:C5"/>
+    <mergeCell ref="I2:J3"/>
+    <mergeCell ref="K2:L3"/>
+    <mergeCell ref="D5:H5"/>
   </mergeCells>
   <conditionalFormatting sqref="H15:R15">
     <cfRule type="cellIs" dxfId="2" priority="4" stopIfTrue="1" operator="notBetween">
@@ -9432,8 +9432,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:M68"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A8" zoomScale="120" zoomScaleNormal="100" zoomScaleSheetLayoutView="120" workbookViewId="0">
-      <selection activeCell="J21" sqref="J21:J32"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="120" zoomScaleNormal="100" zoomScaleSheetLayoutView="120" workbookViewId="0">
+      <selection activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -9488,17 +9488,17 @@
       <c r="L2" s="381"/>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A3" s="517" t="s">
+      <c r="A3" s="521" t="s">
         <v>143</v>
       </c>
-      <c r="B3" s="517"/>
-      <c r="C3" s="517"/>
-      <c r="D3" s="517"/>
-      <c r="E3" s="517"/>
-      <c r="F3" s="517"/>
-      <c r="G3" s="517"/>
-      <c r="H3" s="517"/>
-      <c r="I3" s="517"/>
+      <c r="B3" s="521"/>
+      <c r="C3" s="521"/>
+      <c r="D3" s="521"/>
+      <c r="E3" s="521"/>
+      <c r="F3" s="521"/>
+      <c r="G3" s="521"/>
+      <c r="H3" s="521"/>
+      <c r="I3" s="521"/>
       <c r="K3" s="382"/>
       <c r="L3" s="382"/>
       <c r="M3" s="383"/>
@@ -9564,10 +9564,12 @@
       <c r="E6" s="394">
         <v>24</v>
       </c>
-      <c r="F6" s="395"/>
+      <c r="F6" s="395">
+        <v>1</v>
+      </c>
       <c r="G6" s="394">
         <f>E6-F6</f>
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="H6" s="396"/>
       <c r="I6" s="397"/>
@@ -10014,7 +10016,7 @@
         <f>1-G21</f>
         <v>0.93621315476190481</v>
       </c>
-      <c r="J21" s="649"/>
+      <c r="J21" s="494"/>
       <c r="K21" s="403"/>
       <c r="L21" s="403"/>
     </row>
@@ -10047,7 +10049,7 @@
         <f>I21-G22</f>
         <v>0.83070982142857153</v>
       </c>
-      <c r="J22" s="650">
+      <c r="J22" s="495">
         <v>253</v>
       </c>
       <c r="K22" s="383"/>
@@ -10063,7 +10065,7 @@
       <c r="G23" s="437"/>
       <c r="H23" s="438"/>
       <c r="I23" s="439"/>
-      <c r="J23" s="651"/>
+      <c r="J23" s="496"/>
       <c r="K23" s="403"/>
       <c r="L23" s="403"/>
     </row>
@@ -10077,7 +10079,7 @@
       <c r="G24" s="375"/>
       <c r="H24" s="375"/>
       <c r="I24" s="440"/>
-      <c r="J24" s="652"/>
+      <c r="J24" s="497"/>
       <c r="K24" s="428"/>
       <c r="L24" s="383"/>
     </row>
@@ -10091,7 +10093,7 @@
       <c r="G25" s="441"/>
       <c r="H25" s="438"/>
       <c r="I25" s="439"/>
-      <c r="J25" s="651"/>
+      <c r="J25" s="496"/>
       <c r="K25" s="442"/>
       <c r="L25" s="383"/>
     </row>
@@ -10105,7 +10107,7 @@
       <c r="G26" s="441"/>
       <c r="H26" s="438"/>
       <c r="I26" s="439"/>
-      <c r="J26" s="651"/>
+      <c r="J26" s="496"/>
       <c r="K26" s="428"/>
       <c r="L26" s="383"/>
     </row>
@@ -10119,7 +10121,7 @@
       <c r="G27" s="441"/>
       <c r="H27" s="438"/>
       <c r="I27" s="439"/>
-      <c r="J27" s="651"/>
+      <c r="J27" s="496"/>
       <c r="K27" s="428"/>
       <c r="L27" s="383"/>
     </row>
@@ -10133,7 +10135,7 @@
       <c r="G28" s="441"/>
       <c r="H28" s="438"/>
       <c r="I28" s="439"/>
-      <c r="J28" s="651"/>
+      <c r="J28" s="496"/>
       <c r="K28" s="428"/>
       <c r="L28" s="383"/>
     </row>
@@ -10147,7 +10149,7 @@
       <c r="G29" s="443"/>
       <c r="H29" s="438"/>
       <c r="I29" s="444"/>
-      <c r="J29" s="653"/>
+      <c r="J29" s="498"/>
       <c r="K29" s="428"/>
       <c r="L29" s="383"/>
     </row>
@@ -10161,7 +10163,7 @@
       <c r="G30" s="441"/>
       <c r="H30" s="438"/>
       <c r="I30" s="444"/>
-      <c r="J30" s="653"/>
+      <c r="J30" s="498"/>
       <c r="K30" s="428"/>
       <c r="L30" s="383"/>
     </row>
@@ -10175,7 +10177,7 @@
       <c r="G31" s="449"/>
       <c r="H31" s="450"/>
       <c r="I31" s="451"/>
-      <c r="J31" s="654"/>
+      <c r="J31" s="499"/>
       <c r="K31" s="383"/>
       <c r="L31" s="383"/>
     </row>
@@ -10206,7 +10208,7 @@
         <f>1-G32</f>
         <v>0.83070982142857142</v>
       </c>
-      <c r="J32" s="655"/>
+      <c r="J32" s="500"/>
       <c r="K32" s="458"/>
       <c r="L32" s="458"/>
     </row>
@@ -10223,12 +10225,12 @@
       <c r="J35" s="383"/>
     </row>
     <row r="36" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="518" t="s">
+      <c r="A36" s="522" t="s">
         <v>127</v>
       </c>
-      <c r="B36" s="518"/>
-      <c r="C36" s="518"/>
-      <c r="D36" s="518"/>
+      <c r="B36" s="522"/>
+      <c r="C36" s="522"/>
+      <c r="D36" s="522"/>
       <c r="E36" s="383"/>
       <c r="F36" s="383"/>
       <c r="G36" s="383"/>
@@ -10237,10 +10239,10 @@
       <c r="J36" s="383"/>
     </row>
     <row r="37" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A37" s="519" t="s">
+      <c r="A37" s="523" t="s">
         <v>128</v>
       </c>
-      <c r="B37" s="519"/>
+      <c r="B37" s="523"/>
       <c r="C37" s="459" t="s">
         <v>129</v>
       </c>
@@ -10255,11 +10257,11 @@
       <c r="J37" s="383"/>
     </row>
     <row r="38" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A38" s="520">
+      <c r="A38" s="524">
         <f>A21-F32</f>
         <v>13955925</v>
       </c>
-      <c r="B38" s="521"/>
+      <c r="B38" s="525"/>
       <c r="C38" s="460">
         <f>1-G32</f>
         <v>0.83070982142857142</v>
@@ -10321,8 +10323,8 @@
       <c r="F42" s="464"/>
       <c r="G42" s="464"/>
       <c r="H42" s="464"/>
-      <c r="I42" s="512"/>
-      <c r="J42" s="513"/>
+      <c r="I42" s="526"/>
+      <c r="J42" s="527"/>
     </row>
     <row r="43" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A43" s="465"/>
@@ -10416,9 +10418,9 @@
     </row>
     <row r="52" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A52" s="383"/>
-      <c r="B52" s="515"/>
-      <c r="C52" s="515"/>
-      <c r="D52" s="516"/>
+      <c r="B52" s="519"/>
+      <c r="C52" s="519"/>
+      <c r="D52" s="520"/>
       <c r="E52" s="462"/>
       <c r="F52" s="383"/>
       <c r="G52" s="383"/>
@@ -10435,8 +10437,8 @@
       <c r="F53" s="464"/>
       <c r="G53" s="464"/>
       <c r="H53" s="464"/>
-      <c r="I53" s="512"/>
-      <c r="J53" s="513"/>
+      <c r="I53" s="526"/>
+      <c r="J53" s="527"/>
     </row>
     <row r="54" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A54" s="465"/>
@@ -10447,8 +10449,8 @@
       <c r="F54" s="413"/>
       <c r="G54" s="413"/>
       <c r="H54" s="466"/>
-      <c r="I54" s="514"/>
-      <c r="J54" s="514"/>
+      <c r="I54" s="528"/>
+      <c r="J54" s="528"/>
     </row>
     <row r="55" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A55" s="465"/>
@@ -10459,8 +10461,8 @@
       <c r="F55" s="403"/>
       <c r="G55" s="403"/>
       <c r="H55" s="403"/>
-      <c r="I55" s="514"/>
-      <c r="J55" s="514"/>
+      <c r="I55" s="528"/>
+      <c r="J55" s="528"/>
     </row>
     <row r="56" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A56" s="383"/>
@@ -10473,26 +10475,26 @@
       <c r="H56" s="383"/>
     </row>
     <row r="61" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="B61" s="512"/>
-      <c r="C61" s="513"/>
+      <c r="B61" s="526"/>
+      <c r="C61" s="527"/>
     </row>
     <row r="68" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B68" s="512"/>
-      <c r="C68" s="513"/>
+      <c r="B68" s="526"/>
+      <c r="C68" s="527"/>
     </row>
   </sheetData>
   <mergeCells count="11">
+    <mergeCell ref="I53:J53"/>
+    <mergeCell ref="I54:J54"/>
+    <mergeCell ref="I55:J55"/>
+    <mergeCell ref="B61:C61"/>
+    <mergeCell ref="B68:C68"/>
     <mergeCell ref="B52:D52"/>
     <mergeCell ref="A3:I3"/>
     <mergeCell ref="A36:D36"/>
     <mergeCell ref="A37:B37"/>
     <mergeCell ref="A38:B38"/>
     <mergeCell ref="I42:J42"/>
-    <mergeCell ref="I53:J53"/>
-    <mergeCell ref="I54:J54"/>
-    <mergeCell ref="I55:J55"/>
-    <mergeCell ref="B61:C61"/>
-    <mergeCell ref="B68:C68"/>
   </mergeCells>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.11811023622047245" right="0.11811023622047245" top="0.15748031496062992" bottom="0.15748031496062992" header="0.31496062992125984" footer="0.31496062992125984"/>
@@ -10575,47 +10577,47 @@
       <c r="J8" s="310"/>
     </row>
     <row r="11" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="546" t="s">
+      <c r="A11" s="530" t="s">
         <v>63</v>
       </c>
-      <c r="B11" s="546"/>
-      <c r="C11" s="546"/>
-      <c r="D11" s="546"/>
-      <c r="E11" s="546"/>
-      <c r="F11" s="546"/>
-      <c r="G11" s="546"/>
-      <c r="H11" s="546"/>
-      <c r="I11" s="546"/>
-      <c r="J11" s="546"/>
+      <c r="B11" s="530"/>
+      <c r="C11" s="530"/>
+      <c r="D11" s="530"/>
+      <c r="E11" s="530"/>
+      <c r="F11" s="530"/>
+      <c r="G11" s="530"/>
+      <c r="H11" s="530"/>
+      <c r="I11" s="530"/>
+      <c r="J11" s="530"/>
     </row>
     <row r="12" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="545" t="s">
+      <c r="A12" s="529" t="s">
         <v>73</v>
       </c>
-      <c r="B12" s="545"/>
-      <c r="C12" s="545"/>
-      <c r="D12" s="545"/>
-      <c r="E12" s="545"/>
-      <c r="F12" s="545"/>
-      <c r="G12" s="545"/>
-      <c r="H12" s="545"/>
-      <c r="I12" s="545"/>
-      <c r="J12" s="545"/>
+      <c r="B12" s="529"/>
+      <c r="C12" s="529"/>
+      <c r="D12" s="529"/>
+      <c r="E12" s="529"/>
+      <c r="F12" s="529"/>
+      <c r="G12" s="529"/>
+      <c r="H12" s="529"/>
+      <c r="I12" s="529"/>
+      <c r="J12" s="529"/>
     </row>
     <row r="13" spans="1:11" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="547" t="str">
+      <c r="A13" s="531" t="str">
         <f>Данные!A2</f>
         <v>III-2-82-450-1 (Банка 0,45 л.)</v>
       </c>
-      <c r="B13" s="546"/>
-      <c r="C13" s="546"/>
-      <c r="D13" s="546"/>
-      <c r="E13" s="546"/>
-      <c r="F13" s="546"/>
-      <c r="G13" s="546"/>
-      <c r="H13" s="546"/>
-      <c r="I13" s="546"/>
-      <c r="J13" s="546"/>
+      <c r="B13" s="530"/>
+      <c r="C13" s="530"/>
+      <c r="D13" s="530"/>
+      <c r="E13" s="530"/>
+      <c r="F13" s="530"/>
+      <c r="G13" s="530"/>
+      <c r="H13" s="530"/>
+      <c r="I13" s="530"/>
+      <c r="J13" s="530"/>
     </row>
     <row r="15" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A15" s="304" t="s">
@@ -10740,493 +10742,493 @@
       <c r="J21" s="305"/>
     </row>
     <row r="22" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="543" t="s">
+      <c r="A22" s="535" t="s">
         <v>64</v>
       </c>
-      <c r="B22" s="543" t="s">
+      <c r="B22" s="535" t="s">
         <v>65</v>
       </c>
-      <c r="C22" s="543"/>
-      <c r="D22" s="543"/>
-      <c r="E22" s="543" t="s">
+      <c r="C22" s="535"/>
+      <c r="D22" s="535"/>
+      <c r="E22" s="535" t="s">
         <v>66</v>
       </c>
-      <c r="F22" s="543"/>
-      <c r="G22" s="544" t="s">
+      <c r="F22" s="535"/>
+      <c r="G22" s="553" t="s">
         <v>67</v>
       </c>
-      <c r="H22" s="543" t="s">
+      <c r="H22" s="535" t="s">
         <v>68</v>
       </c>
-      <c r="I22" s="543"/>
-      <c r="J22" s="543"/>
+      <c r="I22" s="535"/>
+      <c r="J22" s="535"/>
     </row>
     <row r="23" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A23" s="543"/>
-      <c r="B23" s="543"/>
-      <c r="C23" s="543"/>
-      <c r="D23" s="543"/>
-      <c r="E23" s="543"/>
-      <c r="F23" s="543"/>
-      <c r="G23" s="544"/>
-      <c r="H23" s="543"/>
-      <c r="I23" s="543"/>
-      <c r="J23" s="543"/>
+      <c r="A23" s="535"/>
+      <c r="B23" s="535"/>
+      <c r="C23" s="535"/>
+      <c r="D23" s="535"/>
+      <c r="E23" s="535"/>
+      <c r="F23" s="535"/>
+      <c r="G23" s="553"/>
+      <c r="H23" s="535"/>
+      <c r="I23" s="535"/>
+      <c r="J23" s="535"/>
     </row>
     <row r="24" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A24" s="522">
+      <c r="A24" s="536">
         <v>1</v>
       </c>
-      <c r="B24" s="548" t="s">
+      <c r="B24" s="550" t="s">
         <v>43</v>
       </c>
-      <c r="C24" s="549"/>
-      <c r="D24" s="550"/>
-      <c r="E24" s="527" t="str">
+      <c r="C24" s="551"/>
+      <c r="D24" s="552"/>
+      <c r="E24" s="538" t="str">
         <f>Данные!C14</f>
         <v>III-2-82-450-1</v>
       </c>
-      <c r="F24" s="528"/>
-      <c r="G24" s="531">
+      <c r="F24" s="539"/>
+      <c r="G24" s="542">
         <f>Данные!B14</f>
         <v>24</v>
       </c>
-      <c r="H24" s="533"/>
-      <c r="I24" s="534"/>
-      <c r="J24" s="535"/>
+      <c r="H24" s="544"/>
+      <c r="I24" s="545"/>
+      <c r="J24" s="546"/>
     </row>
     <row r="25" spans="1:10" ht="40.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="523"/>
-      <c r="B25" s="539" t="str">
+      <c r="A25" s="537"/>
+      <c r="B25" s="532" t="str">
         <f>Данные!$A$30</f>
         <v>(к серийному формокомплекту Банка III-2-82-45-1)</v>
       </c>
-      <c r="C25" s="540"/>
-      <c r="D25" s="541"/>
-      <c r="E25" s="542"/>
-      <c r="F25" s="530"/>
-      <c r="G25" s="532"/>
-      <c r="H25" s="536"/>
-      <c r="I25" s="537"/>
-      <c r="J25" s="538"/>
+      <c r="C25" s="533"/>
+      <c r="D25" s="534"/>
+      <c r="E25" s="540"/>
+      <c r="F25" s="541"/>
+      <c r="G25" s="543"/>
+      <c r="H25" s="547"/>
+      <c r="I25" s="548"/>
+      <c r="J25" s="549"/>
     </row>
     <row r="26" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A26" s="522">
+      <c r="A26" s="536">
         <f>A24+1</f>
         <v>2</v>
       </c>
-      <c r="B26" s="524" t="s">
+      <c r="B26" s="554" t="s">
         <v>106</v>
       </c>
-      <c r="C26" s="525"/>
-      <c r="D26" s="526"/>
-      <c r="E26" s="527" t="str">
+      <c r="C26" s="555"/>
+      <c r="D26" s="556"/>
+      <c r="E26" s="538" t="str">
         <f>Данные!C15</f>
         <v>III-2-82-450-1</v>
       </c>
-      <c r="F26" s="528"/>
-      <c r="G26" s="531">
+      <c r="F26" s="539"/>
+      <c r="G26" s="542">
         <f>Данные!B15</f>
         <v>24</v>
       </c>
-      <c r="H26" s="533"/>
-      <c r="I26" s="534"/>
-      <c r="J26" s="535"/>
+      <c r="H26" s="544"/>
+      <c r="I26" s="545"/>
+      <c r="J26" s="546"/>
     </row>
     <row r="27" spans="1:10" ht="40.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="523"/>
-      <c r="B27" s="539" t="str">
+      <c r="A27" s="537"/>
+      <c r="B27" s="532" t="str">
         <f>Данные!$A$30</f>
         <v>(к серийному формокомплекту Банка III-2-82-45-1)</v>
       </c>
-      <c r="C27" s="540"/>
-      <c r="D27" s="541"/>
-      <c r="E27" s="542"/>
-      <c r="F27" s="530"/>
-      <c r="G27" s="532"/>
-      <c r="H27" s="536"/>
-      <c r="I27" s="537"/>
-      <c r="J27" s="538"/>
+      <c r="C27" s="533"/>
+      <c r="D27" s="534"/>
+      <c r="E27" s="540"/>
+      <c r="F27" s="541"/>
+      <c r="G27" s="543"/>
+      <c r="H27" s="547"/>
+      <c r="I27" s="548"/>
+      <c r="J27" s="549"/>
     </row>
     <row r="28" spans="1:10" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="522">
+      <c r="A28" s="536">
         <f t="shared" ref="A28" si="0">A26+1</f>
         <v>3</v>
       </c>
-      <c r="B28" s="524" t="s">
+      <c r="B28" s="554" t="s">
         <v>38</v>
       </c>
-      <c r="C28" s="525"/>
-      <c r="D28" s="526"/>
-      <c r="E28" s="527" t="str">
+      <c r="C28" s="555"/>
+      <c r="D28" s="556"/>
+      <c r="E28" s="538" t="str">
         <f>Данные!C16</f>
         <v>III-2-82-450-1</v>
       </c>
-      <c r="F28" s="528"/>
-      <c r="G28" s="531">
+      <c r="F28" s="539"/>
+      <c r="G28" s="542">
         <f>Данные!B16</f>
         <v>32</v>
       </c>
-      <c r="H28" s="533"/>
-      <c r="I28" s="534"/>
-      <c r="J28" s="535"/>
+      <c r="H28" s="544"/>
+      <c r="I28" s="545"/>
+      <c r="J28" s="546"/>
     </row>
     <row r="29" spans="1:10" ht="40.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="523"/>
-      <c r="B29" s="539" t="str">
+      <c r="A29" s="537"/>
+      <c r="B29" s="532" t="str">
         <f>Данные!$A$30</f>
         <v>(к серийному формокомплекту Банка III-2-82-45-1)</v>
       </c>
-      <c r="C29" s="540"/>
-      <c r="D29" s="541"/>
-      <c r="E29" s="542"/>
-      <c r="F29" s="530"/>
-      <c r="G29" s="532"/>
-      <c r="H29" s="536"/>
-      <c r="I29" s="537"/>
-      <c r="J29" s="538"/>
+      <c r="C29" s="533"/>
+      <c r="D29" s="534"/>
+      <c r="E29" s="540"/>
+      <c r="F29" s="541"/>
+      <c r="G29" s="543"/>
+      <c r="H29" s="547"/>
+      <c r="I29" s="548"/>
+      <c r="J29" s="549"/>
     </row>
     <row r="30" spans="1:10" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="522">
+      <c r="A30" s="536">
         <f t="shared" ref="A30" si="1">A28+1</f>
         <v>4</v>
       </c>
-      <c r="B30" s="524" t="s">
+      <c r="B30" s="554" t="s">
         <v>107</v>
       </c>
-      <c r="C30" s="525"/>
-      <c r="D30" s="526"/>
-      <c r="E30" s="527" t="str">
+      <c r="C30" s="555"/>
+      <c r="D30" s="556"/>
+      <c r="E30" s="538" t="str">
         <f>Данные!C17</f>
         <v>III-2-82-450-1</v>
       </c>
-      <c r="F30" s="528"/>
-      <c r="G30" s="531">
+      <c r="F30" s="539"/>
+      <c r="G30" s="542">
         <f>Данные!B17</f>
         <v>32</v>
       </c>
-      <c r="H30" s="533"/>
-      <c r="I30" s="534"/>
-      <c r="J30" s="535"/>
+      <c r="H30" s="544"/>
+      <c r="I30" s="545"/>
+      <c r="J30" s="546"/>
     </row>
     <row r="31" spans="1:10" ht="40.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="523"/>
-      <c r="B31" s="539" t="str">
+      <c r="A31" s="537"/>
+      <c r="B31" s="532" t="str">
         <f>Данные!$A$30</f>
         <v>(к серийному формокомплекту Банка III-2-82-45-1)</v>
       </c>
-      <c r="C31" s="540"/>
-      <c r="D31" s="541"/>
-      <c r="E31" s="529"/>
-      <c r="F31" s="530"/>
-      <c r="G31" s="532"/>
-      <c r="H31" s="536"/>
-      <c r="I31" s="537"/>
-      <c r="J31" s="538"/>
+      <c r="C31" s="533"/>
+      <c r="D31" s="534"/>
+      <c r="E31" s="557"/>
+      <c r="F31" s="541"/>
+      <c r="G31" s="543"/>
+      <c r="H31" s="547"/>
+      <c r="I31" s="548"/>
+      <c r="J31" s="549"/>
     </row>
     <row r="32" spans="1:10" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="522">
+      <c r="A32" s="536">
         <f t="shared" ref="A32" si="2">A30+1</f>
         <v>5</v>
       </c>
-      <c r="B32" s="524" t="s">
+      <c r="B32" s="554" t="s">
         <v>47</v>
       </c>
-      <c r="C32" s="525"/>
-      <c r="D32" s="526"/>
-      <c r="E32" s="527" t="str">
+      <c r="C32" s="555"/>
+      <c r="D32" s="556"/>
+      <c r="E32" s="538" t="str">
         <f>Данные!C18</f>
         <v>III-2-82-450-1</v>
       </c>
-      <c r="F32" s="528"/>
-      <c r="G32" s="531">
+      <c r="F32" s="539"/>
+      <c r="G32" s="542">
         <f>Данные!B18</f>
         <v>80</v>
       </c>
-      <c r="H32" s="533"/>
-      <c r="I32" s="534"/>
-      <c r="J32" s="535"/>
+      <c r="H32" s="544"/>
+      <c r="I32" s="545"/>
+      <c r="J32" s="546"/>
     </row>
     <row r="33" spans="1:10" ht="40.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="523"/>
-      <c r="B33" s="539" t="str">
+      <c r="A33" s="537"/>
+      <c r="B33" s="532" t="str">
         <f>Данные!$A$30</f>
         <v>(к серийному формокомплекту Банка III-2-82-45-1)</v>
       </c>
-      <c r="C33" s="540"/>
-      <c r="D33" s="541"/>
-      <c r="E33" s="529"/>
-      <c r="F33" s="530"/>
-      <c r="G33" s="532"/>
-      <c r="H33" s="536"/>
-      <c r="I33" s="537"/>
-      <c r="J33" s="538"/>
+      <c r="C33" s="533"/>
+      <c r="D33" s="534"/>
+      <c r="E33" s="557"/>
+      <c r="F33" s="541"/>
+      <c r="G33" s="543"/>
+      <c r="H33" s="547"/>
+      <c r="I33" s="548"/>
+      <c r="J33" s="549"/>
     </row>
     <row r="34" spans="1:10" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="522">
+      <c r="A34" s="536">
         <f t="shared" ref="A34" si="3">A32+1</f>
         <v>6</v>
       </c>
-      <c r="B34" s="524" t="s">
+      <c r="B34" s="554" t="s">
         <v>89</v>
       </c>
-      <c r="C34" s="525"/>
-      <c r="D34" s="526"/>
-      <c r="E34" s="527" t="str">
+      <c r="C34" s="555"/>
+      <c r="D34" s="556"/>
+      <c r="E34" s="538" t="str">
         <f>Данные!C19</f>
         <v>III-2-82-450-1</v>
       </c>
-      <c r="F34" s="528"/>
-      <c r="G34" s="531">
+      <c r="F34" s="539"/>
+      <c r="G34" s="542">
         <f>Данные!B19</f>
         <v>150</v>
       </c>
-      <c r="H34" s="533"/>
-      <c r="I34" s="534"/>
-      <c r="J34" s="535"/>
+      <c r="H34" s="544"/>
+      <c r="I34" s="545"/>
+      <c r="J34" s="546"/>
     </row>
     <row r="35" spans="1:10" ht="40.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="523"/>
-      <c r="B35" s="539" t="str">
+      <c r="A35" s="537"/>
+      <c r="B35" s="532" t="str">
         <f>Данные!$A$30</f>
         <v>(к серийному формокомплекту Банка III-2-82-45-1)</v>
       </c>
-      <c r="C35" s="540"/>
-      <c r="D35" s="541"/>
-      <c r="E35" s="529"/>
-      <c r="F35" s="530"/>
-      <c r="G35" s="532"/>
-      <c r="H35" s="536"/>
-      <c r="I35" s="537"/>
-      <c r="J35" s="538"/>
+      <c r="C35" s="533"/>
+      <c r="D35" s="534"/>
+      <c r="E35" s="557"/>
+      <c r="F35" s="541"/>
+      <c r="G35" s="543"/>
+      <c r="H35" s="547"/>
+      <c r="I35" s="548"/>
+      <c r="J35" s="549"/>
     </row>
     <row r="36" spans="1:10" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="522">
+      <c r="A36" s="536">
         <f t="shared" ref="A36" si="4">A34+1</f>
         <v>7</v>
       </c>
-      <c r="B36" s="524" t="s">
+      <c r="B36" s="554" t="s">
         <v>51</v>
       </c>
-      <c r="C36" s="525"/>
-      <c r="D36" s="526"/>
-      <c r="E36" s="527" t="str">
+      <c r="C36" s="555"/>
+      <c r="D36" s="556"/>
+      <c r="E36" s="538" t="str">
         <f>Данные!C20</f>
         <v>III-2-82-450-1</v>
       </c>
-      <c r="F36" s="528"/>
-      <c r="G36" s="531">
+      <c r="F36" s="539"/>
+      <c r="G36" s="542">
         <f>Данные!B20</f>
         <v>60</v>
       </c>
-      <c r="H36" s="533"/>
-      <c r="I36" s="534"/>
-      <c r="J36" s="535"/>
+      <c r="H36" s="544"/>
+      <c r="I36" s="545"/>
+      <c r="J36" s="546"/>
     </row>
     <row r="37" spans="1:10" ht="40.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="523"/>
-      <c r="B37" s="539" t="str">
+      <c r="A37" s="537"/>
+      <c r="B37" s="532" t="str">
         <f>Данные!$A$30</f>
         <v>(к серийному формокомплекту Банка III-2-82-45-1)</v>
       </c>
-      <c r="C37" s="540"/>
-      <c r="D37" s="541"/>
-      <c r="E37" s="529"/>
-      <c r="F37" s="530"/>
-      <c r="G37" s="532"/>
-      <c r="H37" s="536"/>
-      <c r="I37" s="537"/>
-      <c r="J37" s="538"/>
+      <c r="C37" s="533"/>
+      <c r="D37" s="534"/>
+      <c r="E37" s="557"/>
+      <c r="F37" s="541"/>
+      <c r="G37" s="543"/>
+      <c r="H37" s="547"/>
+      <c r="I37" s="548"/>
+      <c r="J37" s="549"/>
     </row>
     <row r="38" spans="1:10" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="522">
+      <c r="A38" s="536">
         <f t="shared" ref="A38" si="5">A36+1</f>
         <v>8</v>
       </c>
-      <c r="B38" s="524" t="s">
+      <c r="B38" s="554" t="s">
         <v>52</v>
       </c>
-      <c r="C38" s="525"/>
-      <c r="D38" s="526"/>
-      <c r="E38" s="527">
+      <c r="C38" s="555"/>
+      <c r="D38" s="556"/>
+      <c r="E38" s="538">
         <f>Данные!C21</f>
         <v>0</v>
       </c>
-      <c r="F38" s="528"/>
-      <c r="G38" s="531">
+      <c r="F38" s="539"/>
+      <c r="G38" s="542">
         <f>Данные!B21</f>
         <v>0</v>
       </c>
-      <c r="H38" s="533"/>
-      <c r="I38" s="534"/>
-      <c r="J38" s="535"/>
+      <c r="H38" s="544"/>
+      <c r="I38" s="545"/>
+      <c r="J38" s="546"/>
     </row>
     <row r="39" spans="1:10" ht="40.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="523"/>
-      <c r="B39" s="539" t="str">
+      <c r="A39" s="537"/>
+      <c r="B39" s="532" t="str">
         <f>Данные!$A$30</f>
         <v>(к серийному формокомплекту Банка III-2-82-45-1)</v>
       </c>
-      <c r="C39" s="540"/>
-      <c r="D39" s="541"/>
-      <c r="E39" s="529"/>
-      <c r="F39" s="530"/>
-      <c r="G39" s="532"/>
-      <c r="H39" s="536"/>
-      <c r="I39" s="537"/>
-      <c r="J39" s="538"/>
+      <c r="C39" s="533"/>
+      <c r="D39" s="534"/>
+      <c r="E39" s="557"/>
+      <c r="F39" s="541"/>
+      <c r="G39" s="543"/>
+      <c r="H39" s="547"/>
+      <c r="I39" s="548"/>
+      <c r="J39" s="549"/>
     </row>
     <row r="40" spans="1:10" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A40" s="522">
+      <c r="A40" s="536">
         <f t="shared" ref="A40" si="6">A38+1</f>
         <v>9</v>
       </c>
-      <c r="B40" s="524" t="s">
+      <c r="B40" s="554" t="s">
         <v>55</v>
       </c>
-      <c r="C40" s="525"/>
-      <c r="D40" s="526"/>
-      <c r="E40" s="527">
+      <c r="C40" s="555"/>
+      <c r="D40" s="556"/>
+      <c r="E40" s="538">
         <f>Данные!C23</f>
         <v>0</v>
       </c>
-      <c r="F40" s="528"/>
-      <c r="G40" s="531">
+      <c r="F40" s="539"/>
+      <c r="G40" s="542">
         <f>Данные!B23</f>
         <v>0</v>
       </c>
-      <c r="H40" s="533"/>
-      <c r="I40" s="534"/>
-      <c r="J40" s="535"/>
+      <c r="H40" s="544"/>
+      <c r="I40" s="545"/>
+      <c r="J40" s="546"/>
     </row>
     <row r="41" spans="1:10" ht="40.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A41" s="523"/>
-      <c r="B41" s="539" t="str">
+      <c r="A41" s="537"/>
+      <c r="B41" s="532" t="str">
         <f>Данные!$A$30</f>
         <v>(к серийному формокомплекту Банка III-2-82-45-1)</v>
       </c>
-      <c r="C41" s="540"/>
-      <c r="D41" s="541"/>
-      <c r="E41" s="529"/>
-      <c r="F41" s="530"/>
-      <c r="G41" s="532"/>
-      <c r="H41" s="536"/>
-      <c r="I41" s="537"/>
-      <c r="J41" s="538"/>
+      <c r="C41" s="533"/>
+      <c r="D41" s="534"/>
+      <c r="E41" s="557"/>
+      <c r="F41" s="541"/>
+      <c r="G41" s="543"/>
+      <c r="H41" s="547"/>
+      <c r="I41" s="548"/>
+      <c r="J41" s="549"/>
     </row>
     <row r="42" spans="1:10" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A42" s="522">
+      <c r="A42" s="536">
         <f t="shared" ref="A42" si="7">A40+1</f>
         <v>10</v>
       </c>
-      <c r="B42" s="524" t="s">
+      <c r="B42" s="554" t="s">
         <v>54</v>
       </c>
-      <c r="C42" s="525"/>
-      <c r="D42" s="526"/>
-      <c r="E42" s="527" t="str">
+      <c r="C42" s="555"/>
+      <c r="D42" s="556"/>
+      <c r="E42" s="538" t="str">
         <f>Данные!C26</f>
         <v>III-2-82-450-1</v>
       </c>
-      <c r="F42" s="528"/>
-      <c r="G42" s="531">
+      <c r="F42" s="539"/>
+      <c r="G42" s="542">
         <f>Данные!B26</f>
         <v>0</v>
       </c>
-      <c r="H42" s="533"/>
-      <c r="I42" s="534"/>
-      <c r="J42" s="535"/>
+      <c r="H42" s="544"/>
+      <c r="I42" s="545"/>
+      <c r="J42" s="546"/>
     </row>
     <row r="43" spans="1:10" ht="40.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A43" s="523"/>
-      <c r="B43" s="539" t="str">
+      <c r="A43" s="537"/>
+      <c r="B43" s="532" t="str">
         <f>Данные!$A$30</f>
         <v>(к серийному формокомплекту Банка III-2-82-45-1)</v>
       </c>
-      <c r="C43" s="540"/>
-      <c r="D43" s="541"/>
-      <c r="E43" s="529"/>
-      <c r="F43" s="530"/>
-      <c r="G43" s="532"/>
-      <c r="H43" s="536"/>
-      <c r="I43" s="537"/>
-      <c r="J43" s="538"/>
+      <c r="C43" s="533"/>
+      <c r="D43" s="534"/>
+      <c r="E43" s="557"/>
+      <c r="F43" s="541"/>
+      <c r="G43" s="543"/>
+      <c r="H43" s="547"/>
+      <c r="I43" s="548"/>
+      <c r="J43" s="549"/>
     </row>
     <row r="44" spans="1:10" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A44" s="522">
+      <c r="A44" s="536">
         <f t="shared" ref="A44" si="8">A42+1</f>
         <v>11</v>
       </c>
-      <c r="B44" s="524" t="s">
+      <c r="B44" s="554" t="s">
         <v>104</v>
       </c>
-      <c r="C44" s="525"/>
-      <c r="D44" s="526"/>
-      <c r="E44" s="527" t="str">
+      <c r="C44" s="555"/>
+      <c r="D44" s="556"/>
+      <c r="E44" s="538" t="str">
         <f>Данные!C27</f>
         <v>III-2-82-450-1</v>
       </c>
-      <c r="F44" s="528"/>
-      <c r="G44" s="531">
+      <c r="F44" s="539"/>
+      <c r="G44" s="542">
         <f>Данные!B27</f>
         <v>0</v>
       </c>
-      <c r="H44" s="533"/>
-      <c r="I44" s="534"/>
-      <c r="J44" s="535"/>
+      <c r="H44" s="544"/>
+      <c r="I44" s="545"/>
+      <c r="J44" s="546"/>
     </row>
     <row r="45" spans="1:10" ht="40.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A45" s="523"/>
-      <c r="B45" s="539" t="str">
+      <c r="A45" s="537"/>
+      <c r="B45" s="532" t="str">
         <f>Данные!$A$30</f>
         <v>(к серийному формокомплекту Банка III-2-82-45-1)</v>
       </c>
-      <c r="C45" s="540"/>
-      <c r="D45" s="541"/>
-      <c r="E45" s="529"/>
-      <c r="F45" s="530"/>
-      <c r="G45" s="532"/>
-      <c r="H45" s="536"/>
-      <c r="I45" s="537"/>
-      <c r="J45" s="538"/>
+      <c r="C45" s="533"/>
+      <c r="D45" s="534"/>
+      <c r="E45" s="557"/>
+      <c r="F45" s="541"/>
+      <c r="G45" s="543"/>
+      <c r="H45" s="547"/>
+      <c r="I45" s="548"/>
+      <c r="J45" s="549"/>
     </row>
     <row r="46" spans="1:10" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A46" s="522">
+      <c r="A46" s="536">
         <f t="shared" ref="A46" si="9">A44+1</f>
         <v>12</v>
       </c>
-      <c r="B46" s="524" t="s">
+      <c r="B46" s="554" t="s">
         <v>69</v>
       </c>
-      <c r="C46" s="525"/>
-      <c r="D46" s="526"/>
-      <c r="E46" s="527" t="str">
+      <c r="C46" s="555"/>
+      <c r="D46" s="556"/>
+      <c r="E46" s="538" t="str">
         <f>Данные!C24</f>
         <v>III-2-82-450-1</v>
       </c>
-      <c r="F46" s="528"/>
-      <c r="G46" s="531">
+      <c r="F46" s="539"/>
+      <c r="G46" s="542">
         <f>Данные!B24</f>
         <v>8</v>
       </c>
-      <c r="H46" s="533"/>
-      <c r="I46" s="534"/>
-      <c r="J46" s="535"/>
+      <c r="H46" s="544"/>
+      <c r="I46" s="545"/>
+      <c r="J46" s="546"/>
     </row>
     <row r="47" spans="1:10" ht="40.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A47" s="523"/>
-      <c r="B47" s="539" t="str">
+      <c r="A47" s="537"/>
+      <c r="B47" s="532" t="str">
         <f>Данные!$A$30</f>
         <v>(к серийному формокомплекту Банка III-2-82-45-1)</v>
       </c>
-      <c r="C47" s="540"/>
-      <c r="D47" s="541"/>
-      <c r="E47" s="529"/>
-      <c r="F47" s="530"/>
-      <c r="G47" s="532"/>
-      <c r="H47" s="536"/>
-      <c r="I47" s="537"/>
-      <c r="J47" s="538"/>
+      <c r="C47" s="533"/>
+      <c r="D47" s="534"/>
+      <c r="E47" s="557"/>
+      <c r="F47" s="541"/>
+      <c r="G47" s="543"/>
+      <c r="H47" s="547"/>
+      <c r="I47" s="548"/>
+      <c r="J47" s="549"/>
     </row>
     <row r="48" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A48" s="304"/>
@@ -11355,6 +11357,70 @@
     </row>
   </sheetData>
   <mergeCells count="80">
+    <mergeCell ref="A46:A47"/>
+    <mergeCell ref="B46:D46"/>
+    <mergeCell ref="E46:F47"/>
+    <mergeCell ref="G46:G47"/>
+    <mergeCell ref="H46:J47"/>
+    <mergeCell ref="B47:D47"/>
+    <mergeCell ref="A44:A45"/>
+    <mergeCell ref="B44:D44"/>
+    <mergeCell ref="E44:F45"/>
+    <mergeCell ref="G44:G45"/>
+    <mergeCell ref="H44:J45"/>
+    <mergeCell ref="B45:D45"/>
+    <mergeCell ref="A42:A43"/>
+    <mergeCell ref="B42:D42"/>
+    <mergeCell ref="E42:F43"/>
+    <mergeCell ref="G42:G43"/>
+    <mergeCell ref="H42:J43"/>
+    <mergeCell ref="A40:A41"/>
+    <mergeCell ref="B40:D40"/>
+    <mergeCell ref="E40:F41"/>
+    <mergeCell ref="G40:G41"/>
+    <mergeCell ref="H40:J41"/>
+    <mergeCell ref="A38:A39"/>
+    <mergeCell ref="B38:D38"/>
+    <mergeCell ref="E38:F39"/>
+    <mergeCell ref="G38:G39"/>
+    <mergeCell ref="H38:J39"/>
+    <mergeCell ref="A36:A37"/>
+    <mergeCell ref="B36:D36"/>
+    <mergeCell ref="E36:F37"/>
+    <mergeCell ref="G36:G37"/>
+    <mergeCell ref="H36:J37"/>
+    <mergeCell ref="A34:A35"/>
+    <mergeCell ref="B34:D34"/>
+    <mergeCell ref="E34:F35"/>
+    <mergeCell ref="G34:G35"/>
+    <mergeCell ref="H34:J35"/>
+    <mergeCell ref="A32:A33"/>
+    <mergeCell ref="B32:D32"/>
+    <mergeCell ref="E32:F33"/>
+    <mergeCell ref="G32:G33"/>
+    <mergeCell ref="H32:J33"/>
+    <mergeCell ref="B33:D33"/>
+    <mergeCell ref="A30:A31"/>
+    <mergeCell ref="B30:D30"/>
+    <mergeCell ref="E30:F31"/>
+    <mergeCell ref="G30:G31"/>
+    <mergeCell ref="H30:J31"/>
+    <mergeCell ref="B31:D31"/>
+    <mergeCell ref="H26:J27"/>
+    <mergeCell ref="B26:D26"/>
+    <mergeCell ref="B27:D27"/>
+    <mergeCell ref="A28:A29"/>
+    <mergeCell ref="E28:F29"/>
+    <mergeCell ref="G28:G29"/>
+    <mergeCell ref="H28:J29"/>
+    <mergeCell ref="B28:D28"/>
+    <mergeCell ref="B29:D29"/>
+    <mergeCell ref="B22:D23"/>
+    <mergeCell ref="E22:F23"/>
+    <mergeCell ref="G22:G23"/>
+    <mergeCell ref="A26:A27"/>
+    <mergeCell ref="E26:F27"/>
+    <mergeCell ref="G26:G27"/>
     <mergeCell ref="A12:J12"/>
     <mergeCell ref="A11:J11"/>
     <mergeCell ref="A13:J13"/>
@@ -11371,70 +11437,6 @@
     <mergeCell ref="H24:J25"/>
     <mergeCell ref="B24:D24"/>
     <mergeCell ref="A22:A23"/>
-    <mergeCell ref="B22:D23"/>
-    <mergeCell ref="E22:F23"/>
-    <mergeCell ref="G22:G23"/>
-    <mergeCell ref="A26:A27"/>
-    <mergeCell ref="E26:F27"/>
-    <mergeCell ref="G26:G27"/>
-    <mergeCell ref="H26:J27"/>
-    <mergeCell ref="B26:D26"/>
-    <mergeCell ref="B27:D27"/>
-    <mergeCell ref="A28:A29"/>
-    <mergeCell ref="E28:F29"/>
-    <mergeCell ref="G28:G29"/>
-    <mergeCell ref="H28:J29"/>
-    <mergeCell ref="B28:D28"/>
-    <mergeCell ref="B29:D29"/>
-    <mergeCell ref="A30:A31"/>
-    <mergeCell ref="B30:D30"/>
-    <mergeCell ref="E30:F31"/>
-    <mergeCell ref="G30:G31"/>
-    <mergeCell ref="H30:J31"/>
-    <mergeCell ref="B31:D31"/>
-    <mergeCell ref="A32:A33"/>
-    <mergeCell ref="B32:D32"/>
-    <mergeCell ref="E32:F33"/>
-    <mergeCell ref="G32:G33"/>
-    <mergeCell ref="H32:J33"/>
-    <mergeCell ref="B33:D33"/>
-    <mergeCell ref="A34:A35"/>
-    <mergeCell ref="B34:D34"/>
-    <mergeCell ref="E34:F35"/>
-    <mergeCell ref="G34:G35"/>
-    <mergeCell ref="H34:J35"/>
-    <mergeCell ref="A36:A37"/>
-    <mergeCell ref="B36:D36"/>
-    <mergeCell ref="E36:F37"/>
-    <mergeCell ref="G36:G37"/>
-    <mergeCell ref="H36:J37"/>
-    <mergeCell ref="A38:A39"/>
-    <mergeCell ref="B38:D38"/>
-    <mergeCell ref="E38:F39"/>
-    <mergeCell ref="G38:G39"/>
-    <mergeCell ref="H38:J39"/>
-    <mergeCell ref="A40:A41"/>
-    <mergeCell ref="B40:D40"/>
-    <mergeCell ref="E40:F41"/>
-    <mergeCell ref="G40:G41"/>
-    <mergeCell ref="H40:J41"/>
-    <mergeCell ref="A42:A43"/>
-    <mergeCell ref="B42:D42"/>
-    <mergeCell ref="E42:F43"/>
-    <mergeCell ref="G42:G43"/>
-    <mergeCell ref="H42:J43"/>
-    <mergeCell ref="A44:A45"/>
-    <mergeCell ref="B44:D44"/>
-    <mergeCell ref="E44:F45"/>
-    <mergeCell ref="G44:G45"/>
-    <mergeCell ref="H44:J45"/>
-    <mergeCell ref="B45:D45"/>
-    <mergeCell ref="A46:A47"/>
-    <mergeCell ref="B46:D46"/>
-    <mergeCell ref="E46:F47"/>
-    <mergeCell ref="G46:G47"/>
-    <mergeCell ref="H46:J47"/>
-    <mergeCell ref="B47:D47"/>
   </mergeCells>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.15748031496062992" bottom="0.15748031496062992" header="0.31496062992125984" footer="0.31496062992125984"/>
@@ -11489,47 +11491,47 @@
     </row>
     <row r="2" spans="1:19" ht="23.25" x14ac:dyDescent="0.2">
       <c r="A2" s="65"/>
-      <c r="B2" s="555"/>
-      <c r="C2" s="556"/>
-      <c r="D2" s="557"/>
-      <c r="E2" s="564" t="s">
+      <c r="B2" s="572"/>
+      <c r="C2" s="573"/>
+      <c r="D2" s="574"/>
+      <c r="E2" s="581" t="s">
         <v>10</v>
       </c>
-      <c r="F2" s="565"/>
-      <c r="G2" s="565"/>
-      <c r="H2" s="566"/>
-      <c r="I2" s="571" t="s">
+      <c r="F2" s="582"/>
+      <c r="G2" s="582"/>
+      <c r="H2" s="583"/>
+      <c r="I2" s="588" t="s">
         <v>11</v>
       </c>
-      <c r="J2" s="572"/>
-      <c r="K2" s="575">
+      <c r="J2" s="589"/>
+      <c r="K2" s="592">
         <f>Данные!B14</f>
         <v>24</v>
       </c>
-      <c r="L2" s="576"/>
+      <c r="L2" s="593"/>
       <c r="M2" s="66"/>
       <c r="N2" s="67"/>
       <c r="O2" s="68"/>
-      <c r="P2" s="567"/>
-      <c r="Q2" s="567"/>
+      <c r="P2" s="584"/>
+      <c r="Q2" s="584"/>
       <c r="R2" s="69"/>
       <c r="S2" s="70"/>
     </row>
     <row r="3" spans="1:19" ht="24" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A3" s="65"/>
-      <c r="B3" s="558"/>
-      <c r="C3" s="559"/>
-      <c r="D3" s="560"/>
-      <c r="E3" s="568" t="s">
+      <c r="B3" s="575"/>
+      <c r="C3" s="576"/>
+      <c r="D3" s="577"/>
+      <c r="E3" s="585" t="s">
         <v>43</v>
       </c>
-      <c r="F3" s="569"/>
-      <c r="G3" s="569"/>
-      <c r="H3" s="570"/>
-      <c r="I3" s="573"/>
-      <c r="J3" s="574"/>
-      <c r="K3" s="577"/>
-      <c r="L3" s="578"/>
+      <c r="F3" s="586"/>
+      <c r="G3" s="586"/>
+      <c r="H3" s="587"/>
+      <c r="I3" s="590"/>
+      <c r="J3" s="591"/>
+      <c r="K3" s="594"/>
+      <c r="L3" s="595"/>
       <c r="M3" s="72"/>
       <c r="N3" s="71"/>
       <c r="O3" s="71"/>
@@ -11540,9 +11542,9 @@
     </row>
     <row r="4" spans="1:19" ht="24" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A4" s="65"/>
-      <c r="B4" s="561"/>
-      <c r="C4" s="562"/>
-      <c r="D4" s="563"/>
+      <c r="B4" s="578"/>
+      <c r="C4" s="579"/>
+      <c r="D4" s="580"/>
       <c r="E4" s="16"/>
       <c r="F4" s="16"/>
       <c r="G4" s="16"/>
@@ -11561,22 +11563,22 @@
     </row>
     <row r="5" spans="1:19" ht="24.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A5" s="65"/>
-      <c r="B5" s="582" t="s">
+      <c r="B5" s="599" t="s">
         <v>13</v>
       </c>
-      <c r="C5" s="583"/>
-      <c r="D5" s="506" t="str">
+      <c r="C5" s="600"/>
+      <c r="D5" s="511" t="str">
         <f>Данные!$A5</f>
         <v>PCI</v>
       </c>
-      <c r="E5" s="507"/>
-      <c r="F5" s="507"/>
-      <c r="G5" s="507"/>
-      <c r="H5" s="508"/>
-      <c r="I5" s="584"/>
-      <c r="J5" s="585"/>
-      <c r="K5" s="507"/>
-      <c r="L5" s="508"/>
+      <c r="E5" s="512"/>
+      <c r="F5" s="512"/>
+      <c r="G5" s="512"/>
+      <c r="H5" s="513"/>
+      <c r="I5" s="561"/>
+      <c r="J5" s="562"/>
+      <c r="K5" s="512"/>
+      <c r="L5" s="513"/>
       <c r="M5" s="74"/>
       <c r="N5" s="71"/>
       <c r="O5" s="71"/>
@@ -11587,22 +11589,22 @@
     </row>
     <row r="6" spans="1:19" ht="24.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A6" s="65"/>
-      <c r="B6" s="582" t="s">
+      <c r="B6" s="599" t="s">
         <v>12</v>
       </c>
-      <c r="C6" s="586"/>
-      <c r="D6" s="500" t="str">
+      <c r="C6" s="601"/>
+      <c r="D6" s="505" t="str">
         <f>Данные!$A2</f>
         <v>III-2-82-450-1 (Банка 0,45 л.)</v>
       </c>
-      <c r="E6" s="587"/>
-      <c r="F6" s="587"/>
-      <c r="G6" s="587"/>
-      <c r="H6" s="588"/>
-      <c r="I6" s="584"/>
-      <c r="J6" s="585"/>
-      <c r="K6" s="507"/>
-      <c r="L6" s="508"/>
+      <c r="E6" s="602"/>
+      <c r="F6" s="602"/>
+      <c r="G6" s="602"/>
+      <c r="H6" s="603"/>
+      <c r="I6" s="561"/>
+      <c r="J6" s="562"/>
+      <c r="K6" s="512"/>
+      <c r="L6" s="513"/>
       <c r="M6" s="74"/>
       <c r="N6" s="71"/>
       <c r="O6" s="71"/>
@@ -11613,27 +11615,27 @@
     </row>
     <row r="7" spans="1:19" ht="78.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A7" s="65"/>
-      <c r="B7" s="592" t="s">
+      <c r="B7" s="563" t="s">
         <v>14</v>
       </c>
-      <c r="C7" s="593"/>
-      <c r="D7" s="509">
+      <c r="C7" s="564"/>
+      <c r="D7" s="514">
         <f>Данные!$A8</f>
         <v>0</v>
       </c>
-      <c r="E7" s="594"/>
-      <c r="F7" s="594"/>
-      <c r="G7" s="594"/>
-      <c r="H7" s="595"/>
-      <c r="I7" s="592" t="s">
+      <c r="E7" s="565"/>
+      <c r="F7" s="565"/>
+      <c r="G7" s="565"/>
+      <c r="H7" s="566"/>
+      <c r="I7" s="563" t="s">
         <v>15</v>
       </c>
-      <c r="J7" s="596"/>
-      <c r="K7" s="497">
+      <c r="J7" s="567"/>
+      <c r="K7" s="502">
         <f>Данные!$A11</f>
         <v>0</v>
       </c>
-      <c r="L7" s="498"/>
+      <c r="L7" s="503"/>
       <c r="M7" s="75"/>
       <c r="N7" s="76"/>
       <c r="O7" s="76"/>
@@ -12101,12 +12103,12 @@
     </row>
     <row r="23" spans="1:19" ht="15" x14ac:dyDescent="0.2">
       <c r="A23" s="78"/>
-      <c r="B23" s="589" t="s">
+      <c r="B23" s="558" t="s">
         <v>56</v>
       </c>
-      <c r="C23" s="590"/>
-      <c r="D23" s="590"/>
-      <c r="E23" s="591"/>
+      <c r="C23" s="559"/>
+      <c r="D23" s="559"/>
+      <c r="E23" s="560"/>
       <c r="F23" s="114" t="s">
         <v>16</v>
       </c>
@@ -12128,12 +12130,12 @@
     </row>
     <row r="24" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A24" s="78"/>
-      <c r="B24" s="579" t="s">
+      <c r="B24" s="596" t="s">
         <v>45</v>
       </c>
-      <c r="C24" s="580"/>
-      <c r="D24" s="580"/>
-      <c r="E24" s="581"/>
+      <c r="C24" s="597"/>
+      <c r="D24" s="597"/>
+      <c r="E24" s="598"/>
       <c r="F24" s="114" t="s">
         <v>16</v>
       </c>
@@ -12176,35 +12178,28 @@
     </row>
     <row r="26" spans="1:19" ht="13.5" customHeight="1" thickTop="1" x14ac:dyDescent="0.2"/>
     <row r="27" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="K27" s="554" t="s">
+      <c r="K27" s="571" t="s">
         <v>135</v>
       </c>
-      <c r="L27" s="554"/>
-      <c r="M27" s="554"/>
+      <c r="L27" s="571"/>
+      <c r="M27" s="571"/>
       <c r="N27" s="472"/>
       <c r="O27" s="472"/>
       <c r="P27" s="488"/>
       <c r="Q27" s="488"/>
     </row>
     <row r="28" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="N28" s="551" t="s">
+      <c r="N28" s="568" t="s">
         <v>139</v>
       </c>
-      <c r="O28" s="551"/>
-      <c r="P28" s="552" t="s">
+      <c r="O28" s="568"/>
+      <c r="P28" s="569" t="s">
         <v>140</v>
       </c>
-      <c r="Q28" s="553"/>
+      <c r="Q28" s="570"/>
     </row>
   </sheetData>
   <mergeCells count="23">
-    <mergeCell ref="B23:E23"/>
-    <mergeCell ref="I6:J6"/>
-    <mergeCell ref="K6:L6"/>
-    <mergeCell ref="B7:C7"/>
-    <mergeCell ref="D7:H7"/>
-    <mergeCell ref="I7:J7"/>
-    <mergeCell ref="K7:L7"/>
     <mergeCell ref="N28:O28"/>
     <mergeCell ref="P28:Q28"/>
     <mergeCell ref="K27:M27"/>
@@ -12221,6 +12216,13 @@
     <mergeCell ref="K5:L5"/>
     <mergeCell ref="B6:C6"/>
     <mergeCell ref="D6:H6"/>
+    <mergeCell ref="B23:E23"/>
+    <mergeCell ref="I6:J6"/>
+    <mergeCell ref="K6:L6"/>
+    <mergeCell ref="B7:C7"/>
+    <mergeCell ref="D7:H7"/>
+    <mergeCell ref="I7:J7"/>
+    <mergeCell ref="K7:L7"/>
   </mergeCells>
   <conditionalFormatting sqref="H10:R24">
     <cfRule type="cellIs" dxfId="17" priority="1" stopIfTrue="1" operator="equal">
@@ -12286,50 +12288,50 @@
     </row>
     <row r="2" spans="1:19" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="65"/>
-      <c r="B2" s="603">
+      <c r="B2" s="607">
         <f>'Чист. форма'!B2:D4</f>
         <v>0</v>
       </c>
-      <c r="C2" s="604"/>
-      <c r="D2" s="605"/>
-      <c r="E2" s="612" t="s">
+      <c r="C2" s="608"/>
+      <c r="D2" s="609"/>
+      <c r="E2" s="616" t="s">
         <v>10</v>
       </c>
-      <c r="F2" s="613"/>
-      <c r="G2" s="613"/>
-      <c r="H2" s="614"/>
-      <c r="I2" s="618" t="s">
+      <c r="F2" s="617"/>
+      <c r="G2" s="617"/>
+      <c r="H2" s="618"/>
+      <c r="I2" s="622" t="s">
         <v>11</v>
       </c>
-      <c r="J2" s="619"/>
-      <c r="K2" s="622">
+      <c r="J2" s="623"/>
+      <c r="K2" s="626">
         <f>Данные!B15</f>
         <v>24</v>
       </c>
-      <c r="L2" s="623"/>
+      <c r="L2" s="627"/>
       <c r="M2" s="66"/>
       <c r="N2" s="67"/>
       <c r="O2" s="68"/>
-      <c r="P2" s="567"/>
-      <c r="Q2" s="567"/>
+      <c r="P2" s="584"/>
+      <c r="Q2" s="584"/>
       <c r="R2" s="69"/>
       <c r="S2" s="70"/>
     </row>
     <row r="3" spans="1:19" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A3" s="65"/>
-      <c r="B3" s="606"/>
-      <c r="C3" s="607"/>
-      <c r="D3" s="608"/>
-      <c r="E3" s="615" t="s">
+      <c r="B3" s="610"/>
+      <c r="C3" s="611"/>
+      <c r="D3" s="612"/>
+      <c r="E3" s="619" t="s">
         <v>44</v>
       </c>
-      <c r="F3" s="616"/>
-      <c r="G3" s="616"/>
-      <c r="H3" s="617"/>
-      <c r="I3" s="620"/>
-      <c r="J3" s="621"/>
-      <c r="K3" s="624"/>
-      <c r="L3" s="625"/>
+      <c r="F3" s="620"/>
+      <c r="G3" s="620"/>
+      <c r="H3" s="621"/>
+      <c r="I3" s="624"/>
+      <c r="J3" s="625"/>
+      <c r="K3" s="628"/>
+      <c r="L3" s="629"/>
       <c r="M3" s="72"/>
       <c r="N3" s="71"/>
       <c r="O3" s="71"/>
@@ -12340,9 +12342,9 @@
     </row>
     <row r="4" spans="1:19" ht="17.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A4" s="65"/>
-      <c r="B4" s="609"/>
-      <c r="C4" s="610"/>
-      <c r="D4" s="611"/>
+      <c r="B4" s="613"/>
+      <c r="C4" s="614"/>
+      <c r="D4" s="615"/>
       <c r="E4" s="243"/>
       <c r="F4" s="243"/>
       <c r="G4" s="243"/>
@@ -12361,22 +12363,22 @@
     </row>
     <row r="5" spans="1:19" ht="24.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A5" s="65"/>
-      <c r="B5" s="582" t="s">
+      <c r="B5" s="599" t="s">
         <v>13</v>
       </c>
-      <c r="C5" s="597"/>
-      <c r="D5" s="506" t="str">
+      <c r="C5" s="630"/>
+      <c r="D5" s="511" t="str">
         <f>Данные!$A5</f>
         <v>PCI</v>
       </c>
-      <c r="E5" s="507"/>
-      <c r="F5" s="507"/>
-      <c r="G5" s="507"/>
-      <c r="H5" s="508"/>
-      <c r="I5" s="598"/>
-      <c r="J5" s="599"/>
-      <c r="K5" s="600"/>
-      <c r="L5" s="508"/>
+      <c r="E5" s="512"/>
+      <c r="F5" s="512"/>
+      <c r="G5" s="512"/>
+      <c r="H5" s="513"/>
+      <c r="I5" s="631"/>
+      <c r="J5" s="632"/>
+      <c r="K5" s="633"/>
+      <c r="L5" s="513"/>
       <c r="M5" s="74"/>
       <c r="N5" s="71"/>
       <c r="O5" s="71"/>
@@ -12387,22 +12389,22 @@
     </row>
     <row r="6" spans="1:19" ht="17.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A6" s="65"/>
-      <c r="B6" s="582" t="s">
+      <c r="B6" s="599" t="s">
         <v>12</v>
       </c>
-      <c r="C6" s="597"/>
-      <c r="D6" s="500" t="str">
+      <c r="C6" s="630"/>
+      <c r="D6" s="505" t="str">
         <f>Данные!$A2</f>
         <v>III-2-82-450-1 (Банка 0,45 л.)</v>
       </c>
-      <c r="E6" s="587"/>
-      <c r="F6" s="587"/>
-      <c r="G6" s="587"/>
-      <c r="H6" s="588"/>
-      <c r="I6" s="598"/>
-      <c r="J6" s="599"/>
-      <c r="K6" s="600"/>
-      <c r="L6" s="508"/>
+      <c r="E6" s="602"/>
+      <c r="F6" s="602"/>
+      <c r="G6" s="602"/>
+      <c r="H6" s="603"/>
+      <c r="I6" s="631"/>
+      <c r="J6" s="632"/>
+      <c r="K6" s="633"/>
+      <c r="L6" s="513"/>
       <c r="M6" s="72"/>
       <c r="N6" s="71"/>
       <c r="O6" s="71"/>
@@ -12413,27 +12415,27 @@
     </row>
     <row r="7" spans="1:19" ht="69" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A7" s="65"/>
-      <c r="B7" s="592" t="s">
+      <c r="B7" s="563" t="s">
         <v>14</v>
       </c>
-      <c r="C7" s="601"/>
-      <c r="D7" s="509">
+      <c r="C7" s="634"/>
+      <c r="D7" s="514">
         <f>Данные!$A8</f>
         <v>0</v>
       </c>
-      <c r="E7" s="594"/>
-      <c r="F7" s="594"/>
-      <c r="G7" s="594"/>
-      <c r="H7" s="595"/>
-      <c r="I7" s="602" t="s">
+      <c r="E7" s="565"/>
+      <c r="F7" s="565"/>
+      <c r="G7" s="565"/>
+      <c r="H7" s="566"/>
+      <c r="I7" s="635" t="s">
         <v>15</v>
       </c>
-      <c r="J7" s="601"/>
-      <c r="K7" s="497">
+      <c r="J7" s="634"/>
+      <c r="K7" s="502">
         <f>Данные!$A11</f>
         <v>0</v>
       </c>
-      <c r="L7" s="498"/>
+      <c r="L7" s="503"/>
       <c r="M7" s="74"/>
       <c r="N7" s="71"/>
       <c r="O7" s="71"/>
@@ -12624,12 +12626,12 @@
     </row>
     <row r="14" spans="1:19" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="78"/>
-      <c r="B14" s="627" t="s">
+      <c r="B14" s="605" t="s">
         <v>134</v>
       </c>
-      <c r="C14" s="628"/>
-      <c r="D14" s="628"/>
-      <c r="E14" s="628"/>
+      <c r="C14" s="606"/>
+      <c r="D14" s="606"/>
+      <c r="E14" s="606"/>
       <c r="F14" s="114" t="s">
         <v>16</v>
       </c>
@@ -12651,13 +12653,13 @@
     </row>
     <row r="15" spans="1:19" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="78"/>
-      <c r="B15" s="589" t="s">
+      <c r="B15" s="558" t="s">
         <v>141</v>
       </c>
-      <c r="C15" s="590"/>
-      <c r="D15" s="590"/>
-      <c r="E15" s="590"/>
-      <c r="F15" s="626"/>
+      <c r="C15" s="559"/>
+      <c r="D15" s="559"/>
+      <c r="E15" s="559"/>
+      <c r="F15" s="604"/>
       <c r="G15" s="56" t="s">
         <v>76</v>
       </c>
@@ -12676,12 +12678,12 @@
     </row>
     <row r="16" spans="1:19" ht="24.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A16" s="78"/>
-      <c r="B16" s="579" t="s">
+      <c r="B16" s="596" t="s">
         <v>45</v>
       </c>
-      <c r="C16" s="580"/>
-      <c r="D16" s="580"/>
-      <c r="E16" s="581"/>
+      <c r="C16" s="597"/>
+      <c r="D16" s="597"/>
+      <c r="E16" s="598"/>
       <c r="F16" s="114" t="s">
         <v>16</v>
       </c>
@@ -12728,39 +12730,28 @@
     </row>
     <row r="19" spans="1:19" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B19" s="121"/>
-      <c r="L19" s="554" t="s">
+      <c r="L19" s="571" t="s">
         <v>135</v>
       </c>
-      <c r="M19" s="554"/>
-      <c r="N19" s="554"/>
+      <c r="M19" s="571"/>
+      <c r="N19" s="571"/>
       <c r="O19" s="472"/>
       <c r="P19" s="472"/>
       <c r="Q19" s="488"/>
       <c r="R19" s="488"/>
     </row>
     <row r="20" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="O20" s="551" t="s">
+      <c r="O20" s="568" t="s">
         <v>139</v>
       </c>
-      <c r="P20" s="551"/>
-      <c r="Q20" s="552" t="s">
+      <c r="P20" s="568"/>
+      <c r="Q20" s="569" t="s">
         <v>140</v>
       </c>
-      <c r="R20" s="553"/>
+      <c r="R20" s="570"/>
     </row>
   </sheetData>
   <mergeCells count="24">
-    <mergeCell ref="O20:P20"/>
-    <mergeCell ref="Q20:R20"/>
-    <mergeCell ref="L19:N19"/>
-    <mergeCell ref="B15:F15"/>
-    <mergeCell ref="B14:E14"/>
-    <mergeCell ref="B2:D4"/>
-    <mergeCell ref="E2:H2"/>
-    <mergeCell ref="P2:Q2"/>
-    <mergeCell ref="E3:H3"/>
-    <mergeCell ref="I2:J3"/>
-    <mergeCell ref="K2:L3"/>
     <mergeCell ref="B5:C5"/>
     <mergeCell ref="D5:H5"/>
     <mergeCell ref="I5:J5"/>
@@ -12774,6 +12765,17 @@
     <mergeCell ref="B7:C7"/>
     <mergeCell ref="D7:H7"/>
     <mergeCell ref="I7:J7"/>
+    <mergeCell ref="B2:D4"/>
+    <mergeCell ref="E2:H2"/>
+    <mergeCell ref="P2:Q2"/>
+    <mergeCell ref="E3:H3"/>
+    <mergeCell ref="I2:J3"/>
+    <mergeCell ref="K2:L3"/>
+    <mergeCell ref="O20:P20"/>
+    <mergeCell ref="Q20:R20"/>
+    <mergeCell ref="L19:N19"/>
+    <mergeCell ref="B15:F15"/>
+    <mergeCell ref="B14:E14"/>
   </mergeCells>
   <conditionalFormatting sqref="H16:R16">
     <cfRule type="cellIs" dxfId="15" priority="3" stopIfTrue="1" operator="notBetween">
@@ -12847,47 +12849,47 @@
     </row>
     <row r="2" spans="1:24" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="65"/>
-      <c r="B2" s="555"/>
-      <c r="C2" s="556"/>
-      <c r="D2" s="557"/>
-      <c r="E2" s="564" t="s">
+      <c r="B2" s="572"/>
+      <c r="C2" s="573"/>
+      <c r="D2" s="574"/>
+      <c r="E2" s="581" t="s">
         <v>10</v>
       </c>
-      <c r="F2" s="565"/>
-      <c r="G2" s="565"/>
-      <c r="H2" s="566"/>
-      <c r="I2" s="571" t="s">
+      <c r="F2" s="582"/>
+      <c r="G2" s="582"/>
+      <c r="H2" s="583"/>
+      <c r="I2" s="588" t="s">
         <v>11</v>
       </c>
-      <c r="J2" s="572"/>
-      <c r="K2" s="575">
+      <c r="J2" s="589"/>
+      <c r="K2" s="592">
         <f>Данные!B16</f>
         <v>32</v>
       </c>
-      <c r="L2" s="576"/>
+      <c r="L2" s="593"/>
       <c r="M2" s="66"/>
       <c r="N2" s="67"/>
       <c r="O2" s="68"/>
-      <c r="P2" s="567"/>
-      <c r="Q2" s="567"/>
+      <c r="P2" s="584"/>
+      <c r="Q2" s="584"/>
       <c r="R2" s="69"/>
       <c r="S2" s="70"/>
     </row>
     <row r="3" spans="1:24" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A3" s="65"/>
-      <c r="B3" s="558"/>
-      <c r="C3" s="559"/>
-      <c r="D3" s="560"/>
-      <c r="E3" s="568" t="s">
+      <c r="B3" s="575"/>
+      <c r="C3" s="576"/>
+      <c r="D3" s="577"/>
+      <c r="E3" s="585" t="s">
         <v>38</v>
       </c>
-      <c r="F3" s="569"/>
-      <c r="G3" s="569"/>
-      <c r="H3" s="570"/>
-      <c r="I3" s="573"/>
-      <c r="J3" s="574"/>
-      <c r="K3" s="577"/>
-      <c r="L3" s="578"/>
+      <c r="F3" s="586"/>
+      <c r="G3" s="586"/>
+      <c r="H3" s="587"/>
+      <c r="I3" s="590"/>
+      <c r="J3" s="591"/>
+      <c r="K3" s="594"/>
+      <c r="L3" s="595"/>
       <c r="M3" s="72"/>
       <c r="N3" s="71"/>
       <c r="O3" s="71"/>
@@ -12898,9 +12900,9 @@
     </row>
     <row r="4" spans="1:24" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A4" s="65"/>
-      <c r="B4" s="561"/>
-      <c r="C4" s="562"/>
-      <c r="D4" s="563"/>
+      <c r="B4" s="578"/>
+      <c r="C4" s="579"/>
+      <c r="D4" s="580"/>
       <c r="E4" s="16"/>
       <c r="F4" s="16"/>
       <c r="G4" s="16"/>
@@ -12919,22 +12921,22 @@
     </row>
     <row r="5" spans="1:24" ht="26.25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A5" s="65"/>
-      <c r="B5" s="582" t="s">
+      <c r="B5" s="599" t="s">
         <v>13</v>
       </c>
-      <c r="C5" s="583"/>
-      <c r="D5" s="506" t="str">
+      <c r="C5" s="600"/>
+      <c r="D5" s="511" t="str">
         <f>Данные!$A5</f>
         <v>PCI</v>
       </c>
-      <c r="E5" s="507"/>
-      <c r="F5" s="507"/>
-      <c r="G5" s="507"/>
-      <c r="H5" s="508"/>
-      <c r="I5" s="584"/>
-      <c r="J5" s="585"/>
-      <c r="K5" s="507"/>
-      <c r="L5" s="508"/>
+      <c r="E5" s="512"/>
+      <c r="F5" s="512"/>
+      <c r="G5" s="512"/>
+      <c r="H5" s="513"/>
+      <c r="I5" s="561"/>
+      <c r="J5" s="562"/>
+      <c r="K5" s="512"/>
+      <c r="L5" s="513"/>
       <c r="M5" s="74"/>
       <c r="N5" s="71"/>
       <c r="O5" s="71"/>
@@ -12945,22 +12947,22 @@
     </row>
     <row r="6" spans="1:24" ht="26.25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A6" s="65"/>
-      <c r="B6" s="582" t="s">
+      <c r="B6" s="599" t="s">
         <v>12</v>
       </c>
-      <c r="C6" s="586"/>
-      <c r="D6" s="500" t="str">
+      <c r="C6" s="601"/>
+      <c r="D6" s="505" t="str">
         <f>Данные!$A2</f>
         <v>III-2-82-450-1 (Банка 0,45 л.)</v>
       </c>
-      <c r="E6" s="587"/>
-      <c r="F6" s="587"/>
-      <c r="G6" s="587"/>
-      <c r="H6" s="588"/>
-      <c r="I6" s="584"/>
-      <c r="J6" s="585"/>
-      <c r="K6" s="507"/>
-      <c r="L6" s="508"/>
+      <c r="E6" s="602"/>
+      <c r="F6" s="602"/>
+      <c r="G6" s="602"/>
+      <c r="H6" s="603"/>
+      <c r="I6" s="561"/>
+      <c r="J6" s="562"/>
+      <c r="K6" s="512"/>
+      <c r="L6" s="513"/>
       <c r="M6" s="74"/>
       <c r="N6" s="71"/>
       <c r="O6" s="71"/>
@@ -12971,27 +12973,27 @@
     </row>
     <row r="7" spans="1:24" ht="130.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A7" s="65"/>
-      <c r="B7" s="592" t="s">
+      <c r="B7" s="563" t="s">
         <v>14</v>
       </c>
-      <c r="C7" s="593"/>
-      <c r="D7" s="509">
+      <c r="C7" s="564"/>
+      <c r="D7" s="514">
         <f>Данные!$A8</f>
         <v>0</v>
       </c>
-      <c r="E7" s="594"/>
-      <c r="F7" s="594"/>
-      <c r="G7" s="594"/>
-      <c r="H7" s="595"/>
-      <c r="I7" s="592" t="s">
+      <c r="E7" s="565"/>
+      <c r="F7" s="565"/>
+      <c r="G7" s="565"/>
+      <c r="H7" s="566"/>
+      <c r="I7" s="563" t="s">
         <v>15</v>
       </c>
-      <c r="J7" s="596"/>
-      <c r="K7" s="497">
+      <c r="J7" s="567"/>
+      <c r="K7" s="502">
         <f>Данные!$A11</f>
         <v>0</v>
       </c>
-      <c r="L7" s="498"/>
+      <c r="L7" s="503"/>
       <c r="M7" s="75"/>
       <c r="N7" s="76"/>
       <c r="O7" s="76"/>
@@ -13451,28 +13453,35 @@
     </row>
     <row r="22" spans="1:24" ht="13.5" customHeight="1" thickTop="1" x14ac:dyDescent="0.2"/>
     <row r="23" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="L23" s="629" t="s">
+      <c r="L23" s="636" t="s">
         <v>135</v>
       </c>
-      <c r="M23" s="629"/>
-      <c r="N23" s="629"/>
+      <c r="M23" s="636"/>
+      <c r="N23" s="636"/>
       <c r="O23" s="472"/>
       <c r="P23" s="472"/>
       <c r="Q23" s="488"/>
       <c r="R23" s="488"/>
     </row>
     <row r="24" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="O24" s="551" t="s">
+      <c r="O24" s="568" t="s">
         <v>139</v>
       </c>
-      <c r="P24" s="551"/>
-      <c r="Q24" s="552" t="s">
+      <c r="P24" s="568"/>
+      <c r="Q24" s="569" t="s">
         <v>140</v>
       </c>
-      <c r="R24" s="553"/>
+      <c r="R24" s="570"/>
     </row>
   </sheetData>
   <mergeCells count="21">
+    <mergeCell ref="O24:P24"/>
+    <mergeCell ref="Q24:R24"/>
+    <mergeCell ref="L23:N23"/>
+    <mergeCell ref="B7:C7"/>
+    <mergeCell ref="D7:H7"/>
+    <mergeCell ref="I7:J7"/>
+    <mergeCell ref="K7:L7"/>
     <mergeCell ref="P2:Q2"/>
     <mergeCell ref="B2:D4"/>
     <mergeCell ref="B6:C6"/>
@@ -13487,13 +13496,6 @@
     <mergeCell ref="D5:H5"/>
     <mergeCell ref="I5:J5"/>
     <mergeCell ref="K5:L5"/>
-    <mergeCell ref="O24:P24"/>
-    <mergeCell ref="Q24:R24"/>
-    <mergeCell ref="L23:N23"/>
-    <mergeCell ref="B7:C7"/>
-    <mergeCell ref="D7:H7"/>
-    <mergeCell ref="I7:J7"/>
-    <mergeCell ref="K7:L7"/>
   </mergeCells>
   <conditionalFormatting sqref="H10:R20">
     <cfRule type="cellIs" dxfId="12" priority="1" stopIfTrue="1" operator="equal">
@@ -13561,47 +13563,47 @@
     </row>
     <row r="2" spans="1:19" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="6"/>
-      <c r="B2" s="555"/>
-      <c r="C2" s="556"/>
-      <c r="D2" s="557"/>
-      <c r="E2" s="564" t="s">
+      <c r="B2" s="572"/>
+      <c r="C2" s="573"/>
+      <c r="D2" s="574"/>
+      <c r="E2" s="581" t="s">
         <v>10</v>
       </c>
-      <c r="F2" s="565"/>
-      <c r="G2" s="565"/>
-      <c r="H2" s="566"/>
-      <c r="I2" s="571" t="s">
+      <c r="F2" s="582"/>
+      <c r="G2" s="582"/>
+      <c r="H2" s="583"/>
+      <c r="I2" s="588" t="s">
         <v>11</v>
       </c>
-      <c r="J2" s="572"/>
-      <c r="K2" s="575">
+      <c r="J2" s="589"/>
+      <c r="K2" s="592">
         <f>Данные!B17</f>
         <v>32</v>
       </c>
-      <c r="L2" s="576"/>
+      <c r="L2" s="593"/>
       <c r="M2" s="7"/>
       <c r="N2" s="8"/>
       <c r="O2" s="9"/>
-      <c r="P2" s="630"/>
-      <c r="Q2" s="630"/>
+      <c r="P2" s="637"/>
+      <c r="Q2" s="637"/>
       <c r="R2" s="10"/>
       <c r="S2" s="11"/>
     </row>
     <row r="3" spans="1:19" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A3" s="6"/>
-      <c r="B3" s="558"/>
-      <c r="C3" s="559"/>
-      <c r="D3" s="560"/>
-      <c r="E3" s="568" t="s">
+      <c r="B3" s="575"/>
+      <c r="C3" s="576"/>
+      <c r="D3" s="577"/>
+      <c r="E3" s="585" t="s">
         <v>23</v>
       </c>
-      <c r="F3" s="569"/>
-      <c r="G3" s="569"/>
-      <c r="H3" s="570"/>
-      <c r="I3" s="573"/>
-      <c r="J3" s="574"/>
-      <c r="K3" s="577"/>
-      <c r="L3" s="578"/>
+      <c r="F3" s="586"/>
+      <c r="G3" s="586"/>
+      <c r="H3" s="587"/>
+      <c r="I3" s="590"/>
+      <c r="J3" s="591"/>
+      <c r="K3" s="594"/>
+      <c r="L3" s="595"/>
       <c r="M3" s="13"/>
       <c r="N3" s="14"/>
       <c r="O3" s="14"/>
@@ -13612,9 +13614,9 @@
     </row>
     <row r="4" spans="1:19" ht="17.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A4" s="6"/>
-      <c r="B4" s="561"/>
-      <c r="C4" s="562"/>
-      <c r="D4" s="563"/>
+      <c r="B4" s="578"/>
+      <c r="C4" s="579"/>
+      <c r="D4" s="580"/>
       <c r="E4" s="16"/>
       <c r="F4" s="16"/>
       <c r="G4" s="16"/>
@@ -13633,22 +13635,22 @@
     </row>
     <row r="5" spans="1:19" ht="24.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A5" s="6"/>
-      <c r="B5" s="582" t="s">
+      <c r="B5" s="599" t="s">
         <v>13</v>
       </c>
-      <c r="C5" s="583"/>
-      <c r="D5" s="506" t="str">
+      <c r="C5" s="600"/>
+      <c r="D5" s="511" t="str">
         <f>Данные!$A5</f>
         <v>PCI</v>
       </c>
-      <c r="E5" s="507"/>
-      <c r="F5" s="507"/>
-      <c r="G5" s="507"/>
-      <c r="H5" s="508"/>
-      <c r="I5" s="584"/>
-      <c r="J5" s="585"/>
-      <c r="K5" s="507"/>
-      <c r="L5" s="508"/>
+      <c r="E5" s="512"/>
+      <c r="F5" s="512"/>
+      <c r="G5" s="512"/>
+      <c r="H5" s="513"/>
+      <c r="I5" s="561"/>
+      <c r="J5" s="562"/>
+      <c r="K5" s="512"/>
+      <c r="L5" s="513"/>
       <c r="M5" s="21"/>
       <c r="N5" s="14"/>
       <c r="O5" s="14"/>
@@ -13659,22 +13661,22 @@
     </row>
     <row r="6" spans="1:19" ht="24.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A6" s="6"/>
-      <c r="B6" s="582" t="s">
+      <c r="B6" s="599" t="s">
         <v>12</v>
       </c>
-      <c r="C6" s="586"/>
-      <c r="D6" s="500" t="str">
+      <c r="C6" s="601"/>
+      <c r="D6" s="505" t="str">
         <f>Данные!$A2</f>
         <v>III-2-82-450-1 (Банка 0,45 л.)</v>
       </c>
-      <c r="E6" s="587"/>
-      <c r="F6" s="587"/>
-      <c r="G6" s="587"/>
-      <c r="H6" s="588"/>
-      <c r="I6" s="584"/>
-      <c r="J6" s="585"/>
-      <c r="K6" s="507"/>
-      <c r="L6" s="508"/>
+      <c r="E6" s="602"/>
+      <c r="F6" s="602"/>
+      <c r="G6" s="602"/>
+      <c r="H6" s="603"/>
+      <c r="I6" s="561"/>
+      <c r="J6" s="562"/>
+      <c r="K6" s="512"/>
+      <c r="L6" s="513"/>
       <c r="M6" s="21"/>
       <c r="N6" s="14"/>
       <c r="O6" s="14"/>
@@ -13685,27 +13687,27 @@
     </row>
     <row r="7" spans="1:19" ht="57" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A7" s="6"/>
-      <c r="B7" s="592" t="s">
+      <c r="B7" s="563" t="s">
         <v>14</v>
       </c>
-      <c r="C7" s="593"/>
-      <c r="D7" s="509">
+      <c r="C7" s="564"/>
+      <c r="D7" s="514">
         <f>Данные!$A8</f>
         <v>0</v>
       </c>
-      <c r="E7" s="594"/>
-      <c r="F7" s="594"/>
-      <c r="G7" s="594"/>
-      <c r="H7" s="595"/>
-      <c r="I7" s="592" t="s">
+      <c r="E7" s="565"/>
+      <c r="F7" s="565"/>
+      <c r="G7" s="565"/>
+      <c r="H7" s="566"/>
+      <c r="I7" s="563" t="s">
         <v>15</v>
       </c>
-      <c r="J7" s="596"/>
-      <c r="K7" s="497">
+      <c r="J7" s="567"/>
+      <c r="K7" s="502">
         <f>Данные!$A11</f>
         <v>0</v>
       </c>
-      <c r="L7" s="498"/>
+      <c r="L7" s="503"/>
       <c r="M7" s="22"/>
       <c r="N7" s="12"/>
       <c r="O7" s="12"/>
@@ -13985,28 +13987,34 @@
     </row>
     <row r="17" spans="12:18" ht="13.5" customHeight="1" thickTop="1" x14ac:dyDescent="0.2"/>
     <row r="18" spans="12:18" x14ac:dyDescent="0.2">
-      <c r="L18" s="629" t="s">
+      <c r="L18" s="636" t="s">
         <v>135</v>
       </c>
-      <c r="M18" s="629"/>
-      <c r="N18" s="629"/>
+      <c r="M18" s="636"/>
+      <c r="N18" s="636"/>
       <c r="O18" s="472"/>
       <c r="P18" s="472"/>
       <c r="Q18" s="488"/>
       <c r="R18" s="488"/>
     </row>
     <row r="19" spans="12:18" x14ac:dyDescent="0.2">
-      <c r="O19" s="551" t="s">
+      <c r="O19" s="568" t="s">
         <v>139</v>
       </c>
-      <c r="P19" s="551"/>
-      <c r="Q19" s="552" t="s">
+      <c r="P19" s="568"/>
+      <c r="Q19" s="569" t="s">
         <v>140</v>
       </c>
-      <c r="R19" s="553"/>
+      <c r="R19" s="570"/>
     </row>
   </sheetData>
   <mergeCells count="21">
+    <mergeCell ref="O19:P19"/>
+    <mergeCell ref="Q19:R19"/>
+    <mergeCell ref="P2:Q2"/>
+    <mergeCell ref="K6:L6"/>
+    <mergeCell ref="K5:L5"/>
+    <mergeCell ref="L18:N18"/>
     <mergeCell ref="I7:J7"/>
     <mergeCell ref="K7:L7"/>
     <mergeCell ref="B7:C7"/>
@@ -14022,12 +14030,6 @@
     <mergeCell ref="I6:J6"/>
     <mergeCell ref="E3:H3"/>
     <mergeCell ref="E2:H2"/>
-    <mergeCell ref="O19:P19"/>
-    <mergeCell ref="Q19:R19"/>
-    <mergeCell ref="P2:Q2"/>
-    <mergeCell ref="K6:L6"/>
-    <mergeCell ref="K5:L5"/>
-    <mergeCell ref="L18:N18"/>
   </mergeCells>
   <phoneticPr fontId="15" type="noConversion"/>
   <conditionalFormatting sqref="H10:R15">
@@ -14099,60 +14101,60 @@
     </row>
     <row r="2" spans="1:19" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="65"/>
-      <c r="B2" s="603"/>
-      <c r="C2" s="604"/>
-      <c r="D2" s="605"/>
-      <c r="E2" s="612" t="s">
+      <c r="B2" s="607"/>
+      <c r="C2" s="608"/>
+      <c r="D2" s="609"/>
+      <c r="E2" s="616" t="s">
         <v>10</v>
       </c>
-      <c r="F2" s="613"/>
-      <c r="G2" s="613"/>
-      <c r="H2" s="614"/>
-      <c r="I2" s="618" t="s">
+      <c r="F2" s="617"/>
+      <c r="G2" s="617"/>
+      <c r="H2" s="618"/>
+      <c r="I2" s="622" t="s">
         <v>11</v>
       </c>
-      <c r="J2" s="619"/>
-      <c r="K2" s="622">
+      <c r="J2" s="623"/>
+      <c r="K2" s="626">
         <f>Данные!B18</f>
         <v>80</v>
       </c>
-      <c r="L2" s="623"/>
-      <c r="M2" s="631"/>
-      <c r="N2" s="632"/>
-      <c r="O2" s="632"/>
-      <c r="P2" s="632"/>
-      <c r="Q2" s="632"/>
-      <c r="R2" s="633"/>
+      <c r="L2" s="627"/>
+      <c r="M2" s="638"/>
+      <c r="N2" s="639"/>
+      <c r="O2" s="639"/>
+      <c r="P2" s="639"/>
+      <c r="Q2" s="639"/>
+      <c r="R2" s="640"/>
       <c r="S2" s="70"/>
     </row>
     <row r="3" spans="1:19" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A3" s="65"/>
-      <c r="B3" s="606"/>
-      <c r="C3" s="607"/>
-      <c r="D3" s="608"/>
-      <c r="E3" s="615" t="s">
+      <c r="B3" s="610"/>
+      <c r="C3" s="611"/>
+      <c r="D3" s="612"/>
+      <c r="E3" s="619" t="s">
         <v>47</v>
       </c>
-      <c r="F3" s="616"/>
-      <c r="G3" s="616"/>
-      <c r="H3" s="617"/>
-      <c r="I3" s="620"/>
-      <c r="J3" s="621"/>
-      <c r="K3" s="624"/>
-      <c r="L3" s="625"/>
-      <c r="M3" s="634"/>
-      <c r="N3" s="635"/>
-      <c r="O3" s="635"/>
-      <c r="P3" s="635"/>
-      <c r="Q3" s="635"/>
-      <c r="R3" s="636"/>
+      <c r="F3" s="620"/>
+      <c r="G3" s="620"/>
+      <c r="H3" s="621"/>
+      <c r="I3" s="624"/>
+      <c r="J3" s="625"/>
+      <c r="K3" s="628"/>
+      <c r="L3" s="629"/>
+      <c r="M3" s="641"/>
+      <c r="N3" s="642"/>
+      <c r="O3" s="642"/>
+      <c r="P3" s="642"/>
+      <c r="Q3" s="642"/>
+      <c r="R3" s="643"/>
       <c r="S3" s="70"/>
     </row>
     <row r="4" spans="1:19" ht="17.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A4" s="65"/>
-      <c r="B4" s="609"/>
-      <c r="C4" s="610"/>
-      <c r="D4" s="611"/>
+      <c r="B4" s="613"/>
+      <c r="C4" s="614"/>
+      <c r="D4" s="615"/>
       <c r="E4" s="243"/>
       <c r="F4" s="243"/>
       <c r="G4" s="243"/>
@@ -14161,95 +14163,95 @@
       <c r="J4" s="242"/>
       <c r="K4" s="245"/>
       <c r="L4" s="246"/>
-      <c r="M4" s="634"/>
-      <c r="N4" s="635"/>
-      <c r="O4" s="635"/>
-      <c r="P4" s="635"/>
-      <c r="Q4" s="635"/>
-      <c r="R4" s="636"/>
+      <c r="M4" s="641"/>
+      <c r="N4" s="642"/>
+      <c r="O4" s="642"/>
+      <c r="P4" s="642"/>
+      <c r="Q4" s="642"/>
+      <c r="R4" s="643"/>
       <c r="S4" s="70"/>
     </row>
     <row r="5" spans="1:19" ht="24.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A5" s="65"/>
-      <c r="B5" s="582" t="s">
+      <c r="B5" s="599" t="s">
         <v>13</v>
       </c>
-      <c r="C5" s="597"/>
-      <c r="D5" s="506" t="str">
+      <c r="C5" s="630"/>
+      <c r="D5" s="511" t="str">
         <f>Данные!$A5</f>
         <v>PCI</v>
       </c>
-      <c r="E5" s="507"/>
-      <c r="F5" s="507"/>
-      <c r="G5" s="507"/>
-      <c r="H5" s="508"/>
-      <c r="I5" s="598"/>
-      <c r="J5" s="599"/>
-      <c r="K5" s="600"/>
-      <c r="L5" s="508"/>
-      <c r="M5" s="634"/>
-      <c r="N5" s="635"/>
-      <c r="O5" s="635"/>
-      <c r="P5" s="635"/>
-      <c r="Q5" s="635"/>
-      <c r="R5" s="636"/>
+      <c r="E5" s="512"/>
+      <c r="F5" s="512"/>
+      <c r="G5" s="512"/>
+      <c r="H5" s="513"/>
+      <c r="I5" s="631"/>
+      <c r="J5" s="632"/>
+      <c r="K5" s="633"/>
+      <c r="L5" s="513"/>
+      <c r="M5" s="641"/>
+      <c r="N5" s="642"/>
+      <c r="O5" s="642"/>
+      <c r="P5" s="642"/>
+      <c r="Q5" s="642"/>
+      <c r="R5" s="643"/>
       <c r="S5" s="70"/>
     </row>
     <row r="6" spans="1:19" ht="17.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A6" s="65"/>
-      <c r="B6" s="582" t="s">
+      <c r="B6" s="599" t="s">
         <v>12</v>
       </c>
-      <c r="C6" s="597"/>
-      <c r="D6" s="500" t="str">
+      <c r="C6" s="630"/>
+      <c r="D6" s="505" t="str">
         <f>Данные!$A2</f>
         <v>III-2-82-450-1 (Банка 0,45 л.)</v>
       </c>
-      <c r="E6" s="587"/>
-      <c r="F6" s="587"/>
-      <c r="G6" s="587"/>
-      <c r="H6" s="588"/>
-      <c r="I6" s="598"/>
-      <c r="J6" s="599"/>
-      <c r="K6" s="600"/>
-      <c r="L6" s="508"/>
-      <c r="M6" s="634"/>
-      <c r="N6" s="635"/>
-      <c r="O6" s="635"/>
-      <c r="P6" s="635"/>
-      <c r="Q6" s="635"/>
-      <c r="R6" s="636"/>
+      <c r="E6" s="602"/>
+      <c r="F6" s="602"/>
+      <c r="G6" s="602"/>
+      <c r="H6" s="603"/>
+      <c r="I6" s="631"/>
+      <c r="J6" s="632"/>
+      <c r="K6" s="633"/>
+      <c r="L6" s="513"/>
+      <c r="M6" s="641"/>
+      <c r="N6" s="642"/>
+      <c r="O6" s="642"/>
+      <c r="P6" s="642"/>
+      <c r="Q6" s="642"/>
+      <c r="R6" s="643"/>
       <c r="S6" s="70"/>
     </row>
     <row r="7" spans="1:19" ht="90.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A7" s="65"/>
-      <c r="B7" s="592" t="s">
+      <c r="B7" s="563" t="s">
         <v>14</v>
       </c>
-      <c r="C7" s="601"/>
-      <c r="D7" s="509">
+      <c r="C7" s="634"/>
+      <c r="D7" s="514">
         <f>Данные!$A8</f>
         <v>0</v>
       </c>
-      <c r="E7" s="594"/>
-      <c r="F7" s="594"/>
-      <c r="G7" s="594"/>
-      <c r="H7" s="595"/>
-      <c r="I7" s="602" t="s">
+      <c r="E7" s="565"/>
+      <c r="F7" s="565"/>
+      <c r="G7" s="565"/>
+      <c r="H7" s="566"/>
+      <c r="I7" s="635" t="s">
         <v>15</v>
       </c>
-      <c r="J7" s="601"/>
-      <c r="K7" s="497">
+      <c r="J7" s="634"/>
+      <c r="K7" s="502">
         <f>Данные!$A11</f>
         <v>0</v>
       </c>
-      <c r="L7" s="498"/>
-      <c r="M7" s="634"/>
-      <c r="N7" s="635"/>
-      <c r="O7" s="635"/>
-      <c r="P7" s="635"/>
-      <c r="Q7" s="635"/>
-      <c r="R7" s="636"/>
+      <c r="L7" s="503"/>
+      <c r="M7" s="641"/>
+      <c r="N7" s="642"/>
+      <c r="O7" s="642"/>
+      <c r="P7" s="642"/>
+      <c r="Q7" s="642"/>
+      <c r="R7" s="643"/>
       <c r="S7" s="70"/>
     </row>
     <row r="8" spans="1:19" ht="3.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
@@ -14641,12 +14643,12 @@
     </row>
     <row r="21" spans="1:19" ht="34.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A21" s="78"/>
-      <c r="B21" s="579" t="s">
+      <c r="B21" s="596" t="s">
         <v>48</v>
       </c>
-      <c r="C21" s="580"/>
-      <c r="D21" s="580"/>
-      <c r="E21" s="581"/>
+      <c r="C21" s="597"/>
+      <c r="D21" s="597"/>
+      <c r="E21" s="598"/>
       <c r="F21" s="114" t="s">
         <v>16</v>
       </c>
@@ -14691,34 +14693,28 @@
       <c r="B23" s="121"/>
     </row>
     <row r="24" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="L24" s="629" t="s">
+      <c r="L24" s="636" t="s">
         <v>135</v>
       </c>
-      <c r="M24" s="629"/>
-      <c r="N24" s="629"/>
+      <c r="M24" s="636"/>
+      <c r="N24" s="636"/>
       <c r="O24" s="472"/>
       <c r="P24" s="472"/>
       <c r="Q24" s="488"/>
       <c r="R24" s="488"/>
     </row>
     <row r="25" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="O25" s="551" t="s">
+      <c r="O25" s="568" t="s">
         <v>139</v>
       </c>
-      <c r="P25" s="551"/>
-      <c r="Q25" s="552" t="s">
+      <c r="P25" s="568"/>
+      <c r="Q25" s="569" t="s">
         <v>140</v>
       </c>
-      <c r="R25" s="553"/>
+      <c r="R25" s="570"/>
     </row>
   </sheetData>
   <mergeCells count="22">
-    <mergeCell ref="I6:J6"/>
-    <mergeCell ref="B7:C7"/>
-    <mergeCell ref="D7:H7"/>
-    <mergeCell ref="I7:J7"/>
-    <mergeCell ref="L24:N24"/>
-    <mergeCell ref="B21:E21"/>
     <mergeCell ref="O25:P25"/>
     <mergeCell ref="Q25:R25"/>
     <mergeCell ref="B2:D4"/>
@@ -14735,6 +14731,12 @@
     <mergeCell ref="K6:L6"/>
     <mergeCell ref="B6:C6"/>
     <mergeCell ref="D6:H6"/>
+    <mergeCell ref="I6:J6"/>
+    <mergeCell ref="B7:C7"/>
+    <mergeCell ref="D7:H7"/>
+    <mergeCell ref="I7:J7"/>
+    <mergeCell ref="L24:N24"/>
+    <mergeCell ref="B21:E21"/>
   </mergeCells>
   <conditionalFormatting sqref="H10:R21">
     <cfRule type="cellIs" dxfId="8" priority="4" stopIfTrue="1" operator="equal">
@@ -14799,47 +14801,47 @@
     </row>
     <row r="2" spans="1:19" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="65"/>
-      <c r="B2" s="603"/>
-      <c r="C2" s="604"/>
-      <c r="D2" s="605"/>
-      <c r="E2" s="612" t="s">
+      <c r="B2" s="607"/>
+      <c r="C2" s="608"/>
+      <c r="D2" s="609"/>
+      <c r="E2" s="616" t="s">
         <v>10</v>
       </c>
-      <c r="F2" s="613"/>
-      <c r="G2" s="613"/>
-      <c r="H2" s="614"/>
-      <c r="I2" s="618" t="s">
+      <c r="F2" s="617"/>
+      <c r="G2" s="617"/>
+      <c r="H2" s="618"/>
+      <c r="I2" s="622" t="s">
         <v>11</v>
       </c>
-      <c r="J2" s="619"/>
-      <c r="K2" s="622">
+      <c r="J2" s="623"/>
+      <c r="K2" s="626">
         <f>Данные!B19</f>
         <v>150</v>
       </c>
-      <c r="L2" s="623"/>
+      <c r="L2" s="627"/>
       <c r="M2" s="66"/>
       <c r="N2" s="67"/>
       <c r="O2" s="68"/>
-      <c r="P2" s="637"/>
-      <c r="Q2" s="637"/>
+      <c r="P2" s="644"/>
+      <c r="Q2" s="644"/>
       <c r="R2" s="69"/>
       <c r="S2" s="70"/>
     </row>
     <row r="3" spans="1:19" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A3" s="65"/>
-      <c r="B3" s="606"/>
-      <c r="C3" s="607"/>
-      <c r="D3" s="608"/>
-      <c r="E3" s="615" t="s">
+      <c r="B3" s="610"/>
+      <c r="C3" s="611"/>
+      <c r="D3" s="612"/>
+      <c r="E3" s="619" t="s">
         <v>89</v>
       </c>
-      <c r="F3" s="616"/>
-      <c r="G3" s="616"/>
-      <c r="H3" s="617"/>
-      <c r="I3" s="620"/>
-      <c r="J3" s="621"/>
-      <c r="K3" s="624"/>
-      <c r="L3" s="625"/>
+      <c r="F3" s="620"/>
+      <c r="G3" s="620"/>
+      <c r="H3" s="621"/>
+      <c r="I3" s="624"/>
+      <c r="J3" s="625"/>
+      <c r="K3" s="628"/>
+      <c r="L3" s="629"/>
       <c r="M3" s="72"/>
       <c r="N3" s="71"/>
       <c r="O3" s="71"/>
@@ -14850,9 +14852,9 @@
     </row>
     <row r="4" spans="1:19" ht="17.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A4" s="65"/>
-      <c r="B4" s="609"/>
-      <c r="C4" s="610"/>
-      <c r="D4" s="611"/>
+      <c r="B4" s="613"/>
+      <c r="C4" s="614"/>
+      <c r="D4" s="615"/>
       <c r="E4" s="243"/>
       <c r="F4" s="243"/>
       <c r="G4" s="243"/>
@@ -14871,22 +14873,22 @@
     </row>
     <row r="5" spans="1:19" ht="24.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A5" s="65"/>
-      <c r="B5" s="582" t="s">
+      <c r="B5" s="599" t="s">
         <v>13</v>
       </c>
-      <c r="C5" s="597"/>
-      <c r="D5" s="506" t="str">
+      <c r="C5" s="630"/>
+      <c r="D5" s="511" t="str">
         <f>Данные!$A5</f>
         <v>PCI</v>
       </c>
-      <c r="E5" s="507"/>
-      <c r="F5" s="507"/>
-      <c r="G5" s="507"/>
-      <c r="H5" s="508"/>
-      <c r="I5" s="598"/>
-      <c r="J5" s="599"/>
-      <c r="K5" s="600"/>
-      <c r="L5" s="508"/>
+      <c r="E5" s="512"/>
+      <c r="F5" s="512"/>
+      <c r="G5" s="512"/>
+      <c r="H5" s="513"/>
+      <c r="I5" s="631"/>
+      <c r="J5" s="632"/>
+      <c r="K5" s="633"/>
+      <c r="L5" s="513"/>
       <c r="M5" s="74"/>
       <c r="N5" s="71"/>
       <c r="O5" s="71"/>
@@ -14897,22 +14899,22 @@
     </row>
     <row r="6" spans="1:19" ht="17.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A6" s="65"/>
-      <c r="B6" s="582" t="s">
+      <c r="B6" s="599" t="s">
         <v>12</v>
       </c>
-      <c r="C6" s="597"/>
-      <c r="D6" s="500" t="str">
+      <c r="C6" s="630"/>
+      <c r="D6" s="505" t="str">
         <f>Данные!$A2</f>
         <v>III-2-82-450-1 (Банка 0,45 л.)</v>
       </c>
-      <c r="E6" s="587"/>
-      <c r="F6" s="587"/>
-      <c r="G6" s="587"/>
-      <c r="H6" s="588"/>
-      <c r="I6" s="598"/>
-      <c r="J6" s="599"/>
-      <c r="K6" s="600"/>
-      <c r="L6" s="508"/>
+      <c r="E6" s="602"/>
+      <c r="F6" s="602"/>
+      <c r="G6" s="602"/>
+      <c r="H6" s="603"/>
+      <c r="I6" s="631"/>
+      <c r="J6" s="632"/>
+      <c r="K6" s="633"/>
+      <c r="L6" s="513"/>
       <c r="M6" s="72"/>
       <c r="N6" s="71"/>
       <c r="O6" s="71"/>
@@ -14923,27 +14925,27 @@
     </row>
     <row r="7" spans="1:19" ht="71.25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A7" s="65"/>
-      <c r="B7" s="592" t="s">
+      <c r="B7" s="563" t="s">
         <v>14</v>
       </c>
-      <c r="C7" s="601"/>
-      <c r="D7" s="509">
+      <c r="C7" s="634"/>
+      <c r="D7" s="514">
         <f>Данные!$A8</f>
         <v>0</v>
       </c>
-      <c r="E7" s="594"/>
-      <c r="F7" s="594"/>
-      <c r="G7" s="594"/>
-      <c r="H7" s="595"/>
-      <c r="I7" s="602" t="s">
+      <c r="E7" s="565"/>
+      <c r="F7" s="565"/>
+      <c r="G7" s="565"/>
+      <c r="H7" s="566"/>
+      <c r="I7" s="635" t="s">
         <v>15</v>
       </c>
-      <c r="J7" s="601"/>
-      <c r="K7" s="497">
+      <c r="J7" s="634"/>
+      <c r="K7" s="502">
         <f>Данные!$A11</f>
         <v>0</v>
       </c>
-      <c r="L7" s="498"/>
+      <c r="L7" s="503"/>
       <c r="M7" s="74"/>
       <c r="N7" s="71"/>
       <c r="O7" s="71"/>
@@ -15194,12 +15196,12 @@
     </row>
     <row r="16" spans="1:19" ht="23.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A16" s="78"/>
-      <c r="B16" s="579" t="s">
+      <c r="B16" s="596" t="s">
         <v>50</v>
       </c>
-      <c r="C16" s="580"/>
-      <c r="D16" s="580"/>
-      <c r="E16" s="581"/>
+      <c r="C16" s="597"/>
+      <c r="D16" s="597"/>
+      <c r="E16" s="598"/>
       <c r="F16" s="252" t="s">
         <v>16</v>
       </c>
@@ -15244,38 +15246,28 @@
       <c r="B18" s="121"/>
     </row>
     <row r="19" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="L19" s="629" t="s">
+      <c r="L19" s="636" t="s">
         <v>135</v>
       </c>
-      <c r="M19" s="629"/>
-      <c r="N19" s="629"/>
+      <c r="M19" s="636"/>
+      <c r="N19" s="636"/>
       <c r="O19" s="472"/>
       <c r="P19" s="472"/>
       <c r="Q19" s="488"/>
       <c r="R19" s="488"/>
     </row>
     <row r="20" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="O20" s="551" t="s">
+      <c r="O20" s="568" t="s">
         <v>139</v>
       </c>
-      <c r="P20" s="551"/>
-      <c r="Q20" s="552" t="s">
+      <c r="P20" s="568"/>
+      <c r="Q20" s="569" t="s">
         <v>140</v>
       </c>
-      <c r="R20" s="553"/>
+      <c r="R20" s="570"/>
     </row>
   </sheetData>
   <mergeCells count="22">
-    <mergeCell ref="D5:H5"/>
-    <mergeCell ref="I5:J5"/>
-    <mergeCell ref="K5:L5"/>
-    <mergeCell ref="P2:Q2"/>
-    <mergeCell ref="E2:H2"/>
-    <mergeCell ref="E3:H3"/>
-    <mergeCell ref="I2:J3"/>
-    <mergeCell ref="K2:L3"/>
-    <mergeCell ref="B2:D4"/>
-    <mergeCell ref="B5:C5"/>
     <mergeCell ref="Q20:R20"/>
     <mergeCell ref="B6:C6"/>
     <mergeCell ref="D6:H6"/>
@@ -15288,6 +15280,16 @@
     <mergeCell ref="I7:J7"/>
     <mergeCell ref="L19:N19"/>
     <mergeCell ref="B16:E16"/>
+    <mergeCell ref="D5:H5"/>
+    <mergeCell ref="I5:J5"/>
+    <mergeCell ref="K5:L5"/>
+    <mergeCell ref="P2:Q2"/>
+    <mergeCell ref="E2:H2"/>
+    <mergeCell ref="E3:H3"/>
+    <mergeCell ref="I2:J3"/>
+    <mergeCell ref="K2:L3"/>
+    <mergeCell ref="B2:D4"/>
+    <mergeCell ref="B5:C5"/>
   </mergeCells>
   <conditionalFormatting sqref="H10:R15">
     <cfRule type="cellIs" dxfId="6" priority="1" stopIfTrue="1" operator="equal">

--- a/Участок ремонта форм/Формокомплекты/Карты замеров/Банка/Банка 0,45 л..xlsx
+++ b/Участок ремонта форм/Формокомплекты/Карты замеров/Банка/Банка 0,45 л..xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Гавриленко А.Д\Работа\Участок ремонта форм\Формокомплекты\Карты замеров\Банка\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A3D0ACC6-E534-4A94-8107-7F583A59F58C}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{702763CE-2C68-40A1-AE22-C439C57C9DB3}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -53,7 +53,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="544" uniqueCount="151">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="547" uniqueCount="151">
   <si>
     <t>+ Tol.</t>
   </si>
@@ -2197,7 +2197,7 @@
     <xf numFmtId="164" fontId="41" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="41" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="656">
+  <cellXfs count="655">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="justify" shrinkToFit="1"/>
@@ -3319,7 +3319,6 @@
     <xf numFmtId="0" fontId="39" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1"/>
     <xf numFmtId="2" fontId="17" fillId="0" borderId="26" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
@@ -3476,41 +3475,12 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="26" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="10" fontId="0" fillId="0" borderId="91" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="26" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="0" fillId="0" borderId="65" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyBorder="1"/>
-    <xf numFmtId="10" fontId="0" fillId="0" borderId="96" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="10" fontId="0" fillId="0" borderId="96" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="65" xfId="0" applyBorder="1"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="55" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="36" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="36" xfId="0" applyBorder="1"/>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="36" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="10" fontId="0" fillId="0" borderId="89" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="33" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="97" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="47" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="47" fillId="0" borderId="62" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="62" xfId="0" applyBorder="1"/>
@@ -3630,11 +3600,56 @@
     <xf numFmtId="1" fontId="0" fillId="0" borderId="65" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="32" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="65" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="97" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="98" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="17" fillId="0" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="32" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="96" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="96" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="65" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="65" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="36" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="36" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="89" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="97" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="97" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="26" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="26" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="36" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="36" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="33" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="39" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -6690,25 +6705,25 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="504" t="s">
+      <c r="A1" s="503" t="s">
         <v>81</v>
       </c>
-      <c r="B1" s="508"/>
-      <c r="C1" s="508"/>
-      <c r="D1" s="508"/>
-      <c r="E1" s="508"/>
+      <c r="B1" s="507"/>
+      <c r="C1" s="507"/>
+      <c r="D1" s="507"/>
+      <c r="E1" s="507"/>
       <c r="G1" s="363" t="s">
         <v>80</v>
       </c>
     </row>
     <row r="2" spans="1:11" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="505" t="s">
+      <c r="A2" s="504" t="s">
         <v>145</v>
       </c>
-      <c r="B2" s="506"/>
-      <c r="C2" s="506"/>
-      <c r="D2" s="506"/>
-      <c r="E2" s="507"/>
+      <c r="B2" s="505"/>
+      <c r="C2" s="505"/>
+      <c r="D2" s="505"/>
+      <c r="E2" s="506"/>
       <c r="G2" s="362" t="s">
         <v>78</v>
       </c>
@@ -6719,45 +6734,45 @@
       </c>
     </row>
     <row r="4" spans="1:11" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="509" t="s">
+      <c r="A4" s="508" t="s">
         <v>82</v>
       </c>
-      <c r="B4" s="510"/>
-      <c r="C4" s="510"/>
-      <c r="D4" s="510"/>
-      <c r="E4" s="510"/>
+      <c r="B4" s="509"/>
+      <c r="C4" s="509"/>
+      <c r="D4" s="509"/>
+      <c r="E4" s="509"/>
     </row>
     <row r="5" spans="1:11" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="511" t="s">
+      <c r="A5" s="510" t="s">
         <v>86</v>
       </c>
-      <c r="B5" s="512"/>
-      <c r="C5" s="512"/>
-      <c r="D5" s="512"/>
-      <c r="E5" s="513"/>
+      <c r="B5" s="511"/>
+      <c r="C5" s="511"/>
+      <c r="D5" s="511"/>
+      <c r="E5" s="512"/>
     </row>
     <row r="6" spans="1:11" ht="13.5" thickTop="1" x14ac:dyDescent="0.2"/>
     <row r="7" spans="1:11" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="504" t="s">
+      <c r="A7" s="503" t="s">
         <v>83</v>
       </c>
-      <c r="B7" s="508"/>
-      <c r="C7" s="508"/>
-      <c r="D7" s="508"/>
-      <c r="E7" s="508"/>
+      <c r="B7" s="507"/>
+      <c r="C7" s="507"/>
+      <c r="D7" s="507"/>
+      <c r="E7" s="507"/>
     </row>
     <row r="8" spans="1:11" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="514"/>
-      <c r="B8" s="515"/>
-      <c r="C8" s="515"/>
-      <c r="D8" s="515"/>
-      <c r="E8" s="516"/>
+      <c r="A8" s="513"/>
+      <c r="B8" s="514"/>
+      <c r="C8" s="514"/>
+      <c r="D8" s="514"/>
+      <c r="E8" s="515"/>
     </row>
     <row r="10" spans="1:11" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="504" t="s">
+      <c r="A10" s="503" t="s">
         <v>84</v>
       </c>
-      <c r="B10" s="504"/>
+      <c r="B10" s="503"/>
       <c r="C10" s="364"/>
       <c r="D10" s="370" t="s">
         <v>92</v>
@@ -6768,33 +6783,33 @@
       </c>
     </row>
     <row r="11" spans="1:11" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="502"/>
-      <c r="B11" s="503"/>
+      <c r="A11" s="501"/>
+      <c r="B11" s="502"/>
       <c r="D11" s="369">
         <v>43959</v>
       </c>
-      <c r="F11" s="517" t="s">
+      <c r="F11" s="516" t="s">
         <v>95</v>
       </c>
-      <c r="G11" s="517"/>
-      <c r="H11" s="517"/>
-      <c r="I11" s="517"/>
-      <c r="J11" s="518" t="s">
+      <c r="G11" s="516"/>
+      <c r="H11" s="516"/>
+      <c r="I11" s="516"/>
+      <c r="J11" s="517" t="s">
         <v>97</v>
       </c>
-      <c r="K11" s="518"/>
+      <c r="K11" s="517"/>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="F12" s="517" t="s">
+      <c r="F12" s="516" t="s">
         <v>85</v>
       </c>
-      <c r="G12" s="517"/>
-      <c r="H12" s="517"/>
-      <c r="I12" s="517"/>
-      <c r="J12" s="518" t="s">
+      <c r="G12" s="516"/>
+      <c r="H12" s="516"/>
+      <c r="I12" s="516"/>
+      <c r="J12" s="517" t="s">
         <v>98</v>
       </c>
-      <c r="K12" s="518"/>
+      <c r="K12" s="517"/>
     </row>
     <row r="13" spans="1:11" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A13" s="374" t="s">
@@ -6809,19 +6824,19 @@
       <c r="D13" s="374" t="s">
         <v>132</v>
       </c>
-      <c r="E13" s="471" t="s">
+      <c r="E13" s="457" t="s">
         <v>133</v>
       </c>
-      <c r="F13" s="517" t="s">
+      <c r="F13" s="516" t="s">
         <v>96</v>
       </c>
-      <c r="G13" s="517"/>
-      <c r="H13" s="517"/>
-      <c r="I13" s="517"/>
-      <c r="J13" s="518" t="s">
+      <c r="G13" s="516"/>
+      <c r="H13" s="516"/>
+      <c r="I13" s="516"/>
+      <c r="J13" s="517" t="s">
         <v>99</v>
       </c>
-      <c r="K13" s="518"/>
+      <c r="K13" s="517"/>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A14" s="365" t="s">
@@ -7056,7 +7071,7 @@
       <c r="B27" s="373">
         <v>0</v>
       </c>
-      <c r="C27" s="489" t="s">
+      <c r="C27" s="475" t="s">
         <v>146</v>
       </c>
       <c r="D27" s="366"/>
@@ -7078,11 +7093,11 @@
       </c>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A29" s="501" t="s">
+      <c r="A29" s="500" t="s">
         <v>105</v>
       </c>
-      <c r="B29" s="501"/>
-      <c r="C29" s="501"/>
+      <c r="B29" s="500"/>
+      <c r="C29" s="500"/>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A30" s="363" t="s">
@@ -7159,47 +7174,47 @@
     </row>
     <row r="2" spans="1:19" ht="23.25" x14ac:dyDescent="0.2">
       <c r="A2" s="163"/>
-      <c r="B2" s="607"/>
-      <c r="C2" s="608"/>
-      <c r="D2" s="609"/>
-      <c r="E2" s="616" t="s">
+      <c r="B2" s="606"/>
+      <c r="C2" s="607"/>
+      <c r="D2" s="608"/>
+      <c r="E2" s="615" t="s">
         <v>10</v>
       </c>
-      <c r="F2" s="617"/>
-      <c r="G2" s="617"/>
-      <c r="H2" s="618"/>
-      <c r="I2" s="622" t="s">
+      <c r="F2" s="616"/>
+      <c r="G2" s="616"/>
+      <c r="H2" s="617"/>
+      <c r="I2" s="621" t="s">
         <v>11</v>
       </c>
-      <c r="J2" s="623"/>
-      <c r="K2" s="626">
+      <c r="J2" s="622"/>
+      <c r="K2" s="625">
         <f>Данные!B20</f>
         <v>60</v>
       </c>
-      <c r="L2" s="627"/>
+      <c r="L2" s="626"/>
       <c r="M2" s="164"/>
       <c r="N2" s="165"/>
       <c r="O2" s="166"/>
-      <c r="P2" s="645"/>
-      <c r="Q2" s="645"/>
+      <c r="P2" s="644"/>
+      <c r="Q2" s="644"/>
       <c r="R2" s="167"/>
       <c r="S2" s="168"/>
     </row>
     <row r="3" spans="1:19" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A3" s="163"/>
-      <c r="B3" s="610"/>
-      <c r="C3" s="611"/>
-      <c r="D3" s="612"/>
-      <c r="E3" s="619" t="s">
+      <c r="B3" s="609"/>
+      <c r="C3" s="610"/>
+      <c r="D3" s="611"/>
+      <c r="E3" s="618" t="s">
         <v>51</v>
       </c>
-      <c r="F3" s="620"/>
-      <c r="G3" s="620"/>
-      <c r="H3" s="621"/>
-      <c r="I3" s="624"/>
-      <c r="J3" s="625"/>
-      <c r="K3" s="628"/>
-      <c r="L3" s="629"/>
+      <c r="F3" s="619"/>
+      <c r="G3" s="619"/>
+      <c r="H3" s="620"/>
+      <c r="I3" s="623"/>
+      <c r="J3" s="624"/>
+      <c r="K3" s="627"/>
+      <c r="L3" s="628"/>
       <c r="M3" s="169"/>
       <c r="N3" s="170"/>
       <c r="O3" s="170"/>
@@ -7210,9 +7225,9 @@
     </row>
     <row r="4" spans="1:19" ht="17.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A4" s="163"/>
-      <c r="B4" s="613"/>
-      <c r="C4" s="614"/>
-      <c r="D4" s="615"/>
+      <c r="B4" s="612"/>
+      <c r="C4" s="613"/>
+      <c r="D4" s="614"/>
       <c r="E4" s="243"/>
       <c r="F4" s="243"/>
       <c r="G4" s="243"/>
@@ -7231,22 +7246,22 @@
     </row>
     <row r="5" spans="1:19" ht="24.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A5" s="163"/>
-      <c r="B5" s="599" t="s">
+      <c r="B5" s="598" t="s">
         <v>13</v>
       </c>
-      <c r="C5" s="630"/>
-      <c r="D5" s="511" t="str">
+      <c r="C5" s="629"/>
+      <c r="D5" s="510" t="str">
         <f>Данные!$A5</f>
         <v>PCI</v>
       </c>
-      <c r="E5" s="512"/>
-      <c r="F5" s="512"/>
-      <c r="G5" s="512"/>
-      <c r="H5" s="513"/>
-      <c r="I5" s="631"/>
-      <c r="J5" s="632"/>
-      <c r="K5" s="633"/>
-      <c r="L5" s="513"/>
+      <c r="E5" s="511"/>
+      <c r="F5" s="511"/>
+      <c r="G5" s="511"/>
+      <c r="H5" s="512"/>
+      <c r="I5" s="630"/>
+      <c r="J5" s="631"/>
+      <c r="K5" s="632"/>
+      <c r="L5" s="512"/>
       <c r="M5" s="172"/>
       <c r="N5" s="170"/>
       <c r="O5" s="170"/>
@@ -7257,22 +7272,22 @@
     </row>
     <row r="6" spans="1:19" ht="17.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A6" s="163"/>
-      <c r="B6" s="599" t="s">
+      <c r="B6" s="598" t="s">
         <v>12</v>
       </c>
-      <c r="C6" s="630"/>
-      <c r="D6" s="505" t="str">
+      <c r="C6" s="629"/>
+      <c r="D6" s="504" t="str">
         <f>Данные!$A2</f>
         <v>III-2-82-450-1 (Банка 0,45 л.)</v>
       </c>
-      <c r="E6" s="602"/>
-      <c r="F6" s="602"/>
-      <c r="G6" s="602"/>
-      <c r="H6" s="603"/>
-      <c r="I6" s="631"/>
-      <c r="J6" s="632"/>
-      <c r="K6" s="633"/>
-      <c r="L6" s="513"/>
+      <c r="E6" s="601"/>
+      <c r="F6" s="601"/>
+      <c r="G6" s="601"/>
+      <c r="H6" s="602"/>
+      <c r="I6" s="630"/>
+      <c r="J6" s="631"/>
+      <c r="K6" s="632"/>
+      <c r="L6" s="512"/>
       <c r="M6" s="169"/>
       <c r="N6" s="170"/>
       <c r="O6" s="170"/>
@@ -7283,27 +7298,27 @@
     </row>
     <row r="7" spans="1:19" ht="66" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A7" s="163"/>
-      <c r="B7" s="563" t="s">
+      <c r="B7" s="562" t="s">
         <v>14</v>
       </c>
-      <c r="C7" s="634"/>
-      <c r="D7" s="514">
+      <c r="C7" s="633"/>
+      <c r="D7" s="513">
         <f>Данные!$A8</f>
         <v>0</v>
       </c>
-      <c r="E7" s="565"/>
-      <c r="F7" s="565"/>
-      <c r="G7" s="565"/>
-      <c r="H7" s="566"/>
-      <c r="I7" s="635" t="s">
+      <c r="E7" s="564"/>
+      <c r="F7" s="564"/>
+      <c r="G7" s="564"/>
+      <c r="H7" s="565"/>
+      <c r="I7" s="634" t="s">
         <v>15</v>
       </c>
-      <c r="J7" s="634"/>
-      <c r="K7" s="502">
+      <c r="J7" s="633"/>
+      <c r="K7" s="501">
         <f>Данные!$A11</f>
         <v>0</v>
       </c>
-      <c r="L7" s="503"/>
+      <c r="L7" s="502"/>
       <c r="M7" s="172"/>
       <c r="N7" s="170"/>
       <c r="O7" s="170"/>
@@ -7670,25 +7685,25 @@
     </row>
     <row r="20" spans="1:19" ht="13.5" thickTop="1" x14ac:dyDescent="0.2"/>
     <row r="21" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="L21" s="636" t="s">
+      <c r="L21" s="635" t="s">
         <v>135</v>
       </c>
-      <c r="M21" s="636"/>
-      <c r="N21" s="636"/>
-      <c r="O21" s="472"/>
-      <c r="P21" s="472"/>
-      <c r="Q21" s="488"/>
-      <c r="R21" s="488"/>
+      <c r="M21" s="635"/>
+      <c r="N21" s="635"/>
+      <c r="O21" s="458"/>
+      <c r="P21" s="458"/>
+      <c r="Q21" s="474"/>
+      <c r="R21" s="474"/>
     </row>
     <row r="22" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="O22" s="568" t="s">
+      <c r="O22" s="567" t="s">
         <v>139</v>
       </c>
-      <c r="P22" s="568"/>
-      <c r="Q22" s="569" t="s">
+      <c r="P22" s="567"/>
+      <c r="Q22" s="568" t="s">
         <v>140</v>
       </c>
-      <c r="R22" s="570"/>
+      <c r="R22" s="569"/>
     </row>
   </sheetData>
   <mergeCells count="21">
@@ -7778,47 +7793,47 @@
     </row>
     <row r="2" spans="1:19" ht="23.25" x14ac:dyDescent="0.2">
       <c r="A2" s="202"/>
-      <c r="B2" s="607"/>
-      <c r="C2" s="608"/>
-      <c r="D2" s="609"/>
-      <c r="E2" s="616" t="s">
+      <c r="B2" s="606"/>
+      <c r="C2" s="607"/>
+      <c r="D2" s="608"/>
+      <c r="E2" s="615" t="s">
         <v>10</v>
       </c>
-      <c r="F2" s="617"/>
-      <c r="G2" s="617"/>
-      <c r="H2" s="618"/>
-      <c r="I2" s="622" t="s">
+      <c r="F2" s="616"/>
+      <c r="G2" s="616"/>
+      <c r="H2" s="617"/>
+      <c r="I2" s="621" t="s">
         <v>11</v>
       </c>
-      <c r="J2" s="623"/>
-      <c r="K2" s="626">
+      <c r="J2" s="622"/>
+      <c r="K2" s="625">
         <f>Данные!B25</f>
         <v>30</v>
       </c>
-      <c r="L2" s="627"/>
+      <c r="L2" s="626"/>
       <c r="M2" s="203"/>
       <c r="N2" s="204"/>
       <c r="O2" s="205"/>
-      <c r="P2" s="649"/>
-      <c r="Q2" s="649"/>
+      <c r="P2" s="648"/>
+      <c r="Q2" s="648"/>
       <c r="R2" s="206"/>
       <c r="S2" s="207"/>
     </row>
     <row r="3" spans="1:19" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A3" s="202"/>
-      <c r="B3" s="610"/>
-      <c r="C3" s="611"/>
-      <c r="D3" s="612"/>
-      <c r="E3" s="619" t="s">
+      <c r="B3" s="609"/>
+      <c r="C3" s="610"/>
+      <c r="D3" s="611"/>
+      <c r="E3" s="618" t="s">
         <v>91</v>
       </c>
-      <c r="F3" s="620"/>
-      <c r="G3" s="620"/>
-      <c r="H3" s="621"/>
-      <c r="I3" s="624"/>
-      <c r="J3" s="625"/>
-      <c r="K3" s="628"/>
-      <c r="L3" s="629"/>
+      <c r="F3" s="619"/>
+      <c r="G3" s="619"/>
+      <c r="H3" s="620"/>
+      <c r="I3" s="623"/>
+      <c r="J3" s="624"/>
+      <c r="K3" s="627"/>
+      <c r="L3" s="628"/>
       <c r="M3" s="208"/>
       <c r="N3" s="209"/>
       <c r="O3" s="209"/>
@@ -7829,9 +7844,9 @@
     </row>
     <row r="4" spans="1:19" ht="17.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A4" s="202"/>
-      <c r="B4" s="613"/>
-      <c r="C4" s="614"/>
-      <c r="D4" s="615"/>
+      <c r="B4" s="612"/>
+      <c r="C4" s="613"/>
+      <c r="D4" s="614"/>
       <c r="E4" s="243"/>
       <c r="F4" s="243"/>
       <c r="G4" s="243"/>
@@ -7850,22 +7865,22 @@
     </row>
     <row r="5" spans="1:19" ht="24.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A5" s="202"/>
-      <c r="B5" s="599" t="s">
+      <c r="B5" s="598" t="s">
         <v>13</v>
       </c>
-      <c r="C5" s="630"/>
-      <c r="D5" s="511" t="str">
+      <c r="C5" s="629"/>
+      <c r="D5" s="510" t="str">
         <f>Данные!$A5</f>
         <v>PCI</v>
       </c>
-      <c r="E5" s="512"/>
-      <c r="F5" s="512"/>
-      <c r="G5" s="512"/>
-      <c r="H5" s="513"/>
-      <c r="I5" s="631"/>
-      <c r="J5" s="632"/>
-      <c r="K5" s="633"/>
-      <c r="L5" s="513"/>
+      <c r="E5" s="511"/>
+      <c r="F5" s="511"/>
+      <c r="G5" s="511"/>
+      <c r="H5" s="512"/>
+      <c r="I5" s="630"/>
+      <c r="J5" s="631"/>
+      <c r="K5" s="632"/>
+      <c r="L5" s="512"/>
       <c r="M5" s="211"/>
       <c r="N5" s="209"/>
       <c r="O5" s="209"/>
@@ -7876,22 +7891,22 @@
     </row>
     <row r="6" spans="1:19" ht="17.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A6" s="202"/>
-      <c r="B6" s="599" t="s">
+      <c r="B6" s="598" t="s">
         <v>12</v>
       </c>
-      <c r="C6" s="630"/>
-      <c r="D6" s="505" t="str">
+      <c r="C6" s="629"/>
+      <c r="D6" s="504" t="str">
         <f>Данные!$A2</f>
         <v>III-2-82-450-1 (Банка 0,45 л.)</v>
       </c>
-      <c r="E6" s="602"/>
-      <c r="F6" s="602"/>
-      <c r="G6" s="602"/>
-      <c r="H6" s="603"/>
-      <c r="I6" s="631"/>
-      <c r="J6" s="632"/>
-      <c r="K6" s="633"/>
-      <c r="L6" s="513"/>
+      <c r="E6" s="601"/>
+      <c r="F6" s="601"/>
+      <c r="G6" s="601"/>
+      <c r="H6" s="602"/>
+      <c r="I6" s="630"/>
+      <c r="J6" s="631"/>
+      <c r="K6" s="632"/>
+      <c r="L6" s="512"/>
       <c r="M6" s="208"/>
       <c r="N6" s="209"/>
       <c r="O6" s="209"/>
@@ -7902,27 +7917,27 @@
     </row>
     <row r="7" spans="1:19" ht="69.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A7" s="202"/>
-      <c r="B7" s="563" t="s">
+      <c r="B7" s="562" t="s">
         <v>14</v>
       </c>
-      <c r="C7" s="634"/>
-      <c r="D7" s="514">
+      <c r="C7" s="633"/>
+      <c r="D7" s="513">
         <f>Данные!$A8</f>
         <v>0</v>
       </c>
-      <c r="E7" s="565"/>
-      <c r="F7" s="565"/>
-      <c r="G7" s="565"/>
-      <c r="H7" s="566"/>
-      <c r="I7" s="635" t="s">
+      <c r="E7" s="564"/>
+      <c r="F7" s="564"/>
+      <c r="G7" s="564"/>
+      <c r="H7" s="565"/>
+      <c r="I7" s="634" t="s">
         <v>15</v>
       </c>
-      <c r="J7" s="634"/>
-      <c r="K7" s="502">
+      <c r="J7" s="633"/>
+      <c r="K7" s="501">
         <f>Данные!$A11</f>
         <v>0</v>
       </c>
-      <c r="L7" s="503"/>
+      <c r="L7" s="502"/>
       <c r="M7" s="211"/>
       <c r="N7" s="209"/>
       <c r="O7" s="209"/>
@@ -8235,12 +8250,12 @@
     </row>
     <row r="18" spans="1:19" ht="24.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A18" s="212"/>
-      <c r="B18" s="646" t="s">
+      <c r="B18" s="645" t="s">
         <v>53</v>
       </c>
-      <c r="C18" s="647"/>
-      <c r="D18" s="647"/>
-      <c r="E18" s="648"/>
+      <c r="C18" s="646"/>
+      <c r="D18" s="646"/>
+      <c r="E18" s="647"/>
       <c r="F18" s="114" t="s">
         <v>16</v>
       </c>
@@ -8283,25 +8298,25 @@
     </row>
     <row r="20" spans="1:19" ht="13.5" thickTop="1" x14ac:dyDescent="0.2"/>
     <row r="21" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="L21" s="636" t="s">
+      <c r="L21" s="635" t="s">
         <v>135</v>
       </c>
-      <c r="M21" s="636"/>
-      <c r="N21" s="636"/>
-      <c r="O21" s="472"/>
-      <c r="P21" s="472"/>
-      <c r="Q21" s="488"/>
-      <c r="R21" s="488"/>
+      <c r="M21" s="635"/>
+      <c r="N21" s="635"/>
+      <c r="O21" s="458"/>
+      <c r="P21" s="458"/>
+      <c r="Q21" s="474"/>
+      <c r="R21" s="474"/>
     </row>
     <row r="22" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="O22" s="568" t="s">
+      <c r="O22" s="567" t="s">
         <v>139</v>
       </c>
-      <c r="P22" s="568"/>
-      <c r="Q22" s="569" t="s">
+      <c r="P22" s="567"/>
+      <c r="Q22" s="568" t="s">
         <v>140</v>
       </c>
-      <c r="R22" s="570"/>
+      <c r="R22" s="569"/>
     </row>
   </sheetData>
   <mergeCells count="22">
@@ -8401,47 +8416,47 @@
     </row>
     <row r="2" spans="1:19" ht="23.25" x14ac:dyDescent="0.2">
       <c r="A2" s="130"/>
-      <c r="B2" s="607"/>
-      <c r="C2" s="608"/>
-      <c r="D2" s="609"/>
-      <c r="E2" s="616" t="s">
+      <c r="B2" s="606"/>
+      <c r="C2" s="607"/>
+      <c r="D2" s="608"/>
+      <c r="E2" s="615" t="s">
         <v>10</v>
       </c>
-      <c r="F2" s="617"/>
-      <c r="G2" s="617"/>
-      <c r="H2" s="618"/>
-      <c r="I2" s="622" t="s">
+      <c r="F2" s="616"/>
+      <c r="G2" s="616"/>
+      <c r="H2" s="617"/>
+      <c r="I2" s="621" t="s">
         <v>11</v>
       </c>
-      <c r="J2" s="623"/>
-      <c r="K2" s="626">
+      <c r="J2" s="622"/>
+      <c r="K2" s="625">
         <f>Данные!B26</f>
         <v>0</v>
       </c>
-      <c r="L2" s="627"/>
+      <c r="L2" s="626"/>
       <c r="M2" s="131"/>
       <c r="N2" s="132"/>
       <c r="O2" s="133"/>
-      <c r="P2" s="650"/>
-      <c r="Q2" s="650"/>
+      <c r="P2" s="649"/>
+      <c r="Q2" s="649"/>
       <c r="R2" s="134"/>
       <c r="S2" s="135"/>
     </row>
     <row r="3" spans="1:19" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A3" s="130"/>
-      <c r="B3" s="610"/>
-      <c r="C3" s="611"/>
-      <c r="D3" s="612"/>
-      <c r="E3" s="619" t="s">
+      <c r="B3" s="609"/>
+      <c r="C3" s="610"/>
+      <c r="D3" s="611"/>
+      <c r="E3" s="618" t="s">
         <v>54</v>
       </c>
-      <c r="F3" s="620"/>
-      <c r="G3" s="620"/>
-      <c r="H3" s="621"/>
-      <c r="I3" s="624"/>
-      <c r="J3" s="625"/>
-      <c r="K3" s="628"/>
-      <c r="L3" s="629"/>
+      <c r="F3" s="619"/>
+      <c r="G3" s="619"/>
+      <c r="H3" s="620"/>
+      <c r="I3" s="623"/>
+      <c r="J3" s="624"/>
+      <c r="K3" s="627"/>
+      <c r="L3" s="628"/>
       <c r="M3" s="136"/>
       <c r="N3" s="137"/>
       <c r="O3" s="137"/>
@@ -8452,9 +8467,9 @@
     </row>
     <row r="4" spans="1:19" ht="17.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A4" s="130"/>
-      <c r="B4" s="613"/>
-      <c r="C4" s="614"/>
-      <c r="D4" s="615"/>
+      <c r="B4" s="612"/>
+      <c r="C4" s="613"/>
+      <c r="D4" s="614"/>
       <c r="E4" s="243"/>
       <c r="F4" s="243"/>
       <c r="G4" s="243"/>
@@ -8473,22 +8488,22 @@
     </row>
     <row r="5" spans="1:19" ht="24.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A5" s="130"/>
-      <c r="B5" s="599" t="s">
+      <c r="B5" s="598" t="s">
         <v>13</v>
       </c>
-      <c r="C5" s="630"/>
-      <c r="D5" s="511" t="str">
+      <c r="C5" s="629"/>
+      <c r="D5" s="510" t="str">
         <f>Данные!$A5</f>
         <v>PCI</v>
       </c>
-      <c r="E5" s="512"/>
-      <c r="F5" s="512"/>
-      <c r="G5" s="512"/>
-      <c r="H5" s="513"/>
-      <c r="I5" s="631"/>
-      <c r="J5" s="632"/>
-      <c r="K5" s="633"/>
-      <c r="L5" s="513"/>
+      <c r="E5" s="511"/>
+      <c r="F5" s="511"/>
+      <c r="G5" s="511"/>
+      <c r="H5" s="512"/>
+      <c r="I5" s="630"/>
+      <c r="J5" s="631"/>
+      <c r="K5" s="632"/>
+      <c r="L5" s="512"/>
       <c r="M5" s="139"/>
       <c r="N5" s="137"/>
       <c r="O5" s="137"/>
@@ -8499,22 +8514,22 @@
     </row>
     <row r="6" spans="1:19" ht="17.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A6" s="130"/>
-      <c r="B6" s="599" t="s">
+      <c r="B6" s="598" t="s">
         <v>12</v>
       </c>
-      <c r="C6" s="630"/>
-      <c r="D6" s="505" t="str">
+      <c r="C6" s="629"/>
+      <c r="D6" s="504" t="str">
         <f>Данные!$A2</f>
         <v>III-2-82-450-1 (Банка 0,45 л.)</v>
       </c>
-      <c r="E6" s="602"/>
-      <c r="F6" s="602"/>
-      <c r="G6" s="602"/>
-      <c r="H6" s="603"/>
-      <c r="I6" s="631"/>
-      <c r="J6" s="632"/>
-      <c r="K6" s="633"/>
-      <c r="L6" s="513"/>
+      <c r="E6" s="601"/>
+      <c r="F6" s="601"/>
+      <c r="G6" s="601"/>
+      <c r="H6" s="602"/>
+      <c r="I6" s="630"/>
+      <c r="J6" s="631"/>
+      <c r="K6" s="632"/>
+      <c r="L6" s="512"/>
       <c r="M6" s="136"/>
       <c r="N6" s="137"/>
       <c r="O6" s="137"/>
@@ -8525,27 +8540,27 @@
     </row>
     <row r="7" spans="1:19" ht="65.25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A7" s="130"/>
-      <c r="B7" s="563" t="s">
+      <c r="B7" s="562" t="s">
         <v>14</v>
       </c>
-      <c r="C7" s="634"/>
-      <c r="D7" s="514">
+      <c r="C7" s="633"/>
+      <c r="D7" s="513">
         <f>Данные!$A8</f>
         <v>0</v>
       </c>
-      <c r="E7" s="565"/>
-      <c r="F7" s="565"/>
-      <c r="G7" s="565"/>
-      <c r="H7" s="566"/>
-      <c r="I7" s="635" t="s">
+      <c r="E7" s="564"/>
+      <c r="F7" s="564"/>
+      <c r="G7" s="564"/>
+      <c r="H7" s="565"/>
+      <c r="I7" s="634" t="s">
         <v>15</v>
       </c>
-      <c r="J7" s="634"/>
-      <c r="K7" s="502">
+      <c r="J7" s="633"/>
+      <c r="K7" s="501">
         <f>Данные!$A11</f>
         <v>0</v>
       </c>
-      <c r="L7" s="503"/>
+      <c r="L7" s="502"/>
       <c r="M7" s="139"/>
       <c r="N7" s="137"/>
       <c r="O7" s="137"/>
@@ -8848,25 +8863,25 @@
     </row>
     <row r="18" spans="1:19" ht="13.5" thickTop="1" x14ac:dyDescent="0.2"/>
     <row r="19" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="L19" s="636" t="s">
+      <c r="L19" s="635" t="s">
         <v>135</v>
       </c>
-      <c r="M19" s="636"/>
-      <c r="N19" s="636"/>
-      <c r="O19" s="472"/>
-      <c r="P19" s="472"/>
-      <c r="Q19" s="488"/>
-      <c r="R19" s="488"/>
+      <c r="M19" s="635"/>
+      <c r="N19" s="635"/>
+      <c r="O19" s="458"/>
+      <c r="P19" s="458"/>
+      <c r="Q19" s="474"/>
+      <c r="R19" s="474"/>
     </row>
     <row r="20" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="O20" s="568" t="s">
+      <c r="O20" s="567" t="s">
         <v>139</v>
       </c>
-      <c r="P20" s="568"/>
-      <c r="Q20" s="569" t="s">
+      <c r="P20" s="567"/>
+      <c r="Q20" s="568" t="s">
         <v>140</v>
       </c>
-      <c r="R20" s="570"/>
+      <c r="R20" s="569"/>
     </row>
   </sheetData>
   <mergeCells count="21">
@@ -8947,47 +8962,47 @@
     </row>
     <row r="2" spans="1:19" ht="23.25" x14ac:dyDescent="0.2">
       <c r="A2" s="259"/>
-      <c r="B2" s="607"/>
-      <c r="C2" s="608"/>
-      <c r="D2" s="609"/>
-      <c r="E2" s="616" t="s">
+      <c r="B2" s="606"/>
+      <c r="C2" s="607"/>
+      <c r="D2" s="608"/>
+      <c r="E2" s="615" t="s">
         <v>10</v>
       </c>
-      <c r="F2" s="617"/>
-      <c r="G2" s="617"/>
-      <c r="H2" s="618"/>
-      <c r="I2" s="622" t="s">
+      <c r="F2" s="616"/>
+      <c r="G2" s="616"/>
+      <c r="H2" s="617"/>
+      <c r="I2" s="621" t="s">
         <v>11</v>
       </c>
-      <c r="J2" s="623"/>
-      <c r="K2" s="651">
+      <c r="J2" s="622"/>
+      <c r="K2" s="650">
         <f>Данные!B23</f>
         <v>0</v>
       </c>
-      <c r="L2" s="652"/>
+      <c r="L2" s="651"/>
       <c r="M2" s="260"/>
       <c r="N2" s="261"/>
       <c r="O2" s="262"/>
-      <c r="P2" s="655"/>
-      <c r="Q2" s="655"/>
+      <c r="P2" s="654"/>
+      <c r="Q2" s="654"/>
       <c r="R2" s="263"/>
       <c r="S2" s="264"/>
     </row>
     <row r="3" spans="1:19" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A3" s="259"/>
-      <c r="B3" s="610"/>
-      <c r="C3" s="611"/>
-      <c r="D3" s="612"/>
-      <c r="E3" s="619" t="s">
+      <c r="B3" s="609"/>
+      <c r="C3" s="610"/>
+      <c r="D3" s="611"/>
+      <c r="E3" s="618" t="s">
         <v>55</v>
       </c>
-      <c r="F3" s="620"/>
-      <c r="G3" s="620"/>
-      <c r="H3" s="621"/>
-      <c r="I3" s="624"/>
-      <c r="J3" s="625"/>
-      <c r="K3" s="653"/>
-      <c r="L3" s="654"/>
+      <c r="F3" s="619"/>
+      <c r="G3" s="619"/>
+      <c r="H3" s="620"/>
+      <c r="I3" s="623"/>
+      <c r="J3" s="624"/>
+      <c r="K3" s="652"/>
+      <c r="L3" s="653"/>
       <c r="M3" s="265"/>
       <c r="N3" s="266"/>
       <c r="O3" s="266"/>
@@ -8998,9 +9013,9 @@
     </row>
     <row r="4" spans="1:19" ht="17.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A4" s="259"/>
-      <c r="B4" s="613"/>
-      <c r="C4" s="614"/>
-      <c r="D4" s="615"/>
+      <c r="B4" s="612"/>
+      <c r="C4" s="613"/>
+      <c r="D4" s="614"/>
       <c r="E4" s="243"/>
       <c r="F4" s="243"/>
       <c r="G4" s="243"/>
@@ -9019,22 +9034,22 @@
     </row>
     <row r="5" spans="1:19" ht="24.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A5" s="259"/>
-      <c r="B5" s="599" t="s">
+      <c r="B5" s="598" t="s">
         <v>13</v>
       </c>
-      <c r="C5" s="630"/>
-      <c r="D5" s="511" t="str">
+      <c r="C5" s="629"/>
+      <c r="D5" s="510" t="str">
         <f>Данные!$A5</f>
         <v>PCI</v>
       </c>
-      <c r="E5" s="512"/>
-      <c r="F5" s="512"/>
-      <c r="G5" s="512"/>
-      <c r="H5" s="513"/>
-      <c r="I5" s="631"/>
-      <c r="J5" s="632"/>
-      <c r="K5" s="633"/>
-      <c r="L5" s="513"/>
+      <c r="E5" s="511"/>
+      <c r="F5" s="511"/>
+      <c r="G5" s="511"/>
+      <c r="H5" s="512"/>
+      <c r="I5" s="630"/>
+      <c r="J5" s="631"/>
+      <c r="K5" s="632"/>
+      <c r="L5" s="512"/>
       <c r="M5" s="268"/>
       <c r="N5" s="266"/>
       <c r="O5" s="266"/>
@@ -9045,22 +9060,22 @@
     </row>
     <row r="6" spans="1:19" ht="17.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A6" s="259"/>
-      <c r="B6" s="599" t="s">
+      <c r="B6" s="598" t="s">
         <v>12</v>
       </c>
-      <c r="C6" s="630"/>
-      <c r="D6" s="505" t="str">
+      <c r="C6" s="629"/>
+      <c r="D6" s="504" t="str">
         <f>Данные!$A2</f>
         <v>III-2-82-450-1 (Банка 0,45 л.)</v>
       </c>
-      <c r="E6" s="602"/>
-      <c r="F6" s="602"/>
-      <c r="G6" s="602"/>
-      <c r="H6" s="603"/>
-      <c r="I6" s="631"/>
-      <c r="J6" s="632"/>
-      <c r="K6" s="633"/>
-      <c r="L6" s="513"/>
+      <c r="E6" s="601"/>
+      <c r="F6" s="601"/>
+      <c r="G6" s="601"/>
+      <c r="H6" s="602"/>
+      <c r="I6" s="630"/>
+      <c r="J6" s="631"/>
+      <c r="K6" s="632"/>
+      <c r="L6" s="512"/>
       <c r="M6" s="265"/>
       <c r="N6" s="266"/>
       <c r="O6" s="266"/>
@@ -9071,27 +9086,27 @@
     </row>
     <row r="7" spans="1:19" ht="78.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A7" s="259"/>
-      <c r="B7" s="563" t="s">
+      <c r="B7" s="562" t="s">
         <v>14</v>
       </c>
-      <c r="C7" s="634"/>
-      <c r="D7" s="514">
+      <c r="C7" s="633"/>
+      <c r="D7" s="513">
         <f>Данные!$A8</f>
         <v>0</v>
       </c>
-      <c r="E7" s="565"/>
-      <c r="F7" s="565"/>
-      <c r="G7" s="565"/>
-      <c r="H7" s="566"/>
-      <c r="I7" s="635" t="s">
+      <c r="E7" s="564"/>
+      <c r="F7" s="564"/>
+      <c r="G7" s="564"/>
+      <c r="H7" s="565"/>
+      <c r="I7" s="634" t="s">
         <v>15</v>
       </c>
-      <c r="J7" s="634"/>
-      <c r="K7" s="502">
+      <c r="J7" s="633"/>
+      <c r="K7" s="501">
         <f>Данные!$A11</f>
         <v>0</v>
       </c>
-      <c r="L7" s="503"/>
+      <c r="L7" s="502"/>
       <c r="M7" s="268"/>
       <c r="N7" s="266"/>
       <c r="O7" s="266"/>
@@ -9159,7 +9174,7 @@
       <c r="B10" s="279" t="s">
         <v>25</v>
       </c>
-      <c r="C10" s="378" t="s">
+      <c r="C10" s="377" t="s">
         <v>144</v>
       </c>
       <c r="D10" s="280">
@@ -9361,25 +9376,25 @@
     </row>
     <row r="17" spans="12:18" ht="13.5" thickTop="1" x14ac:dyDescent="0.2"/>
     <row r="18" spans="12:18" x14ac:dyDescent="0.2">
-      <c r="L18" s="636" t="s">
+      <c r="L18" s="635" t="s">
         <v>135</v>
       </c>
-      <c r="M18" s="636"/>
-      <c r="N18" s="636"/>
-      <c r="O18" s="472"/>
-      <c r="P18" s="472"/>
-      <c r="Q18" s="488"/>
-      <c r="R18" s="488"/>
+      <c r="M18" s="635"/>
+      <c r="N18" s="635"/>
+      <c r="O18" s="458"/>
+      <c r="P18" s="458"/>
+      <c r="Q18" s="474"/>
+      <c r="R18" s="474"/>
     </row>
     <row r="19" spans="12:18" x14ac:dyDescent="0.2">
-      <c r="O19" s="568" t="s">
+      <c r="O19" s="567" t="s">
         <v>139</v>
       </c>
-      <c r="P19" s="568"/>
-      <c r="Q19" s="569" t="s">
+      <c r="P19" s="567"/>
+      <c r="Q19" s="568" t="s">
         <v>140</v>
       </c>
-      <c r="R19" s="570"/>
+      <c r="R19" s="569"/>
     </row>
   </sheetData>
   <mergeCells count="21">
@@ -9433,13 +9448,13 @@
   <dimension ref="A1:M68"/>
   <sheetViews>
     <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="120" zoomScaleNormal="100" zoomScaleSheetLayoutView="120" workbookViewId="0">
-      <selection activeCell="F7" sqref="F7"/>
+      <selection activeCell="F12" sqref="F12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="12.140625" customWidth="1"/>
-    <col min="2" max="2" width="17.28515625" customWidth="1"/>
+    <col min="2" max="2" width="23.140625" customWidth="1"/>
     <col min="3" max="3" width="18.28515625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="10.85546875" customWidth="1"/>
     <col min="5" max="5" width="13.7109375" customWidth="1"/>
@@ -9453,103 +9468,103 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" ht="18" x14ac:dyDescent="0.25">
-      <c r="A1" s="380"/>
-      <c r="B1" s="470" t="s">
+      <c r="A1" s="379"/>
+      <c r="B1" s="456" t="s">
         <v>108</v>
       </c>
-      <c r="C1" s="380"/>
-      <c r="D1" s="469" t="str">
+      <c r="C1" s="379"/>
+      <c r="D1" s="455" t="str">
         <f>Данные!A2</f>
         <v>III-2-82-450-1 (Банка 0,45 л.)</v>
       </c>
-      <c r="E1" s="380"/>
-      <c r="F1" s="380"/>
-      <c r="G1" s="380"/>
-      <c r="H1" s="380"/>
-      <c r="I1" s="380"/>
-      <c r="J1" s="380"/>
-      <c r="K1" s="380"/>
-      <c r="L1" s="380"/>
+      <c r="E1" s="379"/>
+      <c r="F1" s="379"/>
+      <c r="G1" s="379"/>
+      <c r="H1" s="379"/>
+      <c r="I1" s="379"/>
+      <c r="J1" s="379"/>
+      <c r="K1" s="379"/>
+      <c r="L1" s="379"/>
     </row>
     <row r="2" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A2" s="380"/>
-      <c r="B2" s="380" t="s">
+      <c r="A2" s="379"/>
+      <c r="B2" s="379" t="s">
         <v>142</v>
       </c>
-      <c r="C2" s="380"/>
-      <c r="D2" s="380"/>
-      <c r="E2" s="380"/>
-      <c r="F2" s="380"/>
-      <c r="G2" s="380"/>
-      <c r="H2" s="380"/>
-      <c r="I2" s="380"/>
-      <c r="J2" s="381"/>
-      <c r="K2" s="381"/>
-      <c r="L2" s="381"/>
+      <c r="C2" s="379"/>
+      <c r="D2" s="379"/>
+      <c r="E2" s="379"/>
+      <c r="F2" s="379"/>
+      <c r="G2" s="379"/>
+      <c r="H2" s="379"/>
+      <c r="I2" s="379"/>
+      <c r="J2" s="380"/>
+      <c r="K2" s="380"/>
+      <c r="L2" s="380"/>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A3" s="521" t="s">
+      <c r="A3" s="520" t="s">
         <v>143</v>
       </c>
-      <c r="B3" s="521"/>
-      <c r="C3" s="521"/>
-      <c r="D3" s="521"/>
-      <c r="E3" s="521"/>
-      <c r="F3" s="521"/>
-      <c r="G3" s="521"/>
-      <c r="H3" s="521"/>
-      <c r="I3" s="521"/>
-      <c r="K3" s="382"/>
-      <c r="L3" s="382"/>
-      <c r="M3" s="383"/>
+      <c r="B3" s="520"/>
+      <c r="C3" s="520"/>
+      <c r="D3" s="520"/>
+      <c r="E3" s="520"/>
+      <c r="F3" s="520"/>
+      <c r="G3" s="520"/>
+      <c r="H3" s="520"/>
+      <c r="I3" s="520"/>
+      <c r="K3" s="381"/>
+      <c r="L3" s="381"/>
+      <c r="M3" s="382"/>
     </row>
     <row r="4" spans="1:13" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="383"/>
-      <c r="B4" s="384"/>
-      <c r="C4" s="384"/>
-      <c r="F4" s="385"/>
-      <c r="G4" s="386"/>
-      <c r="H4" s="385"/>
-      <c r="I4" s="385"/>
-      <c r="J4" s="382"/>
-      <c r="K4" s="382"/>
+      <c r="A4" s="382"/>
+      <c r="B4" s="383"/>
+      <c r="C4" s="383"/>
+      <c r="F4" s="384"/>
+      <c r="G4" s="385"/>
+      <c r="H4" s="384"/>
+      <c r="I4" s="384"/>
+      <c r="J4" s="381"/>
+      <c r="K4" s="381"/>
       <c r="M4" s="364"/>
     </row>
     <row r="5" spans="1:13" ht="64.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="387" t="s">
+      <c r="A5" s="386" t="s">
         <v>109</v>
       </c>
-      <c r="B5" s="388" t="s">
+      <c r="B5" s="387" t="s">
         <v>110</v>
       </c>
-      <c r="C5" s="388" t="s">
+      <c r="C5" s="387" t="s">
         <v>66</v>
       </c>
-      <c r="D5" s="389" t="s">
+      <c r="D5" s="388" t="s">
         <v>111</v>
       </c>
-      <c r="E5" s="388" t="s">
+      <c r="E5" s="387" t="s">
         <v>112</v>
       </c>
-      <c r="F5" s="388" t="s">
+      <c r="F5" s="387" t="s">
         <v>113</v>
       </c>
-      <c r="G5" s="388" t="s">
+      <c r="G5" s="387" t="s">
         <v>114</v>
       </c>
-      <c r="H5" s="390" t="s">
+      <c r="H5" s="389" t="s">
         <v>115</v>
       </c>
-      <c r="I5" s="391"/>
-      <c r="J5" s="391"/>
-      <c r="K5" s="391"/>
-      <c r="L5" s="391"/>
+      <c r="I5" s="390"/>
+      <c r="J5" s="390"/>
+      <c r="K5" s="390"/>
+      <c r="L5" s="390"/>
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A6" s="392">
+      <c r="A6" s="391">
         <v>1</v>
       </c>
-      <c r="B6" s="393" t="str">
+      <c r="B6" s="392" t="str">
         <f>Данные!A14</f>
         <v>Чистовая форма</v>
       </c>
@@ -9557,32 +9572,32 @@
         <f>Данные!C14</f>
         <v>III-2-82-450-1</v>
       </c>
-      <c r="D6" s="394">
+      <c r="D6" s="393">
         <f>Данные!$B14</f>
         <v>24</v>
       </c>
-      <c r="E6" s="394">
+      <c r="E6" s="393">
         <v>24</v>
       </c>
-      <c r="F6" s="395">
+      <c r="F6" s="394">
         <v>1</v>
       </c>
-      <c r="G6" s="394">
+      <c r="G6" s="393">
         <f>E6-F6</f>
         <v>23</v>
       </c>
-      <c r="H6" s="396"/>
-      <c r="I6" s="397"/>
-      <c r="J6" s="383"/>
-      <c r="K6" s="383"/>
-      <c r="L6" s="397"/>
+      <c r="H6" s="395"/>
+      <c r="I6" s="396"/>
+      <c r="J6" s="382"/>
+      <c r="K6" s="382"/>
+      <c r="L6" s="396"/>
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A7" s="398">
+      <c r="A7" s="397">
         <f>A6+1</f>
         <v>2</v>
       </c>
-      <c r="B7" s="399" t="str">
+      <c r="B7" s="398" t="str">
         <f>Данные!A15</f>
         <v>Чистовой поддон</v>
       </c>
@@ -9590,30 +9605,30 @@
         <f>Данные!C15</f>
         <v>III-2-82-450-1</v>
       </c>
-      <c r="D7" s="400">
+      <c r="D7" s="399">
         <f>Данные!$B15</f>
         <v>24</v>
       </c>
-      <c r="E7" s="400">
+      <c r="E7" s="399">
         <v>24</v>
       </c>
-      <c r="F7" s="379"/>
-      <c r="G7" s="400">
+      <c r="F7" s="378"/>
+      <c r="G7" s="399">
         <f t="shared" ref="G7:G17" si="0">E7-F7</f>
         <v>24</v>
       </c>
-      <c r="H7" s="401"/>
-      <c r="I7" s="397"/>
-      <c r="J7" s="383"/>
-      <c r="K7" s="383"/>
-      <c r="L7" s="397"/>
+      <c r="H7" s="400"/>
+      <c r="I7" s="396"/>
+      <c r="J7" s="382"/>
+      <c r="K7" s="382"/>
+      <c r="L7" s="396"/>
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A8" s="398">
+      <c r="A8" s="397">
         <f t="shared" ref="A8:A17" si="1">A7+1</f>
         <v>3</v>
       </c>
-      <c r="B8" s="399" t="str">
+      <c r="B8" s="398" t="str">
         <f>Данные!A16</f>
         <v>Черновая форма</v>
       </c>
@@ -9621,30 +9636,30 @@
         <f>Данные!C16</f>
         <v>III-2-82-450-1</v>
       </c>
-      <c r="D8" s="400">
+      <c r="D8" s="399">
         <f>Данные!$B16</f>
         <v>32</v>
       </c>
-      <c r="E8" s="400">
+      <c r="E8" s="399">
         <v>32</v>
       </c>
-      <c r="F8" s="379"/>
-      <c r="G8" s="400">
+      <c r="F8" s="378"/>
+      <c r="G8" s="399">
         <f t="shared" si="0"/>
         <v>32</v>
       </c>
-      <c r="H8" s="402"/>
-      <c r="I8" s="397"/>
-      <c r="J8" s="383"/>
-      <c r="K8" s="383"/>
-      <c r="L8" s="397"/>
+      <c r="H8" s="401"/>
+      <c r="I8" s="396"/>
+      <c r="J8" s="382"/>
+      <c r="K8" s="382"/>
+      <c r="L8" s="396"/>
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A9" s="398">
+      <c r="A9" s="397">
         <f t="shared" si="1"/>
         <v>4</v>
       </c>
-      <c r="B9" s="399" t="str">
+      <c r="B9" s="398" t="str">
         <f>Данные!A17</f>
         <v>Черновой поддон</v>
       </c>
@@ -9652,30 +9667,30 @@
         <f>Данные!C17</f>
         <v>III-2-82-450-1</v>
       </c>
-      <c r="D9" s="400">
+      <c r="D9" s="399">
         <f>Данные!$B17</f>
         <v>32</v>
       </c>
-      <c r="E9" s="400">
+      <c r="E9" s="399">
         <v>32</v>
       </c>
-      <c r="F9" s="379"/>
-      <c r="G9" s="400">
+      <c r="F9" s="378"/>
+      <c r="G9" s="399">
         <f t="shared" si="0"/>
         <v>32</v>
       </c>
-      <c r="H9" s="402"/>
-      <c r="I9" s="397"/>
-      <c r="J9" s="403"/>
-      <c r="K9" s="383"/>
-      <c r="L9" s="397"/>
+      <c r="H9" s="401"/>
+      <c r="I9" s="396"/>
+      <c r="J9" s="402"/>
+      <c r="K9" s="382"/>
+      <c r="L9" s="396"/>
     </row>
     <row r="10" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A10" s="398">
+      <c r="A10" s="397">
         <f t="shared" si="1"/>
         <v>5</v>
       </c>
-      <c r="B10" s="399" t="str">
+      <c r="B10" s="398" t="str">
         <f>Данные!A18</f>
         <v>Горловое кольцо</v>
       </c>
@@ -9683,30 +9698,32 @@
         <f>Данные!C18</f>
         <v>III-2-82-450-1</v>
       </c>
-      <c r="D10" s="400">
+      <c r="D10" s="399">
         <f>Данные!$B18</f>
         <v>80</v>
       </c>
-      <c r="E10" s="400">
-        <v>130</v>
-      </c>
-      <c r="F10" s="379"/>
-      <c r="G10" s="400">
+      <c r="E10" s="399">
+        <v>80</v>
+      </c>
+      <c r="F10" s="378">
+        <v>15</v>
+      </c>
+      <c r="G10" s="399">
         <f t="shared" si="0"/>
-        <v>130</v>
-      </c>
-      <c r="H10" s="402"/>
-      <c r="I10" s="403"/>
-      <c r="J10" s="403"/>
-      <c r="K10" s="403"/>
-      <c r="L10" s="397"/>
+        <v>65</v>
+      </c>
+      <c r="H10" s="401"/>
+      <c r="I10" s="402"/>
+      <c r="J10" s="402"/>
+      <c r="K10" s="402"/>
+      <c r="L10" s="396"/>
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A11" s="398">
+      <c r="A11" s="397">
         <f t="shared" si="1"/>
         <v>6</v>
       </c>
-      <c r="B11" s="399" t="str">
+      <c r="B11" s="398" t="str">
         <f>Данные!A19</f>
         <v>Направляющее кольцо</v>
       </c>
@@ -9714,30 +9731,32 @@
         <f>Данные!C19</f>
         <v>III-2-82-450-1</v>
       </c>
-      <c r="D11" s="400">
+      <c r="D11" s="399">
         <f>Данные!$B19</f>
         <v>150</v>
       </c>
-      <c r="E11" s="400">
-        <v>130</v>
-      </c>
-      <c r="F11" s="379"/>
-      <c r="G11" s="400">
+      <c r="E11" s="399">
+        <v>150</v>
+      </c>
+      <c r="F11" s="378">
+        <v>41</v>
+      </c>
+      <c r="G11" s="399">
         <f t="shared" si="0"/>
-        <v>130</v>
-      </c>
-      <c r="H11" s="402"/>
-      <c r="I11" s="397"/>
-      <c r="J11" s="403"/>
-      <c r="K11" s="383"/>
-      <c r="L11" s="397"/>
+        <v>109</v>
+      </c>
+      <c r="H11" s="401"/>
+      <c r="I11" s="396"/>
+      <c r="J11" s="402"/>
+      <c r="K11" s="382"/>
+      <c r="L11" s="396"/>
     </row>
     <row r="12" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A12" s="398">
+      <c r="A12" s="397">
         <f t="shared" si="1"/>
         <v>7</v>
       </c>
-      <c r="B12" s="399" t="str">
+      <c r="B12" s="398" t="str">
         <f>Данные!A20</f>
         <v>Плунжер</v>
       </c>
@@ -9745,31 +9764,31 @@
         <f>Данные!C20</f>
         <v>III-2-82-450-1</v>
       </c>
-      <c r="D12" s="400">
+      <c r="D12" s="399">
         <f>Данные!$B20</f>
         <v>60</v>
       </c>
-      <c r="E12" s="400">
+      <c r="E12" s="399">
         <v>60</v>
       </c>
-      <c r="F12" s="404"/>
-      <c r="G12" s="400">
+      <c r="F12" s="403"/>
+      <c r="G12" s="399">
         <f t="shared" si="0"/>
         <v>60</v>
       </c>
-      <c r="H12" s="402"/>
-      <c r="I12" s="403"/>
-      <c r="J12" s="403"/>
-      <c r="K12" s="403"/>
-      <c r="L12" s="397"/>
-      <c r="M12" s="405"/>
+      <c r="H12" s="401"/>
+      <c r="I12" s="402"/>
+      <c r="J12" s="402"/>
+      <c r="K12" s="402"/>
+      <c r="L12" s="396"/>
+      <c r="M12" s="404"/>
     </row>
     <row r="13" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="398">
+      <c r="A13" s="397">
         <f t="shared" si="1"/>
         <v>8</v>
       </c>
-      <c r="B13" s="399" t="str">
+      <c r="B13" s="398" t="str">
         <f>Данные!A21</f>
         <v>Втулка плунжера</v>
       </c>
@@ -9777,31 +9796,31 @@
         <f>Данные!C21</f>
         <v>0</v>
       </c>
-      <c r="D13" s="400">
+      <c r="D13" s="399">
         <f>Данные!$B21</f>
         <v>0</v>
       </c>
-      <c r="E13" s="400">
-        <v>18</v>
-      </c>
-      <c r="F13" s="406"/>
-      <c r="G13" s="400">
+      <c r="E13" s="399">
+        <v>0</v>
+      </c>
+      <c r="F13" s="405"/>
+      <c r="G13" s="399">
         <f t="shared" si="0"/>
-        <v>18</v>
-      </c>
-      <c r="H13" s="402"/>
-      <c r="I13" s="403"/>
-      <c r="J13" s="403"/>
-      <c r="K13" s="403"/>
-      <c r="L13" s="397"/>
-      <c r="M13" s="405"/>
+        <v>0</v>
+      </c>
+      <c r="H13" s="401"/>
+      <c r="I13" s="402"/>
+      <c r="J13" s="402"/>
+      <c r="K13" s="402"/>
+      <c r="L13" s="396"/>
+      <c r="M13" s="404"/>
     </row>
     <row r="14" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="398">
+      <c r="A14" s="397">
         <f t="shared" si="1"/>
         <v>9</v>
       </c>
-      <c r="B14" s="399" t="str">
+      <c r="B14" s="398" t="str">
         <f>Данные!A22</f>
         <v>Хватки</v>
       </c>
@@ -9809,32 +9828,32 @@
         <f>Данные!C22</f>
         <v>III-2-82-450-1</v>
       </c>
-      <c r="D14" s="400">
+      <c r="D14" s="399">
         <f>Данные!$B22</f>
         <v>18</v>
       </c>
-      <c r="E14" s="468">
-        <v>24</v>
-      </c>
-      <c r="F14" s="379"/>
-      <c r="G14" s="400">
+      <c r="E14" s="454">
+        <v>18</v>
+      </c>
+      <c r="F14" s="378"/>
+      <c r="G14" s="399">
         <f t="shared" si="0"/>
-        <v>24</v>
-      </c>
-      <c r="H14" s="402" t="s">
+        <v>18</v>
+      </c>
+      <c r="H14" s="401" t="s">
         <v>42</v>
       </c>
-      <c r="I14" s="403"/>
-      <c r="J14" s="403"/>
-      <c r="K14" s="403"/>
-      <c r="L14" s="397"/>
+      <c r="I14" s="402"/>
+      <c r="J14" s="402"/>
+      <c r="K14" s="402"/>
+      <c r="L14" s="396"/>
     </row>
     <row r="15" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="398">
+      <c r="A15" s="397">
         <f t="shared" si="1"/>
         <v>10</v>
       </c>
-      <c r="B15" s="399" t="str">
+      <c r="B15" s="398" t="str">
         <f>Данные!A23</f>
         <v>Воронка</v>
       </c>
@@ -9842,30 +9861,30 @@
         <f>Данные!C23</f>
         <v>0</v>
       </c>
-      <c r="D15" s="400">
+      <c r="D15" s="399">
         <f>Данные!$B23</f>
         <v>0</v>
       </c>
-      <c r="E15" s="400">
-        <v>20</v>
-      </c>
-      <c r="F15" s="404"/>
-      <c r="G15" s="400">
+      <c r="E15" s="399">
+        <v>0</v>
+      </c>
+      <c r="F15" s="403"/>
+      <c r="G15" s="399">
         <f t="shared" si="0"/>
-        <v>20</v>
-      </c>
-      <c r="H15" s="402"/>
-      <c r="I15" s="403"/>
-      <c r="J15" s="403"/>
-      <c r="K15" s="403"/>
-      <c r="L15" s="397"/>
+        <v>0</v>
+      </c>
+      <c r="H15" s="401"/>
+      <c r="I15" s="402"/>
+      <c r="J15" s="402"/>
+      <c r="K15" s="402"/>
+      <c r="L15" s="396"/>
     </row>
     <row r="16" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="398">
+      <c r="A16" s="397">
         <f t="shared" si="1"/>
         <v>11</v>
       </c>
-      <c r="B16" s="399" t="str">
+      <c r="B16" s="398" t="str">
         <f>Данные!A24</f>
         <v>Плита охлаждения</v>
       </c>
@@ -9873,614 +9892,740 @@
         <f>Данные!C24</f>
         <v>III-2-82-450-1</v>
       </c>
-      <c r="D16" s="400">
+      <c r="D16" s="399">
         <f>Данные!$B24</f>
         <v>8</v>
       </c>
-      <c r="E16" s="400">
+      <c r="E16" s="399">
         <v>8</v>
       </c>
-      <c r="F16" s="379"/>
-      <c r="G16" s="400">
+      <c r="F16" s="378"/>
+      <c r="G16" s="399">
         <f t="shared" si="0"/>
         <v>8</v>
       </c>
-      <c r="H16" s="402"/>
-      <c r="I16" s="403"/>
-      <c r="J16" s="403"/>
-      <c r="K16" s="403"/>
-      <c r="L16" s="397"/>
+      <c r="H16" s="401"/>
+      <c r="I16" s="402"/>
+      <c r="J16" s="402"/>
+      <c r="K16" s="402"/>
+      <c r="L16" s="396"/>
     </row>
     <row r="17" spans="1:12" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="407">
+      <c r="A17" s="406">
         <f t="shared" si="1"/>
         <v>12</v>
       </c>
-      <c r="B17" s="408" t="str">
+      <c r="B17" s="407" t="str">
         <f>Данные!A25</f>
         <v>Охладитель плунжера</v>
       </c>
-      <c r="C17" s="409" t="str">
+      <c r="C17" s="408" t="str">
         <f>Данные!C26</f>
         <v>III-2-82-450-1</v>
       </c>
-      <c r="D17" s="410">
+      <c r="D17" s="409">
         <f>Данные!$B26</f>
         <v>0</v>
       </c>
-      <c r="E17" s="410">
+      <c r="E17" s="409">
         <v>18</v>
       </c>
-      <c r="F17" s="411"/>
-      <c r="G17" s="410">
+      <c r="F17" s="410"/>
+      <c r="G17" s="409">
         <f t="shared" si="0"/>
         <v>18</v>
       </c>
-      <c r="H17" s="412"/>
-      <c r="I17" s="403"/>
-      <c r="J17" s="413"/>
-      <c r="K17" s="403"/>
-      <c r="L17" s="397"/>
+      <c r="H17" s="411"/>
+      <c r="I17" s="402"/>
+      <c r="J17" s="412"/>
+      <c r="K17" s="402"/>
+      <c r="L17" s="396"/>
     </row>
     <row r="18" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A18" s="414"/>
-      <c r="B18" s="415"/>
-      <c r="C18" s="383"/>
-      <c r="D18" s="416"/>
-      <c r="E18" s="383"/>
-      <c r="F18" s="383"/>
-      <c r="G18" s="383"/>
-      <c r="H18" s="383"/>
-      <c r="I18" s="383"/>
-      <c r="J18" s="383"/>
+      <c r="A18" s="413"/>
+      <c r="B18" s="414"/>
+      <c r="C18" s="382"/>
+      <c r="D18" s="415"/>
+      <c r="E18" s="382"/>
+      <c r="F18" s="382"/>
+      <c r="G18" s="382"/>
+      <c r="H18" s="382"/>
+      <c r="I18" s="382"/>
+      <c r="J18" s="382"/>
     </row>
     <row r="19" spans="1:12" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="383"/>
-      <c r="B19" s="417" t="s">
+      <c r="A19" s="382"/>
+      <c r="B19" s="416" t="s">
         <v>116</v>
       </c>
       <c r="C19" s="364"/>
       <c r="D19" s="364"/>
       <c r="E19" s="364"/>
       <c r="F19" s="364"/>
-      <c r="G19" s="383"/>
-      <c r="H19" s="383"/>
-      <c r="I19" s="383"/>
-      <c r="J19" s="418"/>
-      <c r="K19" s="418"/>
-      <c r="L19" s="418"/>
+      <c r="G19" s="382"/>
+      <c r="H19" s="382"/>
+      <c r="I19" s="382"/>
+      <c r="J19" s="417"/>
+      <c r="K19" s="417"/>
+      <c r="L19" s="417"/>
     </row>
     <row r="20" spans="1:12" ht="64.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="387" t="s">
+      <c r="A20" s="386" t="s">
         <v>117</v>
       </c>
-      <c r="B20" s="388" t="s">
+      <c r="B20" s="387" t="s">
         <v>118</v>
       </c>
-      <c r="C20" s="388" t="s">
+      <c r="C20" s="387" t="s">
         <v>119</v>
       </c>
-      <c r="D20" s="388" t="s">
+      <c r="D20" s="387" t="s">
         <v>120</v>
       </c>
-      <c r="E20" s="388" t="s">
+      <c r="E20" s="387" t="s">
         <v>121</v>
       </c>
-      <c r="F20" s="388" t="s">
+      <c r="F20" s="387" t="s">
         <v>122</v>
       </c>
-      <c r="G20" s="419" t="s">
+      <c r="G20" s="418" t="s">
         <v>123</v>
       </c>
-      <c r="H20" s="420" t="s">
+      <c r="H20" s="419" t="s">
         <v>124</v>
       </c>
-      <c r="I20" s="421" t="s">
+      <c r="I20" s="420" t="s">
         <v>125</v>
       </c>
-      <c r="J20" s="421" t="s">
+      <c r="J20" s="420" t="s">
         <v>150</v>
       </c>
-      <c r="K20" s="391"/>
-      <c r="L20" s="391"/>
+      <c r="K20" s="390"/>
+      <c r="L20" s="390"/>
     </row>
     <row r="21" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A21" s="422">
+      <c r="A21" s="421">
         <f>D6*700000</f>
         <v>16800000</v>
       </c>
-      <c r="B21" s="423">
+      <c r="B21" s="422">
         <v>43978</v>
       </c>
-      <c r="C21" s="492" t="s">
+      <c r="C21" s="478" t="s">
         <v>149</v>
       </c>
-      <c r="D21" s="423">
+      <c r="D21" s="422">
         <v>43983</v>
       </c>
-      <c r="E21" s="424">
+      <c r="E21" s="423">
         <v>1019392</v>
       </c>
-      <c r="F21" s="424">
+      <c r="F21" s="423">
         <v>1071619</v>
       </c>
-      <c r="G21" s="425">
-        <f>F21/A$21</f>
+      <c r="G21" s="424">
+        <f t="shared" ref="G21:G28" si="2">F21/A$21</f>
         <v>6.3786845238095233E-2</v>
       </c>
-      <c r="H21" s="426">
+      <c r="H21" s="425">
         <f>A21-F21</f>
         <v>15728381</v>
       </c>
-      <c r="I21" s="427">
+      <c r="I21" s="426">
         <f>1-G21</f>
         <v>0.93621315476190481</v>
       </c>
-      <c r="J21" s="494"/>
-      <c r="K21" s="403"/>
-      <c r="L21" s="403"/>
+      <c r="J21" s="480"/>
+      <c r="K21" s="402"/>
+      <c r="L21" s="402"/>
     </row>
     <row r="22" spans="1:12" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="429"/>
-      <c r="B22" s="493" t="s">
+      <c r="A22" s="428"/>
+      <c r="B22" s="479" t="s">
         <v>149</v>
       </c>
-      <c r="C22" s="430">
+      <c r="C22" s="429">
         <v>43990</v>
       </c>
-      <c r="D22" s="430">
+      <c r="D22" s="429">
         <v>43993</v>
       </c>
-      <c r="E22" s="431">
+      <c r="E22" s="430">
         <v>1706896</v>
       </c>
-      <c r="F22" s="431">
+      <c r="F22" s="430">
         <v>1772456</v>
       </c>
-      <c r="G22" s="425">
-        <f>F22/A$21</f>
+      <c r="G22" s="424">
+        <f t="shared" si="2"/>
         <v>0.10550333333333334</v>
       </c>
-      <c r="H22" s="432">
-        <f>H21-F22</f>
+      <c r="H22" s="431">
+        <f t="shared" ref="H22:I24" si="3">H21-F22</f>
         <v>13955925</v>
       </c>
-      <c r="I22" s="433">
-        <f>I21-G22</f>
+      <c r="I22" s="432">
+        <f t="shared" si="3"/>
         <v>0.83070982142857153</v>
       </c>
-      <c r="J22" s="495">
+      <c r="J22" s="481">
         <v>253</v>
       </c>
-      <c r="K22" s="383"/>
-      <c r="L22" s="383"/>
+      <c r="K22" s="382"/>
+      <c r="L22" s="382"/>
     </row>
     <row r="23" spans="1:12" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A23" s="434"/>
-      <c r="B23" s="435"/>
-      <c r="C23" s="435"/>
-      <c r="D23" s="435"/>
-      <c r="E23" s="436"/>
-      <c r="F23" s="436"/>
-      <c r="G23" s="437"/>
-      <c r="H23" s="438"/>
-      <c r="I23" s="439"/>
-      <c r="J23" s="496"/>
-      <c r="K23" s="403"/>
-      <c r="L23" s="403"/>
+      <c r="A23" s="433"/>
+      <c r="B23" s="434">
+        <v>44012</v>
+      </c>
+      <c r="C23" s="484" t="s">
+        <v>149</v>
+      </c>
+      <c r="D23" s="484">
+        <v>44021</v>
+      </c>
+      <c r="E23" s="435">
+        <v>194304</v>
+      </c>
+      <c r="F23" s="435">
+        <v>219298</v>
+      </c>
+      <c r="G23" s="424">
+        <f t="shared" si="2"/>
+        <v>1.3053452380952381E-2</v>
+      </c>
+      <c r="H23" s="431">
+        <f t="shared" si="3"/>
+        <v>13736627</v>
+      </c>
+      <c r="I23" s="432">
+        <f t="shared" si="3"/>
+        <v>0.81765636904761918</v>
+      </c>
+      <c r="J23" s="482">
+        <v>253</v>
+      </c>
+      <c r="K23" s="402"/>
+      <c r="L23" s="402"/>
     </row>
     <row r="24" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A24" s="434"/>
-      <c r="B24" s="375"/>
-      <c r="C24" s="375"/>
-      <c r="D24" s="375"/>
-      <c r="E24" s="375"/>
-      <c r="F24" s="375"/>
-      <c r="G24" s="375"/>
-      <c r="H24" s="375"/>
-      <c r="I24" s="440"/>
-      <c r="J24" s="497"/>
-      <c r="K24" s="428"/>
-      <c r="L24" s="383"/>
+      <c r="A24" s="433"/>
+      <c r="B24" s="372" t="s">
+        <v>149</v>
+      </c>
+      <c r="C24" s="369">
+        <v>44022</v>
+      </c>
+      <c r="D24" s="369">
+        <v>44028</v>
+      </c>
+      <c r="E24" s="495">
+        <v>2126080</v>
+      </c>
+      <c r="F24" s="495">
+        <v>2211957</v>
+      </c>
+      <c r="G24" s="424">
+        <f t="shared" si="2"/>
+        <v>0.13166410714285715</v>
+      </c>
+      <c r="H24" s="431">
+        <f t="shared" si="3"/>
+        <v>11524670</v>
+      </c>
+      <c r="I24" s="432">
+        <f t="shared" si="3"/>
+        <v>0.68599226190476204</v>
+      </c>
+      <c r="J24" s="485">
+        <v>254</v>
+      </c>
+      <c r="K24" s="427"/>
+      <c r="L24" s="382"/>
     </row>
     <row r="25" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A25" s="434"/>
-      <c r="B25" s="435"/>
-      <c r="C25" s="435"/>
-      <c r="D25" s="435"/>
-      <c r="E25" s="436"/>
-      <c r="F25" s="436"/>
-      <c r="G25" s="441"/>
-      <c r="H25" s="438"/>
-      <c r="I25" s="439"/>
-      <c r="J25" s="496"/>
-      <c r="K25" s="442"/>
-      <c r="L25" s="383"/>
+      <c r="A25" s="433"/>
+      <c r="B25" s="369">
+        <v>44131</v>
+      </c>
+      <c r="C25" s="369">
+        <v>44135</v>
+      </c>
+      <c r="D25" s="369">
+        <v>44137</v>
+      </c>
+      <c r="E25" s="496">
+        <v>1041920</v>
+      </c>
+      <c r="F25" s="496">
+        <v>1091853</v>
+      </c>
+      <c r="G25" s="486">
+        <f t="shared" si="2"/>
+        <v>6.499125E-2</v>
+      </c>
+      <c r="H25" s="431">
+        <f t="shared" ref="H25" si="4">H24-F25</f>
+        <v>10432817</v>
+      </c>
+      <c r="I25" s="432">
+        <f t="shared" ref="I25" si="5">I24-G25</f>
+        <v>0.62100101190476198</v>
+      </c>
+      <c r="J25" s="482">
+        <v>256</v>
+      </c>
+      <c r="K25" s="436"/>
+      <c r="L25" s="382"/>
     </row>
     <row r="26" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A26" s="434"/>
-      <c r="B26" s="435"/>
-      <c r="C26" s="435"/>
-      <c r="D26" s="435"/>
-      <c r="E26" s="436"/>
-      <c r="F26" s="436"/>
-      <c r="G26" s="441"/>
-      <c r="H26" s="438"/>
-      <c r="I26" s="439"/>
-      <c r="J26" s="496"/>
-      <c r="K26" s="428"/>
-      <c r="L26" s="383"/>
+      <c r="A26" s="433"/>
+      <c r="B26" s="369">
+        <v>44222</v>
+      </c>
+      <c r="C26" s="369">
+        <v>44225</v>
+      </c>
+      <c r="D26" s="369">
+        <v>44228</v>
+      </c>
+      <c r="E26" s="496">
+        <v>827904</v>
+      </c>
+      <c r="F26" s="496">
+        <v>866904</v>
+      </c>
+      <c r="G26" s="486">
+        <f t="shared" si="2"/>
+        <v>5.1601428571428569E-2</v>
+      </c>
+      <c r="H26" s="431">
+        <f t="shared" ref="H26" si="6">H25-F26</f>
+        <v>9565913</v>
+      </c>
+      <c r="I26" s="432">
+        <f t="shared" ref="I26" si="7">I25-G26</f>
+        <v>0.5693995833333334</v>
+      </c>
+      <c r="J26" s="482">
+        <v>255</v>
+      </c>
+      <c r="K26" s="427"/>
+      <c r="L26" s="382"/>
     </row>
     <row r="27" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A27" s="434"/>
-      <c r="B27" s="435"/>
-      <c r="C27" s="435"/>
-      <c r="D27" s="435"/>
-      <c r="E27" s="438"/>
-      <c r="F27" s="436"/>
-      <c r="G27" s="441"/>
-      <c r="H27" s="438"/>
-      <c r="I27" s="439"/>
-      <c r="J27" s="496"/>
-      <c r="K27" s="428"/>
-      <c r="L27" s="383"/>
+      <c r="A27" s="433"/>
+      <c r="B27" s="369">
+        <v>44257</v>
+      </c>
+      <c r="C27" s="369">
+        <v>44267</v>
+      </c>
+      <c r="D27" s="369">
+        <v>44287</v>
+      </c>
+      <c r="E27" s="496">
+        <v>2365440</v>
+      </c>
+      <c r="F27" s="496">
+        <v>2453533</v>
+      </c>
+      <c r="G27" s="486">
+        <f t="shared" si="2"/>
+        <v>0.14604363095238096</v>
+      </c>
+      <c r="H27" s="431">
+        <f t="shared" ref="H27" si="8">H26-F27</f>
+        <v>7112380</v>
+      </c>
+      <c r="I27" s="432">
+        <f t="shared" ref="I27" si="9">I26-G27</f>
+        <v>0.42335595238095247</v>
+      </c>
+      <c r="J27" s="482">
+        <v>255</v>
+      </c>
+      <c r="K27" s="427"/>
+      <c r="L27" s="382"/>
     </row>
     <row r="28" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A28" s="434"/>
-      <c r="B28" s="435"/>
-      <c r="C28" s="435"/>
-      <c r="D28" s="435"/>
-      <c r="E28" s="438"/>
-      <c r="F28" s="436"/>
-      <c r="G28" s="441"/>
-      <c r="H28" s="438"/>
-      <c r="I28" s="439"/>
-      <c r="J28" s="496"/>
-      <c r="K28" s="428"/>
-      <c r="L28" s="383"/>
+      <c r="A28" s="433"/>
+      <c r="B28" s="369">
+        <v>44329</v>
+      </c>
+      <c r="C28" s="369" t="s">
+        <v>149</v>
+      </c>
+      <c r="D28" s="369">
+        <v>44349</v>
+      </c>
+      <c r="E28" s="496">
+        <v>4001536</v>
+      </c>
+      <c r="F28" s="496">
+        <v>4174680</v>
+      </c>
+      <c r="G28" s="486">
+        <f t="shared" si="2"/>
+        <v>0.24849285714285715</v>
+      </c>
+      <c r="H28" s="431">
+        <f t="shared" ref="H28" si="10">H27-F28</f>
+        <v>2937700</v>
+      </c>
+      <c r="I28" s="432">
+        <f t="shared" ref="I28" si="11">I27-G28</f>
+        <v>0.17486309523809532</v>
+      </c>
+      <c r="J28" s="482">
+        <v>255</v>
+      </c>
+      <c r="K28" s="427"/>
+      <c r="L28" s="382"/>
     </row>
     <row r="29" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A29" s="434"/>
-      <c r="B29" s="435"/>
-      <c r="C29" s="435"/>
-      <c r="D29" s="375"/>
-      <c r="E29" s="375"/>
-      <c r="F29" s="436"/>
-      <c r="G29" s="443"/>
-      <c r="H29" s="438"/>
-      <c r="I29" s="444"/>
-      <c r="J29" s="498"/>
-      <c r="K29" s="428"/>
-      <c r="L29" s="383"/>
+      <c r="A29" s="433"/>
+      <c r="B29" s="369"/>
+      <c r="C29" s="369"/>
+      <c r="D29" s="366"/>
+      <c r="E29" s="495"/>
+      <c r="F29" s="496"/>
+      <c r="G29" s="487"/>
+      <c r="H29" s="496"/>
+      <c r="I29" s="488"/>
+      <c r="J29" s="489"/>
+      <c r="K29" s="427"/>
+      <c r="L29" s="382"/>
     </row>
     <row r="30" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A30" s="434"/>
-      <c r="B30" s="435"/>
-      <c r="C30" s="435"/>
-      <c r="D30" s="375"/>
-      <c r="E30" s="375"/>
-      <c r="F30" s="436"/>
-      <c r="G30" s="441"/>
-      <c r="H30" s="438"/>
-      <c r="I30" s="444"/>
-      <c r="J30" s="498"/>
-      <c r="K30" s="428"/>
-      <c r="L30" s="383"/>
+      <c r="A30" s="433"/>
+      <c r="B30" s="369"/>
+      <c r="C30" s="369"/>
+      <c r="D30" s="366"/>
+      <c r="E30" s="495"/>
+      <c r="F30" s="496"/>
+      <c r="G30" s="486"/>
+      <c r="H30" s="496"/>
+      <c r="I30" s="488"/>
+      <c r="J30" s="489"/>
+      <c r="K30" s="427"/>
+      <c r="L30" s="382"/>
     </row>
     <row r="31" spans="1:12" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="445"/>
-      <c r="B31" s="446"/>
-      <c r="C31" s="446"/>
-      <c r="D31" s="447"/>
-      <c r="E31" s="447"/>
-      <c r="F31" s="448"/>
-      <c r="G31" s="449"/>
-      <c r="H31" s="450"/>
-      <c r="I31" s="451"/>
-      <c r="J31" s="499"/>
-      <c r="K31" s="383"/>
-      <c r="L31" s="383"/>
+      <c r="A31" s="437"/>
+      <c r="B31" s="490"/>
+      <c r="C31" s="490"/>
+      <c r="D31" s="491"/>
+      <c r="E31" s="497"/>
+      <c r="F31" s="498"/>
+      <c r="G31" s="492"/>
+      <c r="H31" s="499"/>
+      <c r="I31" s="493"/>
+      <c r="J31" s="494"/>
+      <c r="K31" s="382"/>
+      <c r="L31" s="382"/>
     </row>
     <row r="32" spans="1:12" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="452" t="s">
+      <c r="A32" s="438" t="s">
         <v>126</v>
       </c>
-      <c r="B32" s="453"/>
-      <c r="C32" s="453"/>
-      <c r="D32" s="454"/>
-      <c r="E32" s="490">
+      <c r="B32" s="439"/>
+      <c r="C32" s="439"/>
+      <c r="D32" s="440"/>
+      <c r="E32" s="476">
         <f>SUM(E21:E31)</f>
-        <v>2726288</v>
-      </c>
-      <c r="F32" s="491">
+        <v>13283472</v>
+      </c>
+      <c r="F32" s="477">
         <f>SUM(F21:F31)</f>
-        <v>2844075</v>
-      </c>
-      <c r="G32" s="455">
+        <v>13862300</v>
+      </c>
+      <c r="G32" s="441">
         <f>SUM(G21:G31)</f>
-        <v>0.16929017857142858</v>
-      </c>
-      <c r="H32" s="456">
+        <v>0.82513690476190482</v>
+      </c>
+      <c r="H32" s="442">
         <f>A21-F32</f>
-        <v>13955925</v>
-      </c>
-      <c r="I32" s="457">
+        <v>2937700</v>
+      </c>
+      <c r="I32" s="443">
         <f>1-G32</f>
-        <v>0.83070982142857142</v>
-      </c>
-      <c r="J32" s="500"/>
-      <c r="K32" s="458"/>
-      <c r="L32" s="458"/>
+        <v>0.17486309523809518</v>
+      </c>
+      <c r="J32" s="483"/>
+      <c r="K32" s="444"/>
+      <c r="L32" s="444"/>
     </row>
     <row r="35" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A35" s="383"/>
-      <c r="B35" s="383"/>
-      <c r="C35" s="383"/>
-      <c r="D35" s="383"/>
-      <c r="E35" s="383"/>
-      <c r="F35" s="383"/>
-      <c r="G35" s="383"/>
-      <c r="H35" s="383"/>
-      <c r="I35" s="383"/>
-      <c r="J35" s="383"/>
+      <c r="A35" s="382"/>
+      <c r="B35" s="382"/>
+      <c r="C35" s="382"/>
+      <c r="D35" s="382"/>
+      <c r="E35" s="382"/>
+      <c r="F35" s="382"/>
+      <c r="G35" s="382"/>
+      <c r="H35" s="382"/>
+      <c r="I35" s="382"/>
+      <c r="J35" s="382"/>
     </row>
     <row r="36" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="522" t="s">
+      <c r="A36" s="521" t="s">
         <v>127</v>
       </c>
-      <c r="B36" s="522"/>
-      <c r="C36" s="522"/>
-      <c r="D36" s="522"/>
-      <c r="E36" s="383"/>
-      <c r="F36" s="383"/>
-      <c r="G36" s="383"/>
-      <c r="H36" s="383"/>
-      <c r="I36" s="383"/>
-      <c r="J36" s="383"/>
+      <c r="B36" s="521"/>
+      <c r="C36" s="521"/>
+      <c r="D36" s="521"/>
+      <c r="E36" s="382"/>
+      <c r="F36" s="382"/>
+      <c r="G36" s="382"/>
+      <c r="H36" s="382"/>
+      <c r="I36" s="382"/>
+      <c r="J36" s="382"/>
     </row>
     <row r="37" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A37" s="523" t="s">
+      <c r="A37" s="522" t="s">
         <v>128</v>
       </c>
-      <c r="B37" s="523"/>
-      <c r="C37" s="459" t="s">
+      <c r="B37" s="522"/>
+      <c r="C37" s="445" t="s">
         <v>129</v>
       </c>
-      <c r="D37" s="459" t="s">
+      <c r="D37" s="445" t="s">
         <v>130</v>
       </c>
-      <c r="E37" s="383"/>
-      <c r="F37" s="383"/>
-      <c r="G37" s="383"/>
-      <c r="H37" s="383"/>
-      <c r="I37" s="383"/>
-      <c r="J37" s="383"/>
+      <c r="E37" s="382"/>
+      <c r="F37" s="382"/>
+      <c r="G37" s="382"/>
+      <c r="H37" s="382"/>
+      <c r="I37" s="382"/>
+      <c r="J37" s="382"/>
     </row>
     <row r="38" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A38" s="524">
+      <c r="A38" s="523">
         <f>A21-F32</f>
-        <v>13955925</v>
-      </c>
-      <c r="B38" s="525"/>
-      <c r="C38" s="460">
+        <v>2937700</v>
+      </c>
+      <c r="B38" s="524"/>
+      <c r="C38" s="446">
         <f>1-G32</f>
-        <v>0.83070982142857142</v>
-      </c>
-      <c r="D38" s="461">
+        <v>0.17486309523809518</v>
+      </c>
+      <c r="D38" s="447">
         <f>(C38/0.8)*100</f>
-        <v>103.83872767857143</v>
-      </c>
-      <c r="E38" s="462" t="s">
+        <v>21.857886904761898</v>
+      </c>
+      <c r="E38" s="448" t="s">
         <v>131</v>
       </c>
-      <c r="F38" s="462"/>
-      <c r="G38" s="462"/>
-      <c r="H38" s="462"/>
-      <c r="I38" s="462"/>
-      <c r="J38" s="462"/>
+      <c r="F38" s="448"/>
+      <c r="G38" s="448"/>
+      <c r="H38" s="448"/>
+      <c r="I38" s="448"/>
+      <c r="J38" s="448"/>
     </row>
     <row r="39" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A39" s="383"/>
-      <c r="B39" s="383"/>
-      <c r="C39" s="383"/>
-      <c r="D39" s="383"/>
-      <c r="E39" s="383"/>
-      <c r="F39" s="383"/>
+      <c r="A39" s="382"/>
+      <c r="B39" s="382"/>
+      <c r="C39" s="382"/>
+      <c r="D39" s="382"/>
+      <c r="E39" s="382"/>
+      <c r="F39" s="382"/>
     </row>
     <row r="40" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A40" s="383"/>
-      <c r="B40" s="383"/>
-      <c r="C40" s="383"/>
-      <c r="D40" s="383"/>
-      <c r="E40" s="383"/>
-      <c r="F40" s="383"/>
-      <c r="G40" s="383"/>
-      <c r="H40" s="383"/>
-      <c r="I40" s="383"/>
-      <c r="J40" s="383"/>
+      <c r="A40" s="382"/>
+      <c r="B40" s="382"/>
+      <c r="C40" s="382"/>
+      <c r="D40" s="382"/>
+      <c r="E40" s="382"/>
+      <c r="F40" s="382"/>
+      <c r="G40" s="382"/>
+      <c r="H40" s="382"/>
+      <c r="I40" s="382"/>
+      <c r="J40" s="382"/>
       <c r="K40" t="s">
         <v>42</v>
       </c>
     </row>
     <row r="41" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A41" s="383"/>
-      <c r="B41" s="463"/>
-      <c r="C41" s="463"/>
-      <c r="D41" s="383"/>
-      <c r="E41" s="383"/>
-      <c r="F41" s="383"/>
-      <c r="G41" s="383"/>
-      <c r="H41" s="383"/>
-      <c r="I41" s="383"/>
-      <c r="J41" s="383"/>
+      <c r="A41" s="382"/>
+      <c r="B41" s="449"/>
+      <c r="C41" s="449"/>
+      <c r="D41" s="382"/>
+      <c r="E41" s="382"/>
+      <c r="F41" s="382"/>
+      <c r="G41" s="382"/>
+      <c r="H41" s="382"/>
+      <c r="I41" s="382"/>
+      <c r="J41" s="382"/>
     </row>
     <row r="42" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A42" s="464"/>
-      <c r="B42" s="464"/>
-      <c r="C42" s="464"/>
-      <c r="D42" s="464"/>
-      <c r="E42" s="464"/>
-      <c r="F42" s="464"/>
-      <c r="G42" s="464"/>
-      <c r="H42" s="464"/>
-      <c r="I42" s="526"/>
-      <c r="J42" s="527"/>
+      <c r="A42" s="450"/>
+      <c r="B42" s="450"/>
+      <c r="C42" s="450"/>
+      <c r="D42" s="450"/>
+      <c r="E42" s="450"/>
+      <c r="F42" s="450"/>
+      <c r="G42" s="450"/>
+      <c r="H42" s="450"/>
+      <c r="I42" s="525"/>
+      <c r="J42" s="526"/>
     </row>
     <row r="43" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A43" s="465"/>
-      <c r="B43" s="466"/>
-      <c r="C43" s="466"/>
-      <c r="D43" s="383"/>
-      <c r="E43" s="383"/>
-      <c r="F43" s="466"/>
-      <c r="G43" s="413"/>
-      <c r="H43" s="466"/>
+      <c r="A43" s="451"/>
+      <c r="B43" s="452"/>
+      <c r="C43" s="452"/>
+      <c r="D43" s="382"/>
+      <c r="E43" s="382"/>
+      <c r="F43" s="452"/>
+      <c r="G43" s="412"/>
+      <c r="H43" s="452"/>
     </row>
     <row r="44" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A44" s="465"/>
-      <c r="B44" s="466"/>
-      <c r="C44" s="466"/>
-      <c r="D44" s="466"/>
-      <c r="E44" s="466"/>
-      <c r="F44" s="466"/>
-      <c r="G44" s="413"/>
-      <c r="H44" s="466"/>
+      <c r="A44" s="451"/>
+      <c r="B44" s="452"/>
+      <c r="C44" s="452"/>
+      <c r="D44" s="452"/>
+      <c r="E44" s="452"/>
+      <c r="F44" s="452"/>
+      <c r="G44" s="412"/>
+      <c r="H44" s="452"/>
     </row>
     <row r="45" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A45" s="465"/>
-      <c r="B45" s="466"/>
-      <c r="C45" s="466"/>
-      <c r="D45" s="383"/>
-      <c r="E45" s="383"/>
-      <c r="F45" s="466"/>
-      <c r="G45" s="413"/>
-      <c r="H45" s="466"/>
+      <c r="A45" s="451"/>
+      <c r="B45" s="452"/>
+      <c r="C45" s="452"/>
+      <c r="D45" s="382"/>
+      <c r="E45" s="382"/>
+      <c r="F45" s="452"/>
+      <c r="G45" s="412"/>
+      <c r="H45" s="452"/>
     </row>
     <row r="46" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A46" s="465"/>
-      <c r="B46" s="466"/>
-      <c r="C46" s="466"/>
-      <c r="D46" s="466"/>
-      <c r="E46" s="466"/>
-      <c r="F46" s="466"/>
-      <c r="G46" s="413"/>
-      <c r="H46" s="466"/>
+      <c r="A46" s="451"/>
+      <c r="B46" s="452"/>
+      <c r="C46" s="452"/>
+      <c r="D46" s="452"/>
+      <c r="E46" s="452"/>
+      <c r="F46" s="452"/>
+      <c r="G46" s="412"/>
+      <c r="H46" s="452"/>
     </row>
     <row r="47" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A47" s="465"/>
-      <c r="B47" s="466"/>
-      <c r="C47" s="466"/>
-      <c r="D47" s="383"/>
-      <c r="E47" s="383"/>
-      <c r="F47" s="466"/>
-      <c r="G47" s="413"/>
-      <c r="H47" s="466"/>
+      <c r="A47" s="451"/>
+      <c r="B47" s="452"/>
+      <c r="C47" s="452"/>
+      <c r="D47" s="382"/>
+      <c r="E47" s="382"/>
+      <c r="F47" s="452"/>
+      <c r="G47" s="412"/>
+      <c r="H47" s="452"/>
     </row>
     <row r="48" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A48" s="465"/>
-      <c r="B48" s="466"/>
-      <c r="C48" s="403"/>
-      <c r="D48" s="467"/>
-      <c r="E48" s="467"/>
-      <c r="F48" s="403"/>
-      <c r="G48" s="403"/>
-      <c r="H48" s="403"/>
+      <c r="A48" s="451"/>
+      <c r="B48" s="452"/>
+      <c r="C48" s="402"/>
+      <c r="D48" s="453"/>
+      <c r="E48" s="453"/>
+      <c r="F48" s="402"/>
+      <c r="G48" s="402"/>
+      <c r="H48" s="402"/>
     </row>
     <row r="49" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A49" s="465"/>
-      <c r="B49" s="466"/>
-      <c r="C49" s="466"/>
-      <c r="D49" s="466"/>
-      <c r="E49" s="466"/>
-      <c r="F49" s="466"/>
-      <c r="G49" s="413"/>
-      <c r="H49" s="466"/>
+      <c r="A49" s="451"/>
+      <c r="B49" s="452"/>
+      <c r="C49" s="452"/>
+      <c r="D49" s="452"/>
+      <c r="E49" s="452"/>
+      <c r="F49" s="452"/>
+      <c r="G49" s="412"/>
+      <c r="H49" s="452"/>
     </row>
     <row r="50" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A50" s="465"/>
-      <c r="B50" s="466"/>
-      <c r="C50" s="466"/>
-      <c r="D50" s="466"/>
-      <c r="E50" s="466"/>
-      <c r="F50" s="466"/>
-      <c r="G50" s="413"/>
-      <c r="H50" s="466"/>
+      <c r="A50" s="451"/>
+      <c r="B50" s="452"/>
+      <c r="C50" s="452"/>
+      <c r="D50" s="452"/>
+      <c r="E50" s="452"/>
+      <c r="F50" s="452"/>
+      <c r="G50" s="412"/>
+      <c r="H50" s="452"/>
     </row>
     <row r="51" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A51" s="465"/>
-      <c r="B51" s="466"/>
-      <c r="C51" s="466"/>
-      <c r="D51" s="383"/>
-      <c r="E51" s="383"/>
-      <c r="F51" s="466"/>
-      <c r="G51" s="413"/>
-      <c r="H51" s="466"/>
+      <c r="A51" s="451"/>
+      <c r="B51" s="452"/>
+      <c r="C51" s="452"/>
+      <c r="D51" s="382"/>
+      <c r="E51" s="382"/>
+      <c r="F51" s="452"/>
+      <c r="G51" s="412"/>
+      <c r="H51" s="452"/>
     </row>
     <row r="52" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A52" s="383"/>
-      <c r="B52" s="519"/>
-      <c r="C52" s="519"/>
-      <c r="D52" s="520"/>
-      <c r="E52" s="462"/>
-      <c r="F52" s="383"/>
-      <c r="G52" s="383"/>
-      <c r="H52" s="383"/>
-      <c r="I52" s="383"/>
-      <c r="J52" s="383"/>
+      <c r="A52" s="382"/>
+      <c r="B52" s="518"/>
+      <c r="C52" s="518"/>
+      <c r="D52" s="519"/>
+      <c r="E52" s="448"/>
+      <c r="F52" s="382"/>
+      <c r="G52" s="382"/>
+      <c r="H52" s="382"/>
+      <c r="I52" s="382"/>
+      <c r="J52" s="382"/>
     </row>
     <row r="53" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A53" s="464"/>
-      <c r="B53" s="464"/>
-      <c r="C53" s="464"/>
-      <c r="D53" s="464"/>
-      <c r="E53" s="464"/>
-      <c r="F53" s="464"/>
-      <c r="G53" s="464"/>
-      <c r="H53" s="464"/>
-      <c r="I53" s="526"/>
-      <c r="J53" s="527"/>
+      <c r="A53" s="450"/>
+      <c r="B53" s="450"/>
+      <c r="C53" s="450"/>
+      <c r="D53" s="450"/>
+      <c r="E53" s="450"/>
+      <c r="F53" s="450"/>
+      <c r="G53" s="450"/>
+      <c r="H53" s="450"/>
+      <c r="I53" s="525"/>
+      <c r="J53" s="526"/>
     </row>
     <row r="54" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A54" s="465"/>
-      <c r="B54" s="383"/>
-      <c r="C54" s="383"/>
-      <c r="D54" s="383"/>
-      <c r="E54" s="383"/>
-      <c r="F54" s="413"/>
-      <c r="G54" s="413"/>
-      <c r="H54" s="466"/>
-      <c r="I54" s="528"/>
-      <c r="J54" s="528"/>
+      <c r="A54" s="451"/>
+      <c r="B54" s="382"/>
+      <c r="C54" s="382"/>
+      <c r="D54" s="382"/>
+      <c r="E54" s="382"/>
+      <c r="F54" s="412"/>
+      <c r="G54" s="412"/>
+      <c r="H54" s="452"/>
+      <c r="I54" s="527"/>
+      <c r="J54" s="527"/>
     </row>
     <row r="55" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A55" s="465"/>
-      <c r="B55" s="383"/>
-      <c r="C55" s="383"/>
-      <c r="D55" s="403"/>
-      <c r="E55" s="403"/>
-      <c r="F55" s="403"/>
-      <c r="G55" s="403"/>
-      <c r="H55" s="403"/>
-      <c r="I55" s="528"/>
-      <c r="J55" s="528"/>
+      <c r="A55" s="451"/>
+      <c r="B55" s="382"/>
+      <c r="C55" s="382"/>
+      <c r="D55" s="402"/>
+      <c r="E55" s="402"/>
+      <c r="F55" s="402"/>
+      <c r="G55" s="402"/>
+      <c r="H55" s="402"/>
+      <c r="I55" s="527"/>
+      <c r="J55" s="527"/>
     </row>
     <row r="56" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A56" s="383"/>
-      <c r="B56" s="383"/>
-      <c r="C56" s="383"/>
-      <c r="D56" s="383"/>
-      <c r="E56" s="383"/>
-      <c r="F56" s="383"/>
-      <c r="G56" s="383"/>
-      <c r="H56" s="383"/>
+      <c r="A56" s="382"/>
+      <c r="B56" s="382"/>
+      <c r="C56" s="382"/>
+      <c r="D56" s="382"/>
+      <c r="E56" s="382"/>
+      <c r="F56" s="382"/>
+      <c r="G56" s="382"/>
+      <c r="H56" s="382"/>
     </row>
     <row r="61" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="B61" s="526"/>
-      <c r="C61" s="527"/>
+      <c r="B61" s="525"/>
+      <c r="C61" s="526"/>
     </row>
     <row r="68" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B68" s="526"/>
-      <c r="C68" s="527"/>
+      <c r="B68" s="525"/>
+      <c r="C68" s="526"/>
     </row>
   </sheetData>
   <mergeCells count="11">
@@ -10577,47 +10722,47 @@
       <c r="J8" s="310"/>
     </row>
     <row r="11" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="530" t="s">
+      <c r="A11" s="529" t="s">
         <v>63</v>
       </c>
-      <c r="B11" s="530"/>
-      <c r="C11" s="530"/>
-      <c r="D11" s="530"/>
-      <c r="E11" s="530"/>
-      <c r="F11" s="530"/>
-      <c r="G11" s="530"/>
-      <c r="H11" s="530"/>
-      <c r="I11" s="530"/>
-      <c r="J11" s="530"/>
+      <c r="B11" s="529"/>
+      <c r="C11" s="529"/>
+      <c r="D11" s="529"/>
+      <c r="E11" s="529"/>
+      <c r="F11" s="529"/>
+      <c r="G11" s="529"/>
+      <c r="H11" s="529"/>
+      <c r="I11" s="529"/>
+      <c r="J11" s="529"/>
     </row>
     <row r="12" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="529" t="s">
+      <c r="A12" s="528" t="s">
         <v>73</v>
       </c>
-      <c r="B12" s="529"/>
-      <c r="C12" s="529"/>
-      <c r="D12" s="529"/>
-      <c r="E12" s="529"/>
-      <c r="F12" s="529"/>
-      <c r="G12" s="529"/>
-      <c r="H12" s="529"/>
-      <c r="I12" s="529"/>
-      <c r="J12" s="529"/>
+      <c r="B12" s="528"/>
+      <c r="C12" s="528"/>
+      <c r="D12" s="528"/>
+      <c r="E12" s="528"/>
+      <c r="F12" s="528"/>
+      <c r="G12" s="528"/>
+      <c r="H12" s="528"/>
+      <c r="I12" s="528"/>
+      <c r="J12" s="528"/>
     </row>
     <row r="13" spans="1:11" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="531" t="str">
+      <c r="A13" s="530" t="str">
         <f>Данные!A2</f>
         <v>III-2-82-450-1 (Банка 0,45 л.)</v>
       </c>
-      <c r="B13" s="530"/>
-      <c r="C13" s="530"/>
-      <c r="D13" s="530"/>
-      <c r="E13" s="530"/>
-      <c r="F13" s="530"/>
-      <c r="G13" s="530"/>
-      <c r="H13" s="530"/>
-      <c r="I13" s="530"/>
-      <c r="J13" s="530"/>
+      <c r="B13" s="529"/>
+      <c r="C13" s="529"/>
+      <c r="D13" s="529"/>
+      <c r="E13" s="529"/>
+      <c r="F13" s="529"/>
+      <c r="G13" s="529"/>
+      <c r="H13" s="529"/>
+      <c r="I13" s="529"/>
+      <c r="J13" s="529"/>
     </row>
     <row r="15" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A15" s="304" t="s">
@@ -10742,493 +10887,493 @@
       <c r="J21" s="305"/>
     </row>
     <row r="22" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="535" t="s">
+      <c r="A22" s="534" t="s">
         <v>64</v>
       </c>
-      <c r="B22" s="535" t="s">
+      <c r="B22" s="534" t="s">
         <v>65</v>
       </c>
-      <c r="C22" s="535"/>
-      <c r="D22" s="535"/>
-      <c r="E22" s="535" t="s">
+      <c r="C22" s="534"/>
+      <c r="D22" s="534"/>
+      <c r="E22" s="534" t="s">
         <v>66</v>
       </c>
-      <c r="F22" s="535"/>
-      <c r="G22" s="553" t="s">
+      <c r="F22" s="534"/>
+      <c r="G22" s="552" t="s">
         <v>67</v>
       </c>
-      <c r="H22" s="535" t="s">
+      <c r="H22" s="534" t="s">
         <v>68</v>
       </c>
-      <c r="I22" s="535"/>
-      <c r="J22" s="535"/>
+      <c r="I22" s="534"/>
+      <c r="J22" s="534"/>
     </row>
     <row r="23" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A23" s="535"/>
-      <c r="B23" s="535"/>
-      <c r="C23" s="535"/>
-      <c r="D23" s="535"/>
-      <c r="E23" s="535"/>
-      <c r="F23" s="535"/>
-      <c r="G23" s="553"/>
-      <c r="H23" s="535"/>
-      <c r="I23" s="535"/>
-      <c r="J23" s="535"/>
+      <c r="A23" s="534"/>
+      <c r="B23" s="534"/>
+      <c r="C23" s="534"/>
+      <c r="D23" s="534"/>
+      <c r="E23" s="534"/>
+      <c r="F23" s="534"/>
+      <c r="G23" s="552"/>
+      <c r="H23" s="534"/>
+      <c r="I23" s="534"/>
+      <c r="J23" s="534"/>
     </row>
     <row r="24" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A24" s="536">
+      <c r="A24" s="535">
         <v>1</v>
       </c>
-      <c r="B24" s="550" t="s">
+      <c r="B24" s="549" t="s">
         <v>43</v>
       </c>
-      <c r="C24" s="551"/>
-      <c r="D24" s="552"/>
-      <c r="E24" s="538" t="str">
+      <c r="C24" s="550"/>
+      <c r="D24" s="551"/>
+      <c r="E24" s="537" t="str">
         <f>Данные!C14</f>
         <v>III-2-82-450-1</v>
       </c>
-      <c r="F24" s="539"/>
-      <c r="G24" s="542">
+      <c r="F24" s="538"/>
+      <c r="G24" s="541">
         <f>Данные!B14</f>
         <v>24</v>
       </c>
-      <c r="H24" s="544"/>
-      <c r="I24" s="545"/>
-      <c r="J24" s="546"/>
+      <c r="H24" s="543"/>
+      <c r="I24" s="544"/>
+      <c r="J24" s="545"/>
     </row>
     <row r="25" spans="1:10" ht="40.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="537"/>
-      <c r="B25" s="532" t="str">
+      <c r="A25" s="536"/>
+      <c r="B25" s="531" t="str">
         <f>Данные!$A$30</f>
         <v>(к серийному формокомплекту Банка III-2-82-45-1)</v>
       </c>
-      <c r="C25" s="533"/>
-      <c r="D25" s="534"/>
-      <c r="E25" s="540"/>
-      <c r="F25" s="541"/>
-      <c r="G25" s="543"/>
-      <c r="H25" s="547"/>
-      <c r="I25" s="548"/>
-      <c r="J25" s="549"/>
+      <c r="C25" s="532"/>
+      <c r="D25" s="533"/>
+      <c r="E25" s="539"/>
+      <c r="F25" s="540"/>
+      <c r="G25" s="542"/>
+      <c r="H25" s="546"/>
+      <c r="I25" s="547"/>
+      <c r="J25" s="548"/>
     </row>
     <row r="26" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A26" s="536">
+      <c r="A26" s="535">
         <f>A24+1</f>
         <v>2</v>
       </c>
-      <c r="B26" s="554" t="s">
+      <c r="B26" s="553" t="s">
         <v>106</v>
       </c>
-      <c r="C26" s="555"/>
-      <c r="D26" s="556"/>
-      <c r="E26" s="538" t="str">
+      <c r="C26" s="554"/>
+      <c r="D26" s="555"/>
+      <c r="E26" s="537" t="str">
         <f>Данные!C15</f>
         <v>III-2-82-450-1</v>
       </c>
-      <c r="F26" s="539"/>
-      <c r="G26" s="542">
+      <c r="F26" s="538"/>
+      <c r="G26" s="541">
         <f>Данные!B15</f>
         <v>24</v>
       </c>
-      <c r="H26" s="544"/>
-      <c r="I26" s="545"/>
-      <c r="J26" s="546"/>
+      <c r="H26" s="543"/>
+      <c r="I26" s="544"/>
+      <c r="J26" s="545"/>
     </row>
     <row r="27" spans="1:10" ht="40.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="537"/>
-      <c r="B27" s="532" t="str">
+      <c r="A27" s="536"/>
+      <c r="B27" s="531" t="str">
         <f>Данные!$A$30</f>
         <v>(к серийному формокомплекту Банка III-2-82-45-1)</v>
       </c>
-      <c r="C27" s="533"/>
-      <c r="D27" s="534"/>
-      <c r="E27" s="540"/>
-      <c r="F27" s="541"/>
-      <c r="G27" s="543"/>
-      <c r="H27" s="547"/>
-      <c r="I27" s="548"/>
-      <c r="J27" s="549"/>
+      <c r="C27" s="532"/>
+      <c r="D27" s="533"/>
+      <c r="E27" s="539"/>
+      <c r="F27" s="540"/>
+      <c r="G27" s="542"/>
+      <c r="H27" s="546"/>
+      <c r="I27" s="547"/>
+      <c r="J27" s="548"/>
     </row>
     <row r="28" spans="1:10" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="536">
+      <c r="A28" s="535">
         <f t="shared" ref="A28" si="0">A26+1</f>
         <v>3</v>
       </c>
-      <c r="B28" s="554" t="s">
+      <c r="B28" s="553" t="s">
         <v>38</v>
       </c>
-      <c r="C28" s="555"/>
-      <c r="D28" s="556"/>
-      <c r="E28" s="538" t="str">
+      <c r="C28" s="554"/>
+      <c r="D28" s="555"/>
+      <c r="E28" s="537" t="str">
         <f>Данные!C16</f>
         <v>III-2-82-450-1</v>
       </c>
-      <c r="F28" s="539"/>
-      <c r="G28" s="542">
+      <c r="F28" s="538"/>
+      <c r="G28" s="541">
         <f>Данные!B16</f>
         <v>32</v>
       </c>
-      <c r="H28" s="544"/>
-      <c r="I28" s="545"/>
-      <c r="J28" s="546"/>
+      <c r="H28" s="543"/>
+      <c r="I28" s="544"/>
+      <c r="J28" s="545"/>
     </row>
     <row r="29" spans="1:10" ht="40.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="537"/>
-      <c r="B29" s="532" t="str">
+      <c r="A29" s="536"/>
+      <c r="B29" s="531" t="str">
         <f>Данные!$A$30</f>
         <v>(к серийному формокомплекту Банка III-2-82-45-1)</v>
       </c>
-      <c r="C29" s="533"/>
-      <c r="D29" s="534"/>
-      <c r="E29" s="540"/>
-      <c r="F29" s="541"/>
-      <c r="G29" s="543"/>
-      <c r="H29" s="547"/>
-      <c r="I29" s="548"/>
-      <c r="J29" s="549"/>
+      <c r="C29" s="532"/>
+      <c r="D29" s="533"/>
+      <c r="E29" s="539"/>
+      <c r="F29" s="540"/>
+      <c r="G29" s="542"/>
+      <c r="H29" s="546"/>
+      <c r="I29" s="547"/>
+      <c r="J29" s="548"/>
     </row>
     <row r="30" spans="1:10" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="536">
+      <c r="A30" s="535">
         <f t="shared" ref="A30" si="1">A28+1</f>
         <v>4</v>
       </c>
-      <c r="B30" s="554" t="s">
+      <c r="B30" s="553" t="s">
         <v>107</v>
       </c>
-      <c r="C30" s="555"/>
-      <c r="D30" s="556"/>
-      <c r="E30" s="538" t="str">
+      <c r="C30" s="554"/>
+      <c r="D30" s="555"/>
+      <c r="E30" s="537" t="str">
         <f>Данные!C17</f>
         <v>III-2-82-450-1</v>
       </c>
-      <c r="F30" s="539"/>
-      <c r="G30" s="542">
+      <c r="F30" s="538"/>
+      <c r="G30" s="541">
         <f>Данные!B17</f>
         <v>32</v>
       </c>
-      <c r="H30" s="544"/>
-      <c r="I30" s="545"/>
-      <c r="J30" s="546"/>
+      <c r="H30" s="543"/>
+      <c r="I30" s="544"/>
+      <c r="J30" s="545"/>
     </row>
     <row r="31" spans="1:10" ht="40.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="537"/>
-      <c r="B31" s="532" t="str">
+      <c r="A31" s="536"/>
+      <c r="B31" s="531" t="str">
         <f>Данные!$A$30</f>
         <v>(к серийному формокомплекту Банка III-2-82-45-1)</v>
       </c>
-      <c r="C31" s="533"/>
-      <c r="D31" s="534"/>
-      <c r="E31" s="557"/>
-      <c r="F31" s="541"/>
-      <c r="G31" s="543"/>
-      <c r="H31" s="547"/>
-      <c r="I31" s="548"/>
-      <c r="J31" s="549"/>
+      <c r="C31" s="532"/>
+      <c r="D31" s="533"/>
+      <c r="E31" s="556"/>
+      <c r="F31" s="540"/>
+      <c r="G31" s="542"/>
+      <c r="H31" s="546"/>
+      <c r="I31" s="547"/>
+      <c r="J31" s="548"/>
     </row>
     <row r="32" spans="1:10" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="536">
+      <c r="A32" s="535">
         <f t="shared" ref="A32" si="2">A30+1</f>
         <v>5</v>
       </c>
-      <c r="B32" s="554" t="s">
+      <c r="B32" s="553" t="s">
         <v>47</v>
       </c>
-      <c r="C32" s="555"/>
-      <c r="D32" s="556"/>
-      <c r="E32" s="538" t="str">
+      <c r="C32" s="554"/>
+      <c r="D32" s="555"/>
+      <c r="E32" s="537" t="str">
         <f>Данные!C18</f>
         <v>III-2-82-450-1</v>
       </c>
-      <c r="F32" s="539"/>
-      <c r="G32" s="542">
+      <c r="F32" s="538"/>
+      <c r="G32" s="541">
         <f>Данные!B18</f>
         <v>80</v>
       </c>
-      <c r="H32" s="544"/>
-      <c r="I32" s="545"/>
-      <c r="J32" s="546"/>
+      <c r="H32" s="543"/>
+      <c r="I32" s="544"/>
+      <c r="J32" s="545"/>
     </row>
     <row r="33" spans="1:10" ht="40.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="537"/>
-      <c r="B33" s="532" t="str">
+      <c r="A33" s="536"/>
+      <c r="B33" s="531" t="str">
         <f>Данные!$A$30</f>
         <v>(к серийному формокомплекту Банка III-2-82-45-1)</v>
       </c>
-      <c r="C33" s="533"/>
-      <c r="D33" s="534"/>
-      <c r="E33" s="557"/>
-      <c r="F33" s="541"/>
-      <c r="G33" s="543"/>
-      <c r="H33" s="547"/>
-      <c r="I33" s="548"/>
-      <c r="J33" s="549"/>
+      <c r="C33" s="532"/>
+      <c r="D33" s="533"/>
+      <c r="E33" s="556"/>
+      <c r="F33" s="540"/>
+      <c r="G33" s="542"/>
+      <c r="H33" s="546"/>
+      <c r="I33" s="547"/>
+      <c r="J33" s="548"/>
     </row>
     <row r="34" spans="1:10" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="536">
+      <c r="A34" s="535">
         <f t="shared" ref="A34" si="3">A32+1</f>
         <v>6</v>
       </c>
-      <c r="B34" s="554" t="s">
+      <c r="B34" s="553" t="s">
         <v>89</v>
       </c>
-      <c r="C34" s="555"/>
-      <c r="D34" s="556"/>
-      <c r="E34" s="538" t="str">
+      <c r="C34" s="554"/>
+      <c r="D34" s="555"/>
+      <c r="E34" s="537" t="str">
         <f>Данные!C19</f>
         <v>III-2-82-450-1</v>
       </c>
-      <c r="F34" s="539"/>
-      <c r="G34" s="542">
+      <c r="F34" s="538"/>
+      <c r="G34" s="541">
         <f>Данные!B19</f>
         <v>150</v>
       </c>
-      <c r="H34" s="544"/>
-      <c r="I34" s="545"/>
-      <c r="J34" s="546"/>
+      <c r="H34" s="543"/>
+      <c r="I34" s="544"/>
+      <c r="J34" s="545"/>
     </row>
     <row r="35" spans="1:10" ht="40.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="537"/>
-      <c r="B35" s="532" t="str">
+      <c r="A35" s="536"/>
+      <c r="B35" s="531" t="str">
         <f>Данные!$A$30</f>
         <v>(к серийному формокомплекту Банка III-2-82-45-1)</v>
       </c>
-      <c r="C35" s="533"/>
-      <c r="D35" s="534"/>
-      <c r="E35" s="557"/>
-      <c r="F35" s="541"/>
-      <c r="G35" s="543"/>
-      <c r="H35" s="547"/>
-      <c r="I35" s="548"/>
-      <c r="J35" s="549"/>
+      <c r="C35" s="532"/>
+      <c r="D35" s="533"/>
+      <c r="E35" s="556"/>
+      <c r="F35" s="540"/>
+      <c r="G35" s="542"/>
+      <c r="H35" s="546"/>
+      <c r="I35" s="547"/>
+      <c r="J35" s="548"/>
     </row>
     <row r="36" spans="1:10" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="536">
+      <c r="A36" s="535">
         <f t="shared" ref="A36" si="4">A34+1</f>
         <v>7</v>
       </c>
-      <c r="B36" s="554" t="s">
+      <c r="B36" s="553" t="s">
         <v>51</v>
       </c>
-      <c r="C36" s="555"/>
-      <c r="D36" s="556"/>
-      <c r="E36" s="538" t="str">
+      <c r="C36" s="554"/>
+      <c r="D36" s="555"/>
+      <c r="E36" s="537" t="str">
         <f>Данные!C20</f>
         <v>III-2-82-450-1</v>
       </c>
-      <c r="F36" s="539"/>
-      <c r="G36" s="542">
+      <c r="F36" s="538"/>
+      <c r="G36" s="541">
         <f>Данные!B20</f>
         <v>60</v>
       </c>
-      <c r="H36" s="544"/>
-      <c r="I36" s="545"/>
-      <c r="J36" s="546"/>
+      <c r="H36" s="543"/>
+      <c r="I36" s="544"/>
+      <c r="J36" s="545"/>
     </row>
     <row r="37" spans="1:10" ht="40.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="537"/>
-      <c r="B37" s="532" t="str">
+      <c r="A37" s="536"/>
+      <c r="B37" s="531" t="str">
         <f>Данные!$A$30</f>
         <v>(к серийному формокомплекту Банка III-2-82-45-1)</v>
       </c>
-      <c r="C37" s="533"/>
-      <c r="D37" s="534"/>
-      <c r="E37" s="557"/>
-      <c r="F37" s="541"/>
-      <c r="G37" s="543"/>
-      <c r="H37" s="547"/>
-      <c r="I37" s="548"/>
-      <c r="J37" s="549"/>
+      <c r="C37" s="532"/>
+      <c r="D37" s="533"/>
+      <c r="E37" s="556"/>
+      <c r="F37" s="540"/>
+      <c r="G37" s="542"/>
+      <c r="H37" s="546"/>
+      <c r="I37" s="547"/>
+      <c r="J37" s="548"/>
     </row>
     <row r="38" spans="1:10" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="536">
+      <c r="A38" s="535">
         <f t="shared" ref="A38" si="5">A36+1</f>
         <v>8</v>
       </c>
-      <c r="B38" s="554" t="s">
+      <c r="B38" s="553" t="s">
         <v>52</v>
       </c>
-      <c r="C38" s="555"/>
-      <c r="D38" s="556"/>
-      <c r="E38" s="538">
+      <c r="C38" s="554"/>
+      <c r="D38" s="555"/>
+      <c r="E38" s="537">
         <f>Данные!C21</f>
         <v>0</v>
       </c>
-      <c r="F38" s="539"/>
-      <c r="G38" s="542">
+      <c r="F38" s="538"/>
+      <c r="G38" s="541">
         <f>Данные!B21</f>
         <v>0</v>
       </c>
-      <c r="H38" s="544"/>
-      <c r="I38" s="545"/>
-      <c r="J38" s="546"/>
+      <c r="H38" s="543"/>
+      <c r="I38" s="544"/>
+      <c r="J38" s="545"/>
     </row>
     <row r="39" spans="1:10" ht="40.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="537"/>
-      <c r="B39" s="532" t="str">
+      <c r="A39" s="536"/>
+      <c r="B39" s="531" t="str">
         <f>Данные!$A$30</f>
         <v>(к серийному формокомплекту Банка III-2-82-45-1)</v>
       </c>
-      <c r="C39" s="533"/>
-      <c r="D39" s="534"/>
-      <c r="E39" s="557"/>
-      <c r="F39" s="541"/>
-      <c r="G39" s="543"/>
-      <c r="H39" s="547"/>
-      <c r="I39" s="548"/>
-      <c r="J39" s="549"/>
+      <c r="C39" s="532"/>
+      <c r="D39" s="533"/>
+      <c r="E39" s="556"/>
+      <c r="F39" s="540"/>
+      <c r="G39" s="542"/>
+      <c r="H39" s="546"/>
+      <c r="I39" s="547"/>
+      <c r="J39" s="548"/>
     </row>
     <row r="40" spans="1:10" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A40" s="536">
+      <c r="A40" s="535">
         <f t="shared" ref="A40" si="6">A38+1</f>
         <v>9</v>
       </c>
-      <c r="B40" s="554" t="s">
+      <c r="B40" s="553" t="s">
         <v>55</v>
       </c>
-      <c r="C40" s="555"/>
-      <c r="D40" s="556"/>
-      <c r="E40" s="538">
+      <c r="C40" s="554"/>
+      <c r="D40" s="555"/>
+      <c r="E40" s="537">
         <f>Данные!C23</f>
         <v>0</v>
       </c>
-      <c r="F40" s="539"/>
-      <c r="G40" s="542">
+      <c r="F40" s="538"/>
+      <c r="G40" s="541">
         <f>Данные!B23</f>
         <v>0</v>
       </c>
-      <c r="H40" s="544"/>
-      <c r="I40" s="545"/>
-      <c r="J40" s="546"/>
+      <c r="H40" s="543"/>
+      <c r="I40" s="544"/>
+      <c r="J40" s="545"/>
     </row>
     <row r="41" spans="1:10" ht="40.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A41" s="537"/>
-      <c r="B41" s="532" t="str">
+      <c r="A41" s="536"/>
+      <c r="B41" s="531" t="str">
         <f>Данные!$A$30</f>
         <v>(к серийному формокомплекту Банка III-2-82-45-1)</v>
       </c>
-      <c r="C41" s="533"/>
-      <c r="D41" s="534"/>
-      <c r="E41" s="557"/>
-      <c r="F41" s="541"/>
-      <c r="G41" s="543"/>
-      <c r="H41" s="547"/>
-      <c r="I41" s="548"/>
-      <c r="J41" s="549"/>
+      <c r="C41" s="532"/>
+      <c r="D41" s="533"/>
+      <c r="E41" s="556"/>
+      <c r="F41" s="540"/>
+      <c r="G41" s="542"/>
+      <c r="H41" s="546"/>
+      <c r="I41" s="547"/>
+      <c r="J41" s="548"/>
     </row>
     <row r="42" spans="1:10" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A42" s="536">
+      <c r="A42" s="535">
         <f t="shared" ref="A42" si="7">A40+1</f>
         <v>10</v>
       </c>
-      <c r="B42" s="554" t="s">
+      <c r="B42" s="553" t="s">
         <v>54</v>
       </c>
-      <c r="C42" s="555"/>
-      <c r="D42" s="556"/>
-      <c r="E42" s="538" t="str">
+      <c r="C42" s="554"/>
+      <c r="D42" s="555"/>
+      <c r="E42" s="537" t="str">
         <f>Данные!C26</f>
         <v>III-2-82-450-1</v>
       </c>
-      <c r="F42" s="539"/>
-      <c r="G42" s="542">
+      <c r="F42" s="538"/>
+      <c r="G42" s="541">
         <f>Данные!B26</f>
         <v>0</v>
       </c>
-      <c r="H42" s="544"/>
-      <c r="I42" s="545"/>
-      <c r="J42" s="546"/>
+      <c r="H42" s="543"/>
+      <c r="I42" s="544"/>
+      <c r="J42" s="545"/>
     </row>
     <row r="43" spans="1:10" ht="40.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A43" s="537"/>
-      <c r="B43" s="532" t="str">
+      <c r="A43" s="536"/>
+      <c r="B43" s="531" t="str">
         <f>Данные!$A$30</f>
         <v>(к серийному формокомплекту Банка III-2-82-45-1)</v>
       </c>
-      <c r="C43" s="533"/>
-      <c r="D43" s="534"/>
-      <c r="E43" s="557"/>
-      <c r="F43" s="541"/>
-      <c r="G43" s="543"/>
-      <c r="H43" s="547"/>
-      <c r="I43" s="548"/>
-      <c r="J43" s="549"/>
+      <c r="C43" s="532"/>
+      <c r="D43" s="533"/>
+      <c r="E43" s="556"/>
+      <c r="F43" s="540"/>
+      <c r="G43" s="542"/>
+      <c r="H43" s="546"/>
+      <c r="I43" s="547"/>
+      <c r="J43" s="548"/>
     </row>
     <row r="44" spans="1:10" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A44" s="536">
+      <c r="A44" s="535">
         <f t="shared" ref="A44" si="8">A42+1</f>
         <v>11</v>
       </c>
-      <c r="B44" s="554" t="s">
+      <c r="B44" s="553" t="s">
         <v>104</v>
       </c>
-      <c r="C44" s="555"/>
-      <c r="D44" s="556"/>
-      <c r="E44" s="538" t="str">
+      <c r="C44" s="554"/>
+      <c r="D44" s="555"/>
+      <c r="E44" s="537" t="str">
         <f>Данные!C27</f>
         <v>III-2-82-450-1</v>
       </c>
-      <c r="F44" s="539"/>
-      <c r="G44" s="542">
+      <c r="F44" s="538"/>
+      <c r="G44" s="541">
         <f>Данные!B27</f>
         <v>0</v>
       </c>
-      <c r="H44" s="544"/>
-      <c r="I44" s="545"/>
-      <c r="J44" s="546"/>
+      <c r="H44" s="543"/>
+      <c r="I44" s="544"/>
+      <c r="J44" s="545"/>
     </row>
     <row r="45" spans="1:10" ht="40.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A45" s="537"/>
-      <c r="B45" s="532" t="str">
+      <c r="A45" s="536"/>
+      <c r="B45" s="531" t="str">
         <f>Данные!$A$30</f>
         <v>(к серийному формокомплекту Банка III-2-82-45-1)</v>
       </c>
-      <c r="C45" s="533"/>
-      <c r="D45" s="534"/>
-      <c r="E45" s="557"/>
-      <c r="F45" s="541"/>
-      <c r="G45" s="543"/>
-      <c r="H45" s="547"/>
-      <c r="I45" s="548"/>
-      <c r="J45" s="549"/>
+      <c r="C45" s="532"/>
+      <c r="D45" s="533"/>
+      <c r="E45" s="556"/>
+      <c r="F45" s="540"/>
+      <c r="G45" s="542"/>
+      <c r="H45" s="546"/>
+      <c r="I45" s="547"/>
+      <c r="J45" s="548"/>
     </row>
     <row r="46" spans="1:10" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A46" s="536">
+      <c r="A46" s="535">
         <f t="shared" ref="A46" si="9">A44+1</f>
         <v>12</v>
       </c>
-      <c r="B46" s="554" t="s">
+      <c r="B46" s="553" t="s">
         <v>69</v>
       </c>
-      <c r="C46" s="555"/>
-      <c r="D46" s="556"/>
-      <c r="E46" s="538" t="str">
+      <c r="C46" s="554"/>
+      <c r="D46" s="555"/>
+      <c r="E46" s="537" t="str">
         <f>Данные!C24</f>
         <v>III-2-82-450-1</v>
       </c>
-      <c r="F46" s="539"/>
-      <c r="G46" s="542">
+      <c r="F46" s="538"/>
+      <c r="G46" s="541">
         <f>Данные!B24</f>
         <v>8</v>
       </c>
-      <c r="H46" s="544"/>
-      <c r="I46" s="545"/>
-      <c r="J46" s="546"/>
+      <c r="H46" s="543"/>
+      <c r="I46" s="544"/>
+      <c r="J46" s="545"/>
     </row>
     <row r="47" spans="1:10" ht="40.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A47" s="537"/>
-      <c r="B47" s="532" t="str">
+      <c r="A47" s="536"/>
+      <c r="B47" s="531" t="str">
         <f>Данные!$A$30</f>
         <v>(к серийному формокомплекту Банка III-2-82-45-1)</v>
       </c>
-      <c r="C47" s="533"/>
-      <c r="D47" s="534"/>
-      <c r="E47" s="557"/>
-      <c r="F47" s="541"/>
-      <c r="G47" s="543"/>
-      <c r="H47" s="547"/>
-      <c r="I47" s="548"/>
-      <c r="J47" s="549"/>
+      <c r="C47" s="532"/>
+      <c r="D47" s="533"/>
+      <c r="E47" s="556"/>
+      <c r="F47" s="540"/>
+      <c r="G47" s="542"/>
+      <c r="H47" s="546"/>
+      <c r="I47" s="547"/>
+      <c r="J47" s="548"/>
     </row>
     <row r="48" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A48" s="304"/>
@@ -11491,47 +11636,47 @@
     </row>
     <row r="2" spans="1:19" ht="23.25" x14ac:dyDescent="0.2">
       <c r="A2" s="65"/>
-      <c r="B2" s="572"/>
-      <c r="C2" s="573"/>
-      <c r="D2" s="574"/>
-      <c r="E2" s="581" t="s">
+      <c r="B2" s="571"/>
+      <c r="C2" s="572"/>
+      <c r="D2" s="573"/>
+      <c r="E2" s="580" t="s">
         <v>10</v>
       </c>
-      <c r="F2" s="582"/>
-      <c r="G2" s="582"/>
-      <c r="H2" s="583"/>
-      <c r="I2" s="588" t="s">
+      <c r="F2" s="581"/>
+      <c r="G2" s="581"/>
+      <c r="H2" s="582"/>
+      <c r="I2" s="587" t="s">
         <v>11</v>
       </c>
-      <c r="J2" s="589"/>
-      <c r="K2" s="592">
+      <c r="J2" s="588"/>
+      <c r="K2" s="591">
         <f>Данные!B14</f>
         <v>24</v>
       </c>
-      <c r="L2" s="593"/>
+      <c r="L2" s="592"/>
       <c r="M2" s="66"/>
       <c r="N2" s="67"/>
       <c r="O2" s="68"/>
-      <c r="P2" s="584"/>
-      <c r="Q2" s="584"/>
+      <c r="P2" s="583"/>
+      <c r="Q2" s="583"/>
       <c r="R2" s="69"/>
       <c r="S2" s="70"/>
     </row>
     <row r="3" spans="1:19" ht="24" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A3" s="65"/>
-      <c r="B3" s="575"/>
-      <c r="C3" s="576"/>
-      <c r="D3" s="577"/>
-      <c r="E3" s="585" t="s">
+      <c r="B3" s="574"/>
+      <c r="C3" s="575"/>
+      <c r="D3" s="576"/>
+      <c r="E3" s="584" t="s">
         <v>43</v>
       </c>
-      <c r="F3" s="586"/>
-      <c r="G3" s="586"/>
-      <c r="H3" s="587"/>
-      <c r="I3" s="590"/>
-      <c r="J3" s="591"/>
-      <c r="K3" s="594"/>
-      <c r="L3" s="595"/>
+      <c r="F3" s="585"/>
+      <c r="G3" s="585"/>
+      <c r="H3" s="586"/>
+      <c r="I3" s="589"/>
+      <c r="J3" s="590"/>
+      <c r="K3" s="593"/>
+      <c r="L3" s="594"/>
       <c r="M3" s="72"/>
       <c r="N3" s="71"/>
       <c r="O3" s="71"/>
@@ -11542,9 +11687,9 @@
     </row>
     <row r="4" spans="1:19" ht="24" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A4" s="65"/>
-      <c r="B4" s="578"/>
-      <c r="C4" s="579"/>
-      <c r="D4" s="580"/>
+      <c r="B4" s="577"/>
+      <c r="C4" s="578"/>
+      <c r="D4" s="579"/>
       <c r="E4" s="16"/>
       <c r="F4" s="16"/>
       <c r="G4" s="16"/>
@@ -11563,22 +11708,22 @@
     </row>
     <row r="5" spans="1:19" ht="24.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A5" s="65"/>
-      <c r="B5" s="599" t="s">
+      <c r="B5" s="598" t="s">
         <v>13</v>
       </c>
-      <c r="C5" s="600"/>
-      <c r="D5" s="511" t="str">
+      <c r="C5" s="599"/>
+      <c r="D5" s="510" t="str">
         <f>Данные!$A5</f>
         <v>PCI</v>
       </c>
-      <c r="E5" s="512"/>
-      <c r="F5" s="512"/>
-      <c r="G5" s="512"/>
-      <c r="H5" s="513"/>
-      <c r="I5" s="561"/>
-      <c r="J5" s="562"/>
-      <c r="K5" s="512"/>
-      <c r="L5" s="513"/>
+      <c r="E5" s="511"/>
+      <c r="F5" s="511"/>
+      <c r="G5" s="511"/>
+      <c r="H5" s="512"/>
+      <c r="I5" s="560"/>
+      <c r="J5" s="561"/>
+      <c r="K5" s="511"/>
+      <c r="L5" s="512"/>
       <c r="M5" s="74"/>
       <c r="N5" s="71"/>
       <c r="O5" s="71"/>
@@ -11589,22 +11734,22 @@
     </row>
     <row r="6" spans="1:19" ht="24.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A6" s="65"/>
-      <c r="B6" s="599" t="s">
+      <c r="B6" s="598" t="s">
         <v>12</v>
       </c>
-      <c r="C6" s="601"/>
-      <c r="D6" s="505" t="str">
+      <c r="C6" s="600"/>
+      <c r="D6" s="504" t="str">
         <f>Данные!$A2</f>
         <v>III-2-82-450-1 (Банка 0,45 л.)</v>
       </c>
-      <c r="E6" s="602"/>
-      <c r="F6" s="602"/>
-      <c r="G6" s="602"/>
-      <c r="H6" s="603"/>
-      <c r="I6" s="561"/>
-      <c r="J6" s="562"/>
-      <c r="K6" s="512"/>
-      <c r="L6" s="513"/>
+      <c r="E6" s="601"/>
+      <c r="F6" s="601"/>
+      <c r="G6" s="601"/>
+      <c r="H6" s="602"/>
+      <c r="I6" s="560"/>
+      <c r="J6" s="561"/>
+      <c r="K6" s="511"/>
+      <c r="L6" s="512"/>
       <c r="M6" s="74"/>
       <c r="N6" s="71"/>
       <c r="O6" s="71"/>
@@ -11615,27 +11760,27 @@
     </row>
     <row r="7" spans="1:19" ht="78.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A7" s="65"/>
-      <c r="B7" s="563" t="s">
+      <c r="B7" s="562" t="s">
         <v>14</v>
       </c>
-      <c r="C7" s="564"/>
-      <c r="D7" s="514">
+      <c r="C7" s="563"/>
+      <c r="D7" s="513">
         <f>Данные!$A8</f>
         <v>0</v>
       </c>
-      <c r="E7" s="565"/>
-      <c r="F7" s="565"/>
-      <c r="G7" s="565"/>
-      <c r="H7" s="566"/>
-      <c r="I7" s="563" t="s">
+      <c r="E7" s="564"/>
+      <c r="F7" s="564"/>
+      <c r="G7" s="564"/>
+      <c r="H7" s="565"/>
+      <c r="I7" s="562" t="s">
         <v>15</v>
       </c>
-      <c r="J7" s="567"/>
-      <c r="K7" s="502">
+      <c r="J7" s="566"/>
+      <c r="K7" s="501">
         <f>Данные!$A11</f>
         <v>0</v>
       </c>
-      <c r="L7" s="503"/>
+      <c r="L7" s="502"/>
       <c r="M7" s="75"/>
       <c r="N7" s="76"/>
       <c r="O7" s="76"/>
@@ -11858,7 +12003,7 @@
       <c r="B15" s="96" t="s">
         <v>9</v>
       </c>
-      <c r="C15" s="376"/>
+      <c r="C15" s="375"/>
       <c r="D15" s="97">
         <v>0.1</v>
       </c>
@@ -12103,12 +12248,12 @@
     </row>
     <row r="23" spans="1:19" ht="15" x14ac:dyDescent="0.2">
       <c r="A23" s="78"/>
-      <c r="B23" s="558" t="s">
+      <c r="B23" s="557" t="s">
         <v>56</v>
       </c>
-      <c r="C23" s="559"/>
-      <c r="D23" s="559"/>
-      <c r="E23" s="560"/>
+      <c r="C23" s="558"/>
+      <c r="D23" s="558"/>
+      <c r="E23" s="559"/>
       <c r="F23" s="114" t="s">
         <v>16</v>
       </c>
@@ -12130,12 +12275,12 @@
     </row>
     <row r="24" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A24" s="78"/>
-      <c r="B24" s="596" t="s">
+      <c r="B24" s="595" t="s">
         <v>45</v>
       </c>
-      <c r="C24" s="597"/>
-      <c r="D24" s="597"/>
-      <c r="E24" s="598"/>
+      <c r="C24" s="596"/>
+      <c r="D24" s="596"/>
+      <c r="E24" s="597"/>
       <c r="F24" s="114" t="s">
         <v>16</v>
       </c>
@@ -12178,25 +12323,25 @@
     </row>
     <row r="26" spans="1:19" ht="13.5" customHeight="1" thickTop="1" x14ac:dyDescent="0.2"/>
     <row r="27" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="K27" s="571" t="s">
+      <c r="K27" s="570" t="s">
         <v>135</v>
       </c>
-      <c r="L27" s="571"/>
-      <c r="M27" s="571"/>
-      <c r="N27" s="472"/>
-      <c r="O27" s="472"/>
-      <c r="P27" s="488"/>
-      <c r="Q27" s="488"/>
+      <c r="L27" s="570"/>
+      <c r="M27" s="570"/>
+      <c r="N27" s="458"/>
+      <c r="O27" s="458"/>
+      <c r="P27" s="474"/>
+      <c r="Q27" s="474"/>
     </row>
     <row r="28" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="N28" s="568" t="s">
+      <c r="N28" s="567" t="s">
         <v>139</v>
       </c>
-      <c r="O28" s="568"/>
-      <c r="P28" s="569" t="s">
+      <c r="O28" s="567"/>
+      <c r="P28" s="568" t="s">
         <v>140</v>
       </c>
-      <c r="Q28" s="570"/>
+      <c r="Q28" s="569"/>
     </row>
   </sheetData>
   <mergeCells count="23">
@@ -12288,50 +12433,50 @@
     </row>
     <row r="2" spans="1:19" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="65"/>
-      <c r="B2" s="607">
+      <c r="B2" s="606">
         <f>'Чист. форма'!B2:D4</f>
         <v>0</v>
       </c>
-      <c r="C2" s="608"/>
-      <c r="D2" s="609"/>
-      <c r="E2" s="616" t="s">
+      <c r="C2" s="607"/>
+      <c r="D2" s="608"/>
+      <c r="E2" s="615" t="s">
         <v>10</v>
       </c>
-      <c r="F2" s="617"/>
-      <c r="G2" s="617"/>
-      <c r="H2" s="618"/>
-      <c r="I2" s="622" t="s">
+      <c r="F2" s="616"/>
+      <c r="G2" s="616"/>
+      <c r="H2" s="617"/>
+      <c r="I2" s="621" t="s">
         <v>11</v>
       </c>
-      <c r="J2" s="623"/>
-      <c r="K2" s="626">
+      <c r="J2" s="622"/>
+      <c r="K2" s="625">
         <f>Данные!B15</f>
         <v>24</v>
       </c>
-      <c r="L2" s="627"/>
+      <c r="L2" s="626"/>
       <c r="M2" s="66"/>
       <c r="N2" s="67"/>
       <c r="O2" s="68"/>
-      <c r="P2" s="584"/>
-      <c r="Q2" s="584"/>
+      <c r="P2" s="583"/>
+      <c r="Q2" s="583"/>
       <c r="R2" s="69"/>
       <c r="S2" s="70"/>
     </row>
     <row r="3" spans="1:19" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A3" s="65"/>
-      <c r="B3" s="610"/>
-      <c r="C3" s="611"/>
-      <c r="D3" s="612"/>
-      <c r="E3" s="619" t="s">
+      <c r="B3" s="609"/>
+      <c r="C3" s="610"/>
+      <c r="D3" s="611"/>
+      <c r="E3" s="618" t="s">
         <v>44</v>
       </c>
-      <c r="F3" s="620"/>
-      <c r="G3" s="620"/>
-      <c r="H3" s="621"/>
-      <c r="I3" s="624"/>
-      <c r="J3" s="625"/>
-      <c r="K3" s="628"/>
-      <c r="L3" s="629"/>
+      <c r="F3" s="619"/>
+      <c r="G3" s="619"/>
+      <c r="H3" s="620"/>
+      <c r="I3" s="623"/>
+      <c r="J3" s="624"/>
+      <c r="K3" s="627"/>
+      <c r="L3" s="628"/>
       <c r="M3" s="72"/>
       <c r="N3" s="71"/>
       <c r="O3" s="71"/>
@@ -12342,9 +12487,9 @@
     </row>
     <row r="4" spans="1:19" ht="17.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A4" s="65"/>
-      <c r="B4" s="613"/>
-      <c r="C4" s="614"/>
-      <c r="D4" s="615"/>
+      <c r="B4" s="612"/>
+      <c r="C4" s="613"/>
+      <c r="D4" s="614"/>
       <c r="E4" s="243"/>
       <c r="F4" s="243"/>
       <c r="G4" s="243"/>
@@ -12363,22 +12508,22 @@
     </row>
     <row r="5" spans="1:19" ht="24.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A5" s="65"/>
-      <c r="B5" s="599" t="s">
+      <c r="B5" s="598" t="s">
         <v>13</v>
       </c>
-      <c r="C5" s="630"/>
-      <c r="D5" s="511" t="str">
+      <c r="C5" s="629"/>
+      <c r="D5" s="510" t="str">
         <f>Данные!$A5</f>
         <v>PCI</v>
       </c>
-      <c r="E5" s="512"/>
-      <c r="F5" s="512"/>
-      <c r="G5" s="512"/>
-      <c r="H5" s="513"/>
-      <c r="I5" s="631"/>
-      <c r="J5" s="632"/>
-      <c r="K5" s="633"/>
-      <c r="L5" s="513"/>
+      <c r="E5" s="511"/>
+      <c r="F5" s="511"/>
+      <c r="G5" s="511"/>
+      <c r="H5" s="512"/>
+      <c r="I5" s="630"/>
+      <c r="J5" s="631"/>
+      <c r="K5" s="632"/>
+      <c r="L5" s="512"/>
       <c r="M5" s="74"/>
       <c r="N5" s="71"/>
       <c r="O5" s="71"/>
@@ -12389,22 +12534,22 @@
     </row>
     <row r="6" spans="1:19" ht="17.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A6" s="65"/>
-      <c r="B6" s="599" t="s">
+      <c r="B6" s="598" t="s">
         <v>12</v>
       </c>
-      <c r="C6" s="630"/>
-      <c r="D6" s="505" t="str">
+      <c r="C6" s="629"/>
+      <c r="D6" s="504" t="str">
         <f>Данные!$A2</f>
         <v>III-2-82-450-1 (Банка 0,45 л.)</v>
       </c>
-      <c r="E6" s="602"/>
-      <c r="F6" s="602"/>
-      <c r="G6" s="602"/>
-      <c r="H6" s="603"/>
-      <c r="I6" s="631"/>
-      <c r="J6" s="632"/>
-      <c r="K6" s="633"/>
-      <c r="L6" s="513"/>
+      <c r="E6" s="601"/>
+      <c r="F6" s="601"/>
+      <c r="G6" s="601"/>
+      <c r="H6" s="602"/>
+      <c r="I6" s="630"/>
+      <c r="J6" s="631"/>
+      <c r="K6" s="632"/>
+      <c r="L6" s="512"/>
       <c r="M6" s="72"/>
       <c r="N6" s="71"/>
       <c r="O6" s="71"/>
@@ -12415,27 +12560,27 @@
     </row>
     <row r="7" spans="1:19" ht="69" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A7" s="65"/>
-      <c r="B7" s="563" t="s">
+      <c r="B7" s="562" t="s">
         <v>14</v>
       </c>
-      <c r="C7" s="634"/>
-      <c r="D7" s="514">
+      <c r="C7" s="633"/>
+      <c r="D7" s="513">
         <f>Данные!$A8</f>
         <v>0</v>
       </c>
-      <c r="E7" s="565"/>
-      <c r="F7" s="565"/>
-      <c r="G7" s="565"/>
-      <c r="H7" s="566"/>
-      <c r="I7" s="635" t="s">
+      <c r="E7" s="564"/>
+      <c r="F7" s="564"/>
+      <c r="G7" s="564"/>
+      <c r="H7" s="565"/>
+      <c r="I7" s="634" t="s">
         <v>15</v>
       </c>
-      <c r="J7" s="634"/>
-      <c r="K7" s="502">
+      <c r="J7" s="633"/>
+      <c r="K7" s="501">
         <f>Данные!$A11</f>
         <v>0</v>
       </c>
-      <c r="L7" s="503"/>
+      <c r="L7" s="502"/>
       <c r="M7" s="74"/>
       <c r="N7" s="71"/>
       <c r="O7" s="71"/>
@@ -12598,7 +12743,7 @@
       <c r="B13" s="96" t="s">
         <v>5</v>
       </c>
-      <c r="C13" s="376"/>
+      <c r="C13" s="375"/>
       <c r="D13" s="97">
         <v>0.1</v>
       </c>
@@ -12626,12 +12771,12 @@
     </row>
     <row r="14" spans="1:19" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="78"/>
-      <c r="B14" s="605" t="s">
+      <c r="B14" s="604" t="s">
         <v>134</v>
       </c>
-      <c r="C14" s="606"/>
-      <c r="D14" s="606"/>
-      <c r="E14" s="606"/>
+      <c r="C14" s="605"/>
+      <c r="D14" s="605"/>
+      <c r="E14" s="605"/>
       <c r="F14" s="114" t="s">
         <v>16</v>
       </c>
@@ -12653,13 +12798,13 @@
     </row>
     <row r="15" spans="1:19" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="78"/>
-      <c r="B15" s="558" t="s">
+      <c r="B15" s="557" t="s">
         <v>141</v>
       </c>
-      <c r="C15" s="559"/>
-      <c r="D15" s="559"/>
-      <c r="E15" s="559"/>
-      <c r="F15" s="604"/>
+      <c r="C15" s="558"/>
+      <c r="D15" s="558"/>
+      <c r="E15" s="558"/>
+      <c r="F15" s="603"/>
       <c r="G15" s="56" t="s">
         <v>76</v>
       </c>
@@ -12678,12 +12823,12 @@
     </row>
     <row r="16" spans="1:19" ht="24.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A16" s="78"/>
-      <c r="B16" s="596" t="s">
+      <c r="B16" s="595" t="s">
         <v>45</v>
       </c>
-      <c r="C16" s="597"/>
-      <c r="D16" s="597"/>
-      <c r="E16" s="598"/>
+      <c r="C16" s="596"/>
+      <c r="D16" s="596"/>
+      <c r="E16" s="597"/>
       <c r="F16" s="114" t="s">
         <v>16</v>
       </c>
@@ -12730,25 +12875,25 @@
     </row>
     <row r="19" spans="1:19" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B19" s="121"/>
-      <c r="L19" s="571" t="s">
+      <c r="L19" s="570" t="s">
         <v>135</v>
       </c>
-      <c r="M19" s="571"/>
-      <c r="N19" s="571"/>
-      <c r="O19" s="472"/>
-      <c r="P19" s="472"/>
-      <c r="Q19" s="488"/>
-      <c r="R19" s="488"/>
+      <c r="M19" s="570"/>
+      <c r="N19" s="570"/>
+      <c r="O19" s="458"/>
+      <c r="P19" s="458"/>
+      <c r="Q19" s="474"/>
+      <c r="R19" s="474"/>
     </row>
     <row r="20" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="O20" s="568" t="s">
+      <c r="O20" s="567" t="s">
         <v>139</v>
       </c>
-      <c r="P20" s="568"/>
-      <c r="Q20" s="569" t="s">
+      <c r="P20" s="567"/>
+      <c r="Q20" s="568" t="s">
         <v>140</v>
       </c>
-      <c r="R20" s="570"/>
+      <c r="R20" s="569"/>
     </row>
   </sheetData>
   <mergeCells count="24">
@@ -12849,47 +12994,47 @@
     </row>
     <row r="2" spans="1:24" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="65"/>
-      <c r="B2" s="572"/>
-      <c r="C2" s="573"/>
-      <c r="D2" s="574"/>
-      <c r="E2" s="581" t="s">
+      <c r="B2" s="571"/>
+      <c r="C2" s="572"/>
+      <c r="D2" s="573"/>
+      <c r="E2" s="580" t="s">
         <v>10</v>
       </c>
-      <c r="F2" s="582"/>
-      <c r="G2" s="582"/>
-      <c r="H2" s="583"/>
-      <c r="I2" s="588" t="s">
+      <c r="F2" s="581"/>
+      <c r="G2" s="581"/>
+      <c r="H2" s="582"/>
+      <c r="I2" s="587" t="s">
         <v>11</v>
       </c>
-      <c r="J2" s="589"/>
-      <c r="K2" s="592">
+      <c r="J2" s="588"/>
+      <c r="K2" s="591">
         <f>Данные!B16</f>
         <v>32</v>
       </c>
-      <c r="L2" s="593"/>
+      <c r="L2" s="592"/>
       <c r="M2" s="66"/>
       <c r="N2" s="67"/>
       <c r="O2" s="68"/>
-      <c r="P2" s="584"/>
-      <c r="Q2" s="584"/>
+      <c r="P2" s="583"/>
+      <c r="Q2" s="583"/>
       <c r="R2" s="69"/>
       <c r="S2" s="70"/>
     </row>
     <row r="3" spans="1:24" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A3" s="65"/>
-      <c r="B3" s="575"/>
-      <c r="C3" s="576"/>
-      <c r="D3" s="577"/>
-      <c r="E3" s="585" t="s">
+      <c r="B3" s="574"/>
+      <c r="C3" s="575"/>
+      <c r="D3" s="576"/>
+      <c r="E3" s="584" t="s">
         <v>38</v>
       </c>
-      <c r="F3" s="586"/>
-      <c r="G3" s="586"/>
-      <c r="H3" s="587"/>
-      <c r="I3" s="590"/>
-      <c r="J3" s="591"/>
-      <c r="K3" s="594"/>
-      <c r="L3" s="595"/>
+      <c r="F3" s="585"/>
+      <c r="G3" s="585"/>
+      <c r="H3" s="586"/>
+      <c r="I3" s="589"/>
+      <c r="J3" s="590"/>
+      <c r="K3" s="593"/>
+      <c r="L3" s="594"/>
       <c r="M3" s="72"/>
       <c r="N3" s="71"/>
       <c r="O3" s="71"/>
@@ -12900,9 +13045,9 @@
     </row>
     <row r="4" spans="1:24" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A4" s="65"/>
-      <c r="B4" s="578"/>
-      <c r="C4" s="579"/>
-      <c r="D4" s="580"/>
+      <c r="B4" s="577"/>
+      <c r="C4" s="578"/>
+      <c r="D4" s="579"/>
       <c r="E4" s="16"/>
       <c r="F4" s="16"/>
       <c r="G4" s="16"/>
@@ -12921,22 +13066,22 @@
     </row>
     <row r="5" spans="1:24" ht="26.25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A5" s="65"/>
-      <c r="B5" s="599" t="s">
+      <c r="B5" s="598" t="s">
         <v>13</v>
       </c>
-      <c r="C5" s="600"/>
-      <c r="D5" s="511" t="str">
+      <c r="C5" s="599"/>
+      <c r="D5" s="510" t="str">
         <f>Данные!$A5</f>
         <v>PCI</v>
       </c>
-      <c r="E5" s="512"/>
-      <c r="F5" s="512"/>
-      <c r="G5" s="512"/>
-      <c r="H5" s="513"/>
-      <c r="I5" s="561"/>
-      <c r="J5" s="562"/>
-      <c r="K5" s="512"/>
-      <c r="L5" s="513"/>
+      <c r="E5" s="511"/>
+      <c r="F5" s="511"/>
+      <c r="G5" s="511"/>
+      <c r="H5" s="512"/>
+      <c r="I5" s="560"/>
+      <c r="J5" s="561"/>
+      <c r="K5" s="511"/>
+      <c r="L5" s="512"/>
       <c r="M5" s="74"/>
       <c r="N5" s="71"/>
       <c r="O5" s="71"/>
@@ -12947,22 +13092,22 @@
     </row>
     <row r="6" spans="1:24" ht="26.25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A6" s="65"/>
-      <c r="B6" s="599" t="s">
+      <c r="B6" s="598" t="s">
         <v>12</v>
       </c>
-      <c r="C6" s="601"/>
-      <c r="D6" s="505" t="str">
+      <c r="C6" s="600"/>
+      <c r="D6" s="504" t="str">
         <f>Данные!$A2</f>
         <v>III-2-82-450-1 (Банка 0,45 л.)</v>
       </c>
-      <c r="E6" s="602"/>
-      <c r="F6" s="602"/>
-      <c r="G6" s="602"/>
-      <c r="H6" s="603"/>
-      <c r="I6" s="561"/>
-      <c r="J6" s="562"/>
-      <c r="K6" s="512"/>
-      <c r="L6" s="513"/>
+      <c r="E6" s="601"/>
+      <c r="F6" s="601"/>
+      <c r="G6" s="601"/>
+      <c r="H6" s="602"/>
+      <c r="I6" s="560"/>
+      <c r="J6" s="561"/>
+      <c r="K6" s="511"/>
+      <c r="L6" s="512"/>
       <c r="M6" s="74"/>
       <c r="N6" s="71"/>
       <c r="O6" s="71"/>
@@ -12973,27 +13118,27 @@
     </row>
     <row r="7" spans="1:24" ht="130.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A7" s="65"/>
-      <c r="B7" s="563" t="s">
+      <c r="B7" s="562" t="s">
         <v>14</v>
       </c>
-      <c r="C7" s="564"/>
-      <c r="D7" s="514">
+      <c r="C7" s="563"/>
+      <c r="D7" s="513">
         <f>Данные!$A8</f>
         <v>0</v>
       </c>
-      <c r="E7" s="565"/>
-      <c r="F7" s="565"/>
-      <c r="G7" s="565"/>
-      <c r="H7" s="566"/>
-      <c r="I7" s="563" t="s">
+      <c r="E7" s="564"/>
+      <c r="F7" s="564"/>
+      <c r="G7" s="564"/>
+      <c r="H7" s="565"/>
+      <c r="I7" s="562" t="s">
         <v>15</v>
       </c>
-      <c r="J7" s="567"/>
-      <c r="K7" s="502">
+      <c r="J7" s="566"/>
+      <c r="K7" s="501">
         <f>Данные!$A11</f>
         <v>0</v>
       </c>
-      <c r="L7" s="503"/>
+      <c r="L7" s="502"/>
       <c r="M7" s="75"/>
       <c r="N7" s="76"/>
       <c r="O7" s="76"/>
@@ -13166,7 +13311,7 @@
       <c r="B13" s="96" t="s">
         <v>4</v>
       </c>
-      <c r="C13" s="376"/>
+      <c r="C13" s="375"/>
       <c r="D13" s="97">
         <v>0.1</v>
       </c>
@@ -13453,25 +13598,25 @@
     </row>
     <row r="22" spans="1:24" ht="13.5" customHeight="1" thickTop="1" x14ac:dyDescent="0.2"/>
     <row r="23" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="L23" s="636" t="s">
+      <c r="L23" s="635" t="s">
         <v>135</v>
       </c>
-      <c r="M23" s="636"/>
-      <c r="N23" s="636"/>
-      <c r="O23" s="472"/>
-      <c r="P23" s="472"/>
-      <c r="Q23" s="488"/>
-      <c r="R23" s="488"/>
+      <c r="M23" s="635"/>
+      <c r="N23" s="635"/>
+      <c r="O23" s="458"/>
+      <c r="P23" s="458"/>
+      <c r="Q23" s="474"/>
+      <c r="R23" s="474"/>
     </row>
     <row r="24" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="O24" s="568" t="s">
+      <c r="O24" s="567" t="s">
         <v>139</v>
       </c>
-      <c r="P24" s="568"/>
-      <c r="Q24" s="569" t="s">
+      <c r="P24" s="567"/>
+      <c r="Q24" s="568" t="s">
         <v>140</v>
       </c>
-      <c r="R24" s="570"/>
+      <c r="R24" s="569"/>
     </row>
   </sheetData>
   <mergeCells count="21">
@@ -13563,47 +13708,47 @@
     </row>
     <row r="2" spans="1:19" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="6"/>
-      <c r="B2" s="572"/>
-      <c r="C2" s="573"/>
-      <c r="D2" s="574"/>
-      <c r="E2" s="581" t="s">
+      <c r="B2" s="571"/>
+      <c r="C2" s="572"/>
+      <c r="D2" s="573"/>
+      <c r="E2" s="580" t="s">
         <v>10</v>
       </c>
-      <c r="F2" s="582"/>
-      <c r="G2" s="582"/>
-      <c r="H2" s="583"/>
-      <c r="I2" s="588" t="s">
+      <c r="F2" s="581"/>
+      <c r="G2" s="581"/>
+      <c r="H2" s="582"/>
+      <c r="I2" s="587" t="s">
         <v>11</v>
       </c>
-      <c r="J2" s="589"/>
-      <c r="K2" s="592">
+      <c r="J2" s="588"/>
+      <c r="K2" s="591">
         <f>Данные!B17</f>
         <v>32</v>
       </c>
-      <c r="L2" s="593"/>
+      <c r="L2" s="592"/>
       <c r="M2" s="7"/>
       <c r="N2" s="8"/>
       <c r="O2" s="9"/>
-      <c r="P2" s="637"/>
-      <c r="Q2" s="637"/>
+      <c r="P2" s="636"/>
+      <c r="Q2" s="636"/>
       <c r="R2" s="10"/>
       <c r="S2" s="11"/>
     </row>
     <row r="3" spans="1:19" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A3" s="6"/>
-      <c r="B3" s="575"/>
-      <c r="C3" s="576"/>
-      <c r="D3" s="577"/>
-      <c r="E3" s="585" t="s">
+      <c r="B3" s="574"/>
+      <c r="C3" s="575"/>
+      <c r="D3" s="576"/>
+      <c r="E3" s="584" t="s">
         <v>23</v>
       </c>
-      <c r="F3" s="586"/>
-      <c r="G3" s="586"/>
-      <c r="H3" s="587"/>
-      <c r="I3" s="590"/>
-      <c r="J3" s="591"/>
-      <c r="K3" s="594"/>
-      <c r="L3" s="595"/>
+      <c r="F3" s="585"/>
+      <c r="G3" s="585"/>
+      <c r="H3" s="586"/>
+      <c r="I3" s="589"/>
+      <c r="J3" s="590"/>
+      <c r="K3" s="593"/>
+      <c r="L3" s="594"/>
       <c r="M3" s="13"/>
       <c r="N3" s="14"/>
       <c r="O3" s="14"/>
@@ -13614,9 +13759,9 @@
     </row>
     <row r="4" spans="1:19" ht="17.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A4" s="6"/>
-      <c r="B4" s="578"/>
-      <c r="C4" s="579"/>
-      <c r="D4" s="580"/>
+      <c r="B4" s="577"/>
+      <c r="C4" s="578"/>
+      <c r="D4" s="579"/>
       <c r="E4" s="16"/>
       <c r="F4" s="16"/>
       <c r="G4" s="16"/>
@@ -13635,22 +13780,22 @@
     </row>
     <row r="5" spans="1:19" ht="24.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A5" s="6"/>
-      <c r="B5" s="599" t="s">
+      <c r="B5" s="598" t="s">
         <v>13</v>
       </c>
-      <c r="C5" s="600"/>
-      <c r="D5" s="511" t="str">
+      <c r="C5" s="599"/>
+      <c r="D5" s="510" t="str">
         <f>Данные!$A5</f>
         <v>PCI</v>
       </c>
-      <c r="E5" s="512"/>
-      <c r="F5" s="512"/>
-      <c r="G5" s="512"/>
-      <c r="H5" s="513"/>
-      <c r="I5" s="561"/>
-      <c r="J5" s="562"/>
-      <c r="K5" s="512"/>
-      <c r="L5" s="513"/>
+      <c r="E5" s="511"/>
+      <c r="F5" s="511"/>
+      <c r="G5" s="511"/>
+      <c r="H5" s="512"/>
+      <c r="I5" s="560"/>
+      <c r="J5" s="561"/>
+      <c r="K5" s="511"/>
+      <c r="L5" s="512"/>
       <c r="M5" s="21"/>
       <c r="N5" s="14"/>
       <c r="O5" s="14"/>
@@ -13661,22 +13806,22 @@
     </row>
     <row r="6" spans="1:19" ht="24.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A6" s="6"/>
-      <c r="B6" s="599" t="s">
+      <c r="B6" s="598" t="s">
         <v>12</v>
       </c>
-      <c r="C6" s="601"/>
-      <c r="D6" s="505" t="str">
+      <c r="C6" s="600"/>
+      <c r="D6" s="504" t="str">
         <f>Данные!$A2</f>
         <v>III-2-82-450-1 (Банка 0,45 л.)</v>
       </c>
-      <c r="E6" s="602"/>
-      <c r="F6" s="602"/>
-      <c r="G6" s="602"/>
-      <c r="H6" s="603"/>
-      <c r="I6" s="561"/>
-      <c r="J6" s="562"/>
-      <c r="K6" s="512"/>
-      <c r="L6" s="513"/>
+      <c r="E6" s="601"/>
+      <c r="F6" s="601"/>
+      <c r="G6" s="601"/>
+      <c r="H6" s="602"/>
+      <c r="I6" s="560"/>
+      <c r="J6" s="561"/>
+      <c r="K6" s="511"/>
+      <c r="L6" s="512"/>
       <c r="M6" s="21"/>
       <c r="N6" s="14"/>
       <c r="O6" s="14"/>
@@ -13687,27 +13832,27 @@
     </row>
     <row r="7" spans="1:19" ht="57" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A7" s="6"/>
-      <c r="B7" s="563" t="s">
+      <c r="B7" s="562" t="s">
         <v>14</v>
       </c>
-      <c r="C7" s="564"/>
-      <c r="D7" s="514">
+      <c r="C7" s="563"/>
+      <c r="D7" s="513">
         <f>Данные!$A8</f>
         <v>0</v>
       </c>
-      <c r="E7" s="565"/>
-      <c r="F7" s="565"/>
-      <c r="G7" s="565"/>
-      <c r="H7" s="566"/>
-      <c r="I7" s="563" t="s">
+      <c r="E7" s="564"/>
+      <c r="F7" s="564"/>
+      <c r="G7" s="564"/>
+      <c r="H7" s="565"/>
+      <c r="I7" s="562" t="s">
         <v>15</v>
       </c>
-      <c r="J7" s="567"/>
-      <c r="K7" s="502">
+      <c r="J7" s="566"/>
+      <c r="K7" s="501">
         <f>Данные!$A11</f>
         <v>0</v>
       </c>
-      <c r="L7" s="503"/>
+      <c r="L7" s="502"/>
       <c r="M7" s="22"/>
       <c r="N7" s="12"/>
       <c r="O7" s="12"/>
@@ -13775,7 +13920,7 @@
       <c r="B10" s="50" t="s">
         <v>6</v>
       </c>
-      <c r="C10" s="377"/>
+      <c r="C10" s="376"/>
       <c r="D10" s="44">
         <v>0.05</v>
       </c>
@@ -13987,25 +14132,25 @@
     </row>
     <row r="17" spans="12:18" ht="13.5" customHeight="1" thickTop="1" x14ac:dyDescent="0.2"/>
     <row r="18" spans="12:18" x14ac:dyDescent="0.2">
-      <c r="L18" s="636" t="s">
+      <c r="L18" s="635" t="s">
         <v>135</v>
       </c>
-      <c r="M18" s="636"/>
-      <c r="N18" s="636"/>
-      <c r="O18" s="472"/>
-      <c r="P18" s="472"/>
-      <c r="Q18" s="488"/>
-      <c r="R18" s="488"/>
+      <c r="M18" s="635"/>
+      <c r="N18" s="635"/>
+      <c r="O18" s="458"/>
+      <c r="P18" s="458"/>
+      <c r="Q18" s="474"/>
+      <c r="R18" s="474"/>
     </row>
     <row r="19" spans="12:18" x14ac:dyDescent="0.2">
-      <c r="O19" s="568" t="s">
+      <c r="O19" s="567" t="s">
         <v>139</v>
       </c>
-      <c r="P19" s="568"/>
-      <c r="Q19" s="569" t="s">
+      <c r="P19" s="567"/>
+      <c r="Q19" s="568" t="s">
         <v>140</v>
       </c>
-      <c r="R19" s="570"/>
+      <c r="R19" s="569"/>
     </row>
   </sheetData>
   <mergeCells count="21">
@@ -14101,60 +14246,60 @@
     </row>
     <row r="2" spans="1:19" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="65"/>
-      <c r="B2" s="607"/>
-      <c r="C2" s="608"/>
-      <c r="D2" s="609"/>
-      <c r="E2" s="616" t="s">
+      <c r="B2" s="606"/>
+      <c r="C2" s="607"/>
+      <c r="D2" s="608"/>
+      <c r="E2" s="615" t="s">
         <v>10</v>
       </c>
-      <c r="F2" s="617"/>
-      <c r="G2" s="617"/>
-      <c r="H2" s="618"/>
-      <c r="I2" s="622" t="s">
+      <c r="F2" s="616"/>
+      <c r="G2" s="616"/>
+      <c r="H2" s="617"/>
+      <c r="I2" s="621" t="s">
         <v>11</v>
       </c>
-      <c r="J2" s="623"/>
-      <c r="K2" s="626">
+      <c r="J2" s="622"/>
+      <c r="K2" s="625">
         <f>Данные!B18</f>
         <v>80</v>
       </c>
-      <c r="L2" s="627"/>
-      <c r="M2" s="638"/>
-      <c r="N2" s="639"/>
-      <c r="O2" s="639"/>
-      <c r="P2" s="639"/>
-      <c r="Q2" s="639"/>
-      <c r="R2" s="640"/>
+      <c r="L2" s="626"/>
+      <c r="M2" s="637"/>
+      <c r="N2" s="638"/>
+      <c r="O2" s="638"/>
+      <c r="P2" s="638"/>
+      <c r="Q2" s="638"/>
+      <c r="R2" s="639"/>
       <c r="S2" s="70"/>
     </row>
     <row r="3" spans="1:19" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A3" s="65"/>
-      <c r="B3" s="610"/>
-      <c r="C3" s="611"/>
-      <c r="D3" s="612"/>
-      <c r="E3" s="619" t="s">
+      <c r="B3" s="609"/>
+      <c r="C3" s="610"/>
+      <c r="D3" s="611"/>
+      <c r="E3" s="618" t="s">
         <v>47</v>
       </c>
-      <c r="F3" s="620"/>
-      <c r="G3" s="620"/>
-      <c r="H3" s="621"/>
-      <c r="I3" s="624"/>
-      <c r="J3" s="625"/>
-      <c r="K3" s="628"/>
-      <c r="L3" s="629"/>
-      <c r="M3" s="641"/>
-      <c r="N3" s="642"/>
-      <c r="O3" s="642"/>
-      <c r="P3" s="642"/>
-      <c r="Q3" s="642"/>
-      <c r="R3" s="643"/>
+      <c r="F3" s="619"/>
+      <c r="G3" s="619"/>
+      <c r="H3" s="620"/>
+      <c r="I3" s="623"/>
+      <c r="J3" s="624"/>
+      <c r="K3" s="627"/>
+      <c r="L3" s="628"/>
+      <c r="M3" s="640"/>
+      <c r="N3" s="641"/>
+      <c r="O3" s="641"/>
+      <c r="P3" s="641"/>
+      <c r="Q3" s="641"/>
+      <c r="R3" s="642"/>
       <c r="S3" s="70"/>
     </row>
     <row r="4" spans="1:19" ht="17.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A4" s="65"/>
-      <c r="B4" s="613"/>
-      <c r="C4" s="614"/>
-      <c r="D4" s="615"/>
+      <c r="B4" s="612"/>
+      <c r="C4" s="613"/>
+      <c r="D4" s="614"/>
       <c r="E4" s="243"/>
       <c r="F4" s="243"/>
       <c r="G4" s="243"/>
@@ -14163,95 +14308,95 @@
       <c r="J4" s="242"/>
       <c r="K4" s="245"/>
       <c r="L4" s="246"/>
-      <c r="M4" s="641"/>
-      <c r="N4" s="642"/>
-      <c r="O4" s="642"/>
-      <c r="P4" s="642"/>
-      <c r="Q4" s="642"/>
-      <c r="R4" s="643"/>
+      <c r="M4" s="640"/>
+      <c r="N4" s="641"/>
+      <c r="O4" s="641"/>
+      <c r="P4" s="641"/>
+      <c r="Q4" s="641"/>
+      <c r="R4" s="642"/>
       <c r="S4" s="70"/>
     </row>
     <row r="5" spans="1:19" ht="24.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A5" s="65"/>
-      <c r="B5" s="599" t="s">
+      <c r="B5" s="598" t="s">
         <v>13</v>
       </c>
-      <c r="C5" s="630"/>
-      <c r="D5" s="511" t="str">
+      <c r="C5" s="629"/>
+      <c r="D5" s="510" t="str">
         <f>Данные!$A5</f>
         <v>PCI</v>
       </c>
-      <c r="E5" s="512"/>
-      <c r="F5" s="512"/>
-      <c r="G5" s="512"/>
-      <c r="H5" s="513"/>
-      <c r="I5" s="631"/>
-      <c r="J5" s="632"/>
-      <c r="K5" s="633"/>
-      <c r="L5" s="513"/>
-      <c r="M5" s="641"/>
-      <c r="N5" s="642"/>
-      <c r="O5" s="642"/>
-      <c r="P5" s="642"/>
-      <c r="Q5" s="642"/>
-      <c r="R5" s="643"/>
+      <c r="E5" s="511"/>
+      <c r="F5" s="511"/>
+      <c r="G5" s="511"/>
+      <c r="H5" s="512"/>
+      <c r="I5" s="630"/>
+      <c r="J5" s="631"/>
+      <c r="K5" s="632"/>
+      <c r="L5" s="512"/>
+      <c r="M5" s="640"/>
+      <c r="N5" s="641"/>
+      <c r="O5" s="641"/>
+      <c r="P5" s="641"/>
+      <c r="Q5" s="641"/>
+      <c r="R5" s="642"/>
       <c r="S5" s="70"/>
     </row>
     <row r="6" spans="1:19" ht="17.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A6" s="65"/>
-      <c r="B6" s="599" t="s">
+      <c r="B6" s="598" t="s">
         <v>12</v>
       </c>
-      <c r="C6" s="630"/>
-      <c r="D6" s="505" t="str">
+      <c r="C6" s="629"/>
+      <c r="D6" s="504" t="str">
         <f>Данные!$A2</f>
         <v>III-2-82-450-1 (Банка 0,45 л.)</v>
       </c>
-      <c r="E6" s="602"/>
-      <c r="F6" s="602"/>
-      <c r="G6" s="602"/>
-      <c r="H6" s="603"/>
-      <c r="I6" s="631"/>
-      <c r="J6" s="632"/>
-      <c r="K6" s="633"/>
-      <c r="L6" s="513"/>
-      <c r="M6" s="641"/>
-      <c r="N6" s="642"/>
-      <c r="O6" s="642"/>
-      <c r="P6" s="642"/>
-      <c r="Q6" s="642"/>
-      <c r="R6" s="643"/>
+      <c r="E6" s="601"/>
+      <c r="F6" s="601"/>
+      <c r="G6" s="601"/>
+      <c r="H6" s="602"/>
+      <c r="I6" s="630"/>
+      <c r="J6" s="631"/>
+      <c r="K6" s="632"/>
+      <c r="L6" s="512"/>
+      <c r="M6" s="640"/>
+      <c r="N6" s="641"/>
+      <c r="O6" s="641"/>
+      <c r="P6" s="641"/>
+      <c r="Q6" s="641"/>
+      <c r="R6" s="642"/>
       <c r="S6" s="70"/>
     </row>
     <row r="7" spans="1:19" ht="90.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A7" s="65"/>
-      <c r="B7" s="563" t="s">
+      <c r="B7" s="562" t="s">
         <v>14</v>
       </c>
-      <c r="C7" s="634"/>
-      <c r="D7" s="514">
+      <c r="C7" s="633"/>
+      <c r="D7" s="513">
         <f>Данные!$A8</f>
         <v>0</v>
       </c>
-      <c r="E7" s="565"/>
-      <c r="F7" s="565"/>
-      <c r="G7" s="565"/>
-      <c r="H7" s="566"/>
-      <c r="I7" s="635" t="s">
+      <c r="E7" s="564"/>
+      <c r="F7" s="564"/>
+      <c r="G7" s="564"/>
+      <c r="H7" s="565"/>
+      <c r="I7" s="634" t="s">
         <v>15</v>
       </c>
-      <c r="J7" s="634"/>
-      <c r="K7" s="502">
+      <c r="J7" s="633"/>
+      <c r="K7" s="501">
         <f>Данные!$A11</f>
         <v>0</v>
       </c>
-      <c r="L7" s="503"/>
-      <c r="M7" s="641"/>
-      <c r="N7" s="642"/>
-      <c r="O7" s="642"/>
-      <c r="P7" s="642"/>
-      <c r="Q7" s="642"/>
-      <c r="R7" s="643"/>
+      <c r="L7" s="502"/>
+      <c r="M7" s="640"/>
+      <c r="N7" s="641"/>
+      <c r="O7" s="641"/>
+      <c r="P7" s="641"/>
+      <c r="Q7" s="641"/>
+      <c r="R7" s="642"/>
       <c r="S7" s="70"/>
     </row>
     <row r="8" spans="1:19" ht="3.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
@@ -14401,36 +14546,36 @@
       <c r="R12" s="322"/>
       <c r="S12" s="86"/>
     </row>
-    <row r="13" spans="1:19" s="483" customFormat="1" ht="33.75" x14ac:dyDescent="0.2">
-      <c r="A13" s="473"/>
-      <c r="B13" s="474" t="s">
+    <row r="13" spans="1:19" s="469" customFormat="1" ht="33.75" x14ac:dyDescent="0.2">
+      <c r="A13" s="459"/>
+      <c r="B13" s="460" t="s">
         <v>3</v>
       </c>
-      <c r="C13" s="475"/>
-      <c r="D13" s="476">
+      <c r="C13" s="461"/>
+      <c r="D13" s="462">
         <v>0.03</v>
       </c>
-      <c r="E13" s="476">
+      <c r="E13" s="462">
         <v>0</v>
       </c>
-      <c r="F13" s="477" t="s">
+      <c r="F13" s="463" t="s">
         <v>16</v>
       </c>
       <c r="G13" s="296" t="s">
         <v>136</v>
       </c>
-      <c r="H13" s="478"/>
-      <c r="I13" s="479"/>
-      <c r="J13" s="479"/>
-      <c r="K13" s="479"/>
-      <c r="L13" s="479"/>
-      <c r="M13" s="480"/>
-      <c r="N13" s="480"/>
-      <c r="O13" s="480"/>
-      <c r="P13" s="480"/>
-      <c r="Q13" s="480"/>
-      <c r="R13" s="481"/>
-      <c r="S13" s="482"/>
+      <c r="H13" s="464"/>
+      <c r="I13" s="465"/>
+      <c r="J13" s="465"/>
+      <c r="K13" s="465"/>
+      <c r="L13" s="465"/>
+      <c r="M13" s="466"/>
+      <c r="N13" s="466"/>
+      <c r="O13" s="466"/>
+      <c r="P13" s="466"/>
+      <c r="Q13" s="466"/>
+      <c r="R13" s="467"/>
+      <c r="S13" s="468"/>
     </row>
     <row r="14" spans="1:19" ht="33.75" x14ac:dyDescent="0.2">
       <c r="A14" s="78"/>
@@ -14592,7 +14737,7 @@
       <c r="B19" s="96" t="s">
         <v>41</v>
       </c>
-      <c r="C19" s="376"/>
+      <c r="C19" s="375"/>
       <c r="D19" s="97"/>
       <c r="E19" s="97"/>
       <c r="F19" s="114"/>
@@ -14643,12 +14788,12 @@
     </row>
     <row r="21" spans="1:19" ht="34.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A21" s="78"/>
-      <c r="B21" s="596" t="s">
+      <c r="B21" s="595" t="s">
         <v>48</v>
       </c>
-      <c r="C21" s="597"/>
-      <c r="D21" s="597"/>
-      <c r="E21" s="598"/>
+      <c r="C21" s="596"/>
+      <c r="D21" s="596"/>
+      <c r="E21" s="597"/>
       <c r="F21" s="114" t="s">
         <v>16</v>
       </c>
@@ -14693,25 +14838,25 @@
       <c r="B23" s="121"/>
     </row>
     <row r="24" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="L24" s="636" t="s">
+      <c r="L24" s="635" t="s">
         <v>135</v>
       </c>
-      <c r="M24" s="636"/>
-      <c r="N24" s="636"/>
-      <c r="O24" s="472"/>
-      <c r="P24" s="472"/>
-      <c r="Q24" s="488"/>
-      <c r="R24" s="488"/>
+      <c r="M24" s="635"/>
+      <c r="N24" s="635"/>
+      <c r="O24" s="458"/>
+      <c r="P24" s="458"/>
+      <c r="Q24" s="474"/>
+      <c r="R24" s="474"/>
     </row>
     <row r="25" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="O25" s="568" t="s">
+      <c r="O25" s="567" t="s">
         <v>139</v>
       </c>
-      <c r="P25" s="568"/>
-      <c r="Q25" s="569" t="s">
+      <c r="P25" s="567"/>
+      <c r="Q25" s="568" t="s">
         <v>140</v>
       </c>
-      <c r="R25" s="570"/>
+      <c r="R25" s="569"/>
     </row>
   </sheetData>
   <mergeCells count="22">
@@ -14801,47 +14946,47 @@
     </row>
     <row r="2" spans="1:19" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="65"/>
-      <c r="B2" s="607"/>
-      <c r="C2" s="608"/>
-      <c r="D2" s="609"/>
-      <c r="E2" s="616" t="s">
+      <c r="B2" s="606"/>
+      <c r="C2" s="607"/>
+      <c r="D2" s="608"/>
+      <c r="E2" s="615" t="s">
         <v>10</v>
       </c>
-      <c r="F2" s="617"/>
-      <c r="G2" s="617"/>
-      <c r="H2" s="618"/>
-      <c r="I2" s="622" t="s">
+      <c r="F2" s="616"/>
+      <c r="G2" s="616"/>
+      <c r="H2" s="617"/>
+      <c r="I2" s="621" t="s">
         <v>11</v>
       </c>
-      <c r="J2" s="623"/>
-      <c r="K2" s="626">
+      <c r="J2" s="622"/>
+      <c r="K2" s="625">
         <f>Данные!B19</f>
         <v>150</v>
       </c>
-      <c r="L2" s="627"/>
+      <c r="L2" s="626"/>
       <c r="M2" s="66"/>
       <c r="N2" s="67"/>
       <c r="O2" s="68"/>
-      <c r="P2" s="644"/>
-      <c r="Q2" s="644"/>
+      <c r="P2" s="643"/>
+      <c r="Q2" s="643"/>
       <c r="R2" s="69"/>
       <c r="S2" s="70"/>
     </row>
     <row r="3" spans="1:19" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A3" s="65"/>
-      <c r="B3" s="610"/>
-      <c r="C3" s="611"/>
-      <c r="D3" s="612"/>
-      <c r="E3" s="619" t="s">
+      <c r="B3" s="609"/>
+      <c r="C3" s="610"/>
+      <c r="D3" s="611"/>
+      <c r="E3" s="618" t="s">
         <v>89</v>
       </c>
-      <c r="F3" s="620"/>
-      <c r="G3" s="620"/>
-      <c r="H3" s="621"/>
-      <c r="I3" s="624"/>
-      <c r="J3" s="625"/>
-      <c r="K3" s="628"/>
-      <c r="L3" s="629"/>
+      <c r="F3" s="619"/>
+      <c r="G3" s="619"/>
+      <c r="H3" s="620"/>
+      <c r="I3" s="623"/>
+      <c r="J3" s="624"/>
+      <c r="K3" s="627"/>
+      <c r="L3" s="628"/>
       <c r="M3" s="72"/>
       <c r="N3" s="71"/>
       <c r="O3" s="71"/>
@@ -14852,9 +14997,9 @@
     </row>
     <row r="4" spans="1:19" ht="17.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A4" s="65"/>
-      <c r="B4" s="613"/>
-      <c r="C4" s="614"/>
-      <c r="D4" s="615"/>
+      <c r="B4" s="612"/>
+      <c r="C4" s="613"/>
+      <c r="D4" s="614"/>
       <c r="E4" s="243"/>
       <c r="F4" s="243"/>
       <c r="G4" s="243"/>
@@ -14873,22 +15018,22 @@
     </row>
     <row r="5" spans="1:19" ht="24.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A5" s="65"/>
-      <c r="B5" s="599" t="s">
+      <c r="B5" s="598" t="s">
         <v>13</v>
       </c>
-      <c r="C5" s="630"/>
-      <c r="D5" s="511" t="str">
+      <c r="C5" s="629"/>
+      <c r="D5" s="510" t="str">
         <f>Данные!$A5</f>
         <v>PCI</v>
       </c>
-      <c r="E5" s="512"/>
-      <c r="F5" s="512"/>
-      <c r="G5" s="512"/>
-      <c r="H5" s="513"/>
-      <c r="I5" s="631"/>
-      <c r="J5" s="632"/>
-      <c r="K5" s="633"/>
-      <c r="L5" s="513"/>
+      <c r="E5" s="511"/>
+      <c r="F5" s="511"/>
+      <c r="G5" s="511"/>
+      <c r="H5" s="512"/>
+      <c r="I5" s="630"/>
+      <c r="J5" s="631"/>
+      <c r="K5" s="632"/>
+      <c r="L5" s="512"/>
       <c r="M5" s="74"/>
       <c r="N5" s="71"/>
       <c r="O5" s="71"/>
@@ -14899,22 +15044,22 @@
     </row>
     <row r="6" spans="1:19" ht="17.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A6" s="65"/>
-      <c r="B6" s="599" t="s">
+      <c r="B6" s="598" t="s">
         <v>12</v>
       </c>
-      <c r="C6" s="630"/>
-      <c r="D6" s="505" t="str">
+      <c r="C6" s="629"/>
+      <c r="D6" s="504" t="str">
         <f>Данные!$A2</f>
         <v>III-2-82-450-1 (Банка 0,45 л.)</v>
       </c>
-      <c r="E6" s="602"/>
-      <c r="F6" s="602"/>
-      <c r="G6" s="602"/>
-      <c r="H6" s="603"/>
-      <c r="I6" s="631"/>
-      <c r="J6" s="632"/>
-      <c r="K6" s="633"/>
-      <c r="L6" s="513"/>
+      <c r="E6" s="601"/>
+      <c r="F6" s="601"/>
+      <c r="G6" s="601"/>
+      <c r="H6" s="602"/>
+      <c r="I6" s="630"/>
+      <c r="J6" s="631"/>
+      <c r="K6" s="632"/>
+      <c r="L6" s="512"/>
       <c r="M6" s="72"/>
       <c r="N6" s="71"/>
       <c r="O6" s="71"/>
@@ -14925,27 +15070,27 @@
     </row>
     <row r="7" spans="1:19" ht="71.25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A7" s="65"/>
-      <c r="B7" s="563" t="s">
+      <c r="B7" s="562" t="s">
         <v>14</v>
       </c>
-      <c r="C7" s="634"/>
-      <c r="D7" s="514">
+      <c r="C7" s="633"/>
+      <c r="D7" s="513">
         <f>Данные!$A8</f>
         <v>0</v>
       </c>
-      <c r="E7" s="565"/>
-      <c r="F7" s="565"/>
-      <c r="G7" s="565"/>
-      <c r="H7" s="566"/>
-      <c r="I7" s="635" t="s">
+      <c r="E7" s="564"/>
+      <c r="F7" s="564"/>
+      <c r="G7" s="564"/>
+      <c r="H7" s="565"/>
+      <c r="I7" s="634" t="s">
         <v>15</v>
       </c>
-      <c r="J7" s="634"/>
-      <c r="K7" s="502">
+      <c r="J7" s="633"/>
+      <c r="K7" s="501">
         <f>Данные!$A11</f>
         <v>0</v>
       </c>
-      <c r="L7" s="503"/>
+      <c r="L7" s="502"/>
       <c r="M7" s="74"/>
       <c r="N7" s="71"/>
       <c r="O7" s="71"/>
@@ -15070,36 +15215,36 @@
       <c r="R11" s="99"/>
       <c r="S11" s="86"/>
     </row>
-    <row r="12" spans="1:19" s="483" customFormat="1" ht="25.15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="473"/>
-      <c r="B12" s="484" t="s">
+    <row r="12" spans="1:19" s="469" customFormat="1" ht="25.15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A12" s="459"/>
+      <c r="B12" s="470" t="s">
         <v>3</v>
       </c>
-      <c r="C12" s="485"/>
-      <c r="D12" s="479">
+      <c r="C12" s="471"/>
+      <c r="D12" s="465">
         <v>0</v>
       </c>
-      <c r="E12" s="479">
+      <c r="E12" s="465">
         <v>-0.03</v>
       </c>
-      <c r="F12" s="477" t="s">
+      <c r="F12" s="463" t="s">
         <v>16</v>
       </c>
       <c r="G12" s="296" t="s">
         <v>138</v>
       </c>
-      <c r="H12" s="486"/>
-      <c r="I12" s="479"/>
-      <c r="J12" s="479"/>
-      <c r="K12" s="479"/>
-      <c r="L12" s="479"/>
-      <c r="M12" s="479"/>
-      <c r="N12" s="479"/>
-      <c r="O12" s="479"/>
-      <c r="P12" s="479"/>
-      <c r="Q12" s="479"/>
-      <c r="R12" s="487"/>
-      <c r="S12" s="482"/>
+      <c r="H12" s="472"/>
+      <c r="I12" s="465"/>
+      <c r="J12" s="465"/>
+      <c r="K12" s="465"/>
+      <c r="L12" s="465"/>
+      <c r="M12" s="465"/>
+      <c r="N12" s="465"/>
+      <c r="O12" s="465"/>
+      <c r="P12" s="465"/>
+      <c r="Q12" s="465"/>
+      <c r="R12" s="473"/>
+      <c r="S12" s="468"/>
     </row>
     <row r="13" spans="1:19" ht="23.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="78"/>
@@ -15196,12 +15341,12 @@
     </row>
     <row r="16" spans="1:19" ht="23.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A16" s="78"/>
-      <c r="B16" s="596" t="s">
+      <c r="B16" s="595" t="s">
         <v>50</v>
       </c>
-      <c r="C16" s="597"/>
-      <c r="D16" s="597"/>
-      <c r="E16" s="598"/>
+      <c r="C16" s="596"/>
+      <c r="D16" s="596"/>
+      <c r="E16" s="597"/>
       <c r="F16" s="252" t="s">
         <v>16</v>
       </c>
@@ -15246,25 +15391,25 @@
       <c r="B18" s="121"/>
     </row>
     <row r="19" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="L19" s="636" t="s">
+      <c r="L19" s="635" t="s">
         <v>135</v>
       </c>
-      <c r="M19" s="636"/>
-      <c r="N19" s="636"/>
-      <c r="O19" s="472"/>
-      <c r="P19" s="472"/>
-      <c r="Q19" s="488"/>
-      <c r="R19" s="488"/>
+      <c r="M19" s="635"/>
+      <c r="N19" s="635"/>
+      <c r="O19" s="458"/>
+      <c r="P19" s="458"/>
+      <c r="Q19" s="474"/>
+      <c r="R19" s="474"/>
     </row>
     <row r="20" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="O20" s="568" t="s">
+      <c r="O20" s="567" t="s">
         <v>139</v>
       </c>
-      <c r="P20" s="568"/>
-      <c r="Q20" s="569" t="s">
+      <c r="P20" s="567"/>
+      <c r="Q20" s="568" t="s">
         <v>140</v>
       </c>
-      <c r="R20" s="570"/>
+      <c r="R20" s="569"/>
     </row>
   </sheetData>
   <mergeCells count="22">

--- a/Участок ремонта форм/Формокомплекты/Карты замеров/Банка/Банка 0,45 л..xlsx
+++ b/Участок ремонта форм/Формокомплекты/Карты замеров/Банка/Банка 0,45 л..xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Гавриленко А.Д\Работа\Участок ремонта форм\Формокомплекты\Карты замеров\Банка\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{702763CE-2C68-40A1-AE22-C439C57C9DB3}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7EB67AFE-F94F-42A0-AE6C-E17DC9C68AB7}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -33,7 +33,7 @@
     <definedName name="_xlnm.Print_Area" localSheetId="7">'Горл. кольцо'!$A$1:$S$25</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="11">'Дут. головка'!$A$1:$S$20</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="10">'Охладитель плунжера'!$A$1:$S$22</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="1">Паспорт!$A$1:$J$38</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="1">Паспорт!$A$1:$J$41</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="9">Плунжер!$A$1:$S$22</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="8">'Финиш. кольцо'!$A$1:$S$20</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="6">'Черн. поддон'!$A$1:$S$19</definedName>
@@ -53,7 +53,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="547" uniqueCount="151">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="548" uniqueCount="151">
   <si>
     <t>+ Tol.</t>
   </si>
@@ -3651,6 +3651,12 @@
     <xf numFmtId="3" fontId="0" fillId="0" borderId="33" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="39" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -3695,11 +3701,10 @@
     <xf numFmtId="49" fontId="9" fillId="0" borderId="43" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="56" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="57" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="53" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1"/>
@@ -3718,10 +3723,74 @@
     <xf numFmtId="167" fontId="0" fillId="12" borderId="54" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="56" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="57" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="36" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="91" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="34" fillId="0" borderId="89" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="34" fillId="0" borderId="92" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="34" fillId="0" borderId="90" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="89" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="90" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="91" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="60" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="36" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="35" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="89" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="92" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="90" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="91" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="78" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="60" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="91" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="78" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="60" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="78" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="26" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="26" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -3732,60 +3801,6 @@
     <xf numFmtId="49" fontId="37" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="91" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="78" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="60" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="26" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="36" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="91" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="89" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="90" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="78" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="60" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="36" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="35" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="89" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="92" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="90" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="91" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="78" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="60" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="34" fillId="0" borderId="89" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" shrinkToFit="1"/>
     </xf>
@@ -3795,29 +3810,104 @@
     <xf numFmtId="0" fontId="34" fillId="0" borderId="90" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="26" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="34" fillId="0" borderId="89" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="34" fillId="0" borderId="92" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="34" fillId="0" borderId="90" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="91" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="76" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="77" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="54" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    <xf numFmtId="0" fontId="28" fillId="4" borderId="92" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="4" borderId="92" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="92" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+      <alignment horizontal="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="88" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="2" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="79" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="58" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="80" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="81" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="27" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="75" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="66" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="44" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="45" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment shrinkToFit="1"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="44" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
@@ -3825,6 +3915,20 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="45" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="45" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="39" fillId="0" borderId="47" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="39" fillId="0" borderId="48" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="76" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="77" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="54" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" shrinkToFit="1"/>
     </xf>
@@ -3840,110 +3944,93 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="40" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="4" borderId="92" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="4" borderId="92" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="92" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="1" applyAlignment="1">
-      <alignment horizontal="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="88" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="2" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="79" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="58" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="80" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="81" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="27" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="75" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="66" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="44" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="70" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="45" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="45" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="73" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="70" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="72" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="71" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="39" fillId="0" borderId="47" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="39" fillId="0" borderId="48" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="74" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="88" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="68" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="69" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="82" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="83" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="84" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="85" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="86" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="87" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="65" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
@@ -3953,93 +4040,6 @@
     <xf numFmtId="0" fontId="17" fillId="0" borderId="77" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="88" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="68" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="69" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="82" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="83" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="84" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="85" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="86" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="87" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="70" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="73" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="70" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="72" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="71" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="74" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" shrinkToFit="1"/>
-    </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" shrinkToFit="1"/>
     </xf>
@@ -4070,6 +4070,9 @@
     <xf numFmtId="0" fontId="23" fillId="4" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
+    <xf numFmtId="0" fontId="23" fillId="4" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="17" fillId="4" borderId="27" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -4079,12 +4082,12 @@
     <xf numFmtId="0" fontId="17" fillId="4" borderId="66" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="4" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="23" fillId="2" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
+    <xf numFmtId="0" fontId="23" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
     <xf numFmtId="0" fontId="9" fillId="7" borderId="86" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
@@ -4095,9 +4098,6 @@
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="7" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
   </cellXfs>
@@ -6705,25 +6705,25 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="503" t="s">
+      <c r="A1" s="505" t="s">
         <v>81</v>
       </c>
-      <c r="B1" s="507"/>
-      <c r="C1" s="507"/>
-      <c r="D1" s="507"/>
-      <c r="E1" s="507"/>
+      <c r="B1" s="509"/>
+      <c r="C1" s="509"/>
+      <c r="D1" s="509"/>
+      <c r="E1" s="509"/>
       <c r="G1" s="363" t="s">
         <v>80</v>
       </c>
     </row>
     <row r="2" spans="1:11" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="504" t="s">
+      <c r="A2" s="506" t="s">
         <v>145</v>
       </c>
-      <c r="B2" s="505"/>
-      <c r="C2" s="505"/>
-      <c r="D2" s="505"/>
-      <c r="E2" s="506"/>
+      <c r="B2" s="507"/>
+      <c r="C2" s="507"/>
+      <c r="D2" s="507"/>
+      <c r="E2" s="508"/>
       <c r="G2" s="362" t="s">
         <v>78</v>
       </c>
@@ -6734,45 +6734,45 @@
       </c>
     </row>
     <row r="4" spans="1:11" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="508" t="s">
+      <c r="A4" s="510" t="s">
         <v>82</v>
       </c>
-      <c r="B4" s="509"/>
-      <c r="C4" s="509"/>
-      <c r="D4" s="509"/>
-      <c r="E4" s="509"/>
+      <c r="B4" s="511"/>
+      <c r="C4" s="511"/>
+      <c r="D4" s="511"/>
+      <c r="E4" s="511"/>
     </row>
     <row r="5" spans="1:11" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="510" t="s">
+      <c r="A5" s="512" t="s">
         <v>86</v>
       </c>
-      <c r="B5" s="511"/>
-      <c r="C5" s="511"/>
-      <c r="D5" s="511"/>
-      <c r="E5" s="512"/>
+      <c r="B5" s="513"/>
+      <c r="C5" s="513"/>
+      <c r="D5" s="513"/>
+      <c r="E5" s="514"/>
     </row>
     <row r="6" spans="1:11" ht="13.5" thickTop="1" x14ac:dyDescent="0.2"/>
     <row r="7" spans="1:11" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="503" t="s">
+      <c r="A7" s="505" t="s">
         <v>83</v>
       </c>
-      <c r="B7" s="507"/>
-      <c r="C7" s="507"/>
-      <c r="D7" s="507"/>
-      <c r="E7" s="507"/>
+      <c r="B7" s="509"/>
+      <c r="C7" s="509"/>
+      <c r="D7" s="509"/>
+      <c r="E7" s="509"/>
     </row>
     <row r="8" spans="1:11" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="513"/>
-      <c r="B8" s="514"/>
-      <c r="C8" s="514"/>
-      <c r="D8" s="514"/>
-      <c r="E8" s="515"/>
+      <c r="A8" s="515"/>
+      <c r="B8" s="516"/>
+      <c r="C8" s="516"/>
+      <c r="D8" s="516"/>
+      <c r="E8" s="517"/>
     </row>
     <row r="10" spans="1:11" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="503" t="s">
+      <c r="A10" s="505" t="s">
         <v>84</v>
       </c>
-      <c r="B10" s="503"/>
+      <c r="B10" s="505"/>
       <c r="C10" s="364"/>
       <c r="D10" s="370" t="s">
         <v>92</v>
@@ -6783,33 +6783,33 @@
       </c>
     </row>
     <row r="11" spans="1:11" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="501"/>
-      <c r="B11" s="502"/>
+      <c r="A11" s="503"/>
+      <c r="B11" s="504"/>
       <c r="D11" s="369">
         <v>43959</v>
       </c>
-      <c r="F11" s="516" t="s">
+      <c r="F11" s="500" t="s">
         <v>95</v>
       </c>
-      <c r="G11" s="516"/>
-      <c r="H11" s="516"/>
-      <c r="I11" s="516"/>
-      <c r="J11" s="517" t="s">
+      <c r="G11" s="500"/>
+      <c r="H11" s="500"/>
+      <c r="I11" s="500"/>
+      <c r="J11" s="501" t="s">
         <v>97</v>
       </c>
-      <c r="K11" s="517"/>
+      <c r="K11" s="501"/>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="F12" s="516" t="s">
+      <c r="F12" s="500" t="s">
         <v>85</v>
       </c>
-      <c r="G12" s="516"/>
-      <c r="H12" s="516"/>
-      <c r="I12" s="516"/>
-      <c r="J12" s="517" t="s">
+      <c r="G12" s="500"/>
+      <c r="H12" s="500"/>
+      <c r="I12" s="500"/>
+      <c r="J12" s="501" t="s">
         <v>98</v>
       </c>
-      <c r="K12" s="517"/>
+      <c r="K12" s="501"/>
     </row>
     <row r="13" spans="1:11" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A13" s="374" t="s">
@@ -6827,16 +6827,16 @@
       <c r="E13" s="457" t="s">
         <v>133</v>
       </c>
-      <c r="F13" s="516" t="s">
+      <c r="F13" s="500" t="s">
         <v>96</v>
       </c>
-      <c r="G13" s="516"/>
-      <c r="H13" s="516"/>
-      <c r="I13" s="516"/>
-      <c r="J13" s="517" t="s">
+      <c r="G13" s="500"/>
+      <c r="H13" s="500"/>
+      <c r="I13" s="500"/>
+      <c r="J13" s="501" t="s">
         <v>99</v>
       </c>
-      <c r="K13" s="517"/>
+      <c r="K13" s="501"/>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A14" s="365" t="s">
@@ -7093,11 +7093,11 @@
       </c>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A29" s="500" t="s">
+      <c r="A29" s="502" t="s">
         <v>105</v>
       </c>
-      <c r="B29" s="500"/>
-      <c r="C29" s="500"/>
+      <c r="B29" s="502"/>
+      <c r="C29" s="502"/>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A30" s="363" t="s">
@@ -7106,12 +7106,6 @@
     </row>
   </sheetData>
   <mergeCells count="15">
-    <mergeCell ref="F11:I11"/>
-    <mergeCell ref="F12:I12"/>
-    <mergeCell ref="F13:I13"/>
-    <mergeCell ref="J11:K11"/>
-    <mergeCell ref="J12:K12"/>
-    <mergeCell ref="J13:K13"/>
     <mergeCell ref="A29:C29"/>
     <mergeCell ref="A11:B11"/>
     <mergeCell ref="A10:B10"/>
@@ -7121,6 +7115,12 @@
     <mergeCell ref="A5:E5"/>
     <mergeCell ref="A8:E8"/>
     <mergeCell ref="A7:E7"/>
+    <mergeCell ref="F11:I11"/>
+    <mergeCell ref="F12:I12"/>
+    <mergeCell ref="F13:I13"/>
+    <mergeCell ref="J11:K11"/>
+    <mergeCell ref="J12:K12"/>
+    <mergeCell ref="J13:K13"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="4294967293" r:id="rId1"/>
@@ -7174,24 +7174,24 @@
     </row>
     <row r="2" spans="1:19" ht="23.25" x14ac:dyDescent="0.2">
       <c r="A2" s="163"/>
-      <c r="B2" s="606"/>
-      <c r="C2" s="607"/>
-      <c r="D2" s="608"/>
-      <c r="E2" s="615" t="s">
+      <c r="B2" s="609"/>
+      <c r="C2" s="610"/>
+      <c r="D2" s="611"/>
+      <c r="E2" s="618" t="s">
         <v>10</v>
       </c>
-      <c r="F2" s="616"/>
-      <c r="G2" s="616"/>
-      <c r="H2" s="617"/>
-      <c r="I2" s="621" t="s">
+      <c r="F2" s="619"/>
+      <c r="G2" s="619"/>
+      <c r="H2" s="620"/>
+      <c r="I2" s="624" t="s">
         <v>11</v>
       </c>
-      <c r="J2" s="622"/>
-      <c r="K2" s="625">
+      <c r="J2" s="625"/>
+      <c r="K2" s="628">
         <f>Данные!B20</f>
         <v>60</v>
       </c>
-      <c r="L2" s="626"/>
+      <c r="L2" s="629"/>
       <c r="M2" s="164"/>
       <c r="N2" s="165"/>
       <c r="O2" s="166"/>
@@ -7202,19 +7202,19 @@
     </row>
     <row r="3" spans="1:19" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A3" s="163"/>
-      <c r="B3" s="609"/>
-      <c r="C3" s="610"/>
-      <c r="D3" s="611"/>
-      <c r="E3" s="618" t="s">
+      <c r="B3" s="612"/>
+      <c r="C3" s="613"/>
+      <c r="D3" s="614"/>
+      <c r="E3" s="621" t="s">
         <v>51</v>
       </c>
-      <c r="F3" s="619"/>
-      <c r="G3" s="619"/>
-      <c r="H3" s="620"/>
-      <c r="I3" s="623"/>
-      <c r="J3" s="624"/>
-      <c r="K3" s="627"/>
-      <c r="L3" s="628"/>
+      <c r="F3" s="622"/>
+      <c r="G3" s="622"/>
+      <c r="H3" s="623"/>
+      <c r="I3" s="626"/>
+      <c r="J3" s="627"/>
+      <c r="K3" s="630"/>
+      <c r="L3" s="631"/>
       <c r="M3" s="169"/>
       <c r="N3" s="170"/>
       <c r="O3" s="170"/>
@@ -7225,9 +7225,9 @@
     </row>
     <row r="4" spans="1:19" ht="17.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A4" s="163"/>
-      <c r="B4" s="612"/>
-      <c r="C4" s="613"/>
-      <c r="D4" s="614"/>
+      <c r="B4" s="615"/>
+      <c r="C4" s="616"/>
+      <c r="D4" s="617"/>
       <c r="E4" s="243"/>
       <c r="F4" s="243"/>
       <c r="G4" s="243"/>
@@ -7246,22 +7246,22 @@
     </row>
     <row r="5" spans="1:19" ht="24.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A5" s="163"/>
-      <c r="B5" s="598" t="s">
+      <c r="B5" s="588" t="s">
         <v>13</v>
       </c>
-      <c r="C5" s="629"/>
-      <c r="D5" s="510" t="str">
+      <c r="C5" s="603"/>
+      <c r="D5" s="512" t="str">
         <f>Данные!$A5</f>
         <v>PCI</v>
       </c>
-      <c r="E5" s="511"/>
-      <c r="F5" s="511"/>
-      <c r="G5" s="511"/>
-      <c r="H5" s="512"/>
-      <c r="I5" s="630"/>
-      <c r="J5" s="631"/>
-      <c r="K5" s="632"/>
-      <c r="L5" s="512"/>
+      <c r="E5" s="513"/>
+      <c r="F5" s="513"/>
+      <c r="G5" s="513"/>
+      <c r="H5" s="514"/>
+      <c r="I5" s="604"/>
+      <c r="J5" s="605"/>
+      <c r="K5" s="606"/>
+      <c r="L5" s="514"/>
       <c r="M5" s="172"/>
       <c r="N5" s="170"/>
       <c r="O5" s="170"/>
@@ -7272,22 +7272,22 @@
     </row>
     <row r="6" spans="1:19" ht="17.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A6" s="163"/>
-      <c r="B6" s="598" t="s">
+      <c r="B6" s="588" t="s">
         <v>12</v>
       </c>
-      <c r="C6" s="629"/>
-      <c r="D6" s="504" t="str">
+      <c r="C6" s="603"/>
+      <c r="D6" s="506" t="str">
         <f>Данные!$A2</f>
         <v>III-2-82-450-1 (Банка 0,45 л.)</v>
       </c>
-      <c r="E6" s="601"/>
-      <c r="F6" s="601"/>
-      <c r="G6" s="601"/>
-      <c r="H6" s="602"/>
-      <c r="I6" s="630"/>
-      <c r="J6" s="631"/>
-      <c r="K6" s="632"/>
-      <c r="L6" s="512"/>
+      <c r="E6" s="593"/>
+      <c r="F6" s="593"/>
+      <c r="G6" s="593"/>
+      <c r="H6" s="594"/>
+      <c r="I6" s="604"/>
+      <c r="J6" s="605"/>
+      <c r="K6" s="606"/>
+      <c r="L6" s="514"/>
       <c r="M6" s="169"/>
       <c r="N6" s="170"/>
       <c r="O6" s="170"/>
@@ -7298,27 +7298,27 @@
     </row>
     <row r="7" spans="1:19" ht="66" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A7" s="163"/>
-      <c r="B7" s="562" t="s">
+      <c r="B7" s="598" t="s">
         <v>14</v>
       </c>
-      <c r="C7" s="633"/>
-      <c r="D7" s="513">
+      <c r="C7" s="607"/>
+      <c r="D7" s="515">
         <f>Данные!$A8</f>
         <v>0</v>
       </c>
-      <c r="E7" s="564"/>
-      <c r="F7" s="564"/>
-      <c r="G7" s="564"/>
-      <c r="H7" s="565"/>
-      <c r="I7" s="634" t="s">
+      <c r="E7" s="600"/>
+      <c r="F7" s="600"/>
+      <c r="G7" s="600"/>
+      <c r="H7" s="601"/>
+      <c r="I7" s="608" t="s">
         <v>15</v>
       </c>
-      <c r="J7" s="633"/>
-      <c r="K7" s="501">
+      <c r="J7" s="607"/>
+      <c r="K7" s="503">
         <f>Данные!$A11</f>
         <v>0</v>
       </c>
-      <c r="L7" s="502"/>
+      <c r="L7" s="504"/>
       <c r="M7" s="172"/>
       <c r="N7" s="170"/>
       <c r="O7" s="170"/>
@@ -7696,17 +7696,22 @@
       <c r="R21" s="474"/>
     </row>
     <row r="22" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="O22" s="567" t="s">
+      <c r="O22" s="557" t="s">
         <v>139</v>
       </c>
-      <c r="P22" s="567"/>
-      <c r="Q22" s="568" t="s">
+      <c r="P22" s="557"/>
+      <c r="Q22" s="558" t="s">
         <v>140</v>
       </c>
-      <c r="R22" s="569"/>
+      <c r="R22" s="559"/>
     </row>
   </sheetData>
   <mergeCells count="21">
+    <mergeCell ref="K2:L3"/>
+    <mergeCell ref="L21:N21"/>
+    <mergeCell ref="K7:L7"/>
+    <mergeCell ref="K6:L6"/>
+    <mergeCell ref="K5:L5"/>
     <mergeCell ref="O22:P22"/>
     <mergeCell ref="Q22:R22"/>
     <mergeCell ref="B2:D4"/>
@@ -7723,11 +7728,6 @@
     <mergeCell ref="P2:Q2"/>
     <mergeCell ref="E3:H3"/>
     <mergeCell ref="I2:J3"/>
-    <mergeCell ref="K2:L3"/>
-    <mergeCell ref="L21:N21"/>
-    <mergeCell ref="K7:L7"/>
-    <mergeCell ref="K6:L6"/>
-    <mergeCell ref="K5:L5"/>
   </mergeCells>
   <conditionalFormatting sqref="R14:R15">
     <cfRule type="cellIs" dxfId="4" priority="1" stopIfTrue="1" operator="equal">
@@ -7793,47 +7793,47 @@
     </row>
     <row r="2" spans="1:19" ht="23.25" x14ac:dyDescent="0.2">
       <c r="A2" s="202"/>
-      <c r="B2" s="606"/>
-      <c r="C2" s="607"/>
-      <c r="D2" s="608"/>
-      <c r="E2" s="615" t="s">
+      <c r="B2" s="609"/>
+      <c r="C2" s="610"/>
+      <c r="D2" s="611"/>
+      <c r="E2" s="618" t="s">
         <v>10</v>
       </c>
-      <c r="F2" s="616"/>
-      <c r="G2" s="616"/>
-      <c r="H2" s="617"/>
-      <c r="I2" s="621" t="s">
+      <c r="F2" s="619"/>
+      <c r="G2" s="619"/>
+      <c r="H2" s="620"/>
+      <c r="I2" s="624" t="s">
         <v>11</v>
       </c>
-      <c r="J2" s="622"/>
-      <c r="K2" s="625">
+      <c r="J2" s="625"/>
+      <c r="K2" s="628">
         <f>Данные!B25</f>
         <v>30</v>
       </c>
-      <c r="L2" s="626"/>
+      <c r="L2" s="629"/>
       <c r="M2" s="203"/>
       <c r="N2" s="204"/>
       <c r="O2" s="205"/>
-      <c r="P2" s="648"/>
-      <c r="Q2" s="648"/>
+      <c r="P2" s="645"/>
+      <c r="Q2" s="645"/>
       <c r="R2" s="206"/>
       <c r="S2" s="207"/>
     </row>
     <row r="3" spans="1:19" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A3" s="202"/>
-      <c r="B3" s="609"/>
-      <c r="C3" s="610"/>
-      <c r="D3" s="611"/>
-      <c r="E3" s="618" t="s">
+      <c r="B3" s="612"/>
+      <c r="C3" s="613"/>
+      <c r="D3" s="614"/>
+      <c r="E3" s="621" t="s">
         <v>91</v>
       </c>
-      <c r="F3" s="619"/>
-      <c r="G3" s="619"/>
-      <c r="H3" s="620"/>
-      <c r="I3" s="623"/>
-      <c r="J3" s="624"/>
-      <c r="K3" s="627"/>
-      <c r="L3" s="628"/>
+      <c r="F3" s="622"/>
+      <c r="G3" s="622"/>
+      <c r="H3" s="623"/>
+      <c r="I3" s="626"/>
+      <c r="J3" s="627"/>
+      <c r="K3" s="630"/>
+      <c r="L3" s="631"/>
       <c r="M3" s="208"/>
       <c r="N3" s="209"/>
       <c r="O3" s="209"/>
@@ -7844,9 +7844,9 @@
     </row>
     <row r="4" spans="1:19" ht="17.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A4" s="202"/>
-      <c r="B4" s="612"/>
-      <c r="C4" s="613"/>
-      <c r="D4" s="614"/>
+      <c r="B4" s="615"/>
+      <c r="C4" s="616"/>
+      <c r="D4" s="617"/>
       <c r="E4" s="243"/>
       <c r="F4" s="243"/>
       <c r="G4" s="243"/>
@@ -7865,22 +7865,22 @@
     </row>
     <row r="5" spans="1:19" ht="24.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A5" s="202"/>
-      <c r="B5" s="598" t="s">
+      <c r="B5" s="588" t="s">
         <v>13</v>
       </c>
-      <c r="C5" s="629"/>
-      <c r="D5" s="510" t="str">
+      <c r="C5" s="603"/>
+      <c r="D5" s="512" t="str">
         <f>Данные!$A5</f>
         <v>PCI</v>
       </c>
-      <c r="E5" s="511"/>
-      <c r="F5" s="511"/>
-      <c r="G5" s="511"/>
-      <c r="H5" s="512"/>
-      <c r="I5" s="630"/>
-      <c r="J5" s="631"/>
-      <c r="K5" s="632"/>
-      <c r="L5" s="512"/>
+      <c r="E5" s="513"/>
+      <c r="F5" s="513"/>
+      <c r="G5" s="513"/>
+      <c r="H5" s="514"/>
+      <c r="I5" s="604"/>
+      <c r="J5" s="605"/>
+      <c r="K5" s="606"/>
+      <c r="L5" s="514"/>
       <c r="M5" s="211"/>
       <c r="N5" s="209"/>
       <c r="O5" s="209"/>
@@ -7891,22 +7891,22 @@
     </row>
     <row r="6" spans="1:19" ht="17.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A6" s="202"/>
-      <c r="B6" s="598" t="s">
+      <c r="B6" s="588" t="s">
         <v>12</v>
       </c>
-      <c r="C6" s="629"/>
-      <c r="D6" s="504" t="str">
+      <c r="C6" s="603"/>
+      <c r="D6" s="506" t="str">
         <f>Данные!$A2</f>
         <v>III-2-82-450-1 (Банка 0,45 л.)</v>
       </c>
-      <c r="E6" s="601"/>
-      <c r="F6" s="601"/>
-      <c r="G6" s="601"/>
-      <c r="H6" s="602"/>
-      <c r="I6" s="630"/>
-      <c r="J6" s="631"/>
-      <c r="K6" s="632"/>
-      <c r="L6" s="512"/>
+      <c r="E6" s="593"/>
+      <c r="F6" s="593"/>
+      <c r="G6" s="593"/>
+      <c r="H6" s="594"/>
+      <c r="I6" s="604"/>
+      <c r="J6" s="605"/>
+      <c r="K6" s="606"/>
+      <c r="L6" s="514"/>
       <c r="M6" s="208"/>
       <c r="N6" s="209"/>
       <c r="O6" s="209"/>
@@ -7917,27 +7917,27 @@
     </row>
     <row r="7" spans="1:19" ht="69.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A7" s="202"/>
-      <c r="B7" s="562" t="s">
+      <c r="B7" s="598" t="s">
         <v>14</v>
       </c>
-      <c r="C7" s="633"/>
-      <c r="D7" s="513">
+      <c r="C7" s="607"/>
+      <c r="D7" s="515">
         <f>Данные!$A8</f>
         <v>0</v>
       </c>
-      <c r="E7" s="564"/>
-      <c r="F7" s="564"/>
-      <c r="G7" s="564"/>
-      <c r="H7" s="565"/>
-      <c r="I7" s="634" t="s">
+      <c r="E7" s="600"/>
+      <c r="F7" s="600"/>
+      <c r="G7" s="600"/>
+      <c r="H7" s="601"/>
+      <c r="I7" s="608" t="s">
         <v>15</v>
       </c>
-      <c r="J7" s="633"/>
-      <c r="K7" s="501">
+      <c r="J7" s="607"/>
+      <c r="K7" s="503">
         <f>Данные!$A11</f>
         <v>0</v>
       </c>
-      <c r="L7" s="502"/>
+      <c r="L7" s="504"/>
       <c r="M7" s="211"/>
       <c r="N7" s="209"/>
       <c r="O7" s="209"/>
@@ -8250,12 +8250,12 @@
     </row>
     <row r="18" spans="1:19" ht="24.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A18" s="212"/>
-      <c r="B18" s="645" t="s">
+      <c r="B18" s="646" t="s">
         <v>53</v>
       </c>
-      <c r="C18" s="646"/>
-      <c r="D18" s="646"/>
-      <c r="E18" s="647"/>
+      <c r="C18" s="647"/>
+      <c r="D18" s="647"/>
+      <c r="E18" s="648"/>
       <c r="F18" s="114" t="s">
         <v>16</v>
       </c>
@@ -8309,17 +8309,26 @@
       <c r="R21" s="474"/>
     </row>
     <row r="22" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="O22" s="567" t="s">
+      <c r="O22" s="557" t="s">
         <v>139</v>
       </c>
-      <c r="P22" s="567"/>
-      <c r="Q22" s="568" t="s">
+      <c r="P22" s="557"/>
+      <c r="Q22" s="558" t="s">
         <v>140</v>
       </c>
-      <c r="R22" s="569"/>
+      <c r="R22" s="559"/>
     </row>
   </sheetData>
   <mergeCells count="22">
+    <mergeCell ref="B2:D4"/>
+    <mergeCell ref="B18:E18"/>
+    <mergeCell ref="E2:H2"/>
+    <mergeCell ref="B7:C7"/>
+    <mergeCell ref="D7:H7"/>
+    <mergeCell ref="B6:C6"/>
+    <mergeCell ref="D6:H6"/>
+    <mergeCell ref="B5:C5"/>
+    <mergeCell ref="D5:H5"/>
     <mergeCell ref="O22:P22"/>
     <mergeCell ref="Q22:R22"/>
     <mergeCell ref="P2:Q2"/>
@@ -8333,15 +8342,6 @@
     <mergeCell ref="I6:J6"/>
     <mergeCell ref="K6:L6"/>
     <mergeCell ref="L21:N21"/>
-    <mergeCell ref="B2:D4"/>
-    <mergeCell ref="B18:E18"/>
-    <mergeCell ref="E2:H2"/>
-    <mergeCell ref="B7:C7"/>
-    <mergeCell ref="D7:H7"/>
-    <mergeCell ref="B6:C6"/>
-    <mergeCell ref="D6:H6"/>
-    <mergeCell ref="B5:C5"/>
-    <mergeCell ref="D5:H5"/>
   </mergeCells>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0" right="0" top="0" bottom="0" header="0" footer="0"/>
@@ -8416,24 +8416,24 @@
     </row>
     <row r="2" spans="1:19" ht="23.25" x14ac:dyDescent="0.2">
       <c r="A2" s="130"/>
-      <c r="B2" s="606"/>
-      <c r="C2" s="607"/>
-      <c r="D2" s="608"/>
-      <c r="E2" s="615" t="s">
+      <c r="B2" s="609"/>
+      <c r="C2" s="610"/>
+      <c r="D2" s="611"/>
+      <c r="E2" s="618" t="s">
         <v>10</v>
       </c>
-      <c r="F2" s="616"/>
-      <c r="G2" s="616"/>
-      <c r="H2" s="617"/>
-      <c r="I2" s="621" t="s">
+      <c r="F2" s="619"/>
+      <c r="G2" s="619"/>
+      <c r="H2" s="620"/>
+      <c r="I2" s="624" t="s">
         <v>11</v>
       </c>
-      <c r="J2" s="622"/>
-      <c r="K2" s="625">
+      <c r="J2" s="625"/>
+      <c r="K2" s="628">
         <f>Данные!B26</f>
         <v>0</v>
       </c>
-      <c r="L2" s="626"/>
+      <c r="L2" s="629"/>
       <c r="M2" s="131"/>
       <c r="N2" s="132"/>
       <c r="O2" s="133"/>
@@ -8444,19 +8444,19 @@
     </row>
     <row r="3" spans="1:19" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A3" s="130"/>
-      <c r="B3" s="609"/>
-      <c r="C3" s="610"/>
-      <c r="D3" s="611"/>
-      <c r="E3" s="618" t="s">
+      <c r="B3" s="612"/>
+      <c r="C3" s="613"/>
+      <c r="D3" s="614"/>
+      <c r="E3" s="621" t="s">
         <v>54</v>
       </c>
-      <c r="F3" s="619"/>
-      <c r="G3" s="619"/>
-      <c r="H3" s="620"/>
-      <c r="I3" s="623"/>
-      <c r="J3" s="624"/>
-      <c r="K3" s="627"/>
-      <c r="L3" s="628"/>
+      <c r="F3" s="622"/>
+      <c r="G3" s="622"/>
+      <c r="H3" s="623"/>
+      <c r="I3" s="626"/>
+      <c r="J3" s="627"/>
+      <c r="K3" s="630"/>
+      <c r="L3" s="631"/>
       <c r="M3" s="136"/>
       <c r="N3" s="137"/>
       <c r="O3" s="137"/>
@@ -8467,9 +8467,9 @@
     </row>
     <row r="4" spans="1:19" ht="17.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A4" s="130"/>
-      <c r="B4" s="612"/>
-      <c r="C4" s="613"/>
-      <c r="D4" s="614"/>
+      <c r="B4" s="615"/>
+      <c r="C4" s="616"/>
+      <c r="D4" s="617"/>
       <c r="E4" s="243"/>
       <c r="F4" s="243"/>
       <c r="G4" s="243"/>
@@ -8488,22 +8488,22 @@
     </row>
     <row r="5" spans="1:19" ht="24.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A5" s="130"/>
-      <c r="B5" s="598" t="s">
+      <c r="B5" s="588" t="s">
         <v>13</v>
       </c>
-      <c r="C5" s="629"/>
-      <c r="D5" s="510" t="str">
+      <c r="C5" s="603"/>
+      <c r="D5" s="512" t="str">
         <f>Данные!$A5</f>
         <v>PCI</v>
       </c>
-      <c r="E5" s="511"/>
-      <c r="F5" s="511"/>
-      <c r="G5" s="511"/>
-      <c r="H5" s="512"/>
-      <c r="I5" s="630"/>
-      <c r="J5" s="631"/>
-      <c r="K5" s="632"/>
-      <c r="L5" s="512"/>
+      <c r="E5" s="513"/>
+      <c r="F5" s="513"/>
+      <c r="G5" s="513"/>
+      <c r="H5" s="514"/>
+      <c r="I5" s="604"/>
+      <c r="J5" s="605"/>
+      <c r="K5" s="606"/>
+      <c r="L5" s="514"/>
       <c r="M5" s="139"/>
       <c r="N5" s="137"/>
       <c r="O5" s="137"/>
@@ -8514,22 +8514,22 @@
     </row>
     <row r="6" spans="1:19" ht="17.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A6" s="130"/>
-      <c r="B6" s="598" t="s">
+      <c r="B6" s="588" t="s">
         <v>12</v>
       </c>
-      <c r="C6" s="629"/>
-      <c r="D6" s="504" t="str">
+      <c r="C6" s="603"/>
+      <c r="D6" s="506" t="str">
         <f>Данные!$A2</f>
         <v>III-2-82-450-1 (Банка 0,45 л.)</v>
       </c>
-      <c r="E6" s="601"/>
-      <c r="F6" s="601"/>
-      <c r="G6" s="601"/>
-      <c r="H6" s="602"/>
-      <c r="I6" s="630"/>
-      <c r="J6" s="631"/>
-      <c r="K6" s="632"/>
-      <c r="L6" s="512"/>
+      <c r="E6" s="593"/>
+      <c r="F6" s="593"/>
+      <c r="G6" s="593"/>
+      <c r="H6" s="594"/>
+      <c r="I6" s="604"/>
+      <c r="J6" s="605"/>
+      <c r="K6" s="606"/>
+      <c r="L6" s="514"/>
       <c r="M6" s="136"/>
       <c r="N6" s="137"/>
       <c r="O6" s="137"/>
@@ -8540,27 +8540,27 @@
     </row>
     <row r="7" spans="1:19" ht="65.25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A7" s="130"/>
-      <c r="B7" s="562" t="s">
+      <c r="B7" s="598" t="s">
         <v>14</v>
       </c>
-      <c r="C7" s="633"/>
-      <c r="D7" s="513">
+      <c r="C7" s="607"/>
+      <c r="D7" s="515">
         <f>Данные!$A8</f>
         <v>0</v>
       </c>
-      <c r="E7" s="564"/>
-      <c r="F7" s="564"/>
-      <c r="G7" s="564"/>
-      <c r="H7" s="565"/>
-      <c r="I7" s="634" t="s">
+      <c r="E7" s="600"/>
+      <c r="F7" s="600"/>
+      <c r="G7" s="600"/>
+      <c r="H7" s="601"/>
+      <c r="I7" s="608" t="s">
         <v>15</v>
       </c>
-      <c r="J7" s="633"/>
-      <c r="K7" s="501">
+      <c r="J7" s="607"/>
+      <c r="K7" s="503">
         <f>Данные!$A11</f>
         <v>0</v>
       </c>
-      <c r="L7" s="502"/>
+      <c r="L7" s="504"/>
       <c r="M7" s="139"/>
       <c r="N7" s="137"/>
       <c r="O7" s="137"/>
@@ -8874,17 +8874,22 @@
       <c r="R19" s="474"/>
     </row>
     <row r="20" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="O20" s="567" t="s">
+      <c r="O20" s="557" t="s">
         <v>139</v>
       </c>
-      <c r="P20" s="567"/>
-      <c r="Q20" s="568" t="s">
+      <c r="P20" s="557"/>
+      <c r="Q20" s="558" t="s">
         <v>140</v>
       </c>
-      <c r="R20" s="569"/>
+      <c r="R20" s="559"/>
     </row>
   </sheetData>
   <mergeCells count="21">
+    <mergeCell ref="K2:L3"/>
+    <mergeCell ref="L19:N19"/>
+    <mergeCell ref="K7:L7"/>
+    <mergeCell ref="K6:L6"/>
+    <mergeCell ref="K5:L5"/>
     <mergeCell ref="O20:P20"/>
     <mergeCell ref="Q20:R20"/>
     <mergeCell ref="B2:D4"/>
@@ -8901,11 +8906,6 @@
     <mergeCell ref="P2:Q2"/>
     <mergeCell ref="E3:H3"/>
     <mergeCell ref="I2:J3"/>
-    <mergeCell ref="K2:L3"/>
-    <mergeCell ref="L19:N19"/>
-    <mergeCell ref="K7:L7"/>
-    <mergeCell ref="K6:L6"/>
-    <mergeCell ref="K5:L5"/>
   </mergeCells>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.2" right="0.2" top="0.17" bottom="0" header="0" footer="0"/>
@@ -8962,47 +8962,47 @@
     </row>
     <row r="2" spans="1:19" ht="23.25" x14ac:dyDescent="0.2">
       <c r="A2" s="259"/>
-      <c r="B2" s="606"/>
-      <c r="C2" s="607"/>
-      <c r="D2" s="608"/>
-      <c r="E2" s="615" t="s">
+      <c r="B2" s="609"/>
+      <c r="C2" s="610"/>
+      <c r="D2" s="611"/>
+      <c r="E2" s="618" t="s">
         <v>10</v>
       </c>
-      <c r="F2" s="616"/>
-      <c r="G2" s="616"/>
-      <c r="H2" s="617"/>
-      <c r="I2" s="621" t="s">
+      <c r="F2" s="619"/>
+      <c r="G2" s="619"/>
+      <c r="H2" s="620"/>
+      <c r="I2" s="624" t="s">
         <v>11</v>
       </c>
-      <c r="J2" s="622"/>
-      <c r="K2" s="650">
+      <c r="J2" s="625"/>
+      <c r="K2" s="651">
         <f>Данные!B23</f>
         <v>0</v>
       </c>
-      <c r="L2" s="651"/>
+      <c r="L2" s="652"/>
       <c r="M2" s="260"/>
       <c r="N2" s="261"/>
       <c r="O2" s="262"/>
-      <c r="P2" s="654"/>
-      <c r="Q2" s="654"/>
+      <c r="P2" s="650"/>
+      <c r="Q2" s="650"/>
       <c r="R2" s="263"/>
       <c r="S2" s="264"/>
     </row>
     <row r="3" spans="1:19" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A3" s="259"/>
-      <c r="B3" s="609"/>
-      <c r="C3" s="610"/>
-      <c r="D3" s="611"/>
-      <c r="E3" s="618" t="s">
+      <c r="B3" s="612"/>
+      <c r="C3" s="613"/>
+      <c r="D3" s="614"/>
+      <c r="E3" s="621" t="s">
         <v>55</v>
       </c>
-      <c r="F3" s="619"/>
-      <c r="G3" s="619"/>
-      <c r="H3" s="620"/>
-      <c r="I3" s="623"/>
-      <c r="J3" s="624"/>
-      <c r="K3" s="652"/>
-      <c r="L3" s="653"/>
+      <c r="F3" s="622"/>
+      <c r="G3" s="622"/>
+      <c r="H3" s="623"/>
+      <c r="I3" s="626"/>
+      <c r="J3" s="627"/>
+      <c r="K3" s="653"/>
+      <c r="L3" s="654"/>
       <c r="M3" s="265"/>
       <c r="N3" s="266"/>
       <c r="O3" s="266"/>
@@ -9013,9 +9013,9 @@
     </row>
     <row r="4" spans="1:19" ht="17.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A4" s="259"/>
-      <c r="B4" s="612"/>
-      <c r="C4" s="613"/>
-      <c r="D4" s="614"/>
+      <c r="B4" s="615"/>
+      <c r="C4" s="616"/>
+      <c r="D4" s="617"/>
       <c r="E4" s="243"/>
       <c r="F4" s="243"/>
       <c r="G4" s="243"/>
@@ -9034,22 +9034,22 @@
     </row>
     <row r="5" spans="1:19" ht="24.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A5" s="259"/>
-      <c r="B5" s="598" t="s">
+      <c r="B5" s="588" t="s">
         <v>13</v>
       </c>
-      <c r="C5" s="629"/>
-      <c r="D5" s="510" t="str">
+      <c r="C5" s="603"/>
+      <c r="D5" s="512" t="str">
         <f>Данные!$A5</f>
         <v>PCI</v>
       </c>
-      <c r="E5" s="511"/>
-      <c r="F5" s="511"/>
-      <c r="G5" s="511"/>
-      <c r="H5" s="512"/>
-      <c r="I5" s="630"/>
-      <c r="J5" s="631"/>
-      <c r="K5" s="632"/>
-      <c r="L5" s="512"/>
+      <c r="E5" s="513"/>
+      <c r="F5" s="513"/>
+      <c r="G5" s="513"/>
+      <c r="H5" s="514"/>
+      <c r="I5" s="604"/>
+      <c r="J5" s="605"/>
+      <c r="K5" s="606"/>
+      <c r="L5" s="514"/>
       <c r="M5" s="268"/>
       <c r="N5" s="266"/>
       <c r="O5" s="266"/>
@@ -9060,22 +9060,22 @@
     </row>
     <row r="6" spans="1:19" ht="17.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A6" s="259"/>
-      <c r="B6" s="598" t="s">
+      <c r="B6" s="588" t="s">
         <v>12</v>
       </c>
-      <c r="C6" s="629"/>
-      <c r="D6" s="504" t="str">
+      <c r="C6" s="603"/>
+      <c r="D6" s="506" t="str">
         <f>Данные!$A2</f>
         <v>III-2-82-450-1 (Банка 0,45 л.)</v>
       </c>
-      <c r="E6" s="601"/>
-      <c r="F6" s="601"/>
-      <c r="G6" s="601"/>
-      <c r="H6" s="602"/>
-      <c r="I6" s="630"/>
-      <c r="J6" s="631"/>
-      <c r="K6" s="632"/>
-      <c r="L6" s="512"/>
+      <c r="E6" s="593"/>
+      <c r="F6" s="593"/>
+      <c r="G6" s="593"/>
+      <c r="H6" s="594"/>
+      <c r="I6" s="604"/>
+      <c r="J6" s="605"/>
+      <c r="K6" s="606"/>
+      <c r="L6" s="514"/>
       <c r="M6" s="265"/>
       <c r="N6" s="266"/>
       <c r="O6" s="266"/>
@@ -9086,27 +9086,27 @@
     </row>
     <row r="7" spans="1:19" ht="78.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A7" s="259"/>
-      <c r="B7" s="562" t="s">
+      <c r="B7" s="598" t="s">
         <v>14</v>
       </c>
-      <c r="C7" s="633"/>
-      <c r="D7" s="513">
+      <c r="C7" s="607"/>
+      <c r="D7" s="515">
         <f>Данные!$A8</f>
         <v>0</v>
       </c>
-      <c r="E7" s="564"/>
-      <c r="F7" s="564"/>
-      <c r="G7" s="564"/>
-      <c r="H7" s="565"/>
-      <c r="I7" s="634" t="s">
+      <c r="E7" s="600"/>
+      <c r="F7" s="600"/>
+      <c r="G7" s="600"/>
+      <c r="H7" s="601"/>
+      <c r="I7" s="608" t="s">
         <v>15</v>
       </c>
-      <c r="J7" s="633"/>
-      <c r="K7" s="501">
+      <c r="J7" s="607"/>
+      <c r="K7" s="503">
         <f>Данные!$A11</f>
         <v>0</v>
       </c>
-      <c r="L7" s="502"/>
+      <c r="L7" s="504"/>
       <c r="M7" s="268"/>
       <c r="N7" s="266"/>
       <c r="O7" s="266"/>
@@ -9387,17 +9387,22 @@
       <c r="R18" s="474"/>
     </row>
     <row r="19" spans="12:18" x14ac:dyDescent="0.2">
-      <c r="O19" s="567" t="s">
+      <c r="O19" s="557" t="s">
         <v>139</v>
       </c>
-      <c r="P19" s="567"/>
-      <c r="Q19" s="568" t="s">
+      <c r="P19" s="557"/>
+      <c r="Q19" s="558" t="s">
         <v>140</v>
       </c>
-      <c r="R19" s="569"/>
+      <c r="R19" s="559"/>
     </row>
   </sheetData>
   <mergeCells count="21">
+    <mergeCell ref="K6:L6"/>
+    <mergeCell ref="B5:C5"/>
+    <mergeCell ref="I2:J3"/>
+    <mergeCell ref="K2:L3"/>
+    <mergeCell ref="D5:H5"/>
     <mergeCell ref="Q19:R19"/>
     <mergeCell ref="L18:N18"/>
     <mergeCell ref="I5:J5"/>
@@ -9414,11 +9419,6 @@
     <mergeCell ref="B6:C6"/>
     <mergeCell ref="D6:H6"/>
     <mergeCell ref="I6:J6"/>
-    <mergeCell ref="K6:L6"/>
-    <mergeCell ref="B5:C5"/>
-    <mergeCell ref="I2:J3"/>
-    <mergeCell ref="K2:L3"/>
-    <mergeCell ref="D5:H5"/>
   </mergeCells>
   <conditionalFormatting sqref="H15:R15">
     <cfRule type="cellIs" dxfId="2" priority="4" stopIfTrue="1" operator="notBetween">
@@ -9445,10 +9445,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:M68"/>
+  <dimension ref="A1:M71"/>
   <sheetViews>
     <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="120" zoomScaleNormal="100" zoomScaleSheetLayoutView="120" workbookViewId="0">
-      <selection activeCell="F12" sqref="F12"/>
+      <selection activeCell="B30" sqref="B30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -9503,17 +9503,17 @@
       <c r="L2" s="380"/>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A3" s="520" t="s">
+      <c r="A3" s="523" t="s">
         <v>143</v>
       </c>
-      <c r="B3" s="520"/>
-      <c r="C3" s="520"/>
-      <c r="D3" s="520"/>
-      <c r="E3" s="520"/>
-      <c r="F3" s="520"/>
-      <c r="G3" s="520"/>
-      <c r="H3" s="520"/>
-      <c r="I3" s="520"/>
+      <c r="B3" s="523"/>
+      <c r="C3" s="523"/>
+      <c r="D3" s="523"/>
+      <c r="E3" s="523"/>
+      <c r="F3" s="523"/>
+      <c r="G3" s="523"/>
+      <c r="H3" s="523"/>
+      <c r="I3" s="523"/>
       <c r="K3" s="381"/>
       <c r="L3" s="381"/>
       <c r="M3" s="382"/>
@@ -10024,7 +10024,7 @@
         <v>1071619</v>
       </c>
       <c r="G21" s="424">
-        <f t="shared" ref="G21:G28" si="2">F21/A$21</f>
+        <f t="shared" ref="G21:G29" si="2">F21/A$21</f>
         <v>6.3786845238095233E-2</v>
       </c>
       <c r="H21" s="425">
@@ -10286,15 +10286,36 @@
     </row>
     <row r="29" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A29" s="433"/>
-      <c r="B29" s="369"/>
-      <c r="C29" s="369"/>
-      <c r="D29" s="366"/>
-      <c r="E29" s="495"/>
-      <c r="F29" s="496"/>
-      <c r="G29" s="487"/>
-      <c r="H29" s="496"/>
-      <c r="I29" s="488"/>
-      <c r="J29" s="489"/>
+      <c r="B29" s="369" t="s">
+        <v>149</v>
+      </c>
+      <c r="C29" s="369">
+        <v>44354</v>
+      </c>
+      <c r="D29" s="369">
+        <v>44378</v>
+      </c>
+      <c r="E29" s="496">
+        <v>1467136</v>
+      </c>
+      <c r="F29" s="496">
+        <v>1528866</v>
+      </c>
+      <c r="G29" s="486">
+        <f t="shared" si="2"/>
+        <v>9.1003928571428569E-2</v>
+      </c>
+      <c r="H29" s="431">
+        <f t="shared" ref="H29" si="12">H28-F29</f>
+        <v>1408834</v>
+      </c>
+      <c r="I29" s="432">
+        <f t="shared" ref="I29" si="13">I28-G29</f>
+        <v>8.3859166666666748E-2</v>
+      </c>
+      <c r="J29" s="482">
+        <v>256</v>
+      </c>
       <c r="K29" s="427"/>
       <c r="L29" s="382"/>
     </row>
@@ -10302,234 +10323,246 @@
       <c r="A30" s="433"/>
       <c r="B30" s="369"/>
       <c r="C30" s="369"/>
-      <c r="D30" s="366"/>
-      <c r="E30" s="495"/>
+      <c r="D30" s="369"/>
+      <c r="E30" s="496"/>
       <c r="F30" s="496"/>
       <c r="G30" s="486"/>
-      <c r="H30" s="496"/>
-      <c r="I30" s="488"/>
-      <c r="J30" s="489"/>
+      <c r="H30" s="431"/>
+      <c r="I30" s="432"/>
+      <c r="J30" s="482"/>
       <c r="K30" s="427"/>
       <c r="L30" s="382"/>
     </row>
-    <row r="31" spans="1:12" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="437"/>
-      <c r="B31" s="490"/>
-      <c r="C31" s="490"/>
-      <c r="D31" s="491"/>
-      <c r="E31" s="497"/>
-      <c r="F31" s="498"/>
-      <c r="G31" s="492"/>
-      <c r="H31" s="499"/>
-      <c r="I31" s="493"/>
-      <c r="J31" s="494"/>
-      <c r="K31" s="382"/>
+    <row r="31" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A31" s="433"/>
+      <c r="B31" s="369"/>
+      <c r="C31" s="369"/>
+      <c r="D31" s="369"/>
+      <c r="E31" s="496"/>
+      <c r="F31" s="496"/>
+      <c r="G31" s="486"/>
+      <c r="H31" s="431"/>
+      <c r="I31" s="432"/>
+      <c r="J31" s="482"/>
+      <c r="K31" s="427"/>
       <c r="L31" s="382"/>
     </row>
-    <row r="32" spans="1:12" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="438" t="s">
+    <row r="32" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A32" s="433"/>
+      <c r="B32" s="369"/>
+      <c r="C32" s="369"/>
+      <c r="D32" s="366"/>
+      <c r="E32" s="495"/>
+      <c r="F32" s="496"/>
+      <c r="G32" s="487"/>
+      <c r="H32" s="496"/>
+      <c r="I32" s="488"/>
+      <c r="J32" s="489"/>
+      <c r="K32" s="427"/>
+      <c r="L32" s="382"/>
+    </row>
+    <row r="33" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A33" s="433"/>
+      <c r="B33" s="369"/>
+      <c r="C33" s="369"/>
+      <c r="D33" s="366"/>
+      <c r="E33" s="495"/>
+      <c r="F33" s="496"/>
+      <c r="G33" s="486"/>
+      <c r="H33" s="496"/>
+      <c r="I33" s="488"/>
+      <c r="J33" s="489"/>
+      <c r="K33" s="427"/>
+      <c r="L33" s="382"/>
+    </row>
+    <row r="34" spans="1:12" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A34" s="437"/>
+      <c r="B34" s="490"/>
+      <c r="C34" s="490"/>
+      <c r="D34" s="491"/>
+      <c r="E34" s="497"/>
+      <c r="F34" s="498"/>
+      <c r="G34" s="492"/>
+      <c r="H34" s="499"/>
+      <c r="I34" s="493"/>
+      <c r="J34" s="494"/>
+      <c r="K34" s="382"/>
+      <c r="L34" s="382"/>
+    </row>
+    <row r="35" spans="1:12" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A35" s="438" t="s">
         <v>126</v>
       </c>
-      <c r="B32" s="439"/>
-      <c r="C32" s="439"/>
-      <c r="D32" s="440"/>
-      <c r="E32" s="476">
-        <f>SUM(E21:E31)</f>
-        <v>13283472</v>
-      </c>
-      <c r="F32" s="477">
-        <f>SUM(F21:F31)</f>
-        <v>13862300</v>
-      </c>
-      <c r="G32" s="441">
-        <f>SUM(G21:G31)</f>
-        <v>0.82513690476190482</v>
-      </c>
-      <c r="H32" s="442">
-        <f>A21-F32</f>
-        <v>2937700</v>
-      </c>
-      <c r="I32" s="443">
-        <f>1-G32</f>
-        <v>0.17486309523809518</v>
-      </c>
-      <c r="J32" s="483"/>
-      <c r="K32" s="444"/>
-      <c r="L32" s="444"/>
-    </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A35" s="382"/>
-      <c r="B35" s="382"/>
-      <c r="C35" s="382"/>
-      <c r="D35" s="382"/>
-      <c r="E35" s="382"/>
-      <c r="F35" s="382"/>
-      <c r="G35" s="382"/>
-      <c r="H35" s="382"/>
-      <c r="I35" s="382"/>
-      <c r="J35" s="382"/>
-    </row>
-    <row r="36" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="521" t="s">
+      <c r="B35" s="439"/>
+      <c r="C35" s="439"/>
+      <c r="D35" s="440"/>
+      <c r="E35" s="476">
+        <f>SUM(E21:E34)</f>
+        <v>14750608</v>
+      </c>
+      <c r="F35" s="477">
+        <f>SUM(F21:F34)</f>
+        <v>15391166</v>
+      </c>
+      <c r="G35" s="441">
+        <f>SUM(G21:G34)</f>
+        <v>0.9161408333333334</v>
+      </c>
+      <c r="H35" s="442">
+        <f>A21-F35</f>
+        <v>1408834</v>
+      </c>
+      <c r="I35" s="443">
+        <f>1-G35</f>
+        <v>8.3859166666666596E-2</v>
+      </c>
+      <c r="J35" s="483"/>
+      <c r="K35" s="444"/>
+      <c r="L35" s="444"/>
+    </row>
+    <row r="38" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A38" s="382"/>
+      <c r="B38" s="382"/>
+      <c r="C38" s="382"/>
+      <c r="D38" s="382"/>
+      <c r="E38" s="382"/>
+      <c r="F38" s="382"/>
+      <c r="G38" s="382"/>
+      <c r="H38" s="382"/>
+      <c r="I38" s="382"/>
+      <c r="J38" s="382"/>
+    </row>
+    <row r="39" spans="1:12" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A39" s="524" t="s">
         <v>127</v>
       </c>
-      <c r="B36" s="521"/>
-      <c r="C36" s="521"/>
-      <c r="D36" s="521"/>
-      <c r="E36" s="382"/>
-      <c r="F36" s="382"/>
-      <c r="G36" s="382"/>
-      <c r="H36" s="382"/>
-      <c r="I36" s="382"/>
-      <c r="J36" s="382"/>
-    </row>
-    <row r="37" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A37" s="522" t="s">
-        <v>128</v>
-      </c>
-      <c r="B37" s="522"/>
-      <c r="C37" s="445" t="s">
-        <v>129</v>
-      </c>
-      <c r="D37" s="445" t="s">
-        <v>130</v>
-      </c>
-      <c r="E37" s="382"/>
-      <c r="F37" s="382"/>
-      <c r="G37" s="382"/>
-      <c r="H37" s="382"/>
-      <c r="I37" s="382"/>
-      <c r="J37" s="382"/>
-    </row>
-    <row r="38" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A38" s="523">
-        <f>A21-F32</f>
-        <v>2937700</v>
-      </c>
-      <c r="B38" s="524"/>
-      <c r="C38" s="446">
-        <f>1-G32</f>
-        <v>0.17486309523809518</v>
-      </c>
-      <c r="D38" s="447">
-        <f>(C38/0.8)*100</f>
-        <v>21.857886904761898</v>
-      </c>
-      <c r="E38" s="448" t="s">
-        <v>131</v>
-      </c>
-      <c r="F38" s="448"/>
-      <c r="G38" s="448"/>
-      <c r="H38" s="448"/>
-      <c r="I38" s="448"/>
-      <c r="J38" s="448"/>
-    </row>
-    <row r="39" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A39" s="382"/>
-      <c r="B39" s="382"/>
-      <c r="C39" s="382"/>
-      <c r="D39" s="382"/>
+      <c r="B39" s="524"/>
+      <c r="C39" s="524"/>
+      <c r="D39" s="524"/>
       <c r="E39" s="382"/>
       <c r="F39" s="382"/>
-    </row>
-    <row r="40" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A40" s="382"/>
-      <c r="B40" s="382"/>
-      <c r="C40" s="382"/>
-      <c r="D40" s="382"/>
+      <c r="G39" s="382"/>
+      <c r="H39" s="382"/>
+      <c r="I39" s="382"/>
+      <c r="J39" s="382"/>
+    </row>
+    <row r="40" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A40" s="525" t="s">
+        <v>128</v>
+      </c>
+      <c r="B40" s="525"/>
+      <c r="C40" s="445" t="s">
+        <v>129</v>
+      </c>
+      <c r="D40" s="445" t="s">
+        <v>130</v>
+      </c>
       <c r="E40" s="382"/>
       <c r="F40" s="382"/>
       <c r="G40" s="382"/>
       <c r="H40" s="382"/>
       <c r="I40" s="382"/>
       <c r="J40" s="382"/>
-      <c r="K40" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="41" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A41" s="382"/>
-      <c r="B41" s="449"/>
-      <c r="C41" s="449"/>
-      <c r="D41" s="382"/>
-      <c r="E41" s="382"/>
-      <c r="F41" s="382"/>
-      <c r="G41" s="382"/>
-      <c r="H41" s="382"/>
-      <c r="I41" s="382"/>
-      <c r="J41" s="382"/>
-    </row>
-    <row r="42" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A42" s="450"/>
-      <c r="B42" s="450"/>
-      <c r="C42" s="450"/>
-      <c r="D42" s="450"/>
-      <c r="E42" s="450"/>
-      <c r="F42" s="450"/>
-      <c r="G42" s="450"/>
-      <c r="H42" s="450"/>
-      <c r="I42" s="525"/>
-      <c r="J42" s="526"/>
-    </row>
-    <row r="43" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A43" s="451"/>
-      <c r="B43" s="452"/>
-      <c r="C43" s="452"/>
+    </row>
+    <row r="41" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A41" s="526">
+        <f>A21-F35</f>
+        <v>1408834</v>
+      </c>
+      <c r="B41" s="527"/>
+      <c r="C41" s="446">
+        <f>1-G35</f>
+        <v>8.3859166666666596E-2</v>
+      </c>
+      <c r="D41" s="447">
+        <f>(C41/0.8)*100</f>
+        <v>10.482395833333324</v>
+      </c>
+      <c r="E41" s="448" t="s">
+        <v>131</v>
+      </c>
+      <c r="F41" s="448"/>
+      <c r="G41" s="448"/>
+      <c r="H41" s="448"/>
+      <c r="I41" s="448"/>
+      <c r="J41" s="448"/>
+    </row>
+    <row r="42" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A42" s="382"/>
+      <c r="B42" s="382"/>
+      <c r="C42" s="382"/>
+      <c r="D42" s="382"/>
+      <c r="E42" s="382"/>
+      <c r="F42" s="382"/>
+    </row>
+    <row r="43" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A43" s="382"/>
+      <c r="B43" s="382"/>
+      <c r="C43" s="382"/>
       <c r="D43" s="382"/>
       <c r="E43" s="382"/>
-      <c r="F43" s="452"/>
-      <c r="G43" s="412"/>
-      <c r="H43" s="452"/>
-    </row>
-    <row r="44" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A44" s="451"/>
-      <c r="B44" s="452"/>
-      <c r="C44" s="452"/>
-      <c r="D44" s="452"/>
-      <c r="E44" s="452"/>
-      <c r="F44" s="452"/>
-      <c r="G44" s="412"/>
-      <c r="H44" s="452"/>
-    </row>
-    <row r="45" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A45" s="451"/>
-      <c r="B45" s="452"/>
-      <c r="C45" s="452"/>
-      <c r="D45" s="382"/>
-      <c r="E45" s="382"/>
-      <c r="F45" s="452"/>
-      <c r="G45" s="412"/>
-      <c r="H45" s="452"/>
-    </row>
-    <row r="46" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="F43" s="382"/>
+      <c r="G43" s="382"/>
+      <c r="H43" s="382"/>
+      <c r="I43" s="382"/>
+      <c r="J43" s="382"/>
+      <c r="K43" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="44" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A44" s="382"/>
+      <c r="B44" s="449"/>
+      <c r="C44" s="449"/>
+      <c r="D44" s="382"/>
+      <c r="E44" s="382"/>
+      <c r="F44" s="382"/>
+      <c r="G44" s="382"/>
+      <c r="H44" s="382"/>
+      <c r="I44" s="382"/>
+      <c r="J44" s="382"/>
+    </row>
+    <row r="45" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A45" s="450"/>
+      <c r="B45" s="450"/>
+      <c r="C45" s="450"/>
+      <c r="D45" s="450"/>
+      <c r="E45" s="450"/>
+      <c r="F45" s="450"/>
+      <c r="G45" s="450"/>
+      <c r="H45" s="450"/>
+      <c r="I45" s="518"/>
+      <c r="J45" s="519"/>
+    </row>
+    <row r="46" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A46" s="451"/>
       <c r="B46" s="452"/>
       <c r="C46" s="452"/>
-      <c r="D46" s="452"/>
-      <c r="E46" s="452"/>
+      <c r="D46" s="382"/>
+      <c r="E46" s="382"/>
       <c r="F46" s="452"/>
       <c r="G46" s="412"/>
       <c r="H46" s="452"/>
     </row>
-    <row r="47" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A47" s="451"/>
       <c r="B47" s="452"/>
       <c r="C47" s="452"/>
-      <c r="D47" s="382"/>
-      <c r="E47" s="382"/>
+      <c r="D47" s="452"/>
+      <c r="E47" s="452"/>
       <c r="F47" s="452"/>
       <c r="G47" s="412"/>
       <c r="H47" s="452"/>
     </row>
-    <row r="48" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A48" s="451"/>
       <c r="B48" s="452"/>
-      <c r="C48" s="402"/>
-      <c r="D48" s="453"/>
-      <c r="E48" s="453"/>
-      <c r="F48" s="402"/>
-      <c r="G48" s="402"/>
-      <c r="H48" s="402"/>
+      <c r="C48" s="452"/>
+      <c r="D48" s="382"/>
+      <c r="E48" s="382"/>
+      <c r="F48" s="452"/>
+      <c r="G48" s="412"/>
+      <c r="H48" s="452"/>
     </row>
     <row r="49" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A49" s="451"/>
@@ -10545,8 +10578,8 @@
       <c r="A50" s="451"/>
       <c r="B50" s="452"/>
       <c r="C50" s="452"/>
-      <c r="D50" s="452"/>
-      <c r="E50" s="452"/>
+      <c r="D50" s="382"/>
+      <c r="E50" s="382"/>
       <c r="F50" s="452"/>
       <c r="G50" s="412"/>
       <c r="H50" s="452"/>
@@ -10554,98 +10587,128 @@
     <row r="51" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A51" s="451"/>
       <c r="B51" s="452"/>
-      <c r="C51" s="452"/>
-      <c r="D51" s="382"/>
-      <c r="E51" s="382"/>
-      <c r="F51" s="452"/>
-      <c r="G51" s="412"/>
-      <c r="H51" s="452"/>
-    </row>
-    <row r="52" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A52" s="382"/>
-      <c r="B52" s="518"/>
-      <c r="C52" s="518"/>
-      <c r="D52" s="519"/>
-      <c r="E52" s="448"/>
-      <c r="F52" s="382"/>
-      <c r="G52" s="382"/>
-      <c r="H52" s="382"/>
-      <c r="I52" s="382"/>
-      <c r="J52" s="382"/>
+      <c r="C51" s="402"/>
+      <c r="D51" s="453"/>
+      <c r="E51" s="453"/>
+      <c r="F51" s="402"/>
+      <c r="G51" s="402"/>
+      <c r="H51" s="402"/>
+    </row>
+    <row r="52" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A52" s="451"/>
+      <c r="B52" s="452"/>
+      <c r="C52" s="452"/>
+      <c r="D52" s="452"/>
+      <c r="E52" s="452"/>
+      <c r="F52" s="452"/>
+      <c r="G52" s="412"/>
+      <c r="H52" s="452"/>
     </row>
     <row r="53" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A53" s="450"/>
-      <c r="B53" s="450"/>
-      <c r="C53" s="450"/>
-      <c r="D53" s="450"/>
-      <c r="E53" s="450"/>
-      <c r="F53" s="450"/>
-      <c r="G53" s="450"/>
-      <c r="H53" s="450"/>
-      <c r="I53" s="525"/>
-      <c r="J53" s="526"/>
+      <c r="A53" s="451"/>
+      <c r="B53" s="452"/>
+      <c r="C53" s="452"/>
+      <c r="D53" s="452"/>
+      <c r="E53" s="452"/>
+      <c r="F53" s="452"/>
+      <c r="G53" s="412"/>
+      <c r="H53" s="452"/>
     </row>
     <row r="54" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A54" s="451"/>
-      <c r="B54" s="382"/>
-      <c r="C54" s="382"/>
+      <c r="B54" s="452"/>
+      <c r="C54" s="452"/>
       <c r="D54" s="382"/>
       <c r="E54" s="382"/>
-      <c r="F54" s="412"/>
+      <c r="F54" s="452"/>
       <c r="G54" s="412"/>
       <c r="H54" s="452"/>
-      <c r="I54" s="527"/>
-      <c r="J54" s="527"/>
-    </row>
-    <row r="55" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A55" s="451"/>
-      <c r="B55" s="382"/>
-      <c r="C55" s="382"/>
-      <c r="D55" s="402"/>
-      <c r="E55" s="402"/>
-      <c r="F55" s="402"/>
-      <c r="G55" s="402"/>
-      <c r="H55" s="402"/>
-      <c r="I55" s="527"/>
-      <c r="J55" s="527"/>
+    </row>
+    <row r="55" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A55" s="382"/>
+      <c r="B55" s="521"/>
+      <c r="C55" s="521"/>
+      <c r="D55" s="522"/>
+      <c r="E55" s="448"/>
+      <c r="F55" s="382"/>
+      <c r="G55" s="382"/>
+      <c r="H55" s="382"/>
+      <c r="I55" s="382"/>
+      <c r="J55" s="382"/>
     </row>
     <row r="56" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A56" s="382"/>
-      <c r="B56" s="382"/>
-      <c r="C56" s="382"/>
-      <c r="D56" s="382"/>
-      <c r="E56" s="382"/>
-      <c r="F56" s="382"/>
-      <c r="G56" s="382"/>
-      <c r="H56" s="382"/>
-    </row>
-    <row r="61" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="B61" s="525"/>
-      <c r="C61" s="526"/>
-    </row>
-    <row r="68" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B68" s="525"/>
-      <c r="C68" s="526"/>
+      <c r="A56" s="450"/>
+      <c r="B56" s="450"/>
+      <c r="C56" s="450"/>
+      <c r="D56" s="450"/>
+      <c r="E56" s="450"/>
+      <c r="F56" s="450"/>
+      <c r="G56" s="450"/>
+      <c r="H56" s="450"/>
+      <c r="I56" s="518"/>
+      <c r="J56" s="519"/>
+    </row>
+    <row r="57" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A57" s="451"/>
+      <c r="B57" s="382"/>
+      <c r="C57" s="382"/>
+      <c r="D57" s="382"/>
+      <c r="E57" s="382"/>
+      <c r="F57" s="412"/>
+      <c r="G57" s="412"/>
+      <c r="H57" s="452"/>
+      <c r="I57" s="520"/>
+      <c r="J57" s="520"/>
+    </row>
+    <row r="58" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A58" s="451"/>
+      <c r="B58" s="382"/>
+      <c r="C58" s="382"/>
+      <c r="D58" s="402"/>
+      <c r="E58" s="402"/>
+      <c r="F58" s="402"/>
+      <c r="G58" s="402"/>
+      <c r="H58" s="402"/>
+      <c r="I58" s="520"/>
+      <c r="J58" s="520"/>
+    </row>
+    <row r="59" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A59" s="382"/>
+      <c r="B59" s="382"/>
+      <c r="C59" s="382"/>
+      <c r="D59" s="382"/>
+      <c r="E59" s="382"/>
+      <c r="F59" s="382"/>
+      <c r="G59" s="382"/>
+      <c r="H59" s="382"/>
+    </row>
+    <row r="64" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="B64" s="518"/>
+      <c r="C64" s="519"/>
+    </row>
+    <row r="71" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B71" s="518"/>
+      <c r="C71" s="519"/>
     </row>
   </sheetData>
   <mergeCells count="11">
-    <mergeCell ref="I53:J53"/>
-    <mergeCell ref="I54:J54"/>
-    <mergeCell ref="I55:J55"/>
-    <mergeCell ref="B61:C61"/>
-    <mergeCell ref="B68:C68"/>
-    <mergeCell ref="B52:D52"/>
+    <mergeCell ref="B55:D55"/>
     <mergeCell ref="A3:I3"/>
-    <mergeCell ref="A36:D36"/>
-    <mergeCell ref="A37:B37"/>
-    <mergeCell ref="A38:B38"/>
-    <mergeCell ref="I42:J42"/>
+    <mergeCell ref="A39:D39"/>
+    <mergeCell ref="A40:B40"/>
+    <mergeCell ref="A41:B41"/>
+    <mergeCell ref="I45:J45"/>
+    <mergeCell ref="I56:J56"/>
+    <mergeCell ref="I57:J57"/>
+    <mergeCell ref="I58:J58"/>
+    <mergeCell ref="B64:C64"/>
+    <mergeCell ref="B71:C71"/>
   </mergeCells>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.11811023622047245" right="0.11811023622047245" top="0.15748031496062992" bottom="0.15748031496062992" header="0.31496062992125984" footer="0.31496062992125984"/>
-  <pageSetup paperSize="9" scale="95" orientation="landscape" r:id="rId1"/>
+  <pageSetup paperSize="9" scale="90" orientation="landscape" r:id="rId1"/>
   <rowBreaks count="1" manualBreakCount="1">
-    <brk id="38" max="16383" man="1"/>
+    <brk id="41" max="16383" man="1"/>
   </rowBreaks>
 </worksheet>
 </file>
@@ -10722,47 +10785,47 @@
       <c r="J8" s="310"/>
     </row>
     <row r="11" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="529" t="s">
+      <c r="A11" s="552" t="s">
         <v>63</v>
       </c>
-      <c r="B11" s="529"/>
-      <c r="C11" s="529"/>
-      <c r="D11" s="529"/>
-      <c r="E11" s="529"/>
-      <c r="F11" s="529"/>
-      <c r="G11" s="529"/>
-      <c r="H11" s="529"/>
-      <c r="I11" s="529"/>
-      <c r="J11" s="529"/>
+      <c r="B11" s="552"/>
+      <c r="C11" s="552"/>
+      <c r="D11" s="552"/>
+      <c r="E11" s="552"/>
+      <c r="F11" s="552"/>
+      <c r="G11" s="552"/>
+      <c r="H11" s="552"/>
+      <c r="I11" s="552"/>
+      <c r="J11" s="552"/>
     </row>
     <row r="12" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="528" t="s">
+      <c r="A12" s="551" t="s">
         <v>73</v>
       </c>
-      <c r="B12" s="528"/>
-      <c r="C12" s="528"/>
-      <c r="D12" s="528"/>
-      <c r="E12" s="528"/>
-      <c r="F12" s="528"/>
-      <c r="G12" s="528"/>
-      <c r="H12" s="528"/>
-      <c r="I12" s="528"/>
-      <c r="J12" s="528"/>
+      <c r="B12" s="551"/>
+      <c r="C12" s="551"/>
+      <c r="D12" s="551"/>
+      <c r="E12" s="551"/>
+      <c r="F12" s="551"/>
+      <c r="G12" s="551"/>
+      <c r="H12" s="551"/>
+      <c r="I12" s="551"/>
+      <c r="J12" s="551"/>
     </row>
     <row r="13" spans="1:11" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="530" t="str">
+      <c r="A13" s="553" t="str">
         <f>Данные!A2</f>
         <v>III-2-82-450-1 (Банка 0,45 л.)</v>
       </c>
-      <c r="B13" s="529"/>
-      <c r="C13" s="529"/>
-      <c r="D13" s="529"/>
-      <c r="E13" s="529"/>
-      <c r="F13" s="529"/>
-      <c r="G13" s="529"/>
-      <c r="H13" s="529"/>
-      <c r="I13" s="529"/>
-      <c r="J13" s="529"/>
+      <c r="B13" s="552"/>
+      <c r="C13" s="552"/>
+      <c r="D13" s="552"/>
+      <c r="E13" s="552"/>
+      <c r="F13" s="552"/>
+      <c r="G13" s="552"/>
+      <c r="H13" s="552"/>
+      <c r="I13" s="552"/>
+      <c r="J13" s="552"/>
     </row>
     <row r="15" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A15" s="304" t="s">
@@ -10887,493 +10950,493 @@
       <c r="J21" s="305"/>
     </row>
     <row r="22" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="534" t="s">
+      <c r="A22" s="549" t="s">
         <v>64</v>
       </c>
-      <c r="B22" s="534" t="s">
+      <c r="B22" s="549" t="s">
         <v>65</v>
       </c>
-      <c r="C22" s="534"/>
-      <c r="D22" s="534"/>
-      <c r="E22" s="534" t="s">
+      <c r="C22" s="549"/>
+      <c r="D22" s="549"/>
+      <c r="E22" s="549" t="s">
         <v>66</v>
       </c>
-      <c r="F22" s="534"/>
-      <c r="G22" s="552" t="s">
+      <c r="F22" s="549"/>
+      <c r="G22" s="550" t="s">
         <v>67</v>
       </c>
-      <c r="H22" s="534" t="s">
+      <c r="H22" s="549" t="s">
         <v>68</v>
       </c>
-      <c r="I22" s="534"/>
-      <c r="J22" s="534"/>
+      <c r="I22" s="549"/>
+      <c r="J22" s="549"/>
     </row>
     <row r="23" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A23" s="534"/>
-      <c r="B23" s="534"/>
-      <c r="C23" s="534"/>
-      <c r="D23" s="534"/>
-      <c r="E23" s="534"/>
-      <c r="F23" s="534"/>
-      <c r="G23" s="552"/>
-      <c r="H23" s="534"/>
-      <c r="I23" s="534"/>
-      <c r="J23" s="534"/>
+      <c r="A23" s="549"/>
+      <c r="B23" s="549"/>
+      <c r="C23" s="549"/>
+      <c r="D23" s="549"/>
+      <c r="E23" s="549"/>
+      <c r="F23" s="549"/>
+      <c r="G23" s="550"/>
+      <c r="H23" s="549"/>
+      <c r="I23" s="549"/>
+      <c r="J23" s="549"/>
     </row>
     <row r="24" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A24" s="535">
+      <c r="A24" s="528">
         <v>1</v>
       </c>
-      <c r="B24" s="549" t="s">
+      <c r="B24" s="554" t="s">
         <v>43</v>
       </c>
-      <c r="C24" s="550"/>
-      <c r="D24" s="551"/>
-      <c r="E24" s="537" t="str">
+      <c r="C24" s="555"/>
+      <c r="D24" s="556"/>
+      <c r="E24" s="533" t="str">
         <f>Данные!C14</f>
         <v>III-2-82-450-1</v>
       </c>
-      <c r="F24" s="538"/>
-      <c r="G24" s="541">
+      <c r="F24" s="534"/>
+      <c r="G24" s="537">
         <f>Данные!B14</f>
         <v>24</v>
       </c>
-      <c r="H24" s="543"/>
-      <c r="I24" s="544"/>
-      <c r="J24" s="545"/>
+      <c r="H24" s="539"/>
+      <c r="I24" s="540"/>
+      <c r="J24" s="541"/>
     </row>
     <row r="25" spans="1:10" ht="40.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="536"/>
-      <c r="B25" s="531" t="str">
+      <c r="A25" s="529"/>
+      <c r="B25" s="545" t="str">
         <f>Данные!$A$30</f>
         <v>(к серийному формокомплекту Банка III-2-82-45-1)</v>
       </c>
-      <c r="C25" s="532"/>
-      <c r="D25" s="533"/>
-      <c r="E25" s="539"/>
-      <c r="F25" s="540"/>
-      <c r="G25" s="542"/>
-      <c r="H25" s="546"/>
-      <c r="I25" s="547"/>
-      <c r="J25" s="548"/>
+      <c r="C25" s="546"/>
+      <c r="D25" s="547"/>
+      <c r="E25" s="548"/>
+      <c r="F25" s="536"/>
+      <c r="G25" s="538"/>
+      <c r="H25" s="542"/>
+      <c r="I25" s="543"/>
+      <c r="J25" s="544"/>
     </row>
     <row r="26" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A26" s="535">
+      <c r="A26" s="528">
         <f>A24+1</f>
         <v>2</v>
       </c>
-      <c r="B26" s="553" t="s">
+      <c r="B26" s="530" t="s">
         <v>106</v>
       </c>
-      <c r="C26" s="554"/>
-      <c r="D26" s="555"/>
-      <c r="E26" s="537" t="str">
+      <c r="C26" s="531"/>
+      <c r="D26" s="532"/>
+      <c r="E26" s="533" t="str">
         <f>Данные!C15</f>
         <v>III-2-82-450-1</v>
       </c>
-      <c r="F26" s="538"/>
-      <c r="G26" s="541">
+      <c r="F26" s="534"/>
+      <c r="G26" s="537">
         <f>Данные!B15</f>
         <v>24</v>
       </c>
-      <c r="H26" s="543"/>
-      <c r="I26" s="544"/>
-      <c r="J26" s="545"/>
+      <c r="H26" s="539"/>
+      <c r="I26" s="540"/>
+      <c r="J26" s="541"/>
     </row>
     <row r="27" spans="1:10" ht="40.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="536"/>
-      <c r="B27" s="531" t="str">
+      <c r="A27" s="529"/>
+      <c r="B27" s="545" t="str">
         <f>Данные!$A$30</f>
         <v>(к серийному формокомплекту Банка III-2-82-45-1)</v>
       </c>
-      <c r="C27" s="532"/>
-      <c r="D27" s="533"/>
-      <c r="E27" s="539"/>
-      <c r="F27" s="540"/>
-      <c r="G27" s="542"/>
-      <c r="H27" s="546"/>
-      <c r="I27" s="547"/>
-      <c r="J27" s="548"/>
+      <c r="C27" s="546"/>
+      <c r="D27" s="547"/>
+      <c r="E27" s="548"/>
+      <c r="F27" s="536"/>
+      <c r="G27" s="538"/>
+      <c r="H27" s="542"/>
+      <c r="I27" s="543"/>
+      <c r="J27" s="544"/>
     </row>
     <row r="28" spans="1:10" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="535">
+      <c r="A28" s="528">
         <f t="shared" ref="A28" si="0">A26+1</f>
         <v>3</v>
       </c>
-      <c r="B28" s="553" t="s">
+      <c r="B28" s="530" t="s">
         <v>38</v>
       </c>
-      <c r="C28" s="554"/>
-      <c r="D28" s="555"/>
-      <c r="E28" s="537" t="str">
+      <c r="C28" s="531"/>
+      <c r="D28" s="532"/>
+      <c r="E28" s="533" t="str">
         <f>Данные!C16</f>
         <v>III-2-82-450-1</v>
       </c>
-      <c r="F28" s="538"/>
-      <c r="G28" s="541">
+      <c r="F28" s="534"/>
+      <c r="G28" s="537">
         <f>Данные!B16</f>
         <v>32</v>
       </c>
-      <c r="H28" s="543"/>
-      <c r="I28" s="544"/>
-      <c r="J28" s="545"/>
+      <c r="H28" s="539"/>
+      <c r="I28" s="540"/>
+      <c r="J28" s="541"/>
     </row>
     <row r="29" spans="1:10" ht="40.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="536"/>
-      <c r="B29" s="531" t="str">
+      <c r="A29" s="529"/>
+      <c r="B29" s="545" t="str">
         <f>Данные!$A$30</f>
         <v>(к серийному формокомплекту Банка III-2-82-45-1)</v>
       </c>
-      <c r="C29" s="532"/>
-      <c r="D29" s="533"/>
-      <c r="E29" s="539"/>
-      <c r="F29" s="540"/>
-      <c r="G29" s="542"/>
-      <c r="H29" s="546"/>
-      <c r="I29" s="547"/>
-      <c r="J29" s="548"/>
+      <c r="C29" s="546"/>
+      <c r="D29" s="547"/>
+      <c r="E29" s="548"/>
+      <c r="F29" s="536"/>
+      <c r="G29" s="538"/>
+      <c r="H29" s="542"/>
+      <c r="I29" s="543"/>
+      <c r="J29" s="544"/>
     </row>
     <row r="30" spans="1:10" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="535">
+      <c r="A30" s="528">
         <f t="shared" ref="A30" si="1">A28+1</f>
         <v>4</v>
       </c>
-      <c r="B30" s="553" t="s">
+      <c r="B30" s="530" t="s">
         <v>107</v>
       </c>
-      <c r="C30" s="554"/>
-      <c r="D30" s="555"/>
-      <c r="E30" s="537" t="str">
+      <c r="C30" s="531"/>
+      <c r="D30" s="532"/>
+      <c r="E30" s="533" t="str">
         <f>Данные!C17</f>
         <v>III-2-82-450-1</v>
       </c>
-      <c r="F30" s="538"/>
-      <c r="G30" s="541">
+      <c r="F30" s="534"/>
+      <c r="G30" s="537">
         <f>Данные!B17</f>
         <v>32</v>
       </c>
-      <c r="H30" s="543"/>
-      <c r="I30" s="544"/>
-      <c r="J30" s="545"/>
+      <c r="H30" s="539"/>
+      <c r="I30" s="540"/>
+      <c r="J30" s="541"/>
     </row>
     <row r="31" spans="1:10" ht="40.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="536"/>
-      <c r="B31" s="531" t="str">
+      <c r="A31" s="529"/>
+      <c r="B31" s="545" t="str">
         <f>Данные!$A$30</f>
         <v>(к серийному формокомплекту Банка III-2-82-45-1)</v>
       </c>
-      <c r="C31" s="532"/>
-      <c r="D31" s="533"/>
-      <c r="E31" s="556"/>
-      <c r="F31" s="540"/>
-      <c r="G31" s="542"/>
-      <c r="H31" s="546"/>
-      <c r="I31" s="547"/>
-      <c r="J31" s="548"/>
+      <c r="C31" s="546"/>
+      <c r="D31" s="547"/>
+      <c r="E31" s="535"/>
+      <c r="F31" s="536"/>
+      <c r="G31" s="538"/>
+      <c r="H31" s="542"/>
+      <c r="I31" s="543"/>
+      <c r="J31" s="544"/>
     </row>
     <row r="32" spans="1:10" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="535">
+      <c r="A32" s="528">
         <f t="shared" ref="A32" si="2">A30+1</f>
         <v>5</v>
       </c>
-      <c r="B32" s="553" t="s">
+      <c r="B32" s="530" t="s">
         <v>47</v>
       </c>
-      <c r="C32" s="554"/>
-      <c r="D32" s="555"/>
-      <c r="E32" s="537" t="str">
+      <c r="C32" s="531"/>
+      <c r="D32" s="532"/>
+      <c r="E32" s="533" t="str">
         <f>Данные!C18</f>
         <v>III-2-82-450-1</v>
       </c>
-      <c r="F32" s="538"/>
-      <c r="G32" s="541">
+      <c r="F32" s="534"/>
+      <c r="G32" s="537">
         <f>Данные!B18</f>
         <v>80</v>
       </c>
-      <c r="H32" s="543"/>
-      <c r="I32" s="544"/>
-      <c r="J32" s="545"/>
+      <c r="H32" s="539"/>
+      <c r="I32" s="540"/>
+      <c r="J32" s="541"/>
     </row>
     <row r="33" spans="1:10" ht="40.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="536"/>
-      <c r="B33" s="531" t="str">
+      <c r="A33" s="529"/>
+      <c r="B33" s="545" t="str">
         <f>Данные!$A$30</f>
         <v>(к серийному формокомплекту Банка III-2-82-45-1)</v>
       </c>
-      <c r="C33" s="532"/>
-      <c r="D33" s="533"/>
-      <c r="E33" s="556"/>
-      <c r="F33" s="540"/>
-      <c r="G33" s="542"/>
-      <c r="H33" s="546"/>
-      <c r="I33" s="547"/>
-      <c r="J33" s="548"/>
+      <c r="C33" s="546"/>
+      <c r="D33" s="547"/>
+      <c r="E33" s="535"/>
+      <c r="F33" s="536"/>
+      <c r="G33" s="538"/>
+      <c r="H33" s="542"/>
+      <c r="I33" s="543"/>
+      <c r="J33" s="544"/>
     </row>
     <row r="34" spans="1:10" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="535">
+      <c r="A34" s="528">
         <f t="shared" ref="A34" si="3">A32+1</f>
         <v>6</v>
       </c>
-      <c r="B34" s="553" t="s">
+      <c r="B34" s="530" t="s">
         <v>89</v>
       </c>
-      <c r="C34" s="554"/>
-      <c r="D34" s="555"/>
-      <c r="E34" s="537" t="str">
+      <c r="C34" s="531"/>
+      <c r="D34" s="532"/>
+      <c r="E34" s="533" t="str">
         <f>Данные!C19</f>
         <v>III-2-82-450-1</v>
       </c>
-      <c r="F34" s="538"/>
-      <c r="G34" s="541">
+      <c r="F34" s="534"/>
+      <c r="G34" s="537">
         <f>Данные!B19</f>
         <v>150</v>
       </c>
-      <c r="H34" s="543"/>
-      <c r="I34" s="544"/>
-      <c r="J34" s="545"/>
+      <c r="H34" s="539"/>
+      <c r="I34" s="540"/>
+      <c r="J34" s="541"/>
     </row>
     <row r="35" spans="1:10" ht="40.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="536"/>
-      <c r="B35" s="531" t="str">
+      <c r="A35" s="529"/>
+      <c r="B35" s="545" t="str">
         <f>Данные!$A$30</f>
         <v>(к серийному формокомплекту Банка III-2-82-45-1)</v>
       </c>
-      <c r="C35" s="532"/>
-      <c r="D35" s="533"/>
-      <c r="E35" s="556"/>
-      <c r="F35" s="540"/>
-      <c r="G35" s="542"/>
-      <c r="H35" s="546"/>
-      <c r="I35" s="547"/>
-      <c r="J35" s="548"/>
+      <c r="C35" s="546"/>
+      <c r="D35" s="547"/>
+      <c r="E35" s="535"/>
+      <c r="F35" s="536"/>
+      <c r="G35" s="538"/>
+      <c r="H35" s="542"/>
+      <c r="I35" s="543"/>
+      <c r="J35" s="544"/>
     </row>
     <row r="36" spans="1:10" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="535">
+      <c r="A36" s="528">
         <f t="shared" ref="A36" si="4">A34+1</f>
         <v>7</v>
       </c>
-      <c r="B36" s="553" t="s">
+      <c r="B36" s="530" t="s">
         <v>51</v>
       </c>
-      <c r="C36" s="554"/>
-      <c r="D36" s="555"/>
-      <c r="E36" s="537" t="str">
+      <c r="C36" s="531"/>
+      <c r="D36" s="532"/>
+      <c r="E36" s="533" t="str">
         <f>Данные!C20</f>
         <v>III-2-82-450-1</v>
       </c>
-      <c r="F36" s="538"/>
-      <c r="G36" s="541">
+      <c r="F36" s="534"/>
+      <c r="G36" s="537">
         <f>Данные!B20</f>
         <v>60</v>
       </c>
-      <c r="H36" s="543"/>
-      <c r="I36" s="544"/>
-      <c r="J36" s="545"/>
+      <c r="H36" s="539"/>
+      <c r="I36" s="540"/>
+      <c r="J36" s="541"/>
     </row>
     <row r="37" spans="1:10" ht="40.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="536"/>
-      <c r="B37" s="531" t="str">
+      <c r="A37" s="529"/>
+      <c r="B37" s="545" t="str">
         <f>Данные!$A$30</f>
         <v>(к серийному формокомплекту Банка III-2-82-45-1)</v>
       </c>
-      <c r="C37" s="532"/>
-      <c r="D37" s="533"/>
-      <c r="E37" s="556"/>
-      <c r="F37" s="540"/>
-      <c r="G37" s="542"/>
-      <c r="H37" s="546"/>
-      <c r="I37" s="547"/>
-      <c r="J37" s="548"/>
+      <c r="C37" s="546"/>
+      <c r="D37" s="547"/>
+      <c r="E37" s="535"/>
+      <c r="F37" s="536"/>
+      <c r="G37" s="538"/>
+      <c r="H37" s="542"/>
+      <c r="I37" s="543"/>
+      <c r="J37" s="544"/>
     </row>
     <row r="38" spans="1:10" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="535">
+      <c r="A38" s="528">
         <f t="shared" ref="A38" si="5">A36+1</f>
         <v>8</v>
       </c>
-      <c r="B38" s="553" t="s">
+      <c r="B38" s="530" t="s">
         <v>52</v>
       </c>
-      <c r="C38" s="554"/>
-      <c r="D38" s="555"/>
-      <c r="E38" s="537">
+      <c r="C38" s="531"/>
+      <c r="D38" s="532"/>
+      <c r="E38" s="533">
         <f>Данные!C21</f>
         <v>0</v>
       </c>
-      <c r="F38" s="538"/>
-      <c r="G38" s="541">
+      <c r="F38" s="534"/>
+      <c r="G38" s="537">
         <f>Данные!B21</f>
         <v>0</v>
       </c>
-      <c r="H38" s="543"/>
-      <c r="I38" s="544"/>
-      <c r="J38" s="545"/>
+      <c r="H38" s="539"/>
+      <c r="I38" s="540"/>
+      <c r="J38" s="541"/>
     </row>
     <row r="39" spans="1:10" ht="40.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="536"/>
-      <c r="B39" s="531" t="str">
+      <c r="A39" s="529"/>
+      <c r="B39" s="545" t="str">
         <f>Данные!$A$30</f>
         <v>(к серийному формокомплекту Банка III-2-82-45-1)</v>
       </c>
-      <c r="C39" s="532"/>
-      <c r="D39" s="533"/>
-      <c r="E39" s="556"/>
-      <c r="F39" s="540"/>
-      <c r="G39" s="542"/>
-      <c r="H39" s="546"/>
-      <c r="I39" s="547"/>
-      <c r="J39" s="548"/>
+      <c r="C39" s="546"/>
+      <c r="D39" s="547"/>
+      <c r="E39" s="535"/>
+      <c r="F39" s="536"/>
+      <c r="G39" s="538"/>
+      <c r="H39" s="542"/>
+      <c r="I39" s="543"/>
+      <c r="J39" s="544"/>
     </row>
     <row r="40" spans="1:10" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A40" s="535">
+      <c r="A40" s="528">
         <f t="shared" ref="A40" si="6">A38+1</f>
         <v>9</v>
       </c>
-      <c r="B40" s="553" t="s">
+      <c r="B40" s="530" t="s">
         <v>55</v>
       </c>
-      <c r="C40" s="554"/>
-      <c r="D40" s="555"/>
-      <c r="E40" s="537">
+      <c r="C40" s="531"/>
+      <c r="D40" s="532"/>
+      <c r="E40" s="533">
         <f>Данные!C23</f>
         <v>0</v>
       </c>
-      <c r="F40" s="538"/>
-      <c r="G40" s="541">
+      <c r="F40" s="534"/>
+      <c r="G40" s="537">
         <f>Данные!B23</f>
         <v>0</v>
       </c>
-      <c r="H40" s="543"/>
-      <c r="I40" s="544"/>
-      <c r="J40" s="545"/>
+      <c r="H40" s="539"/>
+      <c r="I40" s="540"/>
+      <c r="J40" s="541"/>
     </row>
     <row r="41" spans="1:10" ht="40.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A41" s="536"/>
-      <c r="B41" s="531" t="str">
+      <c r="A41" s="529"/>
+      <c r="B41" s="545" t="str">
         <f>Данные!$A$30</f>
         <v>(к серийному формокомплекту Банка III-2-82-45-1)</v>
       </c>
-      <c r="C41" s="532"/>
-      <c r="D41" s="533"/>
-      <c r="E41" s="556"/>
-      <c r="F41" s="540"/>
-      <c r="G41" s="542"/>
-      <c r="H41" s="546"/>
-      <c r="I41" s="547"/>
-      <c r="J41" s="548"/>
+      <c r="C41" s="546"/>
+      <c r="D41" s="547"/>
+      <c r="E41" s="535"/>
+      <c r="F41" s="536"/>
+      <c r="G41" s="538"/>
+      <c r="H41" s="542"/>
+      <c r="I41" s="543"/>
+      <c r="J41" s="544"/>
     </row>
     <row r="42" spans="1:10" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A42" s="535">
+      <c r="A42" s="528">
         <f t="shared" ref="A42" si="7">A40+1</f>
         <v>10</v>
       </c>
-      <c r="B42" s="553" t="s">
+      <c r="B42" s="530" t="s">
         <v>54</v>
       </c>
-      <c r="C42" s="554"/>
-      <c r="D42" s="555"/>
-      <c r="E42" s="537" t="str">
+      <c r="C42" s="531"/>
+      <c r="D42" s="532"/>
+      <c r="E42" s="533" t="str">
         <f>Данные!C26</f>
         <v>III-2-82-450-1</v>
       </c>
-      <c r="F42" s="538"/>
-      <c r="G42" s="541">
+      <c r="F42" s="534"/>
+      <c r="G42" s="537">
         <f>Данные!B26</f>
         <v>0</v>
       </c>
-      <c r="H42" s="543"/>
-      <c r="I42" s="544"/>
-      <c r="J42" s="545"/>
+      <c r="H42" s="539"/>
+      <c r="I42" s="540"/>
+      <c r="J42" s="541"/>
     </row>
     <row r="43" spans="1:10" ht="40.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A43" s="536"/>
-      <c r="B43" s="531" t="str">
+      <c r="A43" s="529"/>
+      <c r="B43" s="545" t="str">
         <f>Данные!$A$30</f>
         <v>(к серийному формокомплекту Банка III-2-82-45-1)</v>
       </c>
-      <c r="C43" s="532"/>
-      <c r="D43" s="533"/>
-      <c r="E43" s="556"/>
-      <c r="F43" s="540"/>
-      <c r="G43" s="542"/>
-      <c r="H43" s="546"/>
-      <c r="I43" s="547"/>
-      <c r="J43" s="548"/>
+      <c r="C43" s="546"/>
+      <c r="D43" s="547"/>
+      <c r="E43" s="535"/>
+      <c r="F43" s="536"/>
+      <c r="G43" s="538"/>
+      <c r="H43" s="542"/>
+      <c r="I43" s="543"/>
+      <c r="J43" s="544"/>
     </row>
     <row r="44" spans="1:10" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A44" s="535">
+      <c r="A44" s="528">
         <f t="shared" ref="A44" si="8">A42+1</f>
         <v>11</v>
       </c>
-      <c r="B44" s="553" t="s">
+      <c r="B44" s="530" t="s">
         <v>104</v>
       </c>
-      <c r="C44" s="554"/>
-      <c r="D44" s="555"/>
-      <c r="E44" s="537" t="str">
+      <c r="C44" s="531"/>
+      <c r="D44" s="532"/>
+      <c r="E44" s="533" t="str">
         <f>Данные!C27</f>
         <v>III-2-82-450-1</v>
       </c>
-      <c r="F44" s="538"/>
-      <c r="G44" s="541">
+      <c r="F44" s="534"/>
+      <c r="G44" s="537">
         <f>Данные!B27</f>
         <v>0</v>
       </c>
-      <c r="H44" s="543"/>
-      <c r="I44" s="544"/>
-      <c r="J44" s="545"/>
+      <c r="H44" s="539"/>
+      <c r="I44" s="540"/>
+      <c r="J44" s="541"/>
     </row>
     <row r="45" spans="1:10" ht="40.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A45" s="536"/>
-      <c r="B45" s="531" t="str">
+      <c r="A45" s="529"/>
+      <c r="B45" s="545" t="str">
         <f>Данные!$A$30</f>
         <v>(к серийному формокомплекту Банка III-2-82-45-1)</v>
       </c>
-      <c r="C45" s="532"/>
-      <c r="D45" s="533"/>
-      <c r="E45" s="556"/>
-      <c r="F45" s="540"/>
-      <c r="G45" s="542"/>
-      <c r="H45" s="546"/>
-      <c r="I45" s="547"/>
-      <c r="J45" s="548"/>
+      <c r="C45" s="546"/>
+      <c r="D45" s="547"/>
+      <c r="E45" s="535"/>
+      <c r="F45" s="536"/>
+      <c r="G45" s="538"/>
+      <c r="H45" s="542"/>
+      <c r="I45" s="543"/>
+      <c r="J45" s="544"/>
     </row>
     <row r="46" spans="1:10" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A46" s="535">
+      <c r="A46" s="528">
         <f t="shared" ref="A46" si="9">A44+1</f>
         <v>12</v>
       </c>
-      <c r="B46" s="553" t="s">
+      <c r="B46" s="530" t="s">
         <v>69</v>
       </c>
-      <c r="C46" s="554"/>
-      <c r="D46" s="555"/>
-      <c r="E46" s="537" t="str">
+      <c r="C46" s="531"/>
+      <c r="D46" s="532"/>
+      <c r="E46" s="533" t="str">
         <f>Данные!C24</f>
         <v>III-2-82-450-1</v>
       </c>
-      <c r="F46" s="538"/>
-      <c r="G46" s="541">
+      <c r="F46" s="534"/>
+      <c r="G46" s="537">
         <f>Данные!B24</f>
         <v>8</v>
       </c>
-      <c r="H46" s="543"/>
-      <c r="I46" s="544"/>
-      <c r="J46" s="545"/>
+      <c r="H46" s="539"/>
+      <c r="I46" s="540"/>
+      <c r="J46" s="541"/>
     </row>
     <row r="47" spans="1:10" ht="40.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A47" s="536"/>
-      <c r="B47" s="531" t="str">
+      <c r="A47" s="529"/>
+      <c r="B47" s="545" t="str">
         <f>Данные!$A$30</f>
         <v>(к серийному формокомплекту Банка III-2-82-45-1)</v>
       </c>
-      <c r="C47" s="532"/>
-      <c r="D47" s="533"/>
-      <c r="E47" s="556"/>
-      <c r="F47" s="540"/>
-      <c r="G47" s="542"/>
-      <c r="H47" s="546"/>
-      <c r="I47" s="547"/>
-      <c r="J47" s="548"/>
+      <c r="C47" s="546"/>
+      <c r="D47" s="547"/>
+      <c r="E47" s="535"/>
+      <c r="F47" s="536"/>
+      <c r="G47" s="538"/>
+      <c r="H47" s="542"/>
+      <c r="I47" s="543"/>
+      <c r="J47" s="544"/>
     </row>
     <row r="48" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A48" s="304"/>
@@ -11502,70 +11565,6 @@
     </row>
   </sheetData>
   <mergeCells count="80">
-    <mergeCell ref="A46:A47"/>
-    <mergeCell ref="B46:D46"/>
-    <mergeCell ref="E46:F47"/>
-    <mergeCell ref="G46:G47"/>
-    <mergeCell ref="H46:J47"/>
-    <mergeCell ref="B47:D47"/>
-    <mergeCell ref="A44:A45"/>
-    <mergeCell ref="B44:D44"/>
-    <mergeCell ref="E44:F45"/>
-    <mergeCell ref="G44:G45"/>
-    <mergeCell ref="H44:J45"/>
-    <mergeCell ref="B45:D45"/>
-    <mergeCell ref="A42:A43"/>
-    <mergeCell ref="B42:D42"/>
-    <mergeCell ref="E42:F43"/>
-    <mergeCell ref="G42:G43"/>
-    <mergeCell ref="H42:J43"/>
-    <mergeCell ref="A40:A41"/>
-    <mergeCell ref="B40:D40"/>
-    <mergeCell ref="E40:F41"/>
-    <mergeCell ref="G40:G41"/>
-    <mergeCell ref="H40:J41"/>
-    <mergeCell ref="A38:A39"/>
-    <mergeCell ref="B38:D38"/>
-    <mergeCell ref="E38:F39"/>
-    <mergeCell ref="G38:G39"/>
-    <mergeCell ref="H38:J39"/>
-    <mergeCell ref="A36:A37"/>
-    <mergeCell ref="B36:D36"/>
-    <mergeCell ref="E36:F37"/>
-    <mergeCell ref="G36:G37"/>
-    <mergeCell ref="H36:J37"/>
-    <mergeCell ref="A34:A35"/>
-    <mergeCell ref="B34:D34"/>
-    <mergeCell ref="E34:F35"/>
-    <mergeCell ref="G34:G35"/>
-    <mergeCell ref="H34:J35"/>
-    <mergeCell ref="A32:A33"/>
-    <mergeCell ref="B32:D32"/>
-    <mergeCell ref="E32:F33"/>
-    <mergeCell ref="G32:G33"/>
-    <mergeCell ref="H32:J33"/>
-    <mergeCell ref="B33:D33"/>
-    <mergeCell ref="A30:A31"/>
-    <mergeCell ref="B30:D30"/>
-    <mergeCell ref="E30:F31"/>
-    <mergeCell ref="G30:G31"/>
-    <mergeCell ref="H30:J31"/>
-    <mergeCell ref="B31:D31"/>
-    <mergeCell ref="H26:J27"/>
-    <mergeCell ref="B26:D26"/>
-    <mergeCell ref="B27:D27"/>
-    <mergeCell ref="A28:A29"/>
-    <mergeCell ref="E28:F29"/>
-    <mergeCell ref="G28:G29"/>
-    <mergeCell ref="H28:J29"/>
-    <mergeCell ref="B28:D28"/>
-    <mergeCell ref="B29:D29"/>
-    <mergeCell ref="B22:D23"/>
-    <mergeCell ref="E22:F23"/>
-    <mergeCell ref="G22:G23"/>
-    <mergeCell ref="A26:A27"/>
-    <mergeCell ref="E26:F27"/>
-    <mergeCell ref="G26:G27"/>
     <mergeCell ref="A12:J12"/>
     <mergeCell ref="A11:J11"/>
     <mergeCell ref="A13:J13"/>
@@ -11582,6 +11581,70 @@
     <mergeCell ref="H24:J25"/>
     <mergeCell ref="B24:D24"/>
     <mergeCell ref="A22:A23"/>
+    <mergeCell ref="B22:D23"/>
+    <mergeCell ref="E22:F23"/>
+    <mergeCell ref="G22:G23"/>
+    <mergeCell ref="A26:A27"/>
+    <mergeCell ref="E26:F27"/>
+    <mergeCell ref="G26:G27"/>
+    <mergeCell ref="H26:J27"/>
+    <mergeCell ref="B26:D26"/>
+    <mergeCell ref="B27:D27"/>
+    <mergeCell ref="A28:A29"/>
+    <mergeCell ref="E28:F29"/>
+    <mergeCell ref="G28:G29"/>
+    <mergeCell ref="H28:J29"/>
+    <mergeCell ref="B28:D28"/>
+    <mergeCell ref="B29:D29"/>
+    <mergeCell ref="A30:A31"/>
+    <mergeCell ref="B30:D30"/>
+    <mergeCell ref="E30:F31"/>
+    <mergeCell ref="G30:G31"/>
+    <mergeCell ref="H30:J31"/>
+    <mergeCell ref="B31:D31"/>
+    <mergeCell ref="A32:A33"/>
+    <mergeCell ref="B32:D32"/>
+    <mergeCell ref="E32:F33"/>
+    <mergeCell ref="G32:G33"/>
+    <mergeCell ref="H32:J33"/>
+    <mergeCell ref="B33:D33"/>
+    <mergeCell ref="A34:A35"/>
+    <mergeCell ref="B34:D34"/>
+    <mergeCell ref="E34:F35"/>
+    <mergeCell ref="G34:G35"/>
+    <mergeCell ref="H34:J35"/>
+    <mergeCell ref="A36:A37"/>
+    <mergeCell ref="B36:D36"/>
+    <mergeCell ref="E36:F37"/>
+    <mergeCell ref="G36:G37"/>
+    <mergeCell ref="H36:J37"/>
+    <mergeCell ref="A38:A39"/>
+    <mergeCell ref="B38:D38"/>
+    <mergeCell ref="E38:F39"/>
+    <mergeCell ref="G38:G39"/>
+    <mergeCell ref="H38:J39"/>
+    <mergeCell ref="A40:A41"/>
+    <mergeCell ref="B40:D40"/>
+    <mergeCell ref="E40:F41"/>
+    <mergeCell ref="G40:G41"/>
+    <mergeCell ref="H40:J41"/>
+    <mergeCell ref="A42:A43"/>
+    <mergeCell ref="B42:D42"/>
+    <mergeCell ref="E42:F43"/>
+    <mergeCell ref="G42:G43"/>
+    <mergeCell ref="H42:J43"/>
+    <mergeCell ref="A44:A45"/>
+    <mergeCell ref="B44:D44"/>
+    <mergeCell ref="E44:F45"/>
+    <mergeCell ref="G44:G45"/>
+    <mergeCell ref="H44:J45"/>
+    <mergeCell ref="B45:D45"/>
+    <mergeCell ref="A46:A47"/>
+    <mergeCell ref="B46:D46"/>
+    <mergeCell ref="E46:F47"/>
+    <mergeCell ref="G46:G47"/>
+    <mergeCell ref="H46:J47"/>
+    <mergeCell ref="B47:D47"/>
   </mergeCells>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.15748031496062992" bottom="0.15748031496062992" header="0.31496062992125984" footer="0.31496062992125984"/>
@@ -11636,47 +11699,47 @@
     </row>
     <row r="2" spans="1:19" ht="23.25" x14ac:dyDescent="0.2">
       <c r="A2" s="65"/>
-      <c r="B2" s="571"/>
-      <c r="C2" s="572"/>
-      <c r="D2" s="573"/>
-      <c r="E2" s="580" t="s">
+      <c r="B2" s="561"/>
+      <c r="C2" s="562"/>
+      <c r="D2" s="563"/>
+      <c r="E2" s="570" t="s">
         <v>10</v>
       </c>
-      <c r="F2" s="581"/>
-      <c r="G2" s="581"/>
-      <c r="H2" s="582"/>
-      <c r="I2" s="587" t="s">
+      <c r="F2" s="571"/>
+      <c r="G2" s="571"/>
+      <c r="H2" s="572"/>
+      <c r="I2" s="577" t="s">
         <v>11</v>
       </c>
-      <c r="J2" s="588"/>
-      <c r="K2" s="591">
+      <c r="J2" s="578"/>
+      <c r="K2" s="581">
         <f>Данные!B14</f>
         <v>24</v>
       </c>
-      <c r="L2" s="592"/>
+      <c r="L2" s="582"/>
       <c r="M2" s="66"/>
       <c r="N2" s="67"/>
       <c r="O2" s="68"/>
-      <c r="P2" s="583"/>
-      <c r="Q2" s="583"/>
+      <c r="P2" s="573"/>
+      <c r="Q2" s="573"/>
       <c r="R2" s="69"/>
       <c r="S2" s="70"/>
     </row>
     <row r="3" spans="1:19" ht="24" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A3" s="65"/>
-      <c r="B3" s="574"/>
-      <c r="C3" s="575"/>
-      <c r="D3" s="576"/>
-      <c r="E3" s="584" t="s">
+      <c r="B3" s="564"/>
+      <c r="C3" s="565"/>
+      <c r="D3" s="566"/>
+      <c r="E3" s="574" t="s">
         <v>43</v>
       </c>
-      <c r="F3" s="585"/>
-      <c r="G3" s="585"/>
-      <c r="H3" s="586"/>
-      <c r="I3" s="589"/>
-      <c r="J3" s="590"/>
-      <c r="K3" s="593"/>
-      <c r="L3" s="594"/>
+      <c r="F3" s="575"/>
+      <c r="G3" s="575"/>
+      <c r="H3" s="576"/>
+      <c r="I3" s="579"/>
+      <c r="J3" s="580"/>
+      <c r="K3" s="583"/>
+      <c r="L3" s="584"/>
       <c r="M3" s="72"/>
       <c r="N3" s="71"/>
       <c r="O3" s="71"/>
@@ -11687,9 +11750,9 @@
     </row>
     <row r="4" spans="1:19" ht="24" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A4" s="65"/>
-      <c r="B4" s="577"/>
-      <c r="C4" s="578"/>
-      <c r="D4" s="579"/>
+      <c r="B4" s="567"/>
+      <c r="C4" s="568"/>
+      <c r="D4" s="569"/>
       <c r="E4" s="16"/>
       <c r="F4" s="16"/>
       <c r="G4" s="16"/>
@@ -11708,22 +11771,22 @@
     </row>
     <row r="5" spans="1:19" ht="24.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A5" s="65"/>
-      <c r="B5" s="598" t="s">
+      <c r="B5" s="588" t="s">
         <v>13</v>
       </c>
-      <c r="C5" s="599"/>
-      <c r="D5" s="510" t="str">
+      <c r="C5" s="589"/>
+      <c r="D5" s="512" t="str">
         <f>Данные!$A5</f>
         <v>PCI</v>
       </c>
-      <c r="E5" s="511"/>
-      <c r="F5" s="511"/>
-      <c r="G5" s="511"/>
-      <c r="H5" s="512"/>
-      <c r="I5" s="560"/>
-      <c r="J5" s="561"/>
-      <c r="K5" s="511"/>
-      <c r="L5" s="512"/>
+      <c r="E5" s="513"/>
+      <c r="F5" s="513"/>
+      <c r="G5" s="513"/>
+      <c r="H5" s="514"/>
+      <c r="I5" s="590"/>
+      <c r="J5" s="591"/>
+      <c r="K5" s="513"/>
+      <c r="L5" s="514"/>
       <c r="M5" s="74"/>
       <c r="N5" s="71"/>
       <c r="O5" s="71"/>
@@ -11734,22 +11797,22 @@
     </row>
     <row r="6" spans="1:19" ht="24.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A6" s="65"/>
-      <c r="B6" s="598" t="s">
+      <c r="B6" s="588" t="s">
         <v>12</v>
       </c>
-      <c r="C6" s="600"/>
-      <c r="D6" s="504" t="str">
+      <c r="C6" s="592"/>
+      <c r="D6" s="506" t="str">
         <f>Данные!$A2</f>
         <v>III-2-82-450-1 (Банка 0,45 л.)</v>
       </c>
-      <c r="E6" s="601"/>
-      <c r="F6" s="601"/>
-      <c r="G6" s="601"/>
-      <c r="H6" s="602"/>
-      <c r="I6" s="560"/>
-      <c r="J6" s="561"/>
-      <c r="K6" s="511"/>
-      <c r="L6" s="512"/>
+      <c r="E6" s="593"/>
+      <c r="F6" s="593"/>
+      <c r="G6" s="593"/>
+      <c r="H6" s="594"/>
+      <c r="I6" s="590"/>
+      <c r="J6" s="591"/>
+      <c r="K6" s="513"/>
+      <c r="L6" s="514"/>
       <c r="M6" s="74"/>
       <c r="N6" s="71"/>
       <c r="O6" s="71"/>
@@ -11760,27 +11823,27 @@
     </row>
     <row r="7" spans="1:19" ht="78.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A7" s="65"/>
-      <c r="B7" s="562" t="s">
+      <c r="B7" s="598" t="s">
         <v>14</v>
       </c>
-      <c r="C7" s="563"/>
-      <c r="D7" s="513">
+      <c r="C7" s="599"/>
+      <c r="D7" s="515">
         <f>Данные!$A8</f>
         <v>0</v>
       </c>
-      <c r="E7" s="564"/>
-      <c r="F7" s="564"/>
-      <c r="G7" s="564"/>
-      <c r="H7" s="565"/>
-      <c r="I7" s="562" t="s">
+      <c r="E7" s="600"/>
+      <c r="F7" s="600"/>
+      <c r="G7" s="600"/>
+      <c r="H7" s="601"/>
+      <c r="I7" s="598" t="s">
         <v>15</v>
       </c>
-      <c r="J7" s="566"/>
-      <c r="K7" s="501">
+      <c r="J7" s="602"/>
+      <c r="K7" s="503">
         <f>Данные!$A11</f>
         <v>0</v>
       </c>
-      <c r="L7" s="502"/>
+      <c r="L7" s="504"/>
       <c r="M7" s="75"/>
       <c r="N7" s="76"/>
       <c r="O7" s="76"/>
@@ -12248,12 +12311,12 @@
     </row>
     <row r="23" spans="1:19" ht="15" x14ac:dyDescent="0.2">
       <c r="A23" s="78"/>
-      <c r="B23" s="557" t="s">
+      <c r="B23" s="595" t="s">
         <v>56</v>
       </c>
-      <c r="C23" s="558"/>
-      <c r="D23" s="558"/>
-      <c r="E23" s="559"/>
+      <c r="C23" s="596"/>
+      <c r="D23" s="596"/>
+      <c r="E23" s="597"/>
       <c r="F23" s="114" t="s">
         <v>16</v>
       </c>
@@ -12275,12 +12338,12 @@
     </row>
     <row r="24" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A24" s="78"/>
-      <c r="B24" s="595" t="s">
+      <c r="B24" s="585" t="s">
         <v>45</v>
       </c>
-      <c r="C24" s="596"/>
-      <c r="D24" s="596"/>
-      <c r="E24" s="597"/>
+      <c r="C24" s="586"/>
+      <c r="D24" s="586"/>
+      <c r="E24" s="587"/>
       <c r="F24" s="114" t="s">
         <v>16</v>
       </c>
@@ -12323,28 +12386,35 @@
     </row>
     <row r="26" spans="1:19" ht="13.5" customHeight="1" thickTop="1" x14ac:dyDescent="0.2"/>
     <row r="27" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="K27" s="570" t="s">
+      <c r="K27" s="560" t="s">
         <v>135</v>
       </c>
-      <c r="L27" s="570"/>
-      <c r="M27" s="570"/>
+      <c r="L27" s="560"/>
+      <c r="M27" s="560"/>
       <c r="N27" s="458"/>
       <c r="O27" s="458"/>
       <c r="P27" s="474"/>
       <c r="Q27" s="474"/>
     </row>
     <row r="28" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="N28" s="567" t="s">
+      <c r="N28" s="557" t="s">
         <v>139</v>
       </c>
-      <c r="O28" s="567"/>
-      <c r="P28" s="568" t="s">
+      <c r="O28" s="557"/>
+      <c r="P28" s="558" t="s">
         <v>140</v>
       </c>
-      <c r="Q28" s="569"/>
+      <c r="Q28" s="559"/>
     </row>
   </sheetData>
   <mergeCells count="23">
+    <mergeCell ref="B23:E23"/>
+    <mergeCell ref="I6:J6"/>
+    <mergeCell ref="K6:L6"/>
+    <mergeCell ref="B7:C7"/>
+    <mergeCell ref="D7:H7"/>
+    <mergeCell ref="I7:J7"/>
+    <mergeCell ref="K7:L7"/>
     <mergeCell ref="N28:O28"/>
     <mergeCell ref="P28:Q28"/>
     <mergeCell ref="K27:M27"/>
@@ -12361,13 +12431,6 @@
     <mergeCell ref="K5:L5"/>
     <mergeCell ref="B6:C6"/>
     <mergeCell ref="D6:H6"/>
-    <mergeCell ref="B23:E23"/>
-    <mergeCell ref="I6:J6"/>
-    <mergeCell ref="K6:L6"/>
-    <mergeCell ref="B7:C7"/>
-    <mergeCell ref="D7:H7"/>
-    <mergeCell ref="I7:J7"/>
-    <mergeCell ref="K7:L7"/>
   </mergeCells>
   <conditionalFormatting sqref="H10:R24">
     <cfRule type="cellIs" dxfId="17" priority="1" stopIfTrue="1" operator="equal">
@@ -12433,50 +12496,50 @@
     </row>
     <row r="2" spans="1:19" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="65"/>
-      <c r="B2" s="606">
+      <c r="B2" s="609">
         <f>'Чист. форма'!B2:D4</f>
         <v>0</v>
       </c>
-      <c r="C2" s="607"/>
-      <c r="D2" s="608"/>
-      <c r="E2" s="615" t="s">
+      <c r="C2" s="610"/>
+      <c r="D2" s="611"/>
+      <c r="E2" s="618" t="s">
         <v>10</v>
       </c>
-      <c r="F2" s="616"/>
-      <c r="G2" s="616"/>
-      <c r="H2" s="617"/>
-      <c r="I2" s="621" t="s">
+      <c r="F2" s="619"/>
+      <c r="G2" s="619"/>
+      <c r="H2" s="620"/>
+      <c r="I2" s="624" t="s">
         <v>11</v>
       </c>
-      <c r="J2" s="622"/>
-      <c r="K2" s="625">
+      <c r="J2" s="625"/>
+      <c r="K2" s="628">
         <f>Данные!B15</f>
         <v>24</v>
       </c>
-      <c r="L2" s="626"/>
+      <c r="L2" s="629"/>
       <c r="M2" s="66"/>
       <c r="N2" s="67"/>
       <c r="O2" s="68"/>
-      <c r="P2" s="583"/>
-      <c r="Q2" s="583"/>
+      <c r="P2" s="573"/>
+      <c r="Q2" s="573"/>
       <c r="R2" s="69"/>
       <c r="S2" s="70"/>
     </row>
     <row r="3" spans="1:19" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A3" s="65"/>
-      <c r="B3" s="609"/>
-      <c r="C3" s="610"/>
-      <c r="D3" s="611"/>
-      <c r="E3" s="618" t="s">
+      <c r="B3" s="612"/>
+      <c r="C3" s="613"/>
+      <c r="D3" s="614"/>
+      <c r="E3" s="621" t="s">
         <v>44</v>
       </c>
-      <c r="F3" s="619"/>
-      <c r="G3" s="619"/>
-      <c r="H3" s="620"/>
-      <c r="I3" s="623"/>
-      <c r="J3" s="624"/>
-      <c r="K3" s="627"/>
-      <c r="L3" s="628"/>
+      <c r="F3" s="622"/>
+      <c r="G3" s="622"/>
+      <c r="H3" s="623"/>
+      <c r="I3" s="626"/>
+      <c r="J3" s="627"/>
+      <c r="K3" s="630"/>
+      <c r="L3" s="631"/>
       <c r="M3" s="72"/>
       <c r="N3" s="71"/>
       <c r="O3" s="71"/>
@@ -12487,9 +12550,9 @@
     </row>
     <row r="4" spans="1:19" ht="17.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A4" s="65"/>
-      <c r="B4" s="612"/>
-      <c r="C4" s="613"/>
-      <c r="D4" s="614"/>
+      <c r="B4" s="615"/>
+      <c r="C4" s="616"/>
+      <c r="D4" s="617"/>
       <c r="E4" s="243"/>
       <c r="F4" s="243"/>
       <c r="G4" s="243"/>
@@ -12508,22 +12571,22 @@
     </row>
     <row r="5" spans="1:19" ht="24.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A5" s="65"/>
-      <c r="B5" s="598" t="s">
+      <c r="B5" s="588" t="s">
         <v>13</v>
       </c>
-      <c r="C5" s="629"/>
-      <c r="D5" s="510" t="str">
+      <c r="C5" s="603"/>
+      <c r="D5" s="512" t="str">
         <f>Данные!$A5</f>
         <v>PCI</v>
       </c>
-      <c r="E5" s="511"/>
-      <c r="F5" s="511"/>
-      <c r="G5" s="511"/>
-      <c r="H5" s="512"/>
-      <c r="I5" s="630"/>
-      <c r="J5" s="631"/>
-      <c r="K5" s="632"/>
-      <c r="L5" s="512"/>
+      <c r="E5" s="513"/>
+      <c r="F5" s="513"/>
+      <c r="G5" s="513"/>
+      <c r="H5" s="514"/>
+      <c r="I5" s="604"/>
+      <c r="J5" s="605"/>
+      <c r="K5" s="606"/>
+      <c r="L5" s="514"/>
       <c r="M5" s="74"/>
       <c r="N5" s="71"/>
       <c r="O5" s="71"/>
@@ -12534,22 +12597,22 @@
     </row>
     <row r="6" spans="1:19" ht="17.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A6" s="65"/>
-      <c r="B6" s="598" t="s">
+      <c r="B6" s="588" t="s">
         <v>12</v>
       </c>
-      <c r="C6" s="629"/>
-      <c r="D6" s="504" t="str">
+      <c r="C6" s="603"/>
+      <c r="D6" s="506" t="str">
         <f>Данные!$A2</f>
         <v>III-2-82-450-1 (Банка 0,45 л.)</v>
       </c>
-      <c r="E6" s="601"/>
-      <c r="F6" s="601"/>
-      <c r="G6" s="601"/>
-      <c r="H6" s="602"/>
-      <c r="I6" s="630"/>
-      <c r="J6" s="631"/>
-      <c r="K6" s="632"/>
-      <c r="L6" s="512"/>
+      <c r="E6" s="593"/>
+      <c r="F6" s="593"/>
+      <c r="G6" s="593"/>
+      <c r="H6" s="594"/>
+      <c r="I6" s="604"/>
+      <c r="J6" s="605"/>
+      <c r="K6" s="606"/>
+      <c r="L6" s="514"/>
       <c r="M6" s="72"/>
       <c r="N6" s="71"/>
       <c r="O6" s="71"/>
@@ -12560,27 +12623,27 @@
     </row>
     <row r="7" spans="1:19" ht="69" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A7" s="65"/>
-      <c r="B7" s="562" t="s">
+      <c r="B7" s="598" t="s">
         <v>14</v>
       </c>
-      <c r="C7" s="633"/>
-      <c r="D7" s="513">
+      <c r="C7" s="607"/>
+      <c r="D7" s="515">
         <f>Данные!$A8</f>
         <v>0</v>
       </c>
-      <c r="E7" s="564"/>
-      <c r="F7" s="564"/>
-      <c r="G7" s="564"/>
-      <c r="H7" s="565"/>
-      <c r="I7" s="634" t="s">
+      <c r="E7" s="600"/>
+      <c r="F7" s="600"/>
+      <c r="G7" s="600"/>
+      <c r="H7" s="601"/>
+      <c r="I7" s="608" t="s">
         <v>15</v>
       </c>
-      <c r="J7" s="633"/>
-      <c r="K7" s="501">
+      <c r="J7" s="607"/>
+      <c r="K7" s="503">
         <f>Данные!$A11</f>
         <v>0</v>
       </c>
-      <c r="L7" s="502"/>
+      <c r="L7" s="504"/>
       <c r="M7" s="74"/>
       <c r="N7" s="71"/>
       <c r="O7" s="71"/>
@@ -12771,12 +12834,12 @@
     </row>
     <row r="14" spans="1:19" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="78"/>
-      <c r="B14" s="604" t="s">
+      <c r="B14" s="633" t="s">
         <v>134</v>
       </c>
-      <c r="C14" s="605"/>
-      <c r="D14" s="605"/>
-      <c r="E14" s="605"/>
+      <c r="C14" s="634"/>
+      <c r="D14" s="634"/>
+      <c r="E14" s="634"/>
       <c r="F14" s="114" t="s">
         <v>16</v>
       </c>
@@ -12798,13 +12861,13 @@
     </row>
     <row r="15" spans="1:19" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="78"/>
-      <c r="B15" s="557" t="s">
+      <c r="B15" s="595" t="s">
         <v>141</v>
       </c>
-      <c r="C15" s="558"/>
-      <c r="D15" s="558"/>
-      <c r="E15" s="558"/>
-      <c r="F15" s="603"/>
+      <c r="C15" s="596"/>
+      <c r="D15" s="596"/>
+      <c r="E15" s="596"/>
+      <c r="F15" s="632"/>
       <c r="G15" s="56" t="s">
         <v>76</v>
       </c>
@@ -12823,12 +12886,12 @@
     </row>
     <row r="16" spans="1:19" ht="24.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A16" s="78"/>
-      <c r="B16" s="595" t="s">
+      <c r="B16" s="585" t="s">
         <v>45</v>
       </c>
-      <c r="C16" s="596"/>
-      <c r="D16" s="596"/>
-      <c r="E16" s="597"/>
+      <c r="C16" s="586"/>
+      <c r="D16" s="586"/>
+      <c r="E16" s="587"/>
       <c r="F16" s="114" t="s">
         <v>16</v>
       </c>
@@ -12875,28 +12938,39 @@
     </row>
     <row r="19" spans="1:19" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B19" s="121"/>
-      <c r="L19" s="570" t="s">
+      <c r="L19" s="560" t="s">
         <v>135</v>
       </c>
-      <c r="M19" s="570"/>
-      <c r="N19" s="570"/>
+      <c r="M19" s="560"/>
+      <c r="N19" s="560"/>
       <c r="O19" s="458"/>
       <c r="P19" s="458"/>
       <c r="Q19" s="474"/>
       <c r="R19" s="474"/>
     </row>
     <row r="20" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="O20" s="567" t="s">
+      <c r="O20" s="557" t="s">
         <v>139</v>
       </c>
-      <c r="P20" s="567"/>
-      <c r="Q20" s="568" t="s">
+      <c r="P20" s="557"/>
+      <c r="Q20" s="558" t="s">
         <v>140</v>
       </c>
-      <c r="R20" s="569"/>
+      <c r="R20" s="559"/>
     </row>
   </sheetData>
   <mergeCells count="24">
+    <mergeCell ref="O20:P20"/>
+    <mergeCell ref="Q20:R20"/>
+    <mergeCell ref="L19:N19"/>
+    <mergeCell ref="B15:F15"/>
+    <mergeCell ref="B14:E14"/>
+    <mergeCell ref="B2:D4"/>
+    <mergeCell ref="E2:H2"/>
+    <mergeCell ref="P2:Q2"/>
+    <mergeCell ref="E3:H3"/>
+    <mergeCell ref="I2:J3"/>
+    <mergeCell ref="K2:L3"/>
     <mergeCell ref="B5:C5"/>
     <mergeCell ref="D5:H5"/>
     <mergeCell ref="I5:J5"/>
@@ -12910,17 +12984,6 @@
     <mergeCell ref="B7:C7"/>
     <mergeCell ref="D7:H7"/>
     <mergeCell ref="I7:J7"/>
-    <mergeCell ref="B2:D4"/>
-    <mergeCell ref="E2:H2"/>
-    <mergeCell ref="P2:Q2"/>
-    <mergeCell ref="E3:H3"/>
-    <mergeCell ref="I2:J3"/>
-    <mergeCell ref="K2:L3"/>
-    <mergeCell ref="O20:P20"/>
-    <mergeCell ref="Q20:R20"/>
-    <mergeCell ref="L19:N19"/>
-    <mergeCell ref="B15:F15"/>
-    <mergeCell ref="B14:E14"/>
   </mergeCells>
   <conditionalFormatting sqref="H16:R16">
     <cfRule type="cellIs" dxfId="15" priority="3" stopIfTrue="1" operator="notBetween">
@@ -12994,47 +13057,47 @@
     </row>
     <row r="2" spans="1:24" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="65"/>
-      <c r="B2" s="571"/>
-      <c r="C2" s="572"/>
-      <c r="D2" s="573"/>
-      <c r="E2" s="580" t="s">
+      <c r="B2" s="561"/>
+      <c r="C2" s="562"/>
+      <c r="D2" s="563"/>
+      <c r="E2" s="570" t="s">
         <v>10</v>
       </c>
-      <c r="F2" s="581"/>
-      <c r="G2" s="581"/>
-      <c r="H2" s="582"/>
-      <c r="I2" s="587" t="s">
+      <c r="F2" s="571"/>
+      <c r="G2" s="571"/>
+      <c r="H2" s="572"/>
+      <c r="I2" s="577" t="s">
         <v>11</v>
       </c>
-      <c r="J2" s="588"/>
-      <c r="K2" s="591">
+      <c r="J2" s="578"/>
+      <c r="K2" s="581">
         <f>Данные!B16</f>
         <v>32</v>
       </c>
-      <c r="L2" s="592"/>
+      <c r="L2" s="582"/>
       <c r="M2" s="66"/>
       <c r="N2" s="67"/>
       <c r="O2" s="68"/>
-      <c r="P2" s="583"/>
-      <c r="Q2" s="583"/>
+      <c r="P2" s="573"/>
+      <c r="Q2" s="573"/>
       <c r="R2" s="69"/>
       <c r="S2" s="70"/>
     </row>
     <row r="3" spans="1:24" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A3" s="65"/>
-      <c r="B3" s="574"/>
-      <c r="C3" s="575"/>
-      <c r="D3" s="576"/>
-      <c r="E3" s="584" t="s">
+      <c r="B3" s="564"/>
+      <c r="C3" s="565"/>
+      <c r="D3" s="566"/>
+      <c r="E3" s="574" t="s">
         <v>38</v>
       </c>
-      <c r="F3" s="585"/>
-      <c r="G3" s="585"/>
-      <c r="H3" s="586"/>
-      <c r="I3" s="589"/>
-      <c r="J3" s="590"/>
-      <c r="K3" s="593"/>
-      <c r="L3" s="594"/>
+      <c r="F3" s="575"/>
+      <c r="G3" s="575"/>
+      <c r="H3" s="576"/>
+      <c r="I3" s="579"/>
+      <c r="J3" s="580"/>
+      <c r="K3" s="583"/>
+      <c r="L3" s="584"/>
       <c r="M3" s="72"/>
       <c r="N3" s="71"/>
       <c r="O3" s="71"/>
@@ -13045,9 +13108,9 @@
     </row>
     <row r="4" spans="1:24" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A4" s="65"/>
-      <c r="B4" s="577"/>
-      <c r="C4" s="578"/>
-      <c r="D4" s="579"/>
+      <c r="B4" s="567"/>
+      <c r="C4" s="568"/>
+      <c r="D4" s="569"/>
       <c r="E4" s="16"/>
       <c r="F4" s="16"/>
       <c r="G4" s="16"/>
@@ -13066,22 +13129,22 @@
     </row>
     <row r="5" spans="1:24" ht="26.25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A5" s="65"/>
-      <c r="B5" s="598" t="s">
+      <c r="B5" s="588" t="s">
         <v>13</v>
       </c>
-      <c r="C5" s="599"/>
-      <c r="D5" s="510" t="str">
+      <c r="C5" s="589"/>
+      <c r="D5" s="512" t="str">
         <f>Данные!$A5</f>
         <v>PCI</v>
       </c>
-      <c r="E5" s="511"/>
-      <c r="F5" s="511"/>
-      <c r="G5" s="511"/>
-      <c r="H5" s="512"/>
-      <c r="I5" s="560"/>
-      <c r="J5" s="561"/>
-      <c r="K5" s="511"/>
-      <c r="L5" s="512"/>
+      <c r="E5" s="513"/>
+      <c r="F5" s="513"/>
+      <c r="G5" s="513"/>
+      <c r="H5" s="514"/>
+      <c r="I5" s="590"/>
+      <c r="J5" s="591"/>
+      <c r="K5" s="513"/>
+      <c r="L5" s="514"/>
       <c r="M5" s="74"/>
       <c r="N5" s="71"/>
       <c r="O5" s="71"/>
@@ -13092,22 +13155,22 @@
     </row>
     <row r="6" spans="1:24" ht="26.25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A6" s="65"/>
-      <c r="B6" s="598" t="s">
+      <c r="B6" s="588" t="s">
         <v>12</v>
       </c>
-      <c r="C6" s="600"/>
-      <c r="D6" s="504" t="str">
+      <c r="C6" s="592"/>
+      <c r="D6" s="506" t="str">
         <f>Данные!$A2</f>
         <v>III-2-82-450-1 (Банка 0,45 л.)</v>
       </c>
-      <c r="E6" s="601"/>
-      <c r="F6" s="601"/>
-      <c r="G6" s="601"/>
-      <c r="H6" s="602"/>
-      <c r="I6" s="560"/>
-      <c r="J6" s="561"/>
-      <c r="K6" s="511"/>
-      <c r="L6" s="512"/>
+      <c r="E6" s="593"/>
+      <c r="F6" s="593"/>
+      <c r="G6" s="593"/>
+      <c r="H6" s="594"/>
+      <c r="I6" s="590"/>
+      <c r="J6" s="591"/>
+      <c r="K6" s="513"/>
+      <c r="L6" s="514"/>
       <c r="M6" s="74"/>
       <c r="N6" s="71"/>
       <c r="O6" s="71"/>
@@ -13118,27 +13181,27 @@
     </row>
     <row r="7" spans="1:24" ht="130.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A7" s="65"/>
-      <c r="B7" s="562" t="s">
+      <c r="B7" s="598" t="s">
         <v>14</v>
       </c>
-      <c r="C7" s="563"/>
-      <c r="D7" s="513">
+      <c r="C7" s="599"/>
+      <c r="D7" s="515">
         <f>Данные!$A8</f>
         <v>0</v>
       </c>
-      <c r="E7" s="564"/>
-      <c r="F7" s="564"/>
-      <c r="G7" s="564"/>
-      <c r="H7" s="565"/>
-      <c r="I7" s="562" t="s">
+      <c r="E7" s="600"/>
+      <c r="F7" s="600"/>
+      <c r="G7" s="600"/>
+      <c r="H7" s="601"/>
+      <c r="I7" s="598" t="s">
         <v>15</v>
       </c>
-      <c r="J7" s="566"/>
-      <c r="K7" s="501">
+      <c r="J7" s="602"/>
+      <c r="K7" s="503">
         <f>Данные!$A11</f>
         <v>0</v>
       </c>
-      <c r="L7" s="502"/>
+      <c r="L7" s="504"/>
       <c r="M7" s="75"/>
       <c r="N7" s="76"/>
       <c r="O7" s="76"/>
@@ -13609,24 +13672,17 @@
       <c r="R23" s="474"/>
     </row>
     <row r="24" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="O24" s="567" t="s">
+      <c r="O24" s="557" t="s">
         <v>139</v>
       </c>
-      <c r="P24" s="567"/>
-      <c r="Q24" s="568" t="s">
+      <c r="P24" s="557"/>
+      <c r="Q24" s="558" t="s">
         <v>140</v>
       </c>
-      <c r="R24" s="569"/>
+      <c r="R24" s="559"/>
     </row>
   </sheetData>
   <mergeCells count="21">
-    <mergeCell ref="O24:P24"/>
-    <mergeCell ref="Q24:R24"/>
-    <mergeCell ref="L23:N23"/>
-    <mergeCell ref="B7:C7"/>
-    <mergeCell ref="D7:H7"/>
-    <mergeCell ref="I7:J7"/>
-    <mergeCell ref="K7:L7"/>
     <mergeCell ref="P2:Q2"/>
     <mergeCell ref="B2:D4"/>
     <mergeCell ref="B6:C6"/>
@@ -13641,6 +13697,13 @@
     <mergeCell ref="D5:H5"/>
     <mergeCell ref="I5:J5"/>
     <mergeCell ref="K5:L5"/>
+    <mergeCell ref="O24:P24"/>
+    <mergeCell ref="Q24:R24"/>
+    <mergeCell ref="L23:N23"/>
+    <mergeCell ref="B7:C7"/>
+    <mergeCell ref="D7:H7"/>
+    <mergeCell ref="I7:J7"/>
+    <mergeCell ref="K7:L7"/>
   </mergeCells>
   <conditionalFormatting sqref="H10:R20">
     <cfRule type="cellIs" dxfId="12" priority="1" stopIfTrue="1" operator="equal">
@@ -13708,24 +13771,24 @@
     </row>
     <row r="2" spans="1:19" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="6"/>
-      <c r="B2" s="571"/>
-      <c r="C2" s="572"/>
-      <c r="D2" s="573"/>
-      <c r="E2" s="580" t="s">
+      <c r="B2" s="561"/>
+      <c r="C2" s="562"/>
+      <c r="D2" s="563"/>
+      <c r="E2" s="570" t="s">
         <v>10</v>
       </c>
-      <c r="F2" s="581"/>
-      <c r="G2" s="581"/>
-      <c r="H2" s="582"/>
-      <c r="I2" s="587" t="s">
+      <c r="F2" s="571"/>
+      <c r="G2" s="571"/>
+      <c r="H2" s="572"/>
+      <c r="I2" s="577" t="s">
         <v>11</v>
       </c>
-      <c r="J2" s="588"/>
-      <c r="K2" s="591">
+      <c r="J2" s="578"/>
+      <c r="K2" s="581">
         <f>Данные!B17</f>
         <v>32</v>
       </c>
-      <c r="L2" s="592"/>
+      <c r="L2" s="582"/>
       <c r="M2" s="7"/>
       <c r="N2" s="8"/>
       <c r="O2" s="9"/>
@@ -13736,19 +13799,19 @@
     </row>
     <row r="3" spans="1:19" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A3" s="6"/>
-      <c r="B3" s="574"/>
-      <c r="C3" s="575"/>
-      <c r="D3" s="576"/>
-      <c r="E3" s="584" t="s">
+      <c r="B3" s="564"/>
+      <c r="C3" s="565"/>
+      <c r="D3" s="566"/>
+      <c r="E3" s="574" t="s">
         <v>23</v>
       </c>
-      <c r="F3" s="585"/>
-      <c r="G3" s="585"/>
-      <c r="H3" s="586"/>
-      <c r="I3" s="589"/>
-      <c r="J3" s="590"/>
-      <c r="K3" s="593"/>
-      <c r="L3" s="594"/>
+      <c r="F3" s="575"/>
+      <c r="G3" s="575"/>
+      <c r="H3" s="576"/>
+      <c r="I3" s="579"/>
+      <c r="J3" s="580"/>
+      <c r="K3" s="583"/>
+      <c r="L3" s="584"/>
       <c r="M3" s="13"/>
       <c r="N3" s="14"/>
       <c r="O3" s="14"/>
@@ -13759,9 +13822,9 @@
     </row>
     <row r="4" spans="1:19" ht="17.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A4" s="6"/>
-      <c r="B4" s="577"/>
-      <c r="C4" s="578"/>
-      <c r="D4" s="579"/>
+      <c r="B4" s="567"/>
+      <c r="C4" s="568"/>
+      <c r="D4" s="569"/>
       <c r="E4" s="16"/>
       <c r="F4" s="16"/>
       <c r="G4" s="16"/>
@@ -13780,22 +13843,22 @@
     </row>
     <row r="5" spans="1:19" ht="24.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A5" s="6"/>
-      <c r="B5" s="598" t="s">
+      <c r="B5" s="588" t="s">
         <v>13</v>
       </c>
-      <c r="C5" s="599"/>
-      <c r="D5" s="510" t="str">
+      <c r="C5" s="589"/>
+      <c r="D5" s="512" t="str">
         <f>Данные!$A5</f>
         <v>PCI</v>
       </c>
-      <c r="E5" s="511"/>
-      <c r="F5" s="511"/>
-      <c r="G5" s="511"/>
-      <c r="H5" s="512"/>
-      <c r="I5" s="560"/>
-      <c r="J5" s="561"/>
-      <c r="K5" s="511"/>
-      <c r="L5" s="512"/>
+      <c r="E5" s="513"/>
+      <c r="F5" s="513"/>
+      <c r="G5" s="513"/>
+      <c r="H5" s="514"/>
+      <c r="I5" s="590"/>
+      <c r="J5" s="591"/>
+      <c r="K5" s="513"/>
+      <c r="L5" s="514"/>
       <c r="M5" s="21"/>
       <c r="N5" s="14"/>
       <c r="O5" s="14"/>
@@ -13806,22 +13869,22 @@
     </row>
     <row r="6" spans="1:19" ht="24.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A6" s="6"/>
-      <c r="B6" s="598" t="s">
+      <c r="B6" s="588" t="s">
         <v>12</v>
       </c>
-      <c r="C6" s="600"/>
-      <c r="D6" s="504" t="str">
+      <c r="C6" s="592"/>
+      <c r="D6" s="506" t="str">
         <f>Данные!$A2</f>
         <v>III-2-82-450-1 (Банка 0,45 л.)</v>
       </c>
-      <c r="E6" s="601"/>
-      <c r="F6" s="601"/>
-      <c r="G6" s="601"/>
-      <c r="H6" s="602"/>
-      <c r="I6" s="560"/>
-      <c r="J6" s="561"/>
-      <c r="K6" s="511"/>
-      <c r="L6" s="512"/>
+      <c r="E6" s="593"/>
+      <c r="F6" s="593"/>
+      <c r="G6" s="593"/>
+      <c r="H6" s="594"/>
+      <c r="I6" s="590"/>
+      <c r="J6" s="591"/>
+      <c r="K6" s="513"/>
+      <c r="L6" s="514"/>
       <c r="M6" s="21"/>
       <c r="N6" s="14"/>
       <c r="O6" s="14"/>
@@ -13832,27 +13895,27 @@
     </row>
     <row r="7" spans="1:19" ht="57" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A7" s="6"/>
-      <c r="B7" s="562" t="s">
+      <c r="B7" s="598" t="s">
         <v>14</v>
       </c>
-      <c r="C7" s="563"/>
-      <c r="D7" s="513">
+      <c r="C7" s="599"/>
+      <c r="D7" s="515">
         <f>Данные!$A8</f>
         <v>0</v>
       </c>
-      <c r="E7" s="564"/>
-      <c r="F7" s="564"/>
-      <c r="G7" s="564"/>
-      <c r="H7" s="565"/>
-      <c r="I7" s="562" t="s">
+      <c r="E7" s="600"/>
+      <c r="F7" s="600"/>
+      <c r="G7" s="600"/>
+      <c r="H7" s="601"/>
+      <c r="I7" s="598" t="s">
         <v>15</v>
       </c>
-      <c r="J7" s="566"/>
-      <c r="K7" s="501">
+      <c r="J7" s="602"/>
+      <c r="K7" s="503">
         <f>Данные!$A11</f>
         <v>0</v>
       </c>
-      <c r="L7" s="502"/>
+      <c r="L7" s="504"/>
       <c r="M7" s="22"/>
       <c r="N7" s="12"/>
       <c r="O7" s="12"/>
@@ -14143,23 +14206,17 @@
       <c r="R18" s="474"/>
     </row>
     <row r="19" spans="12:18" x14ac:dyDescent="0.2">
-      <c r="O19" s="567" t="s">
+      <c r="O19" s="557" t="s">
         <v>139</v>
       </c>
-      <c r="P19" s="567"/>
-      <c r="Q19" s="568" t="s">
+      <c r="P19" s="557"/>
+      <c r="Q19" s="558" t="s">
         <v>140</v>
       </c>
-      <c r="R19" s="569"/>
+      <c r="R19" s="559"/>
     </row>
   </sheetData>
   <mergeCells count="21">
-    <mergeCell ref="O19:P19"/>
-    <mergeCell ref="Q19:R19"/>
-    <mergeCell ref="P2:Q2"/>
-    <mergeCell ref="K6:L6"/>
-    <mergeCell ref="K5:L5"/>
-    <mergeCell ref="L18:N18"/>
     <mergeCell ref="I7:J7"/>
     <mergeCell ref="K7:L7"/>
     <mergeCell ref="B7:C7"/>
@@ -14175,6 +14232,12 @@
     <mergeCell ref="I6:J6"/>
     <mergeCell ref="E3:H3"/>
     <mergeCell ref="E2:H2"/>
+    <mergeCell ref="O19:P19"/>
+    <mergeCell ref="Q19:R19"/>
+    <mergeCell ref="P2:Q2"/>
+    <mergeCell ref="K6:L6"/>
+    <mergeCell ref="K5:L5"/>
+    <mergeCell ref="L18:N18"/>
   </mergeCells>
   <phoneticPr fontId="15" type="noConversion"/>
   <conditionalFormatting sqref="H10:R15">
@@ -14246,24 +14309,24 @@
     </row>
     <row r="2" spans="1:19" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="65"/>
-      <c r="B2" s="606"/>
-      <c r="C2" s="607"/>
-      <c r="D2" s="608"/>
-      <c r="E2" s="615" t="s">
+      <c r="B2" s="609"/>
+      <c r="C2" s="610"/>
+      <c r="D2" s="611"/>
+      <c r="E2" s="618" t="s">
         <v>10</v>
       </c>
-      <c r="F2" s="616"/>
-      <c r="G2" s="616"/>
-      <c r="H2" s="617"/>
-      <c r="I2" s="621" t="s">
+      <c r="F2" s="619"/>
+      <c r="G2" s="619"/>
+      <c r="H2" s="620"/>
+      <c r="I2" s="624" t="s">
         <v>11</v>
       </c>
-      <c r="J2" s="622"/>
-      <c r="K2" s="625">
+      <c r="J2" s="625"/>
+      <c r="K2" s="628">
         <f>Данные!B18</f>
         <v>80</v>
       </c>
-      <c r="L2" s="626"/>
+      <c r="L2" s="629"/>
       <c r="M2" s="637"/>
       <c r="N2" s="638"/>
       <c r="O2" s="638"/>
@@ -14274,19 +14337,19 @@
     </row>
     <row r="3" spans="1:19" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A3" s="65"/>
-      <c r="B3" s="609"/>
-      <c r="C3" s="610"/>
-      <c r="D3" s="611"/>
-      <c r="E3" s="618" t="s">
+      <c r="B3" s="612"/>
+      <c r="C3" s="613"/>
+      <c r="D3" s="614"/>
+      <c r="E3" s="621" t="s">
         <v>47</v>
       </c>
-      <c r="F3" s="619"/>
-      <c r="G3" s="619"/>
-      <c r="H3" s="620"/>
-      <c r="I3" s="623"/>
-      <c r="J3" s="624"/>
-      <c r="K3" s="627"/>
-      <c r="L3" s="628"/>
+      <c r="F3" s="622"/>
+      <c r="G3" s="622"/>
+      <c r="H3" s="623"/>
+      <c r="I3" s="626"/>
+      <c r="J3" s="627"/>
+      <c r="K3" s="630"/>
+      <c r="L3" s="631"/>
       <c r="M3" s="640"/>
       <c r="N3" s="641"/>
       <c r="O3" s="641"/>
@@ -14297,9 +14360,9 @@
     </row>
     <row r="4" spans="1:19" ht="17.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A4" s="65"/>
-      <c r="B4" s="612"/>
-      <c r="C4" s="613"/>
-      <c r="D4" s="614"/>
+      <c r="B4" s="615"/>
+      <c r="C4" s="616"/>
+      <c r="D4" s="617"/>
       <c r="E4" s="243"/>
       <c r="F4" s="243"/>
       <c r="G4" s="243"/>
@@ -14318,22 +14381,22 @@
     </row>
     <row r="5" spans="1:19" ht="24.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A5" s="65"/>
-      <c r="B5" s="598" t="s">
+      <c r="B5" s="588" t="s">
         <v>13</v>
       </c>
-      <c r="C5" s="629"/>
-      <c r="D5" s="510" t="str">
+      <c r="C5" s="603"/>
+      <c r="D5" s="512" t="str">
         <f>Данные!$A5</f>
         <v>PCI</v>
       </c>
-      <c r="E5" s="511"/>
-      <c r="F5" s="511"/>
-      <c r="G5" s="511"/>
-      <c r="H5" s="512"/>
-      <c r="I5" s="630"/>
-      <c r="J5" s="631"/>
-      <c r="K5" s="632"/>
-      <c r="L5" s="512"/>
+      <c r="E5" s="513"/>
+      <c r="F5" s="513"/>
+      <c r="G5" s="513"/>
+      <c r="H5" s="514"/>
+      <c r="I5" s="604"/>
+      <c r="J5" s="605"/>
+      <c r="K5" s="606"/>
+      <c r="L5" s="514"/>
       <c r="M5" s="640"/>
       <c r="N5" s="641"/>
       <c r="O5" s="641"/>
@@ -14344,22 +14407,22 @@
     </row>
     <row r="6" spans="1:19" ht="17.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A6" s="65"/>
-      <c r="B6" s="598" t="s">
+      <c r="B6" s="588" t="s">
         <v>12</v>
       </c>
-      <c r="C6" s="629"/>
-      <c r="D6" s="504" t="str">
+      <c r="C6" s="603"/>
+      <c r="D6" s="506" t="str">
         <f>Данные!$A2</f>
         <v>III-2-82-450-1 (Банка 0,45 л.)</v>
       </c>
-      <c r="E6" s="601"/>
-      <c r="F6" s="601"/>
-      <c r="G6" s="601"/>
-      <c r="H6" s="602"/>
-      <c r="I6" s="630"/>
-      <c r="J6" s="631"/>
-      <c r="K6" s="632"/>
-      <c r="L6" s="512"/>
+      <c r="E6" s="593"/>
+      <c r="F6" s="593"/>
+      <c r="G6" s="593"/>
+      <c r="H6" s="594"/>
+      <c r="I6" s="604"/>
+      <c r="J6" s="605"/>
+      <c r="K6" s="606"/>
+      <c r="L6" s="514"/>
       <c r="M6" s="640"/>
       <c r="N6" s="641"/>
       <c r="O6" s="641"/>
@@ -14370,27 +14433,27 @@
     </row>
     <row r="7" spans="1:19" ht="90.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A7" s="65"/>
-      <c r="B7" s="562" t="s">
+      <c r="B7" s="598" t="s">
         <v>14</v>
       </c>
-      <c r="C7" s="633"/>
-      <c r="D7" s="513">
+      <c r="C7" s="607"/>
+      <c r="D7" s="515">
         <f>Данные!$A8</f>
         <v>0</v>
       </c>
-      <c r="E7" s="564"/>
-      <c r="F7" s="564"/>
-      <c r="G7" s="564"/>
-      <c r="H7" s="565"/>
-      <c r="I7" s="634" t="s">
+      <c r="E7" s="600"/>
+      <c r="F7" s="600"/>
+      <c r="G7" s="600"/>
+      <c r="H7" s="601"/>
+      <c r="I7" s="608" t="s">
         <v>15</v>
       </c>
-      <c r="J7" s="633"/>
-      <c r="K7" s="501">
+      <c r="J7" s="607"/>
+      <c r="K7" s="503">
         <f>Данные!$A11</f>
         <v>0</v>
       </c>
-      <c r="L7" s="502"/>
+      <c r="L7" s="504"/>
       <c r="M7" s="640"/>
       <c r="N7" s="641"/>
       <c r="O7" s="641"/>
@@ -14788,12 +14851,12 @@
     </row>
     <row r="21" spans="1:19" ht="34.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A21" s="78"/>
-      <c r="B21" s="595" t="s">
+      <c r="B21" s="585" t="s">
         <v>48</v>
       </c>
-      <c r="C21" s="596"/>
-      <c r="D21" s="596"/>
-      <c r="E21" s="597"/>
+      <c r="C21" s="586"/>
+      <c r="D21" s="586"/>
+      <c r="E21" s="587"/>
       <c r="F21" s="114" t="s">
         <v>16</v>
       </c>
@@ -14849,17 +14912,23 @@
       <c r="R24" s="474"/>
     </row>
     <row r="25" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="O25" s="567" t="s">
+      <c r="O25" s="557" t="s">
         <v>139</v>
       </c>
-      <c r="P25" s="567"/>
-      <c r="Q25" s="568" t="s">
+      <c r="P25" s="557"/>
+      <c r="Q25" s="558" t="s">
         <v>140</v>
       </c>
-      <c r="R25" s="569"/>
+      <c r="R25" s="559"/>
     </row>
   </sheetData>
   <mergeCells count="22">
+    <mergeCell ref="I6:J6"/>
+    <mergeCell ref="B7:C7"/>
+    <mergeCell ref="D7:H7"/>
+    <mergeCell ref="I7:J7"/>
+    <mergeCell ref="L24:N24"/>
+    <mergeCell ref="B21:E21"/>
     <mergeCell ref="O25:P25"/>
     <mergeCell ref="Q25:R25"/>
     <mergeCell ref="B2:D4"/>
@@ -14876,12 +14945,6 @@
     <mergeCell ref="K6:L6"/>
     <mergeCell ref="B6:C6"/>
     <mergeCell ref="D6:H6"/>
-    <mergeCell ref="I6:J6"/>
-    <mergeCell ref="B7:C7"/>
-    <mergeCell ref="D7:H7"/>
-    <mergeCell ref="I7:J7"/>
-    <mergeCell ref="L24:N24"/>
-    <mergeCell ref="B21:E21"/>
   </mergeCells>
   <conditionalFormatting sqref="H10:R21">
     <cfRule type="cellIs" dxfId="8" priority="4" stopIfTrue="1" operator="equal">
@@ -14946,24 +15009,24 @@
     </row>
     <row r="2" spans="1:19" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="65"/>
-      <c r="B2" s="606"/>
-      <c r="C2" s="607"/>
-      <c r="D2" s="608"/>
-      <c r="E2" s="615" t="s">
+      <c r="B2" s="609"/>
+      <c r="C2" s="610"/>
+      <c r="D2" s="611"/>
+      <c r="E2" s="618" t="s">
         <v>10</v>
       </c>
-      <c r="F2" s="616"/>
-      <c r="G2" s="616"/>
-      <c r="H2" s="617"/>
-      <c r="I2" s="621" t="s">
+      <c r="F2" s="619"/>
+      <c r="G2" s="619"/>
+      <c r="H2" s="620"/>
+      <c r="I2" s="624" t="s">
         <v>11</v>
       </c>
-      <c r="J2" s="622"/>
-      <c r="K2" s="625">
+      <c r="J2" s="625"/>
+      <c r="K2" s="628">
         <f>Данные!B19</f>
         <v>150</v>
       </c>
-      <c r="L2" s="626"/>
+      <c r="L2" s="629"/>
       <c r="M2" s="66"/>
       <c r="N2" s="67"/>
       <c r="O2" s="68"/>
@@ -14974,19 +15037,19 @@
     </row>
     <row r="3" spans="1:19" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A3" s="65"/>
-      <c r="B3" s="609"/>
-      <c r="C3" s="610"/>
-      <c r="D3" s="611"/>
-      <c r="E3" s="618" t="s">
+      <c r="B3" s="612"/>
+      <c r="C3" s="613"/>
+      <c r="D3" s="614"/>
+      <c r="E3" s="621" t="s">
         <v>89</v>
       </c>
-      <c r="F3" s="619"/>
-      <c r="G3" s="619"/>
-      <c r="H3" s="620"/>
-      <c r="I3" s="623"/>
-      <c r="J3" s="624"/>
-      <c r="K3" s="627"/>
-      <c r="L3" s="628"/>
+      <c r="F3" s="622"/>
+      <c r="G3" s="622"/>
+      <c r="H3" s="623"/>
+      <c r="I3" s="626"/>
+      <c r="J3" s="627"/>
+      <c r="K3" s="630"/>
+      <c r="L3" s="631"/>
       <c r="M3" s="72"/>
       <c r="N3" s="71"/>
       <c r="O3" s="71"/>
@@ -14997,9 +15060,9 @@
     </row>
     <row r="4" spans="1:19" ht="17.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A4" s="65"/>
-      <c r="B4" s="612"/>
-      <c r="C4" s="613"/>
-      <c r="D4" s="614"/>
+      <c r="B4" s="615"/>
+      <c r="C4" s="616"/>
+      <c r="D4" s="617"/>
       <c r="E4" s="243"/>
       <c r="F4" s="243"/>
       <c r="G4" s="243"/>
@@ -15018,22 +15081,22 @@
     </row>
     <row r="5" spans="1:19" ht="24.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A5" s="65"/>
-      <c r="B5" s="598" t="s">
+      <c r="B5" s="588" t="s">
         <v>13</v>
       </c>
-      <c r="C5" s="629"/>
-      <c r="D5" s="510" t="str">
+      <c r="C5" s="603"/>
+      <c r="D5" s="512" t="str">
         <f>Данные!$A5</f>
         <v>PCI</v>
       </c>
-      <c r="E5" s="511"/>
-      <c r="F5" s="511"/>
-      <c r="G5" s="511"/>
-      <c r="H5" s="512"/>
-      <c r="I5" s="630"/>
-      <c r="J5" s="631"/>
-      <c r="K5" s="632"/>
-      <c r="L5" s="512"/>
+      <c r="E5" s="513"/>
+      <c r="F5" s="513"/>
+      <c r="G5" s="513"/>
+      <c r="H5" s="514"/>
+      <c r="I5" s="604"/>
+      <c r="J5" s="605"/>
+      <c r="K5" s="606"/>
+      <c r="L5" s="514"/>
       <c r="M5" s="74"/>
       <c r="N5" s="71"/>
       <c r="O5" s="71"/>
@@ -15044,22 +15107,22 @@
     </row>
     <row r="6" spans="1:19" ht="17.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A6" s="65"/>
-      <c r="B6" s="598" t="s">
+      <c r="B6" s="588" t="s">
         <v>12</v>
       </c>
-      <c r="C6" s="629"/>
-      <c r="D6" s="504" t="str">
+      <c r="C6" s="603"/>
+      <c r="D6" s="506" t="str">
         <f>Данные!$A2</f>
         <v>III-2-82-450-1 (Банка 0,45 л.)</v>
       </c>
-      <c r="E6" s="601"/>
-      <c r="F6" s="601"/>
-      <c r="G6" s="601"/>
-      <c r="H6" s="602"/>
-      <c r="I6" s="630"/>
-      <c r="J6" s="631"/>
-      <c r="K6" s="632"/>
-      <c r="L6" s="512"/>
+      <c r="E6" s="593"/>
+      <c r="F6" s="593"/>
+      <c r="G6" s="593"/>
+      <c r="H6" s="594"/>
+      <c r="I6" s="604"/>
+      <c r="J6" s="605"/>
+      <c r="K6" s="606"/>
+      <c r="L6" s="514"/>
       <c r="M6" s="72"/>
       <c r="N6" s="71"/>
       <c r="O6" s="71"/>
@@ -15070,27 +15133,27 @@
     </row>
     <row r="7" spans="1:19" ht="71.25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A7" s="65"/>
-      <c r="B7" s="562" t="s">
+      <c r="B7" s="598" t="s">
         <v>14</v>
       </c>
-      <c r="C7" s="633"/>
-      <c r="D7" s="513">
+      <c r="C7" s="607"/>
+      <c r="D7" s="515">
         <f>Данные!$A8</f>
         <v>0</v>
       </c>
-      <c r="E7" s="564"/>
-      <c r="F7" s="564"/>
-      <c r="G7" s="564"/>
-      <c r="H7" s="565"/>
-      <c r="I7" s="634" t="s">
+      <c r="E7" s="600"/>
+      <c r="F7" s="600"/>
+      <c r="G7" s="600"/>
+      <c r="H7" s="601"/>
+      <c r="I7" s="608" t="s">
         <v>15</v>
       </c>
-      <c r="J7" s="633"/>
-      <c r="K7" s="501">
+      <c r="J7" s="607"/>
+      <c r="K7" s="503">
         <f>Данные!$A11</f>
         <v>0</v>
       </c>
-      <c r="L7" s="502"/>
+      <c r="L7" s="504"/>
       <c r="M7" s="74"/>
       <c r="N7" s="71"/>
       <c r="O7" s="71"/>
@@ -15341,12 +15404,12 @@
     </row>
     <row r="16" spans="1:19" ht="23.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A16" s="78"/>
-      <c r="B16" s="595" t="s">
+      <c r="B16" s="585" t="s">
         <v>50</v>
       </c>
-      <c r="C16" s="596"/>
-      <c r="D16" s="596"/>
-      <c r="E16" s="597"/>
+      <c r="C16" s="586"/>
+      <c r="D16" s="586"/>
+      <c r="E16" s="587"/>
       <c r="F16" s="252" t="s">
         <v>16</v>
       </c>
@@ -15402,17 +15465,27 @@
       <c r="R19" s="474"/>
     </row>
     <row r="20" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="O20" s="567" t="s">
+      <c r="O20" s="557" t="s">
         <v>139</v>
       </c>
-      <c r="P20" s="567"/>
-      <c r="Q20" s="568" t="s">
+      <c r="P20" s="557"/>
+      <c r="Q20" s="558" t="s">
         <v>140</v>
       </c>
-      <c r="R20" s="569"/>
+      <c r="R20" s="559"/>
     </row>
   </sheetData>
   <mergeCells count="22">
+    <mergeCell ref="D5:H5"/>
+    <mergeCell ref="I5:J5"/>
+    <mergeCell ref="K5:L5"/>
+    <mergeCell ref="P2:Q2"/>
+    <mergeCell ref="E2:H2"/>
+    <mergeCell ref="E3:H3"/>
+    <mergeCell ref="I2:J3"/>
+    <mergeCell ref="K2:L3"/>
+    <mergeCell ref="B2:D4"/>
+    <mergeCell ref="B5:C5"/>
     <mergeCell ref="Q20:R20"/>
     <mergeCell ref="B6:C6"/>
     <mergeCell ref="D6:H6"/>
@@ -15425,16 +15498,6 @@
     <mergeCell ref="I7:J7"/>
     <mergeCell ref="L19:N19"/>
     <mergeCell ref="B16:E16"/>
-    <mergeCell ref="D5:H5"/>
-    <mergeCell ref="I5:J5"/>
-    <mergeCell ref="K5:L5"/>
-    <mergeCell ref="P2:Q2"/>
-    <mergeCell ref="E2:H2"/>
-    <mergeCell ref="E3:H3"/>
-    <mergeCell ref="I2:J3"/>
-    <mergeCell ref="K2:L3"/>
-    <mergeCell ref="B2:D4"/>
-    <mergeCell ref="B5:C5"/>
   </mergeCells>
   <conditionalFormatting sqref="H10:R15">
     <cfRule type="cellIs" dxfId="6" priority="1" stopIfTrue="1" operator="equal">
